--- a/test_case/Authentication/Registation/Tc_Reg_Functional(nadira).xlsx
+++ b/test_case/Authentication/Registation/Tc_Reg_Functional(nadira).xlsx
@@ -195,59 +195,59 @@
     <t>Error message should disappear and registration should proceed</t>
   </si>
   <si>
-    <t>TC_FUNC_102</t>
+    <t>Serial</t>
   </si>
   <si>
-    <t>TC_FUNC_103</t>
+    <t>TC_FUNC_074</t>
   </si>
   <si>
-    <t>TC_FUNC_104</t>
+    <t>TC_FUNC_075</t>
   </si>
   <si>
-    <t>TC_FUNC_105</t>
+    <t>TC_FUNC_076</t>
   </si>
   <si>
-    <t>TC_FUNC_106</t>
+    <t>TC_FUNC_077</t>
   </si>
   <si>
-    <t>TC_FUNC_107</t>
+    <t>TC_FUNC_078</t>
   </si>
   <si>
-    <t>TC_FUNC_108</t>
+    <t>TC_FUNC_079</t>
   </si>
   <si>
-    <t>TC_FUNC_109</t>
+    <t>TC_FUNC_080</t>
   </si>
   <si>
-    <t>TC_FUNC_110</t>
+    <t>TC_FUNC_081</t>
   </si>
   <si>
-    <t>TC_FUNC_111</t>
+    <t>TC_FUNC_082</t>
   </si>
   <si>
-    <t>TC_FUNC_112</t>
+    <t>TC_FUNC_083</t>
   </si>
   <si>
-    <t>TC_FUNC_113</t>
+    <t>TC_FUNC_084</t>
   </si>
   <si>
-    <t>TC_FUNC_114</t>
+    <t>TC_FUNC_085</t>
   </si>
   <si>
-    <t>TC_FUNC_115</t>
+    <t>TC_FUNC_086</t>
   </si>
   <si>
-    <t>TC_FUNC_116</t>
+    <t>TC_FUNC_087</t>
   </si>
   <si>
-    <t>Serial</t>
+    <t>TC_FUNC_088</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,26 +259,38 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -397,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,7 +430,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,40 +460,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -606,6 +604,23 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1122,13 +1137,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_134" displayName="Table_134" ref="A3:H18" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" name="Test Case ID" dataDxfId="7"/>
-    <tableColumn id="8" name="Serial" dataDxfId="0"/>
-    <tableColumn id="2" name="Prerequisites" dataDxfId="6"/>
-    <tableColumn id="3" name="Title/Description" dataDxfId="5"/>
-    <tableColumn id="4" name="Steps" dataDxfId="4"/>
-    <tableColumn id="5" name="Expected result:" dataDxfId="3"/>
-    <tableColumn id="6" name="Pass / Fail" dataDxfId="2"/>
-    <tableColumn id="7" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" name="Serial" dataDxfId="6"/>
+    <tableColumn id="2" name="Prerequisites" dataDxfId="5"/>
+    <tableColumn id="3" name="Title/Description" dataDxfId="4"/>
+    <tableColumn id="4" name="Steps" dataDxfId="3"/>
+    <tableColumn id="5" name="Expected result:" dataDxfId="2"/>
+    <tableColumn id="6" name="Pass / Fail" dataDxfId="1"/>
+    <tableColumn id="7" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1338,14 +1353,14 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B1:B1048576"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
@@ -1356,16 +1371,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1387,14 +1402,14 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1420,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -1461,11 +1476,11 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>54</v>
+      <c r="A4" s="18" t="s">
+        <v>55</v>
       </c>
-      <c r="B4" s="15">
-        <v>1003</v>
+      <c r="B4" s="8">
+        <v>174</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -1502,11 +1517,11 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>55</v>
+      <c r="A5" s="18" t="s">
+        <v>56</v>
       </c>
-      <c r="B5" s="15">
-        <v>1004</v>
+      <c r="B5" s="8">
+        <v>175</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1543,11 +1558,11 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>56</v>
+      <c r="A6" s="18" t="s">
+        <v>57</v>
       </c>
-      <c r="B6" s="15">
-        <v>1005</v>
+      <c r="B6" s="8">
+        <v>176</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -1584,11 +1599,11 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>57</v>
+      <c r="A7" s="18" t="s">
+        <v>58</v>
       </c>
-      <c r="B7" s="15">
-        <v>1006</v>
+      <c r="B7" s="8">
+        <v>177</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -1625,11 +1640,11 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>58</v>
+      <c r="A8" s="18" t="s">
+        <v>59</v>
       </c>
-      <c r="B8" s="15">
-        <v>1007</v>
+      <c r="B8" s="8">
+        <v>178</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -1666,11 +1681,11 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>59</v>
+      <c r="A9" s="18" t="s">
+        <v>60</v>
       </c>
-      <c r="B9" s="15">
-        <v>1008</v>
+      <c r="B9" s="8">
+        <v>179</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -1707,11 +1722,11 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>60</v>
+      <c r="A10" s="18" t="s">
+        <v>61</v>
       </c>
-      <c r="B10" s="15">
-        <v>1009</v>
+      <c r="B10" s="8">
+        <v>180</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -1748,11 +1763,11 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>61</v>
+      <c r="A11" s="18" t="s">
+        <v>62</v>
       </c>
-      <c r="B11" s="15">
-        <v>1010</v>
+      <c r="B11" s="8">
+        <v>181</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
@@ -1789,11 +1804,11 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
+      <c r="A12" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="B12" s="15">
-        <v>1011</v>
+      <c r="B12" s="8">
+        <v>182</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -1830,11 +1845,11 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>63</v>
+      <c r="A13" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="B13" s="15">
-        <v>1012</v>
+      <c r="B13" s="8">
+        <v>183</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -1870,12 +1885,12 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>64</v>
+    <row r="14" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>65</v>
       </c>
-      <c r="B14" s="15">
-        <v>1013</v>
+      <c r="B14" s="8">
+        <v>184</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -1911,12 +1926,12 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>65</v>
+    <row r="15" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>66</v>
       </c>
-      <c r="B15" s="15">
-        <v>1014</v>
+      <c r="B15" s="8">
+        <v>185</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -1952,12 +1967,12 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>66</v>
+    <row r="16" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>67</v>
       </c>
-      <c r="B16" s="15">
-        <v>1015</v>
+      <c r="B16" s="8">
+        <v>186</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -1993,12 +2008,12 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>67</v>
+    <row r="17" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="B17" s="15">
-        <v>1016</v>
+      <c r="B17" s="8">
+        <v>187</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>8</v>
@@ -2034,12 +2049,12 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>68</v>
+    <row r="18" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>69</v>
       </c>
-      <c r="B18" s="15">
-        <v>1017</v>
+      <c r="B18" s="8">
+        <v>188</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>8</v>
@@ -2077,7 +2092,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2106,7 +2121,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2135,7 +2150,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2193,7 +2208,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2222,7 +2237,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2251,7 +2266,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2280,7 +2295,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2309,7 +2324,7 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2338,7 +2353,7 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2367,7 +2382,7 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2396,7 +2411,7 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2425,7 +2440,7 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2454,7 +2469,7 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2483,7 +2498,7 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2512,7 +2527,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2541,7 +2556,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2570,7 +2585,7 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2599,7 +2614,7 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2628,7 +2643,7 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2657,7 +2672,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2686,7 +2701,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2715,7 +2730,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2744,7 +2759,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2773,7 +2788,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2802,7 +2817,7 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2831,7 +2846,7 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="16"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2860,7 +2875,7 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2889,7 +2904,7 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2918,7 +2933,7 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2947,7 +2962,7 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2976,7 +2991,7 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3005,7 +3020,7 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3034,7 +3049,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3063,7 +3078,7 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3092,7 +3107,7 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3121,7 +3136,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3150,7 +3165,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3179,7 +3194,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3208,7 +3223,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3237,7 +3252,7 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3266,7 +3281,7 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3295,7 +3310,7 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3324,7 +3339,7 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3353,7 +3368,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3382,7 +3397,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3411,7 +3426,7 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3440,7 +3455,7 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3469,7 +3484,7 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3498,7 +3513,7 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3527,7 +3542,7 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3556,7 +3571,7 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3585,7 +3600,7 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3614,7 +3629,7 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="16"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3643,7 +3658,7 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3672,7 +3687,7 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3701,7 +3716,7 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3730,7 +3745,7 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3759,7 +3774,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3788,7 +3803,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="16"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3817,7 +3832,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3846,7 +3861,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3875,7 +3890,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3904,7 +3919,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3933,7 +3948,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3962,7 +3977,7 @@
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3991,7 +4006,7 @@
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -4020,7 +4035,7 @@
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -4049,7 +4064,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4078,7 +4093,7 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4107,7 +4122,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4136,7 +4151,7 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4165,7 +4180,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4194,7 +4209,7 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4223,7 +4238,7 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4252,7 +4267,7 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -4281,7 +4296,7 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4310,7 +4325,7 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -4339,7 +4354,7 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4368,7 +4383,7 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="16"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -4397,7 +4412,7 @@
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="16"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4426,7 +4441,7 @@
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="16"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4455,7 +4470,7 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4484,7 +4499,7 @@
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4513,7 +4528,7 @@
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4542,7 +4557,7 @@
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="16"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4571,7 +4586,7 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4600,7 +4615,7 @@
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4629,7 +4644,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -4658,7 +4673,7 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -4687,7 +4702,7 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4716,7 +4731,7 @@
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4745,7 +4760,7 @@
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
-      <c r="B111" s="16"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4774,7 +4789,7 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
-      <c r="B112" s="16"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4803,7 +4818,7 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-      <c r="B113" s="16"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4832,7 +4847,7 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
-      <c r="B114" s="16"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4861,7 +4876,7 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
-      <c r="B115" s="16"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4890,7 +4905,7 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" s="16"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4919,7 +4934,7 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
-      <c r="B117" s="16"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4948,7 +4963,7 @@
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="16"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4977,7 +4992,7 @@
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
-      <c r="B119" s="16"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -5006,7 +5021,7 @@
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
-      <c r="B120" s="16"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -5035,7 +5050,7 @@
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
-      <c r="B121" s="16"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -5064,7 +5079,7 @@
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="16"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -5093,7 +5108,7 @@
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
-      <c r="B123" s="16"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -5122,7 +5137,7 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
-      <c r="B124" s="16"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -5151,7 +5166,7 @@
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
-      <c r="B125" s="16"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -5180,7 +5195,7 @@
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
-      <c r="B126" s="16"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -5209,7 +5224,7 @@
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
-      <c r="B127" s="16"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -5238,7 +5253,7 @@
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -5267,7 +5282,7 @@
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
-      <c r="B129" s="16"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -5296,7 +5311,7 @@
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
-      <c r="B130" s="16"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -5325,7 +5340,7 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-      <c r="B131" s="16"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -5354,7 +5369,7 @@
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -5383,7 +5398,7 @@
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
-      <c r="B133" s="16"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -5412,7 +5427,7 @@
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -5441,7 +5456,7 @@
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -5470,7 +5485,7 @@
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -5499,7 +5514,7 @@
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -5528,7 +5543,7 @@
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-      <c r="B138" s="16"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -5557,7 +5572,7 @@
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -5586,7 +5601,7 @@
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -5615,7 +5630,7 @@
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
-      <c r="B141" s="16"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -5644,7 +5659,7 @@
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
-      <c r="B142" s="16"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -5673,7 +5688,7 @@
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
-      <c r="B143" s="16"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -5702,7 +5717,7 @@
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
-      <c r="B144" s="16"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -5731,7 +5746,7 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
-      <c r="B145" s="16"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -5760,7 +5775,7 @@
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
-      <c r="B146" s="16"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -5789,7 +5804,7 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -5818,7 +5833,7 @@
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -5847,7 +5862,7 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -5876,7 +5891,7 @@
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
-      <c r="B150" s="16"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -5905,7 +5920,7 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
-      <c r="B151" s="16"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -5934,7 +5949,7 @@
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
-      <c r="B152" s="16"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -5963,7 +5978,7 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
-      <c r="B153" s="16"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -5992,7 +6007,7 @@
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -6021,7 +6036,7 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -6050,7 +6065,7 @@
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6079,7 +6094,7 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6108,7 +6123,7 @@
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -6137,7 +6152,7 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -6166,7 +6181,7 @@
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -6195,7 +6210,7 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6224,7 +6239,7 @@
     </row>
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6253,7 +6268,7 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6282,7 +6297,7 @@
     </row>
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
-      <c r="B164" s="16"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -6311,7 +6326,7 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
-      <c r="B165" s="16"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6340,7 +6355,7 @@
     </row>
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
-      <c r="B166" s="16"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6369,7 +6384,7 @@
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6398,7 +6413,7 @@
     </row>
     <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
-      <c r="B168" s="16"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6427,7 +6442,7 @@
     </row>
     <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
-      <c r="B169" s="16"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6456,7 +6471,7 @@
     </row>
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
-      <c r="B170" s="16"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6485,7 +6500,7 @@
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
-      <c r="B171" s="16"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6514,7 +6529,7 @@
     </row>
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
-      <c r="B172" s="16"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6543,7 +6558,7 @@
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
-      <c r="B173" s="16"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -6572,7 +6587,7 @@
     </row>
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
-      <c r="B174" s="16"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -6601,7 +6616,7 @@
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
-      <c r="B175" s="16"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -6630,7 +6645,7 @@
     </row>
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
-      <c r="B176" s="16"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -6659,7 +6674,7 @@
     </row>
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
-      <c r="B177" s="16"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -6688,7 +6703,7 @@
     </row>
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
-      <c r="B178" s="16"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -6717,7 +6732,7 @@
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
-      <c r="B179" s="16"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -6746,7 +6761,7 @@
     </row>
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
-      <c r="B180" s="16"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -6775,7 +6790,7 @@
     </row>
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
-      <c r="B181" s="16"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -6804,7 +6819,7 @@
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
-      <c r="B182" s="16"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -6833,7 +6848,7 @@
     </row>
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
-      <c r="B183" s="16"/>
+      <c r="B183" s="9"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -6862,7 +6877,7 @@
     </row>
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -6891,7 +6906,7 @@
     </row>
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -6920,7 +6935,7 @@
     </row>
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
-      <c r="B186" s="16"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -6949,7 +6964,7 @@
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
-      <c r="B187" s="16"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -6978,7 +6993,7 @@
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
-      <c r="B188" s="16"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -7007,7 +7022,7 @@
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
-      <c r="B189" s="16"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -7036,7 +7051,7 @@
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
-      <c r="B190" s="16"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -7065,7 +7080,7 @@
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
-      <c r="B191" s="16"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -7094,7 +7109,7 @@
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
-      <c r="B192" s="16"/>
+      <c r="B192" s="9"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -7123,7 +7138,7 @@
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
-      <c r="B193" s="16"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -7152,7 +7167,7 @@
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
-      <c r="B194" s="16"/>
+      <c r="B194" s="9"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -7181,7 +7196,7 @@
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
-      <c r="B195" s="16"/>
+      <c r="B195" s="9"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -7210,7 +7225,7 @@
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
-      <c r="B196" s="16"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -7239,7 +7254,7 @@
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
-      <c r="B197" s="16"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -7268,7 +7283,7 @@
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
-      <c r="B198" s="16"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -7297,7 +7312,7 @@
     </row>
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
-      <c r="B199" s="16"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -7326,7 +7341,7 @@
     </row>
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
-      <c r="B200" s="16"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -7355,7 +7370,7 @@
     </row>
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
-      <c r="B201" s="16"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -7384,7 +7399,7 @@
     </row>
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
-      <c r="B202" s="16"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -7413,7 +7428,7 @@
     </row>
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
-      <c r="B203" s="16"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -7442,7 +7457,7 @@
     </row>
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
-      <c r="B204" s="16"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -7471,7 +7486,7 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
-      <c r="B205" s="16"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -7500,7 +7515,7 @@
     </row>
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
-      <c r="B206" s="16"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -7529,7 +7544,7 @@
     </row>
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
-      <c r="B207" s="16"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -7558,7 +7573,7 @@
     </row>
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
-      <c r="B208" s="16"/>
+      <c r="B208" s="9"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -7587,7 +7602,7 @@
     </row>
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
-      <c r="B209" s="16"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -7616,7 +7631,7 @@
     </row>
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
-      <c r="B210" s="16"/>
+      <c r="B210" s="9"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -7645,7 +7660,7 @@
     </row>
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
-      <c r="B211" s="16"/>
+      <c r="B211" s="9"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -7674,7 +7689,7 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
-      <c r="B212" s="16"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -7703,7 +7718,7 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
-      <c r="B213" s="16"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -7732,7 +7747,7 @@
     </row>
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
-      <c r="B214" s="16"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -7761,7 +7776,7 @@
     </row>
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
-      <c r="B215" s="16"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -7790,7 +7805,7 @@
     </row>
     <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
-      <c r="B216" s="16"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -7819,7 +7834,7 @@
     </row>
     <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -7848,7 +7863,7 @@
     </row>
     <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="9"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -7877,7 +7892,7 @@
     </row>
     <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="9"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -7906,7 +7921,7 @@
     </row>
     <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -7935,7 +7950,7 @@
     </row>
     <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -7964,7 +7979,7 @@
     </row>
     <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="9"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -7993,7 +8008,7 @@
     </row>
     <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="9"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -8022,7 +8037,7 @@
     </row>
     <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="9"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -8051,7 +8066,7 @@
     </row>
     <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="9"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -8080,7 +8095,7 @@
     </row>
     <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="9"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -8109,7 +8124,7 @@
     </row>
     <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="9"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -8138,7 +8153,7 @@
     </row>
     <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="9"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -8167,7 +8182,7 @@
     </row>
     <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="9"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -8196,7 +8211,7 @@
     </row>
     <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="9"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -8225,7 +8240,7 @@
     </row>
     <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="9"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -8254,7 +8269,7 @@
     </row>
     <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="9"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -8283,7 +8298,7 @@
     </row>
     <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="9"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -8312,7 +8327,7 @@
     </row>
     <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="9"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -8341,7 +8356,7 @@
     </row>
     <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="9"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -8370,7 +8385,7 @@
     </row>
     <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -8399,7 +8414,7 @@
     </row>
     <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -8428,7 +8443,7 @@
     </row>
     <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="9"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -8457,7 +8472,7 @@
     </row>
     <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -8486,7 +8501,7 @@
     </row>
     <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="9"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -8515,7 +8530,7 @@
     </row>
     <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="9"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -8544,7 +8559,7 @@
     </row>
     <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -8573,7 +8588,7 @@
     </row>
     <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -8602,7 +8617,7 @@
     </row>
     <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="9"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -8631,7 +8646,7 @@
     </row>
     <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="9"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -8660,7 +8675,7 @@
     </row>
     <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="9"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -8689,7 +8704,7 @@
     </row>
     <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="9"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -8718,7 +8733,7 @@
     </row>
     <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="9"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -8747,7 +8762,7 @@
     </row>
     <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="9"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -8776,7 +8791,7 @@
     </row>
     <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="9"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -8805,7 +8820,7 @@
     </row>
     <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="9"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -8834,7 +8849,7 @@
     </row>
     <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="9"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -8863,7 +8878,7 @@
     </row>
     <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="9"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -8892,7 +8907,7 @@
     </row>
     <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="9"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -8921,7 +8936,7 @@
     </row>
     <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="9"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -8950,7 +8965,7 @@
     </row>
     <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="9"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -8979,7 +8994,7 @@
     </row>
     <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="9"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -9008,7 +9023,7 @@
     </row>
     <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="9"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -9037,7 +9052,7 @@
     </row>
     <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="9"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -9066,7 +9081,7 @@
     </row>
     <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
-      <c r="B260" s="16"/>
+      <c r="B260" s="9"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -9095,7 +9110,7 @@
     </row>
     <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
-      <c r="B261" s="16"/>
+      <c r="B261" s="9"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -9124,7 +9139,7 @@
     </row>
     <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
-      <c r="B262" s="16"/>
+      <c r="B262" s="9"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -9153,7 +9168,7 @@
     </row>
     <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
-      <c r="B263" s="16"/>
+      <c r="B263" s="9"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -9182,7 +9197,7 @@
     </row>
     <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
-      <c r="B264" s="16"/>
+      <c r="B264" s="9"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -9211,7 +9226,7 @@
     </row>
     <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
-      <c r="B265" s="16"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -9240,7 +9255,7 @@
     </row>
     <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
-      <c r="B266" s="16"/>
+      <c r="B266" s="9"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -9269,7 +9284,7 @@
     </row>
     <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
-      <c r="B267" s="16"/>
+      <c r="B267" s="9"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -9298,7 +9313,7 @@
     </row>
     <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
-      <c r="B268" s="16"/>
+      <c r="B268" s="9"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -9327,7 +9342,7 @@
     </row>
     <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
-      <c r="B269" s="16"/>
+      <c r="B269" s="9"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -9356,7 +9371,7 @@
     </row>
     <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
-      <c r="B270" s="16"/>
+      <c r="B270" s="9"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -9385,7 +9400,7 @@
     </row>
     <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
-      <c r="B271" s="16"/>
+      <c r="B271" s="9"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -9414,7 +9429,7 @@
     </row>
     <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
-      <c r="B272" s="16"/>
+      <c r="B272" s="9"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -9443,7 +9458,7 @@
     </row>
     <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
-      <c r="B273" s="16"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -9472,7 +9487,7 @@
     </row>
     <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
-      <c r="B274" s="16"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -9501,7 +9516,7 @@
     </row>
     <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="9"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -9530,7 +9545,7 @@
     </row>
     <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
-      <c r="B276" s="16"/>
+      <c r="B276" s="9"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -9559,7 +9574,7 @@
     </row>
     <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
-      <c r="B277" s="16"/>
+      <c r="B277" s="9"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -9588,7 +9603,7 @@
     </row>
     <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
-      <c r="B278" s="16"/>
+      <c r="B278" s="9"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -9617,7 +9632,7 @@
     </row>
     <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
-      <c r="B279" s="16"/>
+      <c r="B279" s="9"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -9646,7 +9661,7 @@
     </row>
     <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
-      <c r="B280" s="16"/>
+      <c r="B280" s="9"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -9675,7 +9690,7 @@
     </row>
     <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
-      <c r="B281" s="16"/>
+      <c r="B281" s="9"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -9704,7 +9719,7 @@
     </row>
     <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
-      <c r="B282" s="16"/>
+      <c r="B282" s="9"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -9733,7 +9748,7 @@
     </row>
     <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
-      <c r="B283" s="16"/>
+      <c r="B283" s="9"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -9762,7 +9777,7 @@
     </row>
     <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
-      <c r="B284" s="16"/>
+      <c r="B284" s="9"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -9791,7 +9806,7 @@
     </row>
     <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
-      <c r="B285" s="16"/>
+      <c r="B285" s="9"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -9820,7 +9835,7 @@
     </row>
     <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
-      <c r="B286" s="16"/>
+      <c r="B286" s="9"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -9849,7 +9864,7 @@
     </row>
     <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
-      <c r="B287" s="16"/>
+      <c r="B287" s="9"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -9878,7 +9893,7 @@
     </row>
     <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
-      <c r="B288" s="16"/>
+      <c r="B288" s="9"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -9907,7 +9922,7 @@
     </row>
     <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
-      <c r="B289" s="16"/>
+      <c r="B289" s="9"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -9936,7 +9951,7 @@
     </row>
     <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
-      <c r="B290" s="16"/>
+      <c r="B290" s="9"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -9965,7 +9980,7 @@
     </row>
     <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
-      <c r="B291" s="16"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -9994,7 +10009,7 @@
     </row>
     <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
-      <c r="B292" s="16"/>
+      <c r="B292" s="9"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -10023,7 +10038,7 @@
     </row>
     <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
-      <c r="B293" s="16"/>
+      <c r="B293" s="9"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -10052,7 +10067,7 @@
     </row>
     <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
-      <c r="B294" s="16"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10081,7 +10096,7 @@
     </row>
     <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
-      <c r="B295" s="16"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -10110,7 +10125,7 @@
     </row>
     <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
-      <c r="B296" s="16"/>
+      <c r="B296" s="9"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -10139,7 +10154,7 @@
     </row>
     <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
-      <c r="B297" s="16"/>
+      <c r="B297" s="9"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -10168,7 +10183,7 @@
     </row>
     <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
-      <c r="B298" s="16"/>
+      <c r="B298" s="9"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -10197,7 +10212,7 @@
     </row>
     <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
-      <c r="B299" s="16"/>
+      <c r="B299" s="9"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -10226,7 +10241,7 @@
     </row>
     <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
-      <c r="B300" s="16"/>
+      <c r="B300" s="9"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -10255,7 +10270,7 @@
     </row>
     <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
-      <c r="B301" s="16"/>
+      <c r="B301" s="9"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -10284,7 +10299,7 @@
     </row>
     <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
-      <c r="B302" s="16"/>
+      <c r="B302" s="9"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -10313,7 +10328,7 @@
     </row>
     <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
-      <c r="B303" s="16"/>
+      <c r="B303" s="9"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -10342,7 +10357,7 @@
     </row>
     <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
-      <c r="B304" s="16"/>
+      <c r="B304" s="9"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -10371,7 +10386,7 @@
     </row>
     <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
-      <c r="B305" s="16"/>
+      <c r="B305" s="9"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -10400,7 +10415,7 @@
     </row>
     <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
-      <c r="B306" s="16"/>
+      <c r="B306" s="9"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -10429,7 +10444,7 @@
     </row>
     <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
-      <c r="B307" s="16"/>
+      <c r="B307" s="9"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -10458,7 +10473,7 @@
     </row>
     <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
-      <c r="B308" s="16"/>
+      <c r="B308" s="9"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -10487,7 +10502,7 @@
     </row>
     <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
-      <c r="B309" s="16"/>
+      <c r="B309" s="9"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -10516,7 +10531,7 @@
     </row>
     <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
-      <c r="B310" s="16"/>
+      <c r="B310" s="9"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -10545,7 +10560,7 @@
     </row>
     <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
-      <c r="B311" s="16"/>
+      <c r="B311" s="9"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -10574,7 +10589,7 @@
     </row>
     <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
-      <c r="B312" s="16"/>
+      <c r="B312" s="9"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -10603,7 +10618,7 @@
     </row>
     <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
-      <c r="B313" s="16"/>
+      <c r="B313" s="9"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -10632,7 +10647,7 @@
     </row>
     <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
-      <c r="B314" s="16"/>
+      <c r="B314" s="9"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -10661,7 +10676,7 @@
     </row>
     <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
-      <c r="B315" s="16"/>
+      <c r="B315" s="9"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -10690,7 +10705,7 @@
     </row>
     <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
-      <c r="B316" s="16"/>
+      <c r="B316" s="9"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -10719,7 +10734,7 @@
     </row>
     <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
-      <c r="B317" s="16"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -10748,7 +10763,7 @@
     </row>
     <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
-      <c r="B318" s="16"/>
+      <c r="B318" s="9"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -10777,7 +10792,7 @@
     </row>
     <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
-      <c r="B319" s="16"/>
+      <c r="B319" s="9"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -10806,7 +10821,7 @@
     </row>
     <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
-      <c r="B320" s="16"/>
+      <c r="B320" s="9"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -10835,7 +10850,7 @@
     </row>
     <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
-      <c r="B321" s="16"/>
+      <c r="B321" s="9"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -10864,7 +10879,7 @@
     </row>
     <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
-      <c r="B322" s="16"/>
+      <c r="B322" s="9"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -10893,7 +10908,7 @@
     </row>
     <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
-      <c r="B323" s="16"/>
+      <c r="B323" s="9"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -10922,7 +10937,7 @@
     </row>
     <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
-      <c r="B324" s="16"/>
+      <c r="B324" s="9"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -10951,7 +10966,7 @@
     </row>
     <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
-      <c r="B325" s="16"/>
+      <c r="B325" s="9"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -10980,7 +10995,7 @@
     </row>
     <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
-      <c r="B326" s="16"/>
+      <c r="B326" s="9"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -11009,7 +11024,7 @@
     </row>
     <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
-      <c r="B327" s="16"/>
+      <c r="B327" s="9"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -11038,7 +11053,7 @@
     </row>
     <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
-      <c r="B328" s="16"/>
+      <c r="B328" s="9"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -11067,7 +11082,7 @@
     </row>
     <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
-      <c r="B329" s="16"/>
+      <c r="B329" s="9"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -11096,7 +11111,7 @@
     </row>
     <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
-      <c r="B330" s="16"/>
+      <c r="B330" s="9"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -11125,7 +11140,7 @@
     </row>
     <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
-      <c r="B331" s="16"/>
+      <c r="B331" s="9"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -11154,7 +11169,7 @@
     </row>
     <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
-      <c r="B332" s="16"/>
+      <c r="B332" s="9"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -11183,7 +11198,7 @@
     </row>
     <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
-      <c r="B333" s="16"/>
+      <c r="B333" s="9"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -11212,7 +11227,7 @@
     </row>
     <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
-      <c r="B334" s="16"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -11241,7 +11256,7 @@
     </row>
     <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
-      <c r="B335" s="16"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -11270,7 +11285,7 @@
     </row>
     <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
-      <c r="B336" s="16"/>
+      <c r="B336" s="9"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -11299,7 +11314,7 @@
     </row>
     <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
-      <c r="B337" s="16"/>
+      <c r="B337" s="9"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -11328,7 +11343,7 @@
     </row>
     <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
-      <c r="B338" s="16"/>
+      <c r="B338" s="9"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -11357,7 +11372,7 @@
     </row>
     <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
-      <c r="B339" s="16"/>
+      <c r="B339" s="9"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -11386,7 +11401,7 @@
     </row>
     <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
-      <c r="B340" s="16"/>
+      <c r="B340" s="9"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -11415,7 +11430,7 @@
     </row>
     <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
-      <c r="B341" s="16"/>
+      <c r="B341" s="9"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -11444,7 +11459,7 @@
     </row>
     <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="B342" s="16"/>
+      <c r="B342" s="9"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -11473,7 +11488,7 @@
     </row>
     <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
-      <c r="B343" s="16"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -11502,7 +11517,7 @@
     </row>
     <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
-      <c r="B344" s="16"/>
+      <c r="B344" s="9"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -11531,7 +11546,7 @@
     </row>
     <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
-      <c r="B345" s="16"/>
+      <c r="B345" s="9"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -11560,7 +11575,7 @@
     </row>
     <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
-      <c r="B346" s="16"/>
+      <c r="B346" s="9"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -11589,7 +11604,7 @@
     </row>
     <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
-      <c r="B347" s="16"/>
+      <c r="B347" s="9"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -11618,7 +11633,7 @@
     </row>
     <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
-      <c r="B348" s="16"/>
+      <c r="B348" s="9"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -11647,7 +11662,7 @@
     </row>
     <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
-      <c r="B349" s="16"/>
+      <c r="B349" s="9"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -11676,7 +11691,7 @@
     </row>
     <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
-      <c r="B350" s="16"/>
+      <c r="B350" s="9"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -11705,7 +11720,7 @@
     </row>
     <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
-      <c r="B351" s="16"/>
+      <c r="B351" s="9"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -11734,7 +11749,7 @@
     </row>
     <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
-      <c r="B352" s="16"/>
+      <c r="B352" s="9"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -11763,7 +11778,7 @@
     </row>
     <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
-      <c r="B353" s="16"/>
+      <c r="B353" s="9"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -11792,7 +11807,7 @@
     </row>
     <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
-      <c r="B354" s="16"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -11821,7 +11836,7 @@
     </row>
     <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
-      <c r="B355" s="16"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -11850,7 +11865,7 @@
     </row>
     <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
-      <c r="B356" s="16"/>
+      <c r="B356" s="9"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -11879,7 +11894,7 @@
     </row>
     <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
-      <c r="B357" s="16"/>
+      <c r="B357" s="9"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -11908,7 +11923,7 @@
     </row>
     <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
-      <c r="B358" s="16"/>
+      <c r="B358" s="9"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -11937,7 +11952,7 @@
     </row>
     <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
-      <c r="B359" s="16"/>
+      <c r="B359" s="9"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -11966,7 +11981,7 @@
     </row>
     <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
-      <c r="B360" s="16"/>
+      <c r="B360" s="9"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -11995,7 +12010,7 @@
     </row>
     <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
-      <c r="B361" s="16"/>
+      <c r="B361" s="9"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -12024,7 +12039,7 @@
     </row>
     <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
-      <c r="B362" s="16"/>
+      <c r="B362" s="9"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -12053,7 +12068,7 @@
     </row>
     <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
-      <c r="B363" s="16"/>
+      <c r="B363" s="9"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -12082,7 +12097,7 @@
     </row>
     <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
-      <c r="B364" s="16"/>
+      <c r="B364" s="9"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -12111,7 +12126,7 @@
     </row>
     <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
-      <c r="B365" s="16"/>
+      <c r="B365" s="9"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -12140,7 +12155,7 @@
     </row>
     <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
-      <c r="B366" s="16"/>
+      <c r="B366" s="9"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -12169,7 +12184,7 @@
     </row>
     <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
-      <c r="B367" s="16"/>
+      <c r="B367" s="9"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -12198,7 +12213,7 @@
     </row>
     <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
-      <c r="B368" s="16"/>
+      <c r="B368" s="9"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -12227,7 +12242,7 @@
     </row>
     <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
-      <c r="B369" s="16"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -12256,7 +12271,7 @@
     </row>
     <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
-      <c r="B370" s="16"/>
+      <c r="B370" s="9"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -12285,7 +12300,7 @@
     </row>
     <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
-      <c r="B371" s="16"/>
+      <c r="B371" s="9"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -12314,7 +12329,7 @@
     </row>
     <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
-      <c r="B372" s="16"/>
+      <c r="B372" s="9"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -12343,7 +12358,7 @@
     </row>
     <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
-      <c r="B373" s="16"/>
+      <c r="B373" s="9"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -12372,7 +12387,7 @@
     </row>
     <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
-      <c r="B374" s="16"/>
+      <c r="B374" s="9"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -12401,7 +12416,7 @@
     </row>
     <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
-      <c r="B375" s="16"/>
+      <c r="B375" s="9"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -12430,7 +12445,7 @@
     </row>
     <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
-      <c r="B376" s="16"/>
+      <c r="B376" s="9"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -12459,7 +12474,7 @@
     </row>
     <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
-      <c r="B377" s="16"/>
+      <c r="B377" s="9"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -12488,7 +12503,7 @@
     </row>
     <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
-      <c r="B378" s="16"/>
+      <c r="B378" s="9"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -12517,7 +12532,7 @@
     </row>
     <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
-      <c r="B379" s="16"/>
+      <c r="B379" s="9"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -12546,7 +12561,7 @@
     </row>
     <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
-      <c r="B380" s="16"/>
+      <c r="B380" s="9"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -12575,7 +12590,7 @@
     </row>
     <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
-      <c r="B381" s="16"/>
+      <c r="B381" s="9"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -12604,7 +12619,7 @@
     </row>
     <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
-      <c r="B382" s="16"/>
+      <c r="B382" s="9"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -12633,7 +12648,7 @@
     </row>
     <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
-      <c r="B383" s="16"/>
+      <c r="B383" s="9"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -12662,7 +12677,7 @@
     </row>
     <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
-      <c r="B384" s="16"/>
+      <c r="B384" s="9"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -12691,7 +12706,7 @@
     </row>
     <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
-      <c r="B385" s="16"/>
+      <c r="B385" s="9"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -12720,7 +12735,7 @@
     </row>
     <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
-      <c r="B386" s="16"/>
+      <c r="B386" s="9"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -12749,7 +12764,7 @@
     </row>
     <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
-      <c r="B387" s="16"/>
+      <c r="B387" s="9"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -12778,7 +12793,7 @@
     </row>
     <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
-      <c r="B388" s="16"/>
+      <c r="B388" s="9"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -12807,7 +12822,7 @@
     </row>
     <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
-      <c r="B389" s="16"/>
+      <c r="B389" s="9"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -12836,7 +12851,7 @@
     </row>
     <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
-      <c r="B390" s="16"/>
+      <c r="B390" s="9"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -12865,7 +12880,7 @@
     </row>
     <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
-      <c r="B391" s="16"/>
+      <c r="B391" s="9"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -12894,7 +12909,7 @@
     </row>
     <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
-      <c r="B392" s="16"/>
+      <c r="B392" s="9"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -12923,7 +12938,7 @@
     </row>
     <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
-      <c r="B393" s="16"/>
+      <c r="B393" s="9"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -12952,7 +12967,7 @@
     </row>
     <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
-      <c r="B394" s="16"/>
+      <c r="B394" s="9"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -12981,7 +12996,7 @@
     </row>
     <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
-      <c r="B395" s="16"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -13010,7 +13025,7 @@
     </row>
     <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
-      <c r="B396" s="16"/>
+      <c r="B396" s="9"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -13039,7 +13054,7 @@
     </row>
     <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
-      <c r="B397" s="16"/>
+      <c r="B397" s="9"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -13068,7 +13083,7 @@
     </row>
     <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
-      <c r="B398" s="16"/>
+      <c r="B398" s="9"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -13097,7 +13112,7 @@
     </row>
     <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
-      <c r="B399" s="16"/>
+      <c r="B399" s="9"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -13126,7 +13141,7 @@
     </row>
     <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
-      <c r="B400" s="16"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -13155,7 +13170,7 @@
     </row>
     <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
-      <c r="B401" s="16"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -13184,7 +13199,7 @@
     </row>
     <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
-      <c r="B402" s="16"/>
+      <c r="B402" s="9"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -13213,7 +13228,7 @@
     </row>
     <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
-      <c r="B403" s="16"/>
+      <c r="B403" s="9"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -13242,7 +13257,7 @@
     </row>
     <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
-      <c r="B404" s="16"/>
+      <c r="B404" s="9"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -13271,7 +13286,7 @@
     </row>
     <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
-      <c r="B405" s="16"/>
+      <c r="B405" s="9"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -13300,7 +13315,7 @@
     </row>
     <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
-      <c r="B406" s="16"/>
+      <c r="B406" s="9"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -13329,7 +13344,7 @@
     </row>
     <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
-      <c r="B407" s="16"/>
+      <c r="B407" s="9"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -13358,7 +13373,7 @@
     </row>
     <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
-      <c r="B408" s="16"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -13387,7 +13402,7 @@
     </row>
     <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
-      <c r="B409" s="16"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -13416,7 +13431,7 @@
     </row>
     <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
-      <c r="B410" s="16"/>
+      <c r="B410" s="9"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -13445,7 +13460,7 @@
     </row>
     <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
-      <c r="B411" s="16"/>
+      <c r="B411" s="9"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -13474,7 +13489,7 @@
     </row>
     <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
-      <c r="B412" s="16"/>
+      <c r="B412" s="9"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -13503,7 +13518,7 @@
     </row>
     <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
-      <c r="B413" s="16"/>
+      <c r="B413" s="9"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -13532,7 +13547,7 @@
     </row>
     <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
-      <c r="B414" s="16"/>
+      <c r="B414" s="9"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -13561,7 +13576,7 @@
     </row>
     <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
-      <c r="B415" s="16"/>
+      <c r="B415" s="9"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -13590,7 +13605,7 @@
     </row>
     <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
-      <c r="B416" s="16"/>
+      <c r="B416" s="9"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -13619,7 +13634,7 @@
     </row>
     <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
-      <c r="B417" s="16"/>
+      <c r="B417" s="9"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -13648,7 +13663,7 @@
     </row>
     <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
-      <c r="B418" s="16"/>
+      <c r="B418" s="9"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -13677,7 +13692,7 @@
     </row>
     <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
-      <c r="B419" s="16"/>
+      <c r="B419" s="9"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -13706,7 +13721,7 @@
     </row>
     <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
-      <c r="B420" s="16"/>
+      <c r="B420" s="9"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -13735,7 +13750,7 @@
     </row>
     <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
-      <c r="B421" s="16"/>
+      <c r="B421" s="9"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -13764,7 +13779,7 @@
     </row>
     <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
-      <c r="B422" s="16"/>
+      <c r="B422" s="9"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -13793,7 +13808,7 @@
     </row>
     <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
-      <c r="B423" s="16"/>
+      <c r="B423" s="9"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -13822,7 +13837,7 @@
     </row>
     <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
-      <c r="B424" s="16"/>
+      <c r="B424" s="9"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -13851,7 +13866,7 @@
     </row>
     <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
-      <c r="B425" s="16"/>
+      <c r="B425" s="9"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -13880,7 +13895,7 @@
     </row>
     <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
-      <c r="B426" s="16"/>
+      <c r="B426" s="9"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -13909,7 +13924,7 @@
     </row>
     <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
-      <c r="B427" s="16"/>
+      <c r="B427" s="9"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -13938,7 +13953,7 @@
     </row>
     <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
-      <c r="B428" s="16"/>
+      <c r="B428" s="9"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -13967,7 +13982,7 @@
     </row>
     <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
-      <c r="B429" s="16"/>
+      <c r="B429" s="9"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -13996,7 +14011,7 @@
     </row>
     <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
-      <c r="B430" s="16"/>
+      <c r="B430" s="9"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -14025,7 +14040,7 @@
     </row>
     <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
-      <c r="B431" s="16"/>
+      <c r="B431" s="9"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -14054,7 +14069,7 @@
     </row>
     <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
-      <c r="B432" s="16"/>
+      <c r="B432" s="9"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -14083,7 +14098,7 @@
     </row>
     <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
-      <c r="B433" s="16"/>
+      <c r="B433" s="9"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -14112,7 +14127,7 @@
     </row>
     <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
-      <c r="B434" s="16"/>
+      <c r="B434" s="9"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -14141,7 +14156,7 @@
     </row>
     <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
-      <c r="B435" s="16"/>
+      <c r="B435" s="9"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -14170,7 +14185,7 @@
     </row>
     <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
-      <c r="B436" s="16"/>
+      <c r="B436" s="9"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -14199,7 +14214,7 @@
     </row>
     <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
-      <c r="B437" s="16"/>
+      <c r="B437" s="9"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -14228,7 +14243,7 @@
     </row>
     <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
-      <c r="B438" s="16"/>
+      <c r="B438" s="9"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -14257,7 +14272,7 @@
     </row>
     <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
-      <c r="B439" s="16"/>
+      <c r="B439" s="9"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -14286,7 +14301,7 @@
     </row>
     <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
-      <c r="B440" s="16"/>
+      <c r="B440" s="9"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -14315,7 +14330,7 @@
     </row>
     <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
-      <c r="B441" s="16"/>
+      <c r="B441" s="9"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -14344,7 +14359,7 @@
     </row>
     <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
-      <c r="B442" s="16"/>
+      <c r="B442" s="9"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -14373,7 +14388,7 @@
     </row>
     <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
-      <c r="B443" s="16"/>
+      <c r="B443" s="9"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -14402,7 +14417,7 @@
     </row>
     <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
-      <c r="B444" s="16"/>
+      <c r="B444" s="9"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -14431,7 +14446,7 @@
     </row>
     <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
-      <c r="B445" s="16"/>
+      <c r="B445" s="9"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -14460,7 +14475,7 @@
     </row>
     <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
-      <c r="B446" s="16"/>
+      <c r="B446" s="9"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -14489,7 +14504,7 @@
     </row>
     <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
-      <c r="B447" s="16"/>
+      <c r="B447" s="9"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -14518,7 +14533,7 @@
     </row>
     <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
-      <c r="B448" s="16"/>
+      <c r="B448" s="9"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -14547,7 +14562,7 @@
     </row>
     <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
-      <c r="B449" s="16"/>
+      <c r="B449" s="9"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -14576,7 +14591,7 @@
     </row>
     <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
-      <c r="B450" s="16"/>
+      <c r="B450" s="9"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -14605,7 +14620,7 @@
     </row>
     <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
-      <c r="B451" s="16"/>
+      <c r="B451" s="9"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -14634,7 +14649,7 @@
     </row>
     <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
-      <c r="B452" s="16"/>
+      <c r="B452" s="9"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -14663,7 +14678,7 @@
     </row>
     <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
-      <c r="B453" s="16"/>
+      <c r="B453" s="9"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -14692,7 +14707,7 @@
     </row>
     <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
-      <c r="B454" s="16"/>
+      <c r="B454" s="9"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -14721,7 +14736,7 @@
     </row>
     <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
-      <c r="B455" s="16"/>
+      <c r="B455" s="9"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -14750,7 +14765,7 @@
     </row>
     <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
-      <c r="B456" s="16"/>
+      <c r="B456" s="9"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -14779,7 +14794,7 @@
     </row>
     <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
-      <c r="B457" s="16"/>
+      <c r="B457" s="9"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -14808,7 +14823,7 @@
     </row>
     <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
-      <c r="B458" s="16"/>
+      <c r="B458" s="9"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -14837,7 +14852,7 @@
     </row>
     <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
-      <c r="B459" s="16"/>
+      <c r="B459" s="9"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -14866,7 +14881,7 @@
     </row>
     <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
-      <c r="B460" s="16"/>
+      <c r="B460" s="9"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -14895,7 +14910,7 @@
     </row>
     <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
-      <c r="B461" s="16"/>
+      <c r="B461" s="9"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -14924,7 +14939,7 @@
     </row>
     <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
-      <c r="B462" s="16"/>
+      <c r="B462" s="9"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -14953,7 +14968,7 @@
     </row>
     <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
-      <c r="B463" s="16"/>
+      <c r="B463" s="9"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -14982,7 +14997,7 @@
     </row>
     <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
-      <c r="B464" s="16"/>
+      <c r="B464" s="9"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -15011,7 +15026,7 @@
     </row>
     <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
-      <c r="B465" s="16"/>
+      <c r="B465" s="9"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -15040,7 +15055,7 @@
     </row>
     <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
-      <c r="B466" s="16"/>
+      <c r="B466" s="9"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -15069,7 +15084,7 @@
     </row>
     <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
-      <c r="B467" s="16"/>
+      <c r="B467" s="9"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -15098,7 +15113,7 @@
     </row>
     <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
-      <c r="B468" s="16"/>
+      <c r="B468" s="9"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -15127,7 +15142,7 @@
     </row>
     <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
-      <c r="B469" s="16"/>
+      <c r="B469" s="9"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -15156,7 +15171,7 @@
     </row>
     <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
-      <c r="B470" s="16"/>
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -15185,7 +15200,7 @@
     </row>
     <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
-      <c r="B471" s="16"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -15214,7 +15229,7 @@
     </row>
     <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
-      <c r="B472" s="16"/>
+      <c r="B472" s="9"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -15243,7 +15258,7 @@
     </row>
     <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
-      <c r="B473" s="16"/>
+      <c r="B473" s="9"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -15272,7 +15287,7 @@
     </row>
     <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
-      <c r="B474" s="16"/>
+      <c r="B474" s="9"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -15301,7 +15316,7 @@
     </row>
     <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
-      <c r="B475" s="16"/>
+      <c r="B475" s="9"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -15330,7 +15345,7 @@
     </row>
     <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
-      <c r="B476" s="16"/>
+      <c r="B476" s="9"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -15359,7 +15374,7 @@
     </row>
     <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
-      <c r="B477" s="16"/>
+      <c r="B477" s="9"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -15388,7 +15403,7 @@
     </row>
     <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
-      <c r="B478" s="16"/>
+      <c r="B478" s="9"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -15417,7 +15432,7 @@
     </row>
     <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
-      <c r="B479" s="16"/>
+      <c r="B479" s="9"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -15446,7 +15461,7 @@
     </row>
     <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
-      <c r="B480" s="16"/>
+      <c r="B480" s="9"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -15475,7 +15490,7 @@
     </row>
     <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
-      <c r="B481" s="16"/>
+      <c r="B481" s="9"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -15504,7 +15519,7 @@
     </row>
     <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
-      <c r="B482" s="16"/>
+      <c r="B482" s="9"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -15533,7 +15548,7 @@
     </row>
     <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
-      <c r="B483" s="16"/>
+      <c r="B483" s="9"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -15562,7 +15577,7 @@
     </row>
     <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
-      <c r="B484" s="16"/>
+      <c r="B484" s="9"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -15591,7 +15606,7 @@
     </row>
     <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
-      <c r="B485" s="16"/>
+      <c r="B485" s="9"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -15620,7 +15635,7 @@
     </row>
     <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
-      <c r="B486" s="16"/>
+      <c r="B486" s="9"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -15649,7 +15664,7 @@
     </row>
     <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
-      <c r="B487" s="16"/>
+      <c r="B487" s="9"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -15678,7 +15693,7 @@
     </row>
     <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
-      <c r="B488" s="16"/>
+      <c r="B488" s="9"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -15707,7 +15722,7 @@
     </row>
     <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
-      <c r="B489" s="16"/>
+      <c r="B489" s="9"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -15736,7 +15751,7 @@
     </row>
     <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
-      <c r="B490" s="16"/>
+      <c r="B490" s="9"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -15765,7 +15780,7 @@
     </row>
     <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
-      <c r="B491" s="16"/>
+      <c r="B491" s="9"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -15794,7 +15809,7 @@
     </row>
     <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
-      <c r="B492" s="16"/>
+      <c r="B492" s="9"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -15823,7 +15838,7 @@
     </row>
     <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
-      <c r="B493" s="16"/>
+      <c r="B493" s="9"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -15852,7 +15867,7 @@
     </row>
     <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
-      <c r="B494" s="16"/>
+      <c r="B494" s="9"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -15881,7 +15896,7 @@
     </row>
     <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
-      <c r="B495" s="16"/>
+      <c r="B495" s="9"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -15910,7 +15925,7 @@
     </row>
     <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
-      <c r="B496" s="16"/>
+      <c r="B496" s="9"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -15939,7 +15954,7 @@
     </row>
     <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
-      <c r="B497" s="16"/>
+      <c r="B497" s="9"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -15968,7 +15983,7 @@
     </row>
     <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
-      <c r="B498" s="16"/>
+      <c r="B498" s="9"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -15997,7 +16012,7 @@
     </row>
     <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
-      <c r="B499" s="16"/>
+      <c r="B499" s="9"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -16026,7 +16041,7 @@
     </row>
     <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
-      <c r="B500" s="16"/>
+      <c r="B500" s="9"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -16055,7 +16070,7 @@
     </row>
     <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
-      <c r="B501" s="16"/>
+      <c r="B501" s="9"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -16084,7 +16099,7 @@
     </row>
     <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
-      <c r="B502" s="16"/>
+      <c r="B502" s="9"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -16113,7 +16128,7 @@
     </row>
     <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
-      <c r="B503" s="16"/>
+      <c r="B503" s="9"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -16142,7 +16157,7 @@
     </row>
     <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
-      <c r="B504" s="16"/>
+      <c r="B504" s="9"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -16171,7 +16186,7 @@
     </row>
     <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
-      <c r="B505" s="16"/>
+      <c r="B505" s="9"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -16200,7 +16215,7 @@
     </row>
     <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
-      <c r="B506" s="16"/>
+      <c r="B506" s="9"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -16229,7 +16244,7 @@
     </row>
     <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
-      <c r="B507" s="16"/>
+      <c r="B507" s="9"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -16258,7 +16273,7 @@
     </row>
     <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
-      <c r="B508" s="16"/>
+      <c r="B508" s="9"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -16287,7 +16302,7 @@
     </row>
     <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
-      <c r="B509" s="16"/>
+      <c r="B509" s="9"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -16316,7 +16331,7 @@
     </row>
     <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
-      <c r="B510" s="16"/>
+      <c r="B510" s="9"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -16345,7 +16360,7 @@
     </row>
     <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
-      <c r="B511" s="16"/>
+      <c r="B511" s="9"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -16374,7 +16389,7 @@
     </row>
     <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
-      <c r="B512" s="16"/>
+      <c r="B512" s="9"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -16403,7 +16418,7 @@
     </row>
     <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
-      <c r="B513" s="16"/>
+      <c r="B513" s="9"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -16432,7 +16447,7 @@
     </row>
     <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
-      <c r="B514" s="16"/>
+      <c r="B514" s="9"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -16461,7 +16476,7 @@
     </row>
     <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
-      <c r="B515" s="16"/>
+      <c r="B515" s="9"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -16490,7 +16505,7 @@
     </row>
     <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
-      <c r="B516" s="16"/>
+      <c r="B516" s="9"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -16519,7 +16534,7 @@
     </row>
     <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
-      <c r="B517" s="16"/>
+      <c r="B517" s="9"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -16548,7 +16563,7 @@
     </row>
     <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
-      <c r="B518" s="16"/>
+      <c r="B518" s="9"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -16577,7 +16592,7 @@
     </row>
     <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
-      <c r="B519" s="16"/>
+      <c r="B519" s="9"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -16606,7 +16621,7 @@
     </row>
     <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
-      <c r="B520" s="16"/>
+      <c r="B520" s="9"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -16635,7 +16650,7 @@
     </row>
     <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
-      <c r="B521" s="16"/>
+      <c r="B521" s="9"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -16664,7 +16679,7 @@
     </row>
     <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
-      <c r="B522" s="16"/>
+      <c r="B522" s="9"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -16693,7 +16708,7 @@
     </row>
     <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
-      <c r="B523" s="16"/>
+      <c r="B523" s="9"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -16722,7 +16737,7 @@
     </row>
     <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
-      <c r="B524" s="16"/>
+      <c r="B524" s="9"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -16751,7 +16766,7 @@
     </row>
     <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
-      <c r="B525" s="16"/>
+      <c r="B525" s="9"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -16780,7 +16795,7 @@
     </row>
     <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
-      <c r="B526" s="16"/>
+      <c r="B526" s="9"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -16809,7 +16824,7 @@
     </row>
     <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
-      <c r="B527" s="16"/>
+      <c r="B527" s="9"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -16838,7 +16853,7 @@
     </row>
     <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
-      <c r="B528" s="16"/>
+      <c r="B528" s="9"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -16867,7 +16882,7 @@
     </row>
     <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
-      <c r="B529" s="16"/>
+      <c r="B529" s="9"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -16896,7 +16911,7 @@
     </row>
     <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
-      <c r="B530" s="16"/>
+      <c r="B530" s="9"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -16925,7 +16940,7 @@
     </row>
     <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
-      <c r="B531" s="16"/>
+      <c r="B531" s="9"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -16954,7 +16969,7 @@
     </row>
     <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
-      <c r="B532" s="16"/>
+      <c r="B532" s="9"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -16983,7 +16998,7 @@
     </row>
     <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
-      <c r="B533" s="16"/>
+      <c r="B533" s="9"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -17012,7 +17027,7 @@
     </row>
     <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
-      <c r="B534" s="16"/>
+      <c r="B534" s="9"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -17041,7 +17056,7 @@
     </row>
     <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
-      <c r="B535" s="16"/>
+      <c r="B535" s="9"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -17070,7 +17085,7 @@
     </row>
     <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
-      <c r="B536" s="16"/>
+      <c r="B536" s="9"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -17099,7 +17114,7 @@
     </row>
     <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
-      <c r="B537" s="16"/>
+      <c r="B537" s="9"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -17128,7 +17143,7 @@
     </row>
     <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
-      <c r="B538" s="16"/>
+      <c r="B538" s="9"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -17157,7 +17172,7 @@
     </row>
     <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
-      <c r="B539" s="16"/>
+      <c r="B539" s="9"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -17186,7 +17201,7 @@
     </row>
     <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
-      <c r="B540" s="16"/>
+      <c r="B540" s="9"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -17215,7 +17230,7 @@
     </row>
     <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
-      <c r="B541" s="16"/>
+      <c r="B541" s="9"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -17244,7 +17259,7 @@
     </row>
     <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
-      <c r="B542" s="16"/>
+      <c r="B542" s="9"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -17273,7 +17288,7 @@
     </row>
     <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
-      <c r="B543" s="16"/>
+      <c r="B543" s="9"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -17302,7 +17317,7 @@
     </row>
     <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
-      <c r="B544" s="16"/>
+      <c r="B544" s="9"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -17331,7 +17346,7 @@
     </row>
     <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
-      <c r="B545" s="16"/>
+      <c r="B545" s="9"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -17360,7 +17375,7 @@
     </row>
     <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
-      <c r="B546" s="16"/>
+      <c r="B546" s="9"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -17389,7 +17404,7 @@
     </row>
     <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
-      <c r="B547" s="16"/>
+      <c r="B547" s="9"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -17418,7 +17433,7 @@
     </row>
     <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
-      <c r="B548" s="16"/>
+      <c r="B548" s="9"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -17447,7 +17462,7 @@
     </row>
     <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
-      <c r="B549" s="16"/>
+      <c r="B549" s="9"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -17476,7 +17491,7 @@
     </row>
     <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
-      <c r="B550" s="16"/>
+      <c r="B550" s="9"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -17505,7 +17520,7 @@
     </row>
     <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
-      <c r="B551" s="16"/>
+      <c r="B551" s="9"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -17534,7 +17549,7 @@
     </row>
     <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
-      <c r="B552" s="16"/>
+      <c r="B552" s="9"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -17563,7 +17578,7 @@
     </row>
     <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
-      <c r="B553" s="16"/>
+      <c r="B553" s="9"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -17592,7 +17607,7 @@
     </row>
     <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
-      <c r="B554" s="16"/>
+      <c r="B554" s="9"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -17621,7 +17636,7 @@
     </row>
     <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
-      <c r="B555" s="16"/>
+      <c r="B555" s="9"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -17650,7 +17665,7 @@
     </row>
     <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
-      <c r="B556" s="16"/>
+      <c r="B556" s="9"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -17679,7 +17694,7 @@
     </row>
     <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
-      <c r="B557" s="16"/>
+      <c r="B557" s="9"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -17708,7 +17723,7 @@
     </row>
     <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
-      <c r="B558" s="16"/>
+      <c r="B558" s="9"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -17737,7 +17752,7 @@
     </row>
     <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
-      <c r="B559" s="16"/>
+      <c r="B559" s="9"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -17766,7 +17781,7 @@
     </row>
     <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
-      <c r="B560" s="16"/>
+      <c r="B560" s="9"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -17795,7 +17810,7 @@
     </row>
     <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
-      <c r="B561" s="16"/>
+      <c r="B561" s="9"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -17824,7 +17839,7 @@
     </row>
     <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
-      <c r="B562" s="16"/>
+      <c r="B562" s="9"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -17853,7 +17868,7 @@
     </row>
     <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
-      <c r="B563" s="16"/>
+      <c r="B563" s="9"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -17882,7 +17897,7 @@
     </row>
     <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
-      <c r="B564" s="16"/>
+      <c r="B564" s="9"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -17911,7 +17926,7 @@
     </row>
     <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
-      <c r="B565" s="16"/>
+      <c r="B565" s="9"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -17940,7 +17955,7 @@
     </row>
     <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
-      <c r="B566" s="16"/>
+      <c r="B566" s="9"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -17969,7 +17984,7 @@
     </row>
     <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
-      <c r="B567" s="16"/>
+      <c r="B567" s="9"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -17998,7 +18013,7 @@
     </row>
     <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
-      <c r="B568" s="16"/>
+      <c r="B568" s="9"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -18027,7 +18042,7 @@
     </row>
     <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
-      <c r="B569" s="16"/>
+      <c r="B569" s="9"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -18056,7 +18071,7 @@
     </row>
     <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
-      <c r="B570" s="16"/>
+      <c r="B570" s="9"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -18085,7 +18100,7 @@
     </row>
     <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
-      <c r="B571" s="16"/>
+      <c r="B571" s="9"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -18114,7 +18129,7 @@
     </row>
     <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
-      <c r="B572" s="16"/>
+      <c r="B572" s="9"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -18143,7 +18158,7 @@
     </row>
     <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
-      <c r="B573" s="16"/>
+      <c r="B573" s="9"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -18172,7 +18187,7 @@
     </row>
     <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
-      <c r="B574" s="16"/>
+      <c r="B574" s="9"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -18201,7 +18216,7 @@
     </row>
     <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
-      <c r="B575" s="16"/>
+      <c r="B575" s="9"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -18230,7 +18245,7 @@
     </row>
     <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
-      <c r="B576" s="16"/>
+      <c r="B576" s="9"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -18259,7 +18274,7 @@
     </row>
     <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
-      <c r="B577" s="16"/>
+      <c r="B577" s="9"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -18288,7 +18303,7 @@
     </row>
     <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
-      <c r="B578" s="16"/>
+      <c r="B578" s="9"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -18317,7 +18332,7 @@
     </row>
     <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
-      <c r="B579" s="16"/>
+      <c r="B579" s="9"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -18346,7 +18361,7 @@
     </row>
     <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
-      <c r="B580" s="16"/>
+      <c r="B580" s="9"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -18375,7 +18390,7 @@
     </row>
     <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
-      <c r="B581" s="16"/>
+      <c r="B581" s="9"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -18404,7 +18419,7 @@
     </row>
     <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
-      <c r="B582" s="16"/>
+      <c r="B582" s="9"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -18433,7 +18448,7 @@
     </row>
     <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
-      <c r="B583" s="16"/>
+      <c r="B583" s="9"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -18462,7 +18477,7 @@
     </row>
     <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
-      <c r="B584" s="16"/>
+      <c r="B584" s="9"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -18491,7 +18506,7 @@
     </row>
     <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
-      <c r="B585" s="16"/>
+      <c r="B585" s="9"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -18520,7 +18535,7 @@
     </row>
     <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
-      <c r="B586" s="16"/>
+      <c r="B586" s="9"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -18549,7 +18564,7 @@
     </row>
     <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
-      <c r="B587" s="16"/>
+      <c r="B587" s="9"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -18578,7 +18593,7 @@
     </row>
     <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
-      <c r="B588" s="16"/>
+      <c r="B588" s="9"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -18607,7 +18622,7 @@
     </row>
     <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
-      <c r="B589" s="16"/>
+      <c r="B589" s="9"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -18636,7 +18651,7 @@
     </row>
     <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
-      <c r="B590" s="16"/>
+      <c r="B590" s="9"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -18665,7 +18680,7 @@
     </row>
     <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
-      <c r="B591" s="16"/>
+      <c r="B591" s="9"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -18694,7 +18709,7 @@
     </row>
     <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
-      <c r="B592" s="16"/>
+      <c r="B592" s="9"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -18723,7 +18738,7 @@
     </row>
     <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
-      <c r="B593" s="16"/>
+      <c r="B593" s="9"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -18752,7 +18767,7 @@
     </row>
     <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
-      <c r="B594" s="16"/>
+      <c r="B594" s="9"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -18781,7 +18796,7 @@
     </row>
     <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
-      <c r="B595" s="16"/>
+      <c r="B595" s="9"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -18810,7 +18825,7 @@
     </row>
     <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
-      <c r="B596" s="16"/>
+      <c r="B596" s="9"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -18839,7 +18854,7 @@
     </row>
     <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
-      <c r="B597" s="16"/>
+      <c r="B597" s="9"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -18868,7 +18883,7 @@
     </row>
     <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
-      <c r="B598" s="16"/>
+      <c r="B598" s="9"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -18897,7 +18912,7 @@
     </row>
     <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
-      <c r="B599" s="16"/>
+      <c r="B599" s="9"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -18926,7 +18941,7 @@
     </row>
     <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
-      <c r="B600" s="16"/>
+      <c r="B600" s="9"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -18955,7 +18970,7 @@
     </row>
     <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
-      <c r="B601" s="16"/>
+      <c r="B601" s="9"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -18984,7 +18999,7 @@
     </row>
     <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
-      <c r="B602" s="16"/>
+      <c r="B602" s="9"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -19013,7 +19028,7 @@
     </row>
     <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
-      <c r="B603" s="16"/>
+      <c r="B603" s="9"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -19042,7 +19057,7 @@
     </row>
     <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
-      <c r="B604" s="16"/>
+      <c r="B604" s="9"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -19071,7 +19086,7 @@
     </row>
     <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
-      <c r="B605" s="16"/>
+      <c r="B605" s="9"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -19100,7 +19115,7 @@
     </row>
     <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
-      <c r="B606" s="16"/>
+      <c r="B606" s="9"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -19129,7 +19144,7 @@
     </row>
     <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
-      <c r="B607" s="16"/>
+      <c r="B607" s="9"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -19158,7 +19173,7 @@
     </row>
     <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
-      <c r="B608" s="16"/>
+      <c r="B608" s="9"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -19187,7 +19202,7 @@
     </row>
     <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
-      <c r="B609" s="16"/>
+      <c r="B609" s="9"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -19216,7 +19231,7 @@
     </row>
     <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
-      <c r="B610" s="16"/>
+      <c r="B610" s="9"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -19245,7 +19260,7 @@
     </row>
     <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
-      <c r="B611" s="16"/>
+      <c r="B611" s="9"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -19274,7 +19289,7 @@
     </row>
     <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
-      <c r="B612" s="16"/>
+      <c r="B612" s="9"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -19303,7 +19318,7 @@
     </row>
     <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
-      <c r="B613" s="16"/>
+      <c r="B613" s="9"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -19332,7 +19347,7 @@
     </row>
     <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
-      <c r="B614" s="16"/>
+      <c r="B614" s="9"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -19361,7 +19376,7 @@
     </row>
     <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
-      <c r="B615" s="16"/>
+      <c r="B615" s="9"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -19390,7 +19405,7 @@
     </row>
     <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
-      <c r="B616" s="16"/>
+      <c r="B616" s="9"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -19419,7 +19434,7 @@
     </row>
     <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
-      <c r="B617" s="16"/>
+      <c r="B617" s="9"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -19448,7 +19463,7 @@
     </row>
     <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
-      <c r="B618" s="16"/>
+      <c r="B618" s="9"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -19477,7 +19492,7 @@
     </row>
     <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
-      <c r="B619" s="16"/>
+      <c r="B619" s="9"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -19506,7 +19521,7 @@
     </row>
     <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
-      <c r="B620" s="16"/>
+      <c r="B620" s="9"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -19535,7 +19550,7 @@
     </row>
     <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
-      <c r="B621" s="16"/>
+      <c r="B621" s="9"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -19564,7 +19579,7 @@
     </row>
     <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
-      <c r="B622" s="16"/>
+      <c r="B622" s="9"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -19593,7 +19608,7 @@
     </row>
     <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
-      <c r="B623" s="16"/>
+      <c r="B623" s="9"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -19622,7 +19637,7 @@
     </row>
     <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
-      <c r="B624" s="16"/>
+      <c r="B624" s="9"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -19651,7 +19666,7 @@
     </row>
     <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
-      <c r="B625" s="16"/>
+      <c r="B625" s="9"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -19680,7 +19695,7 @@
     </row>
     <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
-      <c r="B626" s="16"/>
+      <c r="B626" s="9"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -19709,7 +19724,7 @@
     </row>
     <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
-      <c r="B627" s="16"/>
+      <c r="B627" s="9"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -19738,7 +19753,7 @@
     </row>
     <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
-      <c r="B628" s="16"/>
+      <c r="B628" s="9"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -19767,7 +19782,7 @@
     </row>
     <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
-      <c r="B629" s="16"/>
+      <c r="B629" s="9"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -19796,7 +19811,7 @@
     </row>
     <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
-      <c r="B630" s="16"/>
+      <c r="B630" s="9"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -19825,7 +19840,7 @@
     </row>
     <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
-      <c r="B631" s="16"/>
+      <c r="B631" s="9"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -19854,7 +19869,7 @@
     </row>
     <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
-      <c r="B632" s="16"/>
+      <c r="B632" s="9"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -19883,7 +19898,7 @@
     </row>
     <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
-      <c r="B633" s="16"/>
+      <c r="B633" s="9"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -19912,7 +19927,7 @@
     </row>
     <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
-      <c r="B634" s="16"/>
+      <c r="B634" s="9"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -19941,7 +19956,7 @@
     </row>
     <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
-      <c r="B635" s="16"/>
+      <c r="B635" s="9"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -19970,7 +19985,7 @@
     </row>
     <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
-      <c r="B636" s="16"/>
+      <c r="B636" s="9"/>
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -19999,7 +20014,7 @@
     </row>
     <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
-      <c r="B637" s="16"/>
+      <c r="B637" s="9"/>
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -20028,7 +20043,7 @@
     </row>
     <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
-      <c r="B638" s="16"/>
+      <c r="B638" s="9"/>
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -20057,7 +20072,7 @@
     </row>
     <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
-      <c r="B639" s="16"/>
+      <c r="B639" s="9"/>
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -20086,7 +20101,7 @@
     </row>
     <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
-      <c r="B640" s="16"/>
+      <c r="B640" s="9"/>
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -20115,7 +20130,7 @@
     </row>
     <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
-      <c r="B641" s="16"/>
+      <c r="B641" s="9"/>
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -20144,7 +20159,7 @@
     </row>
     <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
-      <c r="B642" s="16"/>
+      <c r="B642" s="9"/>
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -20173,7 +20188,7 @@
     </row>
     <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
-      <c r="B643" s="16"/>
+      <c r="B643" s="9"/>
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -20202,7 +20217,7 @@
     </row>
     <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
-      <c r="B644" s="16"/>
+      <c r="B644" s="9"/>
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -20231,7 +20246,7 @@
     </row>
     <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
-      <c r="B645" s="16"/>
+      <c r="B645" s="9"/>
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -20260,7 +20275,7 @@
     </row>
     <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
-      <c r="B646" s="16"/>
+      <c r="B646" s="9"/>
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -20289,7 +20304,7 @@
     </row>
     <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
-      <c r="B647" s="16"/>
+      <c r="B647" s="9"/>
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -20318,7 +20333,7 @@
     </row>
     <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
-      <c r="B648" s="16"/>
+      <c r="B648" s="9"/>
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -20347,7 +20362,7 @@
     </row>
     <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
-      <c r="B649" s="16"/>
+      <c r="B649" s="9"/>
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -20376,7 +20391,7 @@
     </row>
     <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
-      <c r="B650" s="16"/>
+      <c r="B650" s="9"/>
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -20405,7 +20420,7 @@
     </row>
     <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
-      <c r="B651" s="16"/>
+      <c r="B651" s="9"/>
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -20434,7 +20449,7 @@
     </row>
     <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
-      <c r="B652" s="16"/>
+      <c r="B652" s="9"/>
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -20463,7 +20478,7 @@
     </row>
     <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
-      <c r="B653" s="16"/>
+      <c r="B653" s="9"/>
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -20492,7 +20507,7 @@
     </row>
     <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
-      <c r="B654" s="16"/>
+      <c r="B654" s="9"/>
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -20521,7 +20536,7 @@
     </row>
     <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
-      <c r="B655" s="16"/>
+      <c r="B655" s="9"/>
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -20550,7 +20565,7 @@
     </row>
     <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
-      <c r="B656" s="16"/>
+      <c r="B656" s="9"/>
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -20579,7 +20594,7 @@
     </row>
     <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
-      <c r="B657" s="16"/>
+      <c r="B657" s="9"/>
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -20608,7 +20623,7 @@
     </row>
     <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
-      <c r="B658" s="16"/>
+      <c r="B658" s="9"/>
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -20637,7 +20652,7 @@
     </row>
     <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
-      <c r="B659" s="16"/>
+      <c r="B659" s="9"/>
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -20666,7 +20681,7 @@
     </row>
     <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
-      <c r="B660" s="16"/>
+      <c r="B660" s="9"/>
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -20695,7 +20710,7 @@
     </row>
     <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
-      <c r="B661" s="16"/>
+      <c r="B661" s="9"/>
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -20724,7 +20739,7 @@
     </row>
     <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
-      <c r="B662" s="16"/>
+      <c r="B662" s="9"/>
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -20753,7 +20768,7 @@
     </row>
     <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
-      <c r="B663" s="16"/>
+      <c r="B663" s="9"/>
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -20782,7 +20797,7 @@
     </row>
     <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
-      <c r="B664" s="16"/>
+      <c r="B664" s="9"/>
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -20811,7 +20826,7 @@
     </row>
     <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
-      <c r="B665" s="16"/>
+      <c r="B665" s="9"/>
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -20840,7 +20855,7 @@
     </row>
     <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
-      <c r="B666" s="16"/>
+      <c r="B666" s="9"/>
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -20869,7 +20884,7 @@
     </row>
     <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
-      <c r="B667" s="16"/>
+      <c r="B667" s="9"/>
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -20898,7 +20913,7 @@
     </row>
     <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
-      <c r="B668" s="16"/>
+      <c r="B668" s="9"/>
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -20927,7 +20942,7 @@
     </row>
     <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
-      <c r="B669" s="16"/>
+      <c r="B669" s="9"/>
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -20956,7 +20971,7 @@
     </row>
     <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
-      <c r="B670" s="16"/>
+      <c r="B670" s="9"/>
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -20985,7 +21000,7 @@
     </row>
     <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
-      <c r="B671" s="16"/>
+      <c r="B671" s="9"/>
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -21014,7 +21029,7 @@
     </row>
     <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
-      <c r="B672" s="16"/>
+      <c r="B672" s="9"/>
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -21043,7 +21058,7 @@
     </row>
     <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
-      <c r="B673" s="16"/>
+      <c r="B673" s="9"/>
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -21072,7 +21087,7 @@
     </row>
     <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
-      <c r="B674" s="16"/>
+      <c r="B674" s="9"/>
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -21101,7 +21116,7 @@
     </row>
     <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
-      <c r="B675" s="16"/>
+      <c r="B675" s="9"/>
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -21130,7 +21145,7 @@
     </row>
     <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
-      <c r="B676" s="16"/>
+      <c r="B676" s="9"/>
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -21159,7 +21174,7 @@
     </row>
     <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
-      <c r="B677" s="16"/>
+      <c r="B677" s="9"/>
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -21188,7 +21203,7 @@
     </row>
     <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
-      <c r="B678" s="16"/>
+      <c r="B678" s="9"/>
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -21217,7 +21232,7 @@
     </row>
     <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
-      <c r="B679" s="16"/>
+      <c r="B679" s="9"/>
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -21246,7 +21261,7 @@
     </row>
     <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
-      <c r="B680" s="16"/>
+      <c r="B680" s="9"/>
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -21275,7 +21290,7 @@
     </row>
     <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
-      <c r="B681" s="16"/>
+      <c r="B681" s="9"/>
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -21304,7 +21319,7 @@
     </row>
     <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
-      <c r="B682" s="16"/>
+      <c r="B682" s="9"/>
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -21333,7 +21348,7 @@
     </row>
     <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
-      <c r="B683" s="16"/>
+      <c r="B683" s="9"/>
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -21362,7 +21377,7 @@
     </row>
     <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
-      <c r="B684" s="16"/>
+      <c r="B684" s="9"/>
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -21391,7 +21406,7 @@
     </row>
     <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
-      <c r="B685" s="16"/>
+      <c r="B685" s="9"/>
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -21420,7 +21435,7 @@
     </row>
     <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
-      <c r="B686" s="16"/>
+      <c r="B686" s="9"/>
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -21449,7 +21464,7 @@
     </row>
     <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
-      <c r="B687" s="16"/>
+      <c r="B687" s="9"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -21478,7 +21493,7 @@
     </row>
     <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
-      <c r="B688" s="16"/>
+      <c r="B688" s="9"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -21507,7 +21522,7 @@
     </row>
     <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
-      <c r="B689" s="16"/>
+      <c r="B689" s="9"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -21536,7 +21551,7 @@
     </row>
     <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
-      <c r="B690" s="16"/>
+      <c r="B690" s="9"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -21565,7 +21580,7 @@
     </row>
     <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
-      <c r="B691" s="16"/>
+      <c r="B691" s="9"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -21594,7 +21609,7 @@
     </row>
     <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
-      <c r="B692" s="16"/>
+      <c r="B692" s="9"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -21623,7 +21638,7 @@
     </row>
     <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
-      <c r="B693" s="16"/>
+      <c r="B693" s="9"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -21652,7 +21667,7 @@
     </row>
     <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
-      <c r="B694" s="16"/>
+      <c r="B694" s="9"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -21681,7 +21696,7 @@
     </row>
     <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
-      <c r="B695" s="16"/>
+      <c r="B695" s="9"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -21710,7 +21725,7 @@
     </row>
     <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
-      <c r="B696" s="16"/>
+      <c r="B696" s="9"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -21739,7 +21754,7 @@
     </row>
     <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
-      <c r="B697" s="16"/>
+      <c r="B697" s="9"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -21768,7 +21783,7 @@
     </row>
     <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
-      <c r="B698" s="16"/>
+      <c r="B698" s="9"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -21797,7 +21812,7 @@
     </row>
     <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
-      <c r="B699" s="16"/>
+      <c r="B699" s="9"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -21826,7 +21841,7 @@
     </row>
     <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
-      <c r="B700" s="16"/>
+      <c r="B700" s="9"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -21855,7 +21870,7 @@
     </row>
     <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
-      <c r="B701" s="16"/>
+      <c r="B701" s="9"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -21884,7 +21899,7 @@
     </row>
     <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
-      <c r="B702" s="16"/>
+      <c r="B702" s="9"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -21913,7 +21928,7 @@
     </row>
     <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
-      <c r="B703" s="16"/>
+      <c r="B703" s="9"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -21942,7 +21957,7 @@
     </row>
     <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
-      <c r="B704" s="16"/>
+      <c r="B704" s="9"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -21971,7 +21986,7 @@
     </row>
     <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
-      <c r="B705" s="16"/>
+      <c r="B705" s="9"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -22000,7 +22015,7 @@
     </row>
     <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
-      <c r="B706" s="16"/>
+      <c r="B706" s="9"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -22029,7 +22044,7 @@
     </row>
     <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
-      <c r="B707" s="16"/>
+      <c r="B707" s="9"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -22058,7 +22073,7 @@
     </row>
     <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
-      <c r="B708" s="16"/>
+      <c r="B708" s="9"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -22087,7 +22102,7 @@
     </row>
     <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
-      <c r="B709" s="16"/>
+      <c r="B709" s="9"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -22116,7 +22131,7 @@
     </row>
     <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
-      <c r="B710" s="16"/>
+      <c r="B710" s="9"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -22145,7 +22160,7 @@
     </row>
     <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
-      <c r="B711" s="16"/>
+      <c r="B711" s="9"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -22174,7 +22189,7 @@
     </row>
     <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
-      <c r="B712" s="16"/>
+      <c r="B712" s="9"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -22203,7 +22218,7 @@
     </row>
     <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
-      <c r="B713" s="16"/>
+      <c r="B713" s="9"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -22232,7 +22247,7 @@
     </row>
     <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
-      <c r="B714" s="16"/>
+      <c r="B714" s="9"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -22261,7 +22276,7 @@
     </row>
     <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
-      <c r="B715" s="16"/>
+      <c r="B715" s="9"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -22290,7 +22305,7 @@
     </row>
     <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
-      <c r="B716" s="16"/>
+      <c r="B716" s="9"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -22319,7 +22334,7 @@
     </row>
     <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
-      <c r="B717" s="16"/>
+      <c r="B717" s="9"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -22348,7 +22363,7 @@
     </row>
     <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
-      <c r="B718" s="16"/>
+      <c r="B718" s="9"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -22377,7 +22392,7 @@
     </row>
     <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
-      <c r="B719" s="16"/>
+      <c r="B719" s="9"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -22406,7 +22421,7 @@
     </row>
     <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
-      <c r="B720" s="16"/>
+      <c r="B720" s="9"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -22435,7 +22450,7 @@
     </row>
     <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
-      <c r="B721" s="16"/>
+      <c r="B721" s="9"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -22464,7 +22479,7 @@
     </row>
     <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
-      <c r="B722" s="16"/>
+      <c r="B722" s="9"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -22493,7 +22508,7 @@
     </row>
     <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
-      <c r="B723" s="16"/>
+      <c r="B723" s="9"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -22522,7 +22537,7 @@
     </row>
     <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
-      <c r="B724" s="16"/>
+      <c r="B724" s="9"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -22551,7 +22566,7 @@
     </row>
     <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
-      <c r="B725" s="16"/>
+      <c r="B725" s="9"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -22580,7 +22595,7 @@
     </row>
     <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
-      <c r="B726" s="16"/>
+      <c r="B726" s="9"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -22609,7 +22624,7 @@
     </row>
     <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
-      <c r="B727" s="16"/>
+      <c r="B727" s="9"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -22638,7 +22653,7 @@
     </row>
     <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
-      <c r="B728" s="16"/>
+      <c r="B728" s="9"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -22667,7 +22682,7 @@
     </row>
     <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
-      <c r="B729" s="16"/>
+      <c r="B729" s="9"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -22696,7 +22711,7 @@
     </row>
     <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
-      <c r="B730" s="16"/>
+      <c r="B730" s="9"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -22725,7 +22740,7 @@
     </row>
     <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
-      <c r="B731" s="16"/>
+      <c r="B731" s="9"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -22754,7 +22769,7 @@
     </row>
     <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
-      <c r="B732" s="16"/>
+      <c r="B732" s="9"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -22783,7 +22798,7 @@
     </row>
     <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
-      <c r="B733" s="16"/>
+      <c r="B733" s="9"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -22812,7 +22827,7 @@
     </row>
     <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
-      <c r="B734" s="16"/>
+      <c r="B734" s="9"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -22841,7 +22856,7 @@
     </row>
     <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
-      <c r="B735" s="16"/>
+      <c r="B735" s="9"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -22870,7 +22885,7 @@
     </row>
     <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
-      <c r="B736" s="16"/>
+      <c r="B736" s="9"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -22899,7 +22914,7 @@
     </row>
     <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
-      <c r="B737" s="16"/>
+      <c r="B737" s="9"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -22928,7 +22943,7 @@
     </row>
     <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
-      <c r="B738" s="16"/>
+      <c r="B738" s="9"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -22957,7 +22972,7 @@
     </row>
     <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
-      <c r="B739" s="16"/>
+      <c r="B739" s="9"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -22986,7 +23001,7 @@
     </row>
     <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
-      <c r="B740" s="16"/>
+      <c r="B740" s="9"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -23015,7 +23030,7 @@
     </row>
     <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
-      <c r="B741" s="16"/>
+      <c r="B741" s="9"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -23044,7 +23059,7 @@
     </row>
     <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
-      <c r="B742" s="16"/>
+      <c r="B742" s="9"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -23073,7 +23088,7 @@
     </row>
     <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
-      <c r="B743" s="16"/>
+      <c r="B743" s="9"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -23102,7 +23117,7 @@
     </row>
     <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
-      <c r="B744" s="16"/>
+      <c r="B744" s="9"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -23131,7 +23146,7 @@
     </row>
     <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
-      <c r="B745" s="16"/>
+      <c r="B745" s="9"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -23160,7 +23175,7 @@
     </row>
     <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
-      <c r="B746" s="16"/>
+      <c r="B746" s="9"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -23189,7 +23204,7 @@
     </row>
     <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
-      <c r="B747" s="16"/>
+      <c r="B747" s="9"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -23218,7 +23233,7 @@
     </row>
     <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
-      <c r="B748" s="16"/>
+      <c r="B748" s="9"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -23247,7 +23262,7 @@
     </row>
     <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
-      <c r="B749" s="16"/>
+      <c r="B749" s="9"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -23276,7 +23291,7 @@
     </row>
     <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
-      <c r="B750" s="16"/>
+      <c r="B750" s="9"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -23305,7 +23320,7 @@
     </row>
     <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
-      <c r="B751" s="16"/>
+      <c r="B751" s="9"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -23334,7 +23349,7 @@
     </row>
     <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
-      <c r="B752" s="16"/>
+      <c r="B752" s="9"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -23363,7 +23378,7 @@
     </row>
     <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
-      <c r="B753" s="16"/>
+      <c r="B753" s="9"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -23392,7 +23407,7 @@
     </row>
     <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
-      <c r="B754" s="16"/>
+      <c r="B754" s="9"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -23421,7 +23436,7 @@
     </row>
     <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
-      <c r="B755" s="16"/>
+      <c r="B755" s="9"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -23450,7 +23465,7 @@
     </row>
     <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
-      <c r="B756" s="16"/>
+      <c r="B756" s="9"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -23479,7 +23494,7 @@
     </row>
     <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
-      <c r="B757" s="16"/>
+      <c r="B757" s="9"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -23508,7 +23523,7 @@
     </row>
     <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
-      <c r="B758" s="16"/>
+      <c r="B758" s="9"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -23537,7 +23552,7 @@
     </row>
     <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
-      <c r="B759" s="16"/>
+      <c r="B759" s="9"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -23566,7 +23581,7 @@
     </row>
     <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
-      <c r="B760" s="16"/>
+      <c r="B760" s="9"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -23595,7 +23610,7 @@
     </row>
     <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
-      <c r="B761" s="16"/>
+      <c r="B761" s="9"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -23624,7 +23639,7 @@
     </row>
     <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
-      <c r="B762" s="16"/>
+      <c r="B762" s="9"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -23653,7 +23668,7 @@
     </row>
     <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
-      <c r="B763" s="16"/>
+      <c r="B763" s="9"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -23682,7 +23697,7 @@
     </row>
     <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
-      <c r="B764" s="16"/>
+      <c r="B764" s="9"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -23711,7 +23726,7 @@
     </row>
     <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
-      <c r="B765" s="16"/>
+      <c r="B765" s="9"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -23740,7 +23755,7 @@
     </row>
     <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
-      <c r="B766" s="16"/>
+      <c r="B766" s="9"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -23769,7 +23784,7 @@
     </row>
     <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
-      <c r="B767" s="16"/>
+      <c r="B767" s="9"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -23798,7 +23813,7 @@
     </row>
     <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
-      <c r="B768" s="16"/>
+      <c r="B768" s="9"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -23827,7 +23842,7 @@
     </row>
     <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
-      <c r="B769" s="16"/>
+      <c r="B769" s="9"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -23856,7 +23871,7 @@
     </row>
     <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
-      <c r="B770" s="16"/>
+      <c r="B770" s="9"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -23885,7 +23900,7 @@
     </row>
     <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
-      <c r="B771" s="16"/>
+      <c r="B771" s="9"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -23914,7 +23929,7 @@
     </row>
     <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
-      <c r="B772" s="16"/>
+      <c r="B772" s="9"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -23943,7 +23958,7 @@
     </row>
     <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
-      <c r="B773" s="16"/>
+      <c r="B773" s="9"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -23972,7 +23987,7 @@
     </row>
     <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
-      <c r="B774" s="16"/>
+      <c r="B774" s="9"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -24001,7 +24016,7 @@
     </row>
     <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
-      <c r="B775" s="16"/>
+      <c r="B775" s="9"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -24030,7 +24045,7 @@
     </row>
     <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
-      <c r="B776" s="16"/>
+      <c r="B776" s="9"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -24059,7 +24074,7 @@
     </row>
     <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
-      <c r="B777" s="16"/>
+      <c r="B777" s="9"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -24088,7 +24103,7 @@
     </row>
     <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
-      <c r="B778" s="16"/>
+      <c r="B778" s="9"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -24117,7 +24132,7 @@
     </row>
     <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
-      <c r="B779" s="16"/>
+      <c r="B779" s="9"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -24146,7 +24161,7 @@
     </row>
     <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
-      <c r="B780" s="16"/>
+      <c r="B780" s="9"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -24175,7 +24190,7 @@
     </row>
     <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
-      <c r="B781" s="16"/>
+      <c r="B781" s="9"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -24204,7 +24219,7 @@
     </row>
     <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
-      <c r="B782" s="16"/>
+      <c r="B782" s="9"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -24233,7 +24248,7 @@
     </row>
     <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
-      <c r="B783" s="16"/>
+      <c r="B783" s="9"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -24262,7 +24277,7 @@
     </row>
     <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
-      <c r="B784" s="16"/>
+      <c r="B784" s="9"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -24291,7 +24306,7 @@
     </row>
     <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
-      <c r="B785" s="16"/>
+      <c r="B785" s="9"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -24320,7 +24335,7 @@
     </row>
     <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
-      <c r="B786" s="16"/>
+      <c r="B786" s="9"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -24349,7 +24364,7 @@
     </row>
     <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
-      <c r="B787" s="16"/>
+      <c r="B787" s="9"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -24378,7 +24393,7 @@
     </row>
     <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
-      <c r="B788" s="16"/>
+      <c r="B788" s="9"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -24407,7 +24422,7 @@
     </row>
     <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
-      <c r="B789" s="16"/>
+      <c r="B789" s="9"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -24436,7 +24451,7 @@
     </row>
     <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
-      <c r="B790" s="16"/>
+      <c r="B790" s="9"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -24465,7 +24480,7 @@
     </row>
     <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
-      <c r="B791" s="16"/>
+      <c r="B791" s="9"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -24494,7 +24509,7 @@
     </row>
     <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
-      <c r="B792" s="16"/>
+      <c r="B792" s="9"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -24523,7 +24538,7 @@
     </row>
     <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
-      <c r="B793" s="16"/>
+      <c r="B793" s="9"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -24552,7 +24567,7 @@
     </row>
     <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
-      <c r="B794" s="16"/>
+      <c r="B794" s="9"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -24581,7 +24596,7 @@
     </row>
     <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
-      <c r="B795" s="16"/>
+      <c r="B795" s="9"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -24610,7 +24625,7 @@
     </row>
     <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
-      <c r="B796" s="16"/>
+      <c r="B796" s="9"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -24639,7 +24654,7 @@
     </row>
     <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
-      <c r="B797" s="16"/>
+      <c r="B797" s="9"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -24668,7 +24683,7 @@
     </row>
     <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
-      <c r="B798" s="16"/>
+      <c r="B798" s="9"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -24697,7 +24712,7 @@
     </row>
     <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
-      <c r="B799" s="16"/>
+      <c r="B799" s="9"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -24726,7 +24741,7 @@
     </row>
     <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
-      <c r="B800" s="16"/>
+      <c r="B800" s="9"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -24755,7 +24770,7 @@
     </row>
     <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
-      <c r="B801" s="16"/>
+      <c r="B801" s="9"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -24784,7 +24799,7 @@
     </row>
     <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
-      <c r="B802" s="16"/>
+      <c r="B802" s="9"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -24813,7 +24828,7 @@
     </row>
     <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
-      <c r="B803" s="16"/>
+      <c r="B803" s="9"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -24842,7 +24857,7 @@
     </row>
     <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
-      <c r="B804" s="16"/>
+      <c r="B804" s="9"/>
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -24871,7 +24886,7 @@
     </row>
     <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
-      <c r="B805" s="16"/>
+      <c r="B805" s="9"/>
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -24900,7 +24915,7 @@
     </row>
     <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
-      <c r="B806" s="16"/>
+      <c r="B806" s="9"/>
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -24929,7 +24944,7 @@
     </row>
     <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
-      <c r="B807" s="16"/>
+      <c r="B807" s="9"/>
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -24958,7 +24973,7 @@
     </row>
     <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
-      <c r="B808" s="16"/>
+      <c r="B808" s="9"/>
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -24987,7 +25002,7 @@
     </row>
     <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
-      <c r="B809" s="16"/>
+      <c r="B809" s="9"/>
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -25016,7 +25031,7 @@
     </row>
     <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
-      <c r="B810" s="16"/>
+      <c r="B810" s="9"/>
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -25045,7 +25060,7 @@
     </row>
     <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
-      <c r="B811" s="16"/>
+      <c r="B811" s="9"/>
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -25074,7 +25089,7 @@
     </row>
     <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
-      <c r="B812" s="16"/>
+      <c r="B812" s="9"/>
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -25103,7 +25118,7 @@
     </row>
     <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
-      <c r="B813" s="16"/>
+      <c r="B813" s="9"/>
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -25132,7 +25147,7 @@
     </row>
     <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
-      <c r="B814" s="16"/>
+      <c r="B814" s="9"/>
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -25161,7 +25176,7 @@
     </row>
     <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
-      <c r="B815" s="16"/>
+      <c r="B815" s="9"/>
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -25190,7 +25205,7 @@
     </row>
     <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
-      <c r="B816" s="16"/>
+      <c r="B816" s="9"/>
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -25219,7 +25234,7 @@
     </row>
     <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
-      <c r="B817" s="16"/>
+      <c r="B817" s="9"/>
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -25248,7 +25263,7 @@
     </row>
     <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
-      <c r="B818" s="16"/>
+      <c r="B818" s="9"/>
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -25277,7 +25292,7 @@
     </row>
     <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
-      <c r="B819" s="16"/>
+      <c r="B819" s="9"/>
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -25306,7 +25321,7 @@
     </row>
     <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
-      <c r="B820" s="16"/>
+      <c r="B820" s="9"/>
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -25335,7 +25350,7 @@
     </row>
     <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
-      <c r="B821" s="16"/>
+      <c r="B821" s="9"/>
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -25364,7 +25379,7 @@
     </row>
     <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
-      <c r="B822" s="16"/>
+      <c r="B822" s="9"/>
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -25393,7 +25408,7 @@
     </row>
     <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
-      <c r="B823" s="16"/>
+      <c r="B823" s="9"/>
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -25422,7 +25437,7 @@
     </row>
     <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
-      <c r="B824" s="16"/>
+      <c r="B824" s="9"/>
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -25451,7 +25466,7 @@
     </row>
     <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
-      <c r="B825" s="16"/>
+      <c r="B825" s="9"/>
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -25480,7 +25495,7 @@
     </row>
     <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
-      <c r="B826" s="16"/>
+      <c r="B826" s="9"/>
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -25509,7 +25524,7 @@
     </row>
     <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
-      <c r="B827" s="16"/>
+      <c r="B827" s="9"/>
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -25538,7 +25553,7 @@
     </row>
     <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
-      <c r="B828" s="16"/>
+      <c r="B828" s="9"/>
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -25567,7 +25582,7 @@
     </row>
     <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
-      <c r="B829" s="16"/>
+      <c r="B829" s="9"/>
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -25596,7 +25611,7 @@
     </row>
     <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
-      <c r="B830" s="16"/>
+      <c r="B830" s="9"/>
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -25625,7 +25640,7 @@
     </row>
     <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
-      <c r="B831" s="16"/>
+      <c r="B831" s="9"/>
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -25654,7 +25669,7 @@
     </row>
     <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
-      <c r="B832" s="16"/>
+      <c r="B832" s="9"/>
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -25683,7 +25698,7 @@
     </row>
     <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
-      <c r="B833" s="16"/>
+      <c r="B833" s="9"/>
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -25712,7 +25727,7 @@
     </row>
     <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
-      <c r="B834" s="16"/>
+      <c r="B834" s="9"/>
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -25741,7 +25756,7 @@
     </row>
     <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
-      <c r="B835" s="16"/>
+      <c r="B835" s="9"/>
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -25770,7 +25785,7 @@
     </row>
     <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
-      <c r="B836" s="16"/>
+      <c r="B836" s="9"/>
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -25799,7 +25814,7 @@
     </row>
     <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
-      <c r="B837" s="16"/>
+      <c r="B837" s="9"/>
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -25828,7 +25843,7 @@
     </row>
     <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
-      <c r="B838" s="16"/>
+      <c r="B838" s="9"/>
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -25857,7 +25872,7 @@
     </row>
     <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
-      <c r="B839" s="16"/>
+      <c r="B839" s="9"/>
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -25886,7 +25901,7 @@
     </row>
     <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
-      <c r="B840" s="16"/>
+      <c r="B840" s="9"/>
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -25915,7 +25930,7 @@
     </row>
     <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
-      <c r="B841" s="16"/>
+      <c r="B841" s="9"/>
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -25944,7 +25959,7 @@
     </row>
     <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
-      <c r="B842" s="16"/>
+      <c r="B842" s="9"/>
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -25973,7 +25988,7 @@
     </row>
     <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
-      <c r="B843" s="16"/>
+      <c r="B843" s="9"/>
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -26002,7 +26017,7 @@
     </row>
     <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
-      <c r="B844" s="16"/>
+      <c r="B844" s="9"/>
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -26031,7 +26046,7 @@
     </row>
     <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
-      <c r="B845" s="16"/>
+      <c r="B845" s="9"/>
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -26060,7 +26075,7 @@
     </row>
     <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
-      <c r="B846" s="16"/>
+      <c r="B846" s="9"/>
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -26089,7 +26104,7 @@
     </row>
     <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
-      <c r="B847" s="16"/>
+      <c r="B847" s="9"/>
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -26118,7 +26133,7 @@
     </row>
     <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
-      <c r="B848" s="16"/>
+      <c r="B848" s="9"/>
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -26147,7 +26162,7 @@
     </row>
     <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
-      <c r="B849" s="16"/>
+      <c r="B849" s="9"/>
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -26176,7 +26191,7 @@
     </row>
     <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
-      <c r="B850" s="16"/>
+      <c r="B850" s="9"/>
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -26205,7 +26220,7 @@
     </row>
     <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
-      <c r="B851" s="16"/>
+      <c r="B851" s="9"/>
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -26234,7 +26249,7 @@
     </row>
     <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
-      <c r="B852" s="16"/>
+      <c r="B852" s="9"/>
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -26263,7 +26278,7 @@
     </row>
     <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
-      <c r="B853" s="16"/>
+      <c r="B853" s="9"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -26292,7 +26307,7 @@
     </row>
     <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
-      <c r="B854" s="16"/>
+      <c r="B854" s="9"/>
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -26321,7 +26336,7 @@
     </row>
     <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
-      <c r="B855" s="16"/>
+      <c r="B855" s="9"/>
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -26350,7 +26365,7 @@
     </row>
     <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
-      <c r="B856" s="16"/>
+      <c r="B856" s="9"/>
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -26379,7 +26394,7 @@
     </row>
     <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
-      <c r="B857" s="16"/>
+      <c r="B857" s="9"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -26408,7 +26423,7 @@
     </row>
     <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
-      <c r="B858" s="16"/>
+      <c r="B858" s="9"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -26437,7 +26452,7 @@
     </row>
     <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
-      <c r="B859" s="16"/>
+      <c r="B859" s="9"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -26466,7 +26481,7 @@
     </row>
     <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
-      <c r="B860" s="16"/>
+      <c r="B860" s="9"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -26495,7 +26510,7 @@
     </row>
     <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
-      <c r="B861" s="16"/>
+      <c r="B861" s="9"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -26524,7 +26539,7 @@
     </row>
     <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
-      <c r="B862" s="16"/>
+      <c r="B862" s="9"/>
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -26553,7 +26568,7 @@
     </row>
     <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
-      <c r="B863" s="16"/>
+      <c r="B863" s="9"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -26582,7 +26597,7 @@
     </row>
     <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
-      <c r="B864" s="16"/>
+      <c r="B864" s="9"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -26611,7 +26626,7 @@
     </row>
     <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
-      <c r="B865" s="16"/>
+      <c r="B865" s="9"/>
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -26640,7 +26655,7 @@
     </row>
     <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
-      <c r="B866" s="16"/>
+      <c r="B866" s="9"/>
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -26669,7 +26684,7 @@
     </row>
     <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
-      <c r="B867" s="16"/>
+      <c r="B867" s="9"/>
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -26698,7 +26713,7 @@
     </row>
     <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
-      <c r="B868" s="16"/>
+      <c r="B868" s="9"/>
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -26727,7 +26742,7 @@
     </row>
     <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
-      <c r="B869" s="16"/>
+      <c r="B869" s="9"/>
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -26756,7 +26771,7 @@
     </row>
     <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
-      <c r="B870" s="16"/>
+      <c r="B870" s="9"/>
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -26785,7 +26800,7 @@
     </row>
     <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
-      <c r="B871" s="16"/>
+      <c r="B871" s="9"/>
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -26814,7 +26829,7 @@
     </row>
     <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
-      <c r="B872" s="16"/>
+      <c r="B872" s="9"/>
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -26843,7 +26858,7 @@
     </row>
     <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
-      <c r="B873" s="16"/>
+      <c r="B873" s="9"/>
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -26872,7 +26887,7 @@
     </row>
     <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
-      <c r="B874" s="16"/>
+      <c r="B874" s="9"/>
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -26901,7 +26916,7 @@
     </row>
     <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
-      <c r="B875" s="16"/>
+      <c r="B875" s="9"/>
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -26930,7 +26945,7 @@
     </row>
     <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
-      <c r="B876" s="16"/>
+      <c r="B876" s="9"/>
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -26959,7 +26974,7 @@
     </row>
     <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
-      <c r="B877" s="16"/>
+      <c r="B877" s="9"/>
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -26988,7 +27003,7 @@
     </row>
     <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
-      <c r="B878" s="16"/>
+      <c r="B878" s="9"/>
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -27017,7 +27032,7 @@
     </row>
     <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
-      <c r="B879" s="16"/>
+      <c r="B879" s="9"/>
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -27046,7 +27061,7 @@
     </row>
     <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
-      <c r="B880" s="16"/>
+      <c r="B880" s="9"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -27075,7 +27090,7 @@
     </row>
     <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
-      <c r="B881" s="16"/>
+      <c r="B881" s="9"/>
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -27104,7 +27119,7 @@
     </row>
     <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
-      <c r="B882" s="16"/>
+      <c r="B882" s="9"/>
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -27133,7 +27148,7 @@
     </row>
     <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
-      <c r="B883" s="16"/>
+      <c r="B883" s="9"/>
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -27162,7 +27177,7 @@
     </row>
     <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
-      <c r="B884" s="16"/>
+      <c r="B884" s="9"/>
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -27191,7 +27206,7 @@
     </row>
     <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
-      <c r="B885" s="16"/>
+      <c r="B885" s="9"/>
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -27220,7 +27235,7 @@
     </row>
     <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
-      <c r="B886" s="16"/>
+      <c r="B886" s="9"/>
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -27249,7 +27264,7 @@
     </row>
     <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
-      <c r="B887" s="16"/>
+      <c r="B887" s="9"/>
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -27278,7 +27293,7 @@
     </row>
     <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
-      <c r="B888" s="16"/>
+      <c r="B888" s="9"/>
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -27307,7 +27322,7 @@
     </row>
     <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
-      <c r="B889" s="16"/>
+      <c r="B889" s="9"/>
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -27336,7 +27351,7 @@
     </row>
     <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
-      <c r="B890" s="16"/>
+      <c r="B890" s="9"/>
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -27365,7 +27380,7 @@
     </row>
     <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
-      <c r="B891" s="16"/>
+      <c r="B891" s="9"/>
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -27394,7 +27409,7 @@
     </row>
     <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
-      <c r="B892" s="16"/>
+      <c r="B892" s="9"/>
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -27423,7 +27438,7 @@
     </row>
     <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
-      <c r="B893" s="16"/>
+      <c r="B893" s="9"/>
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -27452,7 +27467,7 @@
     </row>
     <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
-      <c r="B894" s="16"/>
+      <c r="B894" s="9"/>
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -27481,7 +27496,7 @@
     </row>
     <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
-      <c r="B895" s="16"/>
+      <c r="B895" s="9"/>
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -27510,7 +27525,7 @@
     </row>
     <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
-      <c r="B896" s="16"/>
+      <c r="B896" s="9"/>
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -27539,7 +27554,7 @@
     </row>
     <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
-      <c r="B897" s="16"/>
+      <c r="B897" s="9"/>
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -27568,7 +27583,7 @@
     </row>
     <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
-      <c r="B898" s="16"/>
+      <c r="B898" s="9"/>
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -27597,7 +27612,7 @@
     </row>
     <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
-      <c r="B899" s="16"/>
+      <c r="B899" s="9"/>
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -27626,7 +27641,7 @@
     </row>
     <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
-      <c r="B900" s="16"/>
+      <c r="B900" s="9"/>
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -27655,7 +27670,7 @@
     </row>
     <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
-      <c r="B901" s="16"/>
+      <c r="B901" s="9"/>
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -27684,7 +27699,7 @@
     </row>
     <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
-      <c r="B902" s="16"/>
+      <c r="B902" s="9"/>
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -27713,7 +27728,7 @@
     </row>
     <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
-      <c r="B903" s="16"/>
+      <c r="B903" s="9"/>
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -27742,7 +27757,7 @@
     </row>
     <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
-      <c r="B904" s="16"/>
+      <c r="B904" s="9"/>
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -27771,7 +27786,7 @@
     </row>
     <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
-      <c r="B905" s="16"/>
+      <c r="B905" s="9"/>
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -27800,7 +27815,7 @@
     </row>
     <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
-      <c r="B906" s="16"/>
+      <c r="B906" s="9"/>
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -27829,7 +27844,7 @@
     </row>
     <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
-      <c r="B907" s="16"/>
+      <c r="B907" s="9"/>
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -27858,7 +27873,7 @@
     </row>
     <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
-      <c r="B908" s="16"/>
+      <c r="B908" s="9"/>
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -27887,7 +27902,7 @@
     </row>
     <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
-      <c r="B909" s="16"/>
+      <c r="B909" s="9"/>
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -27916,7 +27931,7 @@
     </row>
     <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
-      <c r="B910" s="16"/>
+      <c r="B910" s="9"/>
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -27945,7 +27960,7 @@
     </row>
     <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
-      <c r="B911" s="16"/>
+      <c r="B911" s="9"/>
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -27974,7 +27989,7 @@
     </row>
     <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
-      <c r="B912" s="16"/>
+      <c r="B912" s="9"/>
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -28003,7 +28018,7 @@
     </row>
     <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
-      <c r="B913" s="16"/>
+      <c r="B913" s="9"/>
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -28032,7 +28047,7 @@
     </row>
     <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
-      <c r="B914" s="16"/>
+      <c r="B914" s="9"/>
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -28061,7 +28076,7 @@
     </row>
     <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
-      <c r="B915" s="16"/>
+      <c r="B915" s="9"/>
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -28090,7 +28105,7 @@
     </row>
     <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
-      <c r="B916" s="16"/>
+      <c r="B916" s="9"/>
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -28119,7 +28134,7 @@
     </row>
     <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
-      <c r="B917" s="16"/>
+      <c r="B917" s="9"/>
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -28148,7 +28163,7 @@
     </row>
     <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
-      <c r="B918" s="16"/>
+      <c r="B918" s="9"/>
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -28177,7 +28192,7 @@
     </row>
     <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
-      <c r="B919" s="16"/>
+      <c r="B919" s="9"/>
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -28206,7 +28221,7 @@
     </row>
     <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
-      <c r="B920" s="16"/>
+      <c r="B920" s="9"/>
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -28235,7 +28250,7 @@
     </row>
     <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
-      <c r="B921" s="16"/>
+      <c r="B921" s="9"/>
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -28264,7 +28279,7 @@
     </row>
     <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
-      <c r="B922" s="16"/>
+      <c r="B922" s="9"/>
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -28293,7 +28308,7 @@
     </row>
     <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
-      <c r="B923" s="16"/>
+      <c r="B923" s="9"/>
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -28322,7 +28337,7 @@
     </row>
     <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
-      <c r="B924" s="16"/>
+      <c r="B924" s="9"/>
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -28351,7 +28366,7 @@
     </row>
     <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
-      <c r="B925" s="16"/>
+      <c r="B925" s="9"/>
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -28380,7 +28395,7 @@
     </row>
     <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
-      <c r="B926" s="16"/>
+      <c r="B926" s="9"/>
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -28409,7 +28424,7 @@
     </row>
     <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
-      <c r="B927" s="16"/>
+      <c r="B927" s="9"/>
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -28438,7 +28453,7 @@
     </row>
     <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
-      <c r="B928" s="16"/>
+      <c r="B928" s="9"/>
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -28467,7 +28482,7 @@
     </row>
     <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
-      <c r="B929" s="16"/>
+      <c r="B929" s="9"/>
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -28496,7 +28511,7 @@
     </row>
     <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
-      <c r="B930" s="16"/>
+      <c r="B930" s="9"/>
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -28525,7 +28540,7 @@
     </row>
     <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
-      <c r="B931" s="16"/>
+      <c r="B931" s="9"/>
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -28554,7 +28569,7 @@
     </row>
     <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
-      <c r="B932" s="16"/>
+      <c r="B932" s="9"/>
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -28583,7 +28598,7 @@
     </row>
     <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
-      <c r="B933" s="16"/>
+      <c r="B933" s="9"/>
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -28612,7 +28627,7 @@
     </row>
     <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
-      <c r="B934" s="16"/>
+      <c r="B934" s="9"/>
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -28641,7 +28656,7 @@
     </row>
     <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
-      <c r="B935" s="16"/>
+      <c r="B935" s="9"/>
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -28670,7 +28685,7 @@
     </row>
     <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
-      <c r="B936" s="16"/>
+      <c r="B936" s="9"/>
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -28699,7 +28714,7 @@
     </row>
     <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
-      <c r="B937" s="16"/>
+      <c r="B937" s="9"/>
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -28728,7 +28743,7 @@
     </row>
     <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
-      <c r="B938" s="16"/>
+      <c r="B938" s="9"/>
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -28757,7 +28772,7 @@
     </row>
     <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
-      <c r="B939" s="16"/>
+      <c r="B939" s="9"/>
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -28786,7 +28801,7 @@
     </row>
     <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
-      <c r="B940" s="16"/>
+      <c r="B940" s="9"/>
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -28815,7 +28830,7 @@
     </row>
     <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
-      <c r="B941" s="16"/>
+      <c r="B941" s="9"/>
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -28844,7 +28859,7 @@
     </row>
     <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
-      <c r="B942" s="16"/>
+      <c r="B942" s="9"/>
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -28873,7 +28888,7 @@
     </row>
     <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
-      <c r="B943" s="16"/>
+      <c r="B943" s="9"/>
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -28902,7 +28917,7 @@
     </row>
     <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
-      <c r="B944" s="16"/>
+      <c r="B944" s="9"/>
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -28931,7 +28946,7 @@
     </row>
     <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
-      <c r="B945" s="16"/>
+      <c r="B945" s="9"/>
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -28960,7 +28975,7 @@
     </row>
     <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
-      <c r="B946" s="16"/>
+      <c r="B946" s="9"/>
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -28989,7 +29004,7 @@
     </row>
     <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
-      <c r="B947" s="16"/>
+      <c r="B947" s="9"/>
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -29018,7 +29033,7 @@
     </row>
     <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
-      <c r="B948" s="16"/>
+      <c r="B948" s="9"/>
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -29047,7 +29062,7 @@
     </row>
     <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
-      <c r="B949" s="16"/>
+      <c r="B949" s="9"/>
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -29076,7 +29091,7 @@
     </row>
     <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
-      <c r="B950" s="16"/>
+      <c r="B950" s="9"/>
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -29105,7 +29120,7 @@
     </row>
     <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
-      <c r="B951" s="16"/>
+      <c r="B951" s="9"/>
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -29134,7 +29149,7 @@
     </row>
     <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
-      <c r="B952" s="16"/>
+      <c r="B952" s="9"/>
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -29163,7 +29178,7 @@
     </row>
     <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
-      <c r="B953" s="16"/>
+      <c r="B953" s="9"/>
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -29192,7 +29207,7 @@
     </row>
     <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
-      <c r="B954" s="16"/>
+      <c r="B954" s="9"/>
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -29221,7 +29236,7 @@
     </row>
     <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
-      <c r="B955" s="16"/>
+      <c r="B955" s="9"/>
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
@@ -29250,7 +29265,7 @@
     </row>
     <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
-      <c r="B956" s="16"/>
+      <c r="B956" s="9"/>
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
@@ -29279,7 +29294,7 @@
     </row>
     <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
-      <c r="B957" s="16"/>
+      <c r="B957" s="9"/>
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
@@ -29308,7 +29323,7 @@
     </row>
     <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
-      <c r="B958" s="16"/>
+      <c r="B958" s="9"/>
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
@@ -29337,7 +29352,7 @@
     </row>
     <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
-      <c r="B959" s="16"/>
+      <c r="B959" s="9"/>
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
@@ -29366,7 +29381,7 @@
     </row>
     <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
-      <c r="B960" s="16"/>
+      <c r="B960" s="9"/>
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
@@ -29395,7 +29410,7 @@
     </row>
     <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
-      <c r="B961" s="16"/>
+      <c r="B961" s="9"/>
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
@@ -29424,7 +29439,7 @@
     </row>
     <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
-      <c r="B962" s="16"/>
+      <c r="B962" s="9"/>
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
@@ -29453,7 +29468,7 @@
     </row>
     <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
-      <c r="B963" s="16"/>
+      <c r="B963" s="9"/>
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
@@ -29482,7 +29497,7 @@
     </row>
     <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
-      <c r="B964" s="16"/>
+      <c r="B964" s="9"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
@@ -29511,7 +29526,7 @@
     </row>
     <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
-      <c r="B965" s="16"/>
+      <c r="B965" s="9"/>
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
@@ -29540,7 +29555,7 @@
     </row>
     <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
-      <c r="B966" s="16"/>
+      <c r="B966" s="9"/>
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
@@ -29569,7 +29584,7 @@
     </row>
     <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
-      <c r="B967" s="16"/>
+      <c r="B967" s="9"/>
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
@@ -29598,7 +29613,7 @@
     </row>
     <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
-      <c r="B968" s="16"/>
+      <c r="B968" s="9"/>
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
@@ -29627,7 +29642,7 @@
     </row>
     <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
-      <c r="B969" s="16"/>
+      <c r="B969" s="9"/>
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
@@ -29656,7 +29671,7 @@
     </row>
     <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
-      <c r="B970" s="16"/>
+      <c r="B970" s="9"/>
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
@@ -29685,7 +29700,7 @@
     </row>
     <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
-      <c r="B971" s="16"/>
+      <c r="B971" s="9"/>
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
@@ -29714,7 +29729,7 @@
     </row>
     <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
-      <c r="B972" s="16"/>
+      <c r="B972" s="9"/>
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
@@ -29743,7 +29758,7 @@
     </row>
     <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
-      <c r="B973" s="16"/>
+      <c r="B973" s="9"/>
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
@@ -29772,7 +29787,7 @@
     </row>
     <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
-      <c r="B974" s="16"/>
+      <c r="B974" s="9"/>
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
@@ -29801,7 +29816,7 @@
     </row>
     <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
-      <c r="B975" s="16"/>
+      <c r="B975" s="9"/>
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
@@ -29830,7 +29845,7 @@
     </row>
     <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
-      <c r="B976" s="16"/>
+      <c r="B976" s="9"/>
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
@@ -29859,7 +29874,7 @@
     </row>
     <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
-      <c r="B977" s="16"/>
+      <c r="B977" s="9"/>
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
@@ -29888,7 +29903,7 @@
     </row>
     <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
-      <c r="B978" s="16"/>
+      <c r="B978" s="9"/>
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
@@ -29917,7 +29932,7 @@
     </row>
     <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
-      <c r="B979" s="16"/>
+      <c r="B979" s="9"/>
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
@@ -29946,7 +29961,7 @@
     </row>
     <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
-      <c r="B980" s="16"/>
+      <c r="B980" s="9"/>
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
@@ -29975,7 +29990,7 @@
     </row>
     <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
-      <c r="B981" s="16"/>
+      <c r="B981" s="9"/>
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
@@ -30004,7 +30019,7 @@
     </row>
     <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
-      <c r="B982" s="16"/>
+      <c r="B982" s="9"/>
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
@@ -30033,7 +30048,7 @@
     </row>
     <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
-      <c r="B983" s="16"/>
+      <c r="B983" s="9"/>
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
@@ -30062,7 +30077,7 @@
     </row>
     <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
-      <c r="B984" s="16"/>
+      <c r="B984" s="9"/>
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
@@ -30091,7 +30106,7 @@
     </row>
     <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
-      <c r="B985" s="16"/>
+      <c r="B985" s="9"/>
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>

--- a/test_case/Authentication/Registation/Tc_Reg_Functional(nadira).xlsx
+++ b/test_case/Authentication/Registation/Tc_Reg_Functional(nadira).xlsx
@@ -195,59 +195,59 @@
     <t>Error message should disappear and registration should proceed</t>
   </si>
   <si>
-    <t>Serial</t>
+    <t>TC_FUNC_102</t>
   </si>
   <si>
-    <t>TC_FUNC_074</t>
+    <t>TC_FUNC_103</t>
   </si>
   <si>
-    <t>TC_FUNC_075</t>
+    <t>TC_FUNC_104</t>
   </si>
   <si>
-    <t>TC_FUNC_076</t>
+    <t>TC_FUNC_105</t>
   </si>
   <si>
-    <t>TC_FUNC_077</t>
+    <t>TC_FUNC_106</t>
   </si>
   <si>
-    <t>TC_FUNC_078</t>
+    <t>TC_FUNC_107</t>
   </si>
   <si>
-    <t>TC_FUNC_079</t>
+    <t>TC_FUNC_108</t>
   </si>
   <si>
-    <t>TC_FUNC_080</t>
+    <t>TC_FUNC_109</t>
   </si>
   <si>
-    <t>TC_FUNC_081</t>
+    <t>TC_FUNC_110</t>
   </si>
   <si>
-    <t>TC_FUNC_082</t>
+    <t>TC_FUNC_111</t>
   </si>
   <si>
-    <t>TC_FUNC_083</t>
+    <t>TC_FUNC_112</t>
   </si>
   <si>
-    <t>TC_FUNC_084</t>
+    <t>TC_FUNC_113</t>
   </si>
   <si>
-    <t>TC_FUNC_085</t>
+    <t>TC_FUNC_114</t>
   </si>
   <si>
-    <t>TC_FUNC_086</t>
+    <t>TC_FUNC_115</t>
   </si>
   <si>
-    <t>TC_FUNC_087</t>
+    <t>TC_FUNC_116</t>
   </si>
   <si>
-    <t>TC_FUNC_088</t>
+    <t>Serial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,38 +259,26 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -409,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,19 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,14 +436,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -604,23 +606,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1137,13 +1122,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_134" displayName="Table_134" ref="A3:H18" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" name="Test Case ID" dataDxfId="7"/>
-    <tableColumn id="8" name="Serial" dataDxfId="6"/>
-    <tableColumn id="2" name="Prerequisites" dataDxfId="5"/>
-    <tableColumn id="3" name="Title/Description" dataDxfId="4"/>
-    <tableColumn id="4" name="Steps" dataDxfId="3"/>
-    <tableColumn id="5" name="Expected result:" dataDxfId="2"/>
-    <tableColumn id="6" name="Pass / Fail" dataDxfId="1"/>
-    <tableColumn id="7" name="Comments" dataDxfId="0"/>
+    <tableColumn id="8" name="Serial" dataDxfId="0"/>
+    <tableColumn id="2" name="Prerequisites" dataDxfId="6"/>
+    <tableColumn id="3" name="Title/Description" dataDxfId="5"/>
+    <tableColumn id="4" name="Steps" dataDxfId="4"/>
+    <tableColumn id="5" name="Expected result:" dataDxfId="3"/>
+    <tableColumn id="6" name="Pass / Fail" dataDxfId="2"/>
+    <tableColumn id="7" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1353,14 +1338,14 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17" style="17" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
@@ -1371,16 +1356,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1402,14 +1387,14 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1435,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -1476,11 +1461,11 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>55</v>
+      <c r="A4" s="7" t="s">
+        <v>54</v>
       </c>
-      <c r="B4" s="8">
-        <v>174</v>
+      <c r="B4" s="15">
+        <v>1003</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>8</v>
@@ -1517,11 +1502,11 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>56</v>
+      <c r="A5" s="7" t="s">
+        <v>55</v>
       </c>
-      <c r="B5" s="8">
-        <v>175</v>
+      <c r="B5" s="15">
+        <v>1004</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
@@ -1558,11 +1543,11 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>57</v>
+      <c r="A6" s="7" t="s">
+        <v>56</v>
       </c>
-      <c r="B6" s="8">
-        <v>176</v>
+      <c r="B6" s="15">
+        <v>1005</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
@@ -1599,11 +1584,11 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>58</v>
+      <c r="A7" s="7" t="s">
+        <v>57</v>
       </c>
-      <c r="B7" s="8">
-        <v>177</v>
+      <c r="B7" s="15">
+        <v>1006</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
@@ -1640,11 +1625,11 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>59</v>
+      <c r="A8" s="7" t="s">
+        <v>58</v>
       </c>
-      <c r="B8" s="8">
-        <v>178</v>
+      <c r="B8" s="15">
+        <v>1007</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -1681,11 +1666,11 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>60</v>
+      <c r="A9" s="7" t="s">
+        <v>59</v>
       </c>
-      <c r="B9" s="8">
-        <v>179</v>
+      <c r="B9" s="15">
+        <v>1008</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -1722,11 +1707,11 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>61</v>
+      <c r="A10" s="7" t="s">
+        <v>60</v>
       </c>
-      <c r="B10" s="8">
-        <v>180</v>
+      <c r="B10" s="15">
+        <v>1009</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -1763,11 +1748,11 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>62</v>
+      <c r="A11" s="7" t="s">
+        <v>61</v>
       </c>
-      <c r="B11" s="8">
-        <v>181</v>
+      <c r="B11" s="15">
+        <v>1010</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
@@ -1804,11 +1789,11 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>63</v>
+      <c r="A12" s="7" t="s">
+        <v>62</v>
       </c>
-      <c r="B12" s="8">
-        <v>182</v>
+      <c r="B12" s="15">
+        <v>1011</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -1845,11 +1830,11 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="55.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>64</v>
+      <c r="A13" s="7" t="s">
+        <v>63</v>
       </c>
-      <c r="B13" s="8">
-        <v>183</v>
+      <c r="B13" s="15">
+        <v>1012</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>8</v>
@@ -1885,12 +1870,12 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>65</v>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
       </c>
-      <c r="B14" s="8">
-        <v>184</v>
+      <c r="B14" s="15">
+        <v>1013</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
@@ -1926,12 +1911,12 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>66</v>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>65</v>
       </c>
-      <c r="B15" s="8">
-        <v>185</v>
+      <c r="B15" s="15">
+        <v>1014</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>8</v>
@@ -1967,12 +1952,12 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>67</v>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>66</v>
       </c>
-      <c r="B16" s="8">
-        <v>186</v>
+      <c r="B16" s="15">
+        <v>1015</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>8</v>
@@ -2008,12 +1993,12 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>68</v>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>67</v>
       </c>
-      <c r="B17" s="8">
-        <v>187</v>
+      <c r="B17" s="15">
+        <v>1016</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>8</v>
@@ -2049,12 +2034,12 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>69</v>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>68</v>
       </c>
-      <c r="B18" s="8">
-        <v>188</v>
+      <c r="B18" s="15">
+        <v>1017</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>8</v>
@@ -2092,7 +2077,7 @@
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -2121,7 +2106,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="9"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2150,7 +2135,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2179,7 +2164,7 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2208,7 +2193,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2237,7 +2222,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2266,7 +2251,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2295,7 +2280,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2324,7 +2309,7 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2353,7 +2338,7 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="9"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2382,7 +2367,7 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2411,7 +2396,7 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="9"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2440,7 +2425,7 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2469,7 +2454,7 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="9"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2498,7 +2483,7 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="9"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2527,7 +2512,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2556,7 +2541,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2585,7 +2570,7 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2614,7 +2599,7 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2643,7 +2628,7 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2672,7 +2657,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="9"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2701,7 +2686,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="9"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2730,7 +2715,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="9"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2759,7 +2744,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="9"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2788,7 +2773,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="9"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2817,7 +2802,7 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="9"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2846,7 +2831,7 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="9"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2875,7 +2860,7 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="9"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2904,7 +2889,7 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2933,7 +2918,7 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2962,7 +2947,7 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2991,7 +2976,7 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3020,7 +3005,7 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3049,7 +3034,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3078,7 +3063,7 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3107,7 +3092,7 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3136,7 +3121,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3165,7 +3150,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3194,7 +3179,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3223,7 +3208,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="9"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3252,7 +3237,7 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="9"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3281,7 +3266,7 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="9"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3310,7 +3295,7 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="9"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3339,7 +3324,7 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3368,7 +3353,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="9"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3397,7 +3382,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="9"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3426,7 +3411,7 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="9"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3455,7 +3440,7 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="9"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3484,7 +3469,7 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="9"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3513,7 +3498,7 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="9"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3542,7 +3527,7 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="9"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3571,7 +3556,7 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="9"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3600,7 +3585,7 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="9"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3629,7 +3614,7 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="9"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3658,7 +3643,7 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="9"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3687,7 +3672,7 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="9"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3716,7 +3701,7 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="9"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3745,7 +3730,7 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="9"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3774,7 +3759,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="9"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3803,7 +3788,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="9"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3832,7 +3817,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="9"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3861,7 +3846,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="9"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3890,7 +3875,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="9"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3919,7 +3904,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="9"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3948,7 +3933,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="9"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3977,7 +3962,7 @@
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="9"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -4006,7 +3991,7 @@
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="9"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -4035,7 +4020,7 @@
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="9"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -4064,7 +4049,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="9"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4093,7 +4078,7 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="9"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4122,7 +4107,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="9"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4151,7 +4136,7 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="9"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4180,7 +4165,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="9"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4209,7 +4194,7 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="9"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4238,7 +4223,7 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="9"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4267,7 +4252,7 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="9"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -4296,7 +4281,7 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-      <c r="B95" s="9"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4325,7 +4310,7 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="9"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -4354,7 +4339,7 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4383,7 +4368,7 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="9"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -4412,7 +4397,7 @@
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="9"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4441,7 +4426,7 @@
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4470,7 +4455,7 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="9"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4499,7 +4484,7 @@
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="9"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4528,7 +4513,7 @@
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="9"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4557,7 +4542,7 @@
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="9"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4586,7 +4571,7 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
-      <c r="B105" s="9"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4615,7 +4600,7 @@
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
-      <c r="B106" s="9"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4644,7 +4629,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
-      <c r="B107" s="9"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -4673,7 +4658,7 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="9"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -4702,7 +4687,7 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="9"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4731,7 +4716,7 @@
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
-      <c r="B110" s="9"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4760,7 +4745,7 @@
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
-      <c r="B111" s="9"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4789,7 +4774,7 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
-      <c r="B112" s="9"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4818,7 +4803,7 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-      <c r="B113" s="9"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4847,7 +4832,7 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
-      <c r="B114" s="9"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4876,7 +4861,7 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
-      <c r="B115" s="9"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4905,7 +4890,7 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" s="9"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4934,7 +4919,7 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
-      <c r="B117" s="9"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4963,7 +4948,7 @@
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="9"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4992,7 +4977,7 @@
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
-      <c r="B119" s="9"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -5021,7 +5006,7 @@
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
-      <c r="B120" s="9"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -5050,7 +5035,7 @@
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -5079,7 +5064,7 @@
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="9"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -5108,7 +5093,7 @@
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
-      <c r="B123" s="9"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -5137,7 +5122,7 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
-      <c r="B124" s="9"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -5166,7 +5151,7 @@
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
-      <c r="B125" s="9"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -5195,7 +5180,7 @@
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
-      <c r="B126" s="9"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -5224,7 +5209,7 @@
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
-      <c r="B127" s="9"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -5253,7 +5238,7 @@
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="9"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -5282,7 +5267,7 @@
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
-      <c r="B129" s="9"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -5311,7 +5296,7 @@
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
-      <c r="B130" s="9"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -5340,7 +5325,7 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-      <c r="B131" s="9"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -5369,7 +5354,7 @@
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
-      <c r="B132" s="9"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -5398,7 +5383,7 @@
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
-      <c r="B133" s="9"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -5427,7 +5412,7 @@
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="9"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -5456,7 +5441,7 @@
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
-      <c r="B135" s="9"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -5485,7 +5470,7 @@
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
-      <c r="B136" s="9"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -5514,7 +5499,7 @@
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
-      <c r="B137" s="9"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -5543,7 +5528,7 @@
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-      <c r="B138" s="9"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -5572,7 +5557,7 @@
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
-      <c r="B139" s="9"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -5601,7 +5586,7 @@
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="9"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -5630,7 +5615,7 @@
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
-      <c r="B141" s="9"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -5659,7 +5644,7 @@
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
-      <c r="B142" s="9"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -5688,7 +5673,7 @@
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
-      <c r="B143" s="9"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -5717,7 +5702,7 @@
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
-      <c r="B144" s="9"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -5746,7 +5731,7 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
-      <c r="B145" s="9"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -5775,7 +5760,7 @@
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
-      <c r="B146" s="9"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -5804,7 +5789,7 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
-      <c r="B147" s="9"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -5833,7 +5818,7 @@
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
-      <c r="B148" s="9"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -5862,7 +5847,7 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
-      <c r="B149" s="9"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -5891,7 +5876,7 @@
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
-      <c r="B150" s="9"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -5920,7 +5905,7 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
-      <c r="B151" s="9"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -5949,7 +5934,7 @@
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
-      <c r="B152" s="9"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -5978,7 +5963,7 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -6007,7 +5992,7 @@
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
-      <c r="B154" s="9"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -6036,7 +6021,7 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
-      <c r="B155" s="9"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -6065,7 +6050,7 @@
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
-      <c r="B156" s="9"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6094,7 +6079,7 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
-      <c r="B157" s="9"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6123,7 +6108,7 @@
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-      <c r="B158" s="9"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -6152,7 +6137,7 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="B159" s="9"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -6181,7 +6166,7 @@
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
-      <c r="B160" s="9"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -6210,7 +6195,7 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
-      <c r="B161" s="9"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6239,7 +6224,7 @@
     </row>
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
-      <c r="B162" s="9"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6268,7 +6253,7 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
-      <c r="B163" s="9"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6297,7 +6282,7 @@
     </row>
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
-      <c r="B164" s="9"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -6326,7 +6311,7 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
-      <c r="B165" s="9"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6355,7 +6340,7 @@
     </row>
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
-      <c r="B166" s="9"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6384,7 +6369,7 @@
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
-      <c r="B167" s="9"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6413,7 +6398,7 @@
     </row>
     <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
-      <c r="B168" s="9"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6442,7 +6427,7 @@
     </row>
     <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
-      <c r="B169" s="9"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6471,7 +6456,7 @@
     </row>
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
-      <c r="B170" s="9"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6500,7 +6485,7 @@
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
-      <c r="B171" s="9"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6529,7 +6514,7 @@
     </row>
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
-      <c r="B172" s="9"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6558,7 +6543,7 @@
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
-      <c r="B173" s="9"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -6587,7 +6572,7 @@
     </row>
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
-      <c r="B174" s="9"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -6616,7 +6601,7 @@
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
-      <c r="B175" s="9"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -6645,7 +6630,7 @@
     </row>
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
-      <c r="B176" s="9"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -6674,7 +6659,7 @@
     </row>
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
-      <c r="B177" s="9"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -6703,7 +6688,7 @@
     </row>
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
-      <c r="B178" s="9"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -6732,7 +6717,7 @@
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
-      <c r="B179" s="9"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -6761,7 +6746,7 @@
     </row>
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
-      <c r="B180" s="9"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -6790,7 +6775,7 @@
     </row>
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
-      <c r="B181" s="9"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -6819,7 +6804,7 @@
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
-      <c r="B182" s="9"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -6848,7 +6833,7 @@
     </row>
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
-      <c r="B183" s="9"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -6877,7 +6862,7 @@
     </row>
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
-      <c r="B184" s="9"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -6906,7 +6891,7 @@
     </row>
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
-      <c r="B185" s="9"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -6935,7 +6920,7 @@
     </row>
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
-      <c r="B186" s="9"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -6964,7 +6949,7 @@
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
-      <c r="B187" s="9"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -6993,7 +6978,7 @@
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
-      <c r="B188" s="9"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -7022,7 +7007,7 @@
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
-      <c r="B189" s="9"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -7051,7 +7036,7 @@
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
-      <c r="B190" s="9"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -7080,7 +7065,7 @@
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
-      <c r="B191" s="9"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -7109,7 +7094,7 @@
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
-      <c r="B192" s="9"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -7138,7 +7123,7 @@
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
-      <c r="B193" s="9"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -7167,7 +7152,7 @@
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
-      <c r="B194" s="9"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -7196,7 +7181,7 @@
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
-      <c r="B195" s="9"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -7225,7 +7210,7 @@
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
-      <c r="B196" s="9"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -7254,7 +7239,7 @@
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
-      <c r="B197" s="9"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -7283,7 +7268,7 @@
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
-      <c r="B198" s="9"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -7312,7 +7297,7 @@
     </row>
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
-      <c r="B199" s="9"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -7341,7 +7326,7 @@
     </row>
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
-      <c r="B200" s="9"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -7370,7 +7355,7 @@
     </row>
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
-      <c r="B201" s="9"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -7399,7 +7384,7 @@
     </row>
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
-      <c r="B202" s="9"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -7428,7 +7413,7 @@
     </row>
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
-      <c r="B203" s="9"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -7457,7 +7442,7 @@
     </row>
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
-      <c r="B204" s="9"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -7486,7 +7471,7 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
-      <c r="B205" s="9"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -7515,7 +7500,7 @@
     </row>
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
-      <c r="B206" s="9"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -7544,7 +7529,7 @@
     </row>
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
-      <c r="B207" s="9"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -7573,7 +7558,7 @@
     </row>
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
-      <c r="B208" s="9"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -7602,7 +7587,7 @@
     </row>
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
-      <c r="B209" s="9"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -7631,7 +7616,7 @@
     </row>
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
-      <c r="B210" s="9"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -7660,7 +7645,7 @@
     </row>
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
-      <c r="B211" s="9"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -7689,7 +7674,7 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
-      <c r="B212" s="9"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -7718,7 +7703,7 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
-      <c r="B213" s="9"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -7747,7 +7732,7 @@
     </row>
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
-      <c r="B214" s="9"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -7776,7 +7761,7 @@
     </row>
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
-      <c r="B215" s="9"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -7805,7 +7790,7 @@
     </row>
     <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
-      <c r="B216" s="9"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -7834,7 +7819,7 @@
     </row>
     <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
-      <c r="B217" s="9"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -7863,7 +7848,7 @@
     </row>
     <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
-      <c r="B218" s="9"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -7892,7 +7877,7 @@
     </row>
     <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
-      <c r="B219" s="9"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -7921,7 +7906,7 @@
     </row>
     <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
-      <c r="B220" s="9"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -7950,7 +7935,7 @@
     </row>
     <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
-      <c r="B221" s="9"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -7979,7 +7964,7 @@
     </row>
     <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
-      <c r="B222" s="9"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -8008,7 +7993,7 @@
     </row>
     <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
-      <c r="B223" s="9"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -8037,7 +8022,7 @@
     </row>
     <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
-      <c r="B224" s="9"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -8066,7 +8051,7 @@
     </row>
     <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
-      <c r="B225" s="9"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -8095,7 +8080,7 @@
     </row>
     <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
-      <c r="B226" s="9"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -8124,7 +8109,7 @@
     </row>
     <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
-      <c r="B227" s="9"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -8153,7 +8138,7 @@
     </row>
     <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
-      <c r="B228" s="9"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -8182,7 +8167,7 @@
     </row>
     <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
-      <c r="B229" s="9"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -8211,7 +8196,7 @@
     </row>
     <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
-      <c r="B230" s="9"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -8240,7 +8225,7 @@
     </row>
     <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
-      <c r="B231" s="9"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -8269,7 +8254,7 @@
     </row>
     <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
-      <c r="B232" s="9"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -8298,7 +8283,7 @@
     </row>
     <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
-      <c r="B233" s="9"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -8327,7 +8312,7 @@
     </row>
     <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
-      <c r="B234" s="9"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -8356,7 +8341,7 @@
     </row>
     <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
-      <c r="B235" s="9"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -8385,7 +8370,7 @@
     </row>
     <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
-      <c r="B236" s="9"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -8414,7 +8399,7 @@
     </row>
     <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
-      <c r="B237" s="9"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -8443,7 +8428,7 @@
     </row>
     <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
-      <c r="B238" s="9"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -8472,7 +8457,7 @@
     </row>
     <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
-      <c r="B239" s="9"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -8501,7 +8486,7 @@
     </row>
     <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
-      <c r="B240" s="9"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -8530,7 +8515,7 @@
     </row>
     <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
-      <c r="B241" s="9"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -8559,7 +8544,7 @@
     </row>
     <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
-      <c r="B242" s="9"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -8588,7 +8573,7 @@
     </row>
     <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
-      <c r="B243" s="9"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -8617,7 +8602,7 @@
     </row>
     <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
-      <c r="B244" s="9"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -8646,7 +8631,7 @@
     </row>
     <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
-      <c r="B245" s="9"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -8675,7 +8660,7 @@
     </row>
     <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
-      <c r="B246" s="9"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -8704,7 +8689,7 @@
     </row>
     <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
-      <c r="B247" s="9"/>
+      <c r="B247" s="16"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -8733,7 +8718,7 @@
     </row>
     <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
-      <c r="B248" s="9"/>
+      <c r="B248" s="16"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -8762,7 +8747,7 @@
     </row>
     <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
-      <c r="B249" s="9"/>
+      <c r="B249" s="16"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -8791,7 +8776,7 @@
     </row>
     <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
-      <c r="B250" s="9"/>
+      <c r="B250" s="16"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -8820,7 +8805,7 @@
     </row>
     <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
-      <c r="B251" s="9"/>
+      <c r="B251" s="16"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -8849,7 +8834,7 @@
     </row>
     <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
-      <c r="B252" s="9"/>
+      <c r="B252" s="16"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -8878,7 +8863,7 @@
     </row>
     <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
-      <c r="B253" s="9"/>
+      <c r="B253" s="16"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -8907,7 +8892,7 @@
     </row>
     <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
-      <c r="B254" s="9"/>
+      <c r="B254" s="16"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -8936,7 +8921,7 @@
     </row>
     <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
-      <c r="B255" s="9"/>
+      <c r="B255" s="16"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -8965,7 +8950,7 @@
     </row>
     <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
-      <c r="B256" s="9"/>
+      <c r="B256" s="16"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -8994,7 +8979,7 @@
     </row>
     <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
-      <c r="B257" s="9"/>
+      <c r="B257" s="16"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -9023,7 +9008,7 @@
     </row>
     <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
-      <c r="B258" s="9"/>
+      <c r="B258" s="16"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -9052,7 +9037,7 @@
     </row>
     <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
-      <c r="B259" s="9"/>
+      <c r="B259" s="16"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -9081,7 +9066,7 @@
     </row>
     <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
-      <c r="B260" s="9"/>
+      <c r="B260" s="16"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -9110,7 +9095,7 @@
     </row>
     <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
-      <c r="B261" s="9"/>
+      <c r="B261" s="16"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -9139,7 +9124,7 @@
     </row>
     <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
-      <c r="B262" s="9"/>
+      <c r="B262" s="16"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -9168,7 +9153,7 @@
     </row>
     <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
-      <c r="B263" s="9"/>
+      <c r="B263" s="16"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -9197,7 +9182,7 @@
     </row>
     <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
-      <c r="B264" s="9"/>
+      <c r="B264" s="16"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -9226,7 +9211,7 @@
     </row>
     <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
-      <c r="B265" s="9"/>
+      <c r="B265" s="16"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -9255,7 +9240,7 @@
     </row>
     <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
-      <c r="B266" s="9"/>
+      <c r="B266" s="16"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -9284,7 +9269,7 @@
     </row>
     <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
-      <c r="B267" s="9"/>
+      <c r="B267" s="16"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -9313,7 +9298,7 @@
     </row>
     <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
-      <c r="B268" s="9"/>
+      <c r="B268" s="16"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -9342,7 +9327,7 @@
     </row>
     <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
-      <c r="B269" s="9"/>
+      <c r="B269" s="16"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -9371,7 +9356,7 @@
     </row>
     <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
-      <c r="B270" s="9"/>
+      <c r="B270" s="16"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -9400,7 +9385,7 @@
     </row>
     <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
-      <c r="B271" s="9"/>
+      <c r="B271" s="16"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -9429,7 +9414,7 @@
     </row>
     <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
-      <c r="B272" s="9"/>
+      <c r="B272" s="16"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -9458,7 +9443,7 @@
     </row>
     <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
-      <c r="B273" s="9"/>
+      <c r="B273" s="16"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -9487,7 +9472,7 @@
     </row>
     <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
-      <c r="B274" s="9"/>
+      <c r="B274" s="16"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -9516,7 +9501,7 @@
     </row>
     <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
-      <c r="B275" s="9"/>
+      <c r="B275" s="16"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -9545,7 +9530,7 @@
     </row>
     <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
-      <c r="B276" s="9"/>
+      <c r="B276" s="16"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -9574,7 +9559,7 @@
     </row>
     <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
-      <c r="B277" s="9"/>
+      <c r="B277" s="16"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -9603,7 +9588,7 @@
     </row>
     <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
-      <c r="B278" s="9"/>
+      <c r="B278" s="16"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -9632,7 +9617,7 @@
     </row>
     <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
-      <c r="B279" s="9"/>
+      <c r="B279" s="16"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -9661,7 +9646,7 @@
     </row>
     <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
-      <c r="B280" s="9"/>
+      <c r="B280" s="16"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -9690,7 +9675,7 @@
     </row>
     <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
-      <c r="B281" s="9"/>
+      <c r="B281" s="16"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -9719,7 +9704,7 @@
     </row>
     <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
-      <c r="B282" s="9"/>
+      <c r="B282" s="16"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -9748,7 +9733,7 @@
     </row>
     <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
-      <c r="B283" s="9"/>
+      <c r="B283" s="16"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -9777,7 +9762,7 @@
     </row>
     <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
-      <c r="B284" s="9"/>
+      <c r="B284" s="16"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -9806,7 +9791,7 @@
     </row>
     <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
-      <c r="B285" s="9"/>
+      <c r="B285" s="16"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -9835,7 +9820,7 @@
     </row>
     <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
-      <c r="B286" s="9"/>
+      <c r="B286" s="16"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -9864,7 +9849,7 @@
     </row>
     <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
-      <c r="B287" s="9"/>
+      <c r="B287" s="16"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -9893,7 +9878,7 @@
     </row>
     <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
-      <c r="B288" s="9"/>
+      <c r="B288" s="16"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -9922,7 +9907,7 @@
     </row>
     <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
-      <c r="B289" s="9"/>
+      <c r="B289" s="16"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -9951,7 +9936,7 @@
     </row>
     <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
-      <c r="B290" s="9"/>
+      <c r="B290" s="16"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -9980,7 +9965,7 @@
     </row>
     <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
-      <c r="B291" s="9"/>
+      <c r="B291" s="16"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -10009,7 +9994,7 @@
     </row>
     <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
-      <c r="B292" s="9"/>
+      <c r="B292" s="16"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -10038,7 +10023,7 @@
     </row>
     <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
-      <c r="B293" s="9"/>
+      <c r="B293" s="16"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -10067,7 +10052,7 @@
     </row>
     <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
-      <c r="B294" s="9"/>
+      <c r="B294" s="16"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10096,7 +10081,7 @@
     </row>
     <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
-      <c r="B295" s="9"/>
+      <c r="B295" s="16"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -10125,7 +10110,7 @@
     </row>
     <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
-      <c r="B296" s="9"/>
+      <c r="B296" s="16"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -10154,7 +10139,7 @@
     </row>
     <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
-      <c r="B297" s="9"/>
+      <c r="B297" s="16"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -10183,7 +10168,7 @@
     </row>
     <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
-      <c r="B298" s="9"/>
+      <c r="B298" s="16"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -10212,7 +10197,7 @@
     </row>
     <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
-      <c r="B299" s="9"/>
+      <c r="B299" s="16"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -10241,7 +10226,7 @@
     </row>
     <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
-      <c r="B300" s="9"/>
+      <c r="B300" s="16"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -10270,7 +10255,7 @@
     </row>
     <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
-      <c r="B301" s="9"/>
+      <c r="B301" s="16"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -10299,7 +10284,7 @@
     </row>
     <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
-      <c r="B302" s="9"/>
+      <c r="B302" s="16"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -10328,7 +10313,7 @@
     </row>
     <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
-      <c r="B303" s="9"/>
+      <c r="B303" s="16"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -10357,7 +10342,7 @@
     </row>
     <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
-      <c r="B304" s="9"/>
+      <c r="B304" s="16"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -10386,7 +10371,7 @@
     </row>
     <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
-      <c r="B305" s="9"/>
+      <c r="B305" s="16"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -10415,7 +10400,7 @@
     </row>
     <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
-      <c r="B306" s="9"/>
+      <c r="B306" s="16"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -10444,7 +10429,7 @@
     </row>
     <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
-      <c r="B307" s="9"/>
+      <c r="B307" s="16"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -10473,7 +10458,7 @@
     </row>
     <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
-      <c r="B308" s="9"/>
+      <c r="B308" s="16"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -10502,7 +10487,7 @@
     </row>
     <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
-      <c r="B309" s="9"/>
+      <c r="B309" s="16"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -10531,7 +10516,7 @@
     </row>
     <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
-      <c r="B310" s="9"/>
+      <c r="B310" s="16"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -10560,7 +10545,7 @@
     </row>
     <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
-      <c r="B311" s="9"/>
+      <c r="B311" s="16"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -10589,7 +10574,7 @@
     </row>
     <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
-      <c r="B312" s="9"/>
+      <c r="B312" s="16"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -10618,7 +10603,7 @@
     </row>
     <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
-      <c r="B313" s="9"/>
+      <c r="B313" s="16"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -10647,7 +10632,7 @@
     </row>
     <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
-      <c r="B314" s="9"/>
+      <c r="B314" s="16"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -10676,7 +10661,7 @@
     </row>
     <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
-      <c r="B315" s="9"/>
+      <c r="B315" s="16"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -10705,7 +10690,7 @@
     </row>
     <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
-      <c r="B316" s="9"/>
+      <c r="B316" s="16"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -10734,7 +10719,7 @@
     </row>
     <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
-      <c r="B317" s="9"/>
+      <c r="B317" s="16"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -10763,7 +10748,7 @@
     </row>
     <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
-      <c r="B318" s="9"/>
+      <c r="B318" s="16"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -10792,7 +10777,7 @@
     </row>
     <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
-      <c r="B319" s="9"/>
+      <c r="B319" s="16"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -10821,7 +10806,7 @@
     </row>
     <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
-      <c r="B320" s="9"/>
+      <c r="B320" s="16"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -10850,7 +10835,7 @@
     </row>
     <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
-      <c r="B321" s="9"/>
+      <c r="B321" s="16"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -10879,7 +10864,7 @@
     </row>
     <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
-      <c r="B322" s="9"/>
+      <c r="B322" s="16"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -10908,7 +10893,7 @@
     </row>
     <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
-      <c r="B323" s="9"/>
+      <c r="B323" s="16"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -10937,7 +10922,7 @@
     </row>
     <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
-      <c r="B324" s="9"/>
+      <c r="B324" s="16"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -10966,7 +10951,7 @@
     </row>
     <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
-      <c r="B325" s="9"/>
+      <c r="B325" s="16"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -10995,7 +10980,7 @@
     </row>
     <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
-      <c r="B326" s="9"/>
+      <c r="B326" s="16"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -11024,7 +11009,7 @@
     </row>
     <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
-      <c r="B327" s="9"/>
+      <c r="B327" s="16"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -11053,7 +11038,7 @@
     </row>
     <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
-      <c r="B328" s="9"/>
+      <c r="B328" s="16"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -11082,7 +11067,7 @@
     </row>
     <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
-      <c r="B329" s="9"/>
+      <c r="B329" s="16"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -11111,7 +11096,7 @@
     </row>
     <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
-      <c r="B330" s="9"/>
+      <c r="B330" s="16"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -11140,7 +11125,7 @@
     </row>
     <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
-      <c r="B331" s="9"/>
+      <c r="B331" s="16"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -11169,7 +11154,7 @@
     </row>
     <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
-      <c r="B332" s="9"/>
+      <c r="B332" s="16"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -11198,7 +11183,7 @@
     </row>
     <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
-      <c r="B333" s="9"/>
+      <c r="B333" s="16"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -11227,7 +11212,7 @@
     </row>
     <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
-      <c r="B334" s="9"/>
+      <c r="B334" s="16"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -11256,7 +11241,7 @@
     </row>
     <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
-      <c r="B335" s="9"/>
+      <c r="B335" s="16"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -11285,7 +11270,7 @@
     </row>
     <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
-      <c r="B336" s="9"/>
+      <c r="B336" s="16"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -11314,7 +11299,7 @@
     </row>
     <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
-      <c r="B337" s="9"/>
+      <c r="B337" s="16"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -11343,7 +11328,7 @@
     </row>
     <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
-      <c r="B338" s="9"/>
+      <c r="B338" s="16"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -11372,7 +11357,7 @@
     </row>
     <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
-      <c r="B339" s="9"/>
+      <c r="B339" s="16"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -11401,7 +11386,7 @@
     </row>
     <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
-      <c r="B340" s="9"/>
+      <c r="B340" s="16"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -11430,7 +11415,7 @@
     </row>
     <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
-      <c r="B341" s="9"/>
+      <c r="B341" s="16"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -11459,7 +11444,7 @@
     </row>
     <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="B342" s="9"/>
+      <c r="B342" s="16"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -11488,7 +11473,7 @@
     </row>
     <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
-      <c r="B343" s="9"/>
+      <c r="B343" s="16"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -11517,7 +11502,7 @@
     </row>
     <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
-      <c r="B344" s="9"/>
+      <c r="B344" s="16"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -11546,7 +11531,7 @@
     </row>
     <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
-      <c r="B345" s="9"/>
+      <c r="B345" s="16"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -11575,7 +11560,7 @@
     </row>
     <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
-      <c r="B346" s="9"/>
+      <c r="B346" s="16"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -11604,7 +11589,7 @@
     </row>
     <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
-      <c r="B347" s="9"/>
+      <c r="B347" s="16"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -11633,7 +11618,7 @@
     </row>
     <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
-      <c r="B348" s="9"/>
+      <c r="B348" s="16"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -11662,7 +11647,7 @@
     </row>
     <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
-      <c r="B349" s="9"/>
+      <c r="B349" s="16"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -11691,7 +11676,7 @@
     </row>
     <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
-      <c r="B350" s="9"/>
+      <c r="B350" s="16"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -11720,7 +11705,7 @@
     </row>
     <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
-      <c r="B351" s="9"/>
+      <c r="B351" s="16"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -11749,7 +11734,7 @@
     </row>
     <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
-      <c r="B352" s="9"/>
+      <c r="B352" s="16"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -11778,7 +11763,7 @@
     </row>
     <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
-      <c r="B353" s="9"/>
+      <c r="B353" s="16"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -11807,7 +11792,7 @@
     </row>
     <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
-      <c r="B354" s="9"/>
+      <c r="B354" s="16"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -11836,7 +11821,7 @@
     </row>
     <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
-      <c r="B355" s="9"/>
+      <c r="B355" s="16"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -11865,7 +11850,7 @@
     </row>
     <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
-      <c r="B356" s="9"/>
+      <c r="B356" s="16"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -11894,7 +11879,7 @@
     </row>
     <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
-      <c r="B357" s="9"/>
+      <c r="B357" s="16"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -11923,7 +11908,7 @@
     </row>
     <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
-      <c r="B358" s="9"/>
+      <c r="B358" s="16"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -11952,7 +11937,7 @@
     </row>
     <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
-      <c r="B359" s="9"/>
+      <c r="B359" s="16"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -11981,7 +11966,7 @@
     </row>
     <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
-      <c r="B360" s="9"/>
+      <c r="B360" s="16"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -12010,7 +11995,7 @@
     </row>
     <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
-      <c r="B361" s="9"/>
+      <c r="B361" s="16"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -12039,7 +12024,7 @@
     </row>
     <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
-      <c r="B362" s="9"/>
+      <c r="B362" s="16"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -12068,7 +12053,7 @@
     </row>
     <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
-      <c r="B363" s="9"/>
+      <c r="B363" s="16"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -12097,7 +12082,7 @@
     </row>
     <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
-      <c r="B364" s="9"/>
+      <c r="B364" s="16"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -12126,7 +12111,7 @@
     </row>
     <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
-      <c r="B365" s="9"/>
+      <c r="B365" s="16"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -12155,7 +12140,7 @@
     </row>
     <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
-      <c r="B366" s="9"/>
+      <c r="B366" s="16"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -12184,7 +12169,7 @@
     </row>
     <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
-      <c r="B367" s="9"/>
+      <c r="B367" s="16"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -12213,7 +12198,7 @@
     </row>
     <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
-      <c r="B368" s="9"/>
+      <c r="B368" s="16"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -12242,7 +12227,7 @@
     </row>
     <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
-      <c r="B369" s="9"/>
+      <c r="B369" s="16"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -12271,7 +12256,7 @@
     </row>
     <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
-      <c r="B370" s="9"/>
+      <c r="B370" s="16"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -12300,7 +12285,7 @@
     </row>
     <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
-      <c r="B371" s="9"/>
+      <c r="B371" s="16"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -12329,7 +12314,7 @@
     </row>
     <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
-      <c r="B372" s="9"/>
+      <c r="B372" s="16"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -12358,7 +12343,7 @@
     </row>
     <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
-      <c r="B373" s="9"/>
+      <c r="B373" s="16"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -12387,7 +12372,7 @@
     </row>
     <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
-      <c r="B374" s="9"/>
+      <c r="B374" s="16"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -12416,7 +12401,7 @@
     </row>
     <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
-      <c r="B375" s="9"/>
+      <c r="B375" s="16"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -12445,7 +12430,7 @@
     </row>
     <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
-      <c r="B376" s="9"/>
+      <c r="B376" s="16"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -12474,7 +12459,7 @@
     </row>
     <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
-      <c r="B377" s="9"/>
+      <c r="B377" s="16"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -12503,7 +12488,7 @@
     </row>
     <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
-      <c r="B378" s="9"/>
+      <c r="B378" s="16"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -12532,7 +12517,7 @@
     </row>
     <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
-      <c r="B379" s="9"/>
+      <c r="B379" s="16"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -12561,7 +12546,7 @@
     </row>
     <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
-      <c r="B380" s="9"/>
+      <c r="B380" s="16"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -12590,7 +12575,7 @@
     </row>
     <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
-      <c r="B381" s="9"/>
+      <c r="B381" s="16"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -12619,7 +12604,7 @@
     </row>
     <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
-      <c r="B382" s="9"/>
+      <c r="B382" s="16"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -12648,7 +12633,7 @@
     </row>
     <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
-      <c r="B383" s="9"/>
+      <c r="B383" s="16"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -12677,7 +12662,7 @@
     </row>
     <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
-      <c r="B384" s="9"/>
+      <c r="B384" s="16"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -12706,7 +12691,7 @@
     </row>
     <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
-      <c r="B385" s="9"/>
+      <c r="B385" s="16"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -12735,7 +12720,7 @@
     </row>
     <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
-      <c r="B386" s="9"/>
+      <c r="B386" s="16"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -12764,7 +12749,7 @@
     </row>
     <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
-      <c r="B387" s="9"/>
+      <c r="B387" s="16"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -12793,7 +12778,7 @@
     </row>
     <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
-      <c r="B388" s="9"/>
+      <c r="B388" s="16"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -12822,7 +12807,7 @@
     </row>
     <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
-      <c r="B389" s="9"/>
+      <c r="B389" s="16"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -12851,7 +12836,7 @@
     </row>
     <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
-      <c r="B390" s="9"/>
+      <c r="B390" s="16"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -12880,7 +12865,7 @@
     </row>
     <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
-      <c r="B391" s="9"/>
+      <c r="B391" s="16"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -12909,7 +12894,7 @@
     </row>
     <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
-      <c r="B392" s="9"/>
+      <c r="B392" s="16"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -12938,7 +12923,7 @@
     </row>
     <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
-      <c r="B393" s="9"/>
+      <c r="B393" s="16"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -12967,7 +12952,7 @@
     </row>
     <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
-      <c r="B394" s="9"/>
+      <c r="B394" s="16"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -12996,7 +12981,7 @@
     </row>
     <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
-      <c r="B395" s="9"/>
+      <c r="B395" s="16"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -13025,7 +13010,7 @@
     </row>
     <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
-      <c r="B396" s="9"/>
+      <c r="B396" s="16"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -13054,7 +13039,7 @@
     </row>
     <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
-      <c r="B397" s="9"/>
+      <c r="B397" s="16"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -13083,7 +13068,7 @@
     </row>
     <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
-      <c r="B398" s="9"/>
+      <c r="B398" s="16"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -13112,7 +13097,7 @@
     </row>
     <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
-      <c r="B399" s="9"/>
+      <c r="B399" s="16"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -13141,7 +13126,7 @@
     </row>
     <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
-      <c r="B400" s="9"/>
+      <c r="B400" s="16"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -13170,7 +13155,7 @@
     </row>
     <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
-      <c r="B401" s="9"/>
+      <c r="B401" s="16"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -13199,7 +13184,7 @@
     </row>
     <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
-      <c r="B402" s="9"/>
+      <c r="B402" s="16"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -13228,7 +13213,7 @@
     </row>
     <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
-      <c r="B403" s="9"/>
+      <c r="B403" s="16"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -13257,7 +13242,7 @@
     </row>
     <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
-      <c r="B404" s="9"/>
+      <c r="B404" s="16"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -13286,7 +13271,7 @@
     </row>
     <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
-      <c r="B405" s="9"/>
+      <c r="B405" s="16"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -13315,7 +13300,7 @@
     </row>
     <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
-      <c r="B406" s="9"/>
+      <c r="B406" s="16"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -13344,7 +13329,7 @@
     </row>
     <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
-      <c r="B407" s="9"/>
+      <c r="B407" s="16"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -13373,7 +13358,7 @@
     </row>
     <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
-      <c r="B408" s="9"/>
+      <c r="B408" s="16"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -13402,7 +13387,7 @@
     </row>
     <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
-      <c r="B409" s="9"/>
+      <c r="B409" s="16"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -13431,7 +13416,7 @@
     </row>
     <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
-      <c r="B410" s="9"/>
+      <c r="B410" s="16"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -13460,7 +13445,7 @@
     </row>
     <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
-      <c r="B411" s="9"/>
+      <c r="B411" s="16"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -13489,7 +13474,7 @@
     </row>
     <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
-      <c r="B412" s="9"/>
+      <c r="B412" s="16"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -13518,7 +13503,7 @@
     </row>
     <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
-      <c r="B413" s="9"/>
+      <c r="B413" s="16"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -13547,7 +13532,7 @@
     </row>
     <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
-      <c r="B414" s="9"/>
+      <c r="B414" s="16"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -13576,7 +13561,7 @@
     </row>
     <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
-      <c r="B415" s="9"/>
+      <c r="B415" s="16"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -13605,7 +13590,7 @@
     </row>
     <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
-      <c r="B416" s="9"/>
+      <c r="B416" s="16"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -13634,7 +13619,7 @@
     </row>
     <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
-      <c r="B417" s="9"/>
+      <c r="B417" s="16"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -13663,7 +13648,7 @@
     </row>
     <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
-      <c r="B418" s="9"/>
+      <c r="B418" s="16"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -13692,7 +13677,7 @@
     </row>
     <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
-      <c r="B419" s="9"/>
+      <c r="B419" s="16"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -13721,7 +13706,7 @@
     </row>
     <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
-      <c r="B420" s="9"/>
+      <c r="B420" s="16"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -13750,7 +13735,7 @@
     </row>
     <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
-      <c r="B421" s="9"/>
+      <c r="B421" s="16"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -13779,7 +13764,7 @@
     </row>
     <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
-      <c r="B422" s="9"/>
+      <c r="B422" s="16"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -13808,7 +13793,7 @@
     </row>
     <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
-      <c r="B423" s="9"/>
+      <c r="B423" s="16"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -13837,7 +13822,7 @@
     </row>
     <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
-      <c r="B424" s="9"/>
+      <c r="B424" s="16"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -13866,7 +13851,7 @@
     </row>
     <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
-      <c r="B425" s="9"/>
+      <c r="B425" s="16"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -13895,7 +13880,7 @@
     </row>
     <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
-      <c r="B426" s="9"/>
+      <c r="B426" s="16"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -13924,7 +13909,7 @@
     </row>
     <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
-      <c r="B427" s="9"/>
+      <c r="B427" s="16"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -13953,7 +13938,7 @@
     </row>
     <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
-      <c r="B428" s="9"/>
+      <c r="B428" s="16"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -13982,7 +13967,7 @@
     </row>
     <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
-      <c r="B429" s="9"/>
+      <c r="B429" s="16"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -14011,7 +13996,7 @@
     </row>
     <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
-      <c r="B430" s="9"/>
+      <c r="B430" s="16"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -14040,7 +14025,7 @@
     </row>
     <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
-      <c r="B431" s="9"/>
+      <c r="B431" s="16"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -14069,7 +14054,7 @@
     </row>
     <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
-      <c r="B432" s="9"/>
+      <c r="B432" s="16"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -14098,7 +14083,7 @@
     </row>
     <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
-      <c r="B433" s="9"/>
+      <c r="B433" s="16"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -14127,7 +14112,7 @@
     </row>
     <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
-      <c r="B434" s="9"/>
+      <c r="B434" s="16"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -14156,7 +14141,7 @@
     </row>
     <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
-      <c r="B435" s="9"/>
+      <c r="B435" s="16"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -14185,7 +14170,7 @@
     </row>
     <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
-      <c r="B436" s="9"/>
+      <c r="B436" s="16"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -14214,7 +14199,7 @@
     </row>
     <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
-      <c r="B437" s="9"/>
+      <c r="B437" s="16"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -14243,7 +14228,7 @@
     </row>
     <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
-      <c r="B438" s="9"/>
+      <c r="B438" s="16"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -14272,7 +14257,7 @@
     </row>
     <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
-      <c r="B439" s="9"/>
+      <c r="B439" s="16"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -14301,7 +14286,7 @@
     </row>
     <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
-      <c r="B440" s="9"/>
+      <c r="B440" s="16"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -14330,7 +14315,7 @@
     </row>
     <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
-      <c r="B441" s="9"/>
+      <c r="B441" s="16"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -14359,7 +14344,7 @@
     </row>
     <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
-      <c r="B442" s="9"/>
+      <c r="B442" s="16"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -14388,7 +14373,7 @@
     </row>
     <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
-      <c r="B443" s="9"/>
+      <c r="B443" s="16"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -14417,7 +14402,7 @@
     </row>
     <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
-      <c r="B444" s="9"/>
+      <c r="B444" s="16"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -14446,7 +14431,7 @@
     </row>
     <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
-      <c r="B445" s="9"/>
+      <c r="B445" s="16"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -14475,7 +14460,7 @@
     </row>
     <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
-      <c r="B446" s="9"/>
+      <c r="B446" s="16"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -14504,7 +14489,7 @@
     </row>
     <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
-      <c r="B447" s="9"/>
+      <c r="B447" s="16"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -14533,7 +14518,7 @@
     </row>
     <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
-      <c r="B448" s="9"/>
+      <c r="B448" s="16"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -14562,7 +14547,7 @@
     </row>
     <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
-      <c r="B449" s="9"/>
+      <c r="B449" s="16"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -14591,7 +14576,7 @@
     </row>
     <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
-      <c r="B450" s="9"/>
+      <c r="B450" s="16"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -14620,7 +14605,7 @@
     </row>
     <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
-      <c r="B451" s="9"/>
+      <c r="B451" s="16"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -14649,7 +14634,7 @@
     </row>
     <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
-      <c r="B452" s="9"/>
+      <c r="B452" s="16"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -14678,7 +14663,7 @@
     </row>
     <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
-      <c r="B453" s="9"/>
+      <c r="B453" s="16"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -14707,7 +14692,7 @@
     </row>
     <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
-      <c r="B454" s="9"/>
+      <c r="B454" s="16"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -14736,7 +14721,7 @@
     </row>
     <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
-      <c r="B455" s="9"/>
+      <c r="B455" s="16"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -14765,7 +14750,7 @@
     </row>
     <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
-      <c r="B456" s="9"/>
+      <c r="B456" s="16"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -14794,7 +14779,7 @@
     </row>
     <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
-      <c r="B457" s="9"/>
+      <c r="B457" s="16"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -14823,7 +14808,7 @@
     </row>
     <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
-      <c r="B458" s="9"/>
+      <c r="B458" s="16"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -14852,7 +14837,7 @@
     </row>
     <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
-      <c r="B459" s="9"/>
+      <c r="B459" s="16"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -14881,7 +14866,7 @@
     </row>
     <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
-      <c r="B460" s="9"/>
+      <c r="B460" s="16"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -14910,7 +14895,7 @@
     </row>
     <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
-      <c r="B461" s="9"/>
+      <c r="B461" s="16"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -14939,7 +14924,7 @@
     </row>
     <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
-      <c r="B462" s="9"/>
+      <c r="B462" s="16"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -14968,7 +14953,7 @@
     </row>
     <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
-      <c r="B463" s="9"/>
+      <c r="B463" s="16"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -14997,7 +14982,7 @@
     </row>
     <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
-      <c r="B464" s="9"/>
+      <c r="B464" s="16"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -15026,7 +15011,7 @@
     </row>
     <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
-      <c r="B465" s="9"/>
+      <c r="B465" s="16"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -15055,7 +15040,7 @@
     </row>
     <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
-      <c r="B466" s="9"/>
+      <c r="B466" s="16"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -15084,7 +15069,7 @@
     </row>
     <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
-      <c r="B467" s="9"/>
+      <c r="B467" s="16"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -15113,7 +15098,7 @@
     </row>
     <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
-      <c r="B468" s="9"/>
+      <c r="B468" s="16"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -15142,7 +15127,7 @@
     </row>
     <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
-      <c r="B469" s="9"/>
+      <c r="B469" s="16"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -15171,7 +15156,7 @@
     </row>
     <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
-      <c r="B470" s="9"/>
+      <c r="B470" s="16"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -15200,7 +15185,7 @@
     </row>
     <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
-      <c r="B471" s="9"/>
+      <c r="B471" s="16"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -15229,7 +15214,7 @@
     </row>
     <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
-      <c r="B472" s="9"/>
+      <c r="B472" s="16"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -15258,7 +15243,7 @@
     </row>
     <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
-      <c r="B473" s="9"/>
+      <c r="B473" s="16"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -15287,7 +15272,7 @@
     </row>
     <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
-      <c r="B474" s="9"/>
+      <c r="B474" s="16"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -15316,7 +15301,7 @@
     </row>
     <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
-      <c r="B475" s="9"/>
+      <c r="B475" s="16"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -15345,7 +15330,7 @@
     </row>
     <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
-      <c r="B476" s="9"/>
+      <c r="B476" s="16"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -15374,7 +15359,7 @@
     </row>
     <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
-      <c r="B477" s="9"/>
+      <c r="B477" s="16"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -15403,7 +15388,7 @@
     </row>
     <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
-      <c r="B478" s="9"/>
+      <c r="B478" s="16"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -15432,7 +15417,7 @@
     </row>
     <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
-      <c r="B479" s="9"/>
+      <c r="B479" s="16"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -15461,7 +15446,7 @@
     </row>
     <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
-      <c r="B480" s="9"/>
+      <c r="B480" s="16"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -15490,7 +15475,7 @@
     </row>
     <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
-      <c r="B481" s="9"/>
+      <c r="B481" s="16"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -15519,7 +15504,7 @@
     </row>
     <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
-      <c r="B482" s="9"/>
+      <c r="B482" s="16"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -15548,7 +15533,7 @@
     </row>
     <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
-      <c r="B483" s="9"/>
+      <c r="B483" s="16"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -15577,7 +15562,7 @@
     </row>
     <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
-      <c r="B484" s="9"/>
+      <c r="B484" s="16"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -15606,7 +15591,7 @@
     </row>
     <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
-      <c r="B485" s="9"/>
+      <c r="B485" s="16"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -15635,7 +15620,7 @@
     </row>
     <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
-      <c r="B486" s="9"/>
+      <c r="B486" s="16"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -15664,7 +15649,7 @@
     </row>
     <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
-      <c r="B487" s="9"/>
+      <c r="B487" s="16"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -15693,7 +15678,7 @@
     </row>
     <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
-      <c r="B488" s="9"/>
+      <c r="B488" s="16"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -15722,7 +15707,7 @@
     </row>
     <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
-      <c r="B489" s="9"/>
+      <c r="B489" s="16"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -15751,7 +15736,7 @@
     </row>
     <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
-      <c r="B490" s="9"/>
+      <c r="B490" s="16"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -15780,7 +15765,7 @@
     </row>
     <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
-      <c r="B491" s="9"/>
+      <c r="B491" s="16"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -15809,7 +15794,7 @@
     </row>
     <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
-      <c r="B492" s="9"/>
+      <c r="B492" s="16"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -15838,7 +15823,7 @@
     </row>
     <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
-      <c r="B493" s="9"/>
+      <c r="B493" s="16"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -15867,7 +15852,7 @@
     </row>
     <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
-      <c r="B494" s="9"/>
+      <c r="B494" s="16"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -15896,7 +15881,7 @@
     </row>
     <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
-      <c r="B495" s="9"/>
+      <c r="B495" s="16"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -15925,7 +15910,7 @@
     </row>
     <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
-      <c r="B496" s="9"/>
+      <c r="B496" s="16"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -15954,7 +15939,7 @@
     </row>
     <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
-      <c r="B497" s="9"/>
+      <c r="B497" s="16"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -15983,7 +15968,7 @@
     </row>
     <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
-      <c r="B498" s="9"/>
+      <c r="B498" s="16"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -16012,7 +15997,7 @@
     </row>
     <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
-      <c r="B499" s="9"/>
+      <c r="B499" s="16"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -16041,7 +16026,7 @@
     </row>
     <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
-      <c r="B500" s="9"/>
+      <c r="B500" s="16"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -16070,7 +16055,7 @@
     </row>
     <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
-      <c r="B501" s="9"/>
+      <c r="B501" s="16"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -16099,7 +16084,7 @@
     </row>
     <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
-      <c r="B502" s="9"/>
+      <c r="B502" s="16"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -16128,7 +16113,7 @@
     </row>
     <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
-      <c r="B503" s="9"/>
+      <c r="B503" s="16"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -16157,7 +16142,7 @@
     </row>
     <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
-      <c r="B504" s="9"/>
+      <c r="B504" s="16"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -16186,7 +16171,7 @@
     </row>
     <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
-      <c r="B505" s="9"/>
+      <c r="B505" s="16"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -16215,7 +16200,7 @@
     </row>
     <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
-      <c r="B506" s="9"/>
+      <c r="B506" s="16"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -16244,7 +16229,7 @@
     </row>
     <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
-      <c r="B507" s="9"/>
+      <c r="B507" s="16"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -16273,7 +16258,7 @@
     </row>
     <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
-      <c r="B508" s="9"/>
+      <c r="B508" s="16"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -16302,7 +16287,7 @@
     </row>
     <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
-      <c r="B509" s="9"/>
+      <c r="B509" s="16"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -16331,7 +16316,7 @@
     </row>
     <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
-      <c r="B510" s="9"/>
+      <c r="B510" s="16"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -16360,7 +16345,7 @@
     </row>
     <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
-      <c r="B511" s="9"/>
+      <c r="B511" s="16"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -16389,7 +16374,7 @@
     </row>
     <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
-      <c r="B512" s="9"/>
+      <c r="B512" s="16"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -16418,7 +16403,7 @@
     </row>
     <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
-      <c r="B513" s="9"/>
+      <c r="B513" s="16"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -16447,7 +16432,7 @@
     </row>
     <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
-      <c r="B514" s="9"/>
+      <c r="B514" s="16"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -16476,7 +16461,7 @@
     </row>
     <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
-      <c r="B515" s="9"/>
+      <c r="B515" s="16"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -16505,7 +16490,7 @@
     </row>
     <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
-      <c r="B516" s="9"/>
+      <c r="B516" s="16"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -16534,7 +16519,7 @@
     </row>
     <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
-      <c r="B517" s="9"/>
+      <c r="B517" s="16"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -16563,7 +16548,7 @@
     </row>
     <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
-      <c r="B518" s="9"/>
+      <c r="B518" s="16"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -16592,7 +16577,7 @@
     </row>
     <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
-      <c r="B519" s="9"/>
+      <c r="B519" s="16"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -16621,7 +16606,7 @@
     </row>
     <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
-      <c r="B520" s="9"/>
+      <c r="B520" s="16"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -16650,7 +16635,7 @@
     </row>
     <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
-      <c r="B521" s="9"/>
+      <c r="B521" s="16"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -16679,7 +16664,7 @@
     </row>
     <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
-      <c r="B522" s="9"/>
+      <c r="B522" s="16"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -16708,7 +16693,7 @@
     </row>
     <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
-      <c r="B523" s="9"/>
+      <c r="B523" s="16"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -16737,7 +16722,7 @@
     </row>
     <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
-      <c r="B524" s="9"/>
+      <c r="B524" s="16"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -16766,7 +16751,7 @@
     </row>
     <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
-      <c r="B525" s="9"/>
+      <c r="B525" s="16"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -16795,7 +16780,7 @@
     </row>
     <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
-      <c r="B526" s="9"/>
+      <c r="B526" s="16"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -16824,7 +16809,7 @@
     </row>
     <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
-      <c r="B527" s="9"/>
+      <c r="B527" s="16"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -16853,7 +16838,7 @@
     </row>
     <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
-      <c r="B528" s="9"/>
+      <c r="B528" s="16"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -16882,7 +16867,7 @@
     </row>
     <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
-      <c r="B529" s="9"/>
+      <c r="B529" s="16"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -16911,7 +16896,7 @@
     </row>
     <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
-      <c r="B530" s="9"/>
+      <c r="B530" s="16"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -16940,7 +16925,7 @@
     </row>
     <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
-      <c r="B531" s="9"/>
+      <c r="B531" s="16"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -16969,7 +16954,7 @@
     </row>
     <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
-      <c r="B532" s="9"/>
+      <c r="B532" s="16"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -16998,7 +16983,7 @@
     </row>
     <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
-      <c r="B533" s="9"/>
+      <c r="B533" s="16"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -17027,7 +17012,7 @@
     </row>
     <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
-      <c r="B534" s="9"/>
+      <c r="B534" s="16"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -17056,7 +17041,7 @@
     </row>
     <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
-      <c r="B535" s="9"/>
+      <c r="B535" s="16"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -17085,7 +17070,7 @@
     </row>
     <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
-      <c r="B536" s="9"/>
+      <c r="B536" s="16"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -17114,7 +17099,7 @@
     </row>
     <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
-      <c r="B537" s="9"/>
+      <c r="B537" s="16"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -17143,7 +17128,7 @@
     </row>
     <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
-      <c r="B538" s="9"/>
+      <c r="B538" s="16"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -17172,7 +17157,7 @@
     </row>
     <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
-      <c r="B539" s="9"/>
+      <c r="B539" s="16"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -17201,7 +17186,7 @@
     </row>
     <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
-      <c r="B540" s="9"/>
+      <c r="B540" s="16"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -17230,7 +17215,7 @@
     </row>
     <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
-      <c r="B541" s="9"/>
+      <c r="B541" s="16"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -17259,7 +17244,7 @@
     </row>
     <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
-      <c r="B542" s="9"/>
+      <c r="B542" s="16"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -17288,7 +17273,7 @@
     </row>
     <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
-      <c r="B543" s="9"/>
+      <c r="B543" s="16"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -17317,7 +17302,7 @@
     </row>
     <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
-      <c r="B544" s="9"/>
+      <c r="B544" s="16"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -17346,7 +17331,7 @@
     </row>
     <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
-      <c r="B545" s="9"/>
+      <c r="B545" s="16"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -17375,7 +17360,7 @@
     </row>
     <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
-      <c r="B546" s="9"/>
+      <c r="B546" s="16"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -17404,7 +17389,7 @@
     </row>
     <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
-      <c r="B547" s="9"/>
+      <c r="B547" s="16"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -17433,7 +17418,7 @@
     </row>
     <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
-      <c r="B548" s="9"/>
+      <c r="B548" s="16"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -17462,7 +17447,7 @@
     </row>
     <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
-      <c r="B549" s="9"/>
+      <c r="B549" s="16"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -17491,7 +17476,7 @@
     </row>
     <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
-      <c r="B550" s="9"/>
+      <c r="B550" s="16"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -17520,7 +17505,7 @@
     </row>
     <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
-      <c r="B551" s="9"/>
+      <c r="B551" s="16"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -17549,7 +17534,7 @@
     </row>
     <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
-      <c r="B552" s="9"/>
+      <c r="B552" s="16"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -17578,7 +17563,7 @@
     </row>
     <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
-      <c r="B553" s="9"/>
+      <c r="B553" s="16"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -17607,7 +17592,7 @@
     </row>
     <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
-      <c r="B554" s="9"/>
+      <c r="B554" s="16"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -17636,7 +17621,7 @@
     </row>
     <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
-      <c r="B555" s="9"/>
+      <c r="B555" s="16"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -17665,7 +17650,7 @@
     </row>
     <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
-      <c r="B556" s="9"/>
+      <c r="B556" s="16"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -17694,7 +17679,7 @@
     </row>
     <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
-      <c r="B557" s="9"/>
+      <c r="B557" s="16"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -17723,7 +17708,7 @@
     </row>
     <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
-      <c r="B558" s="9"/>
+      <c r="B558" s="16"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -17752,7 +17737,7 @@
     </row>
     <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
-      <c r="B559" s="9"/>
+      <c r="B559" s="16"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -17781,7 +17766,7 @@
     </row>
     <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
-      <c r="B560" s="9"/>
+      <c r="B560" s="16"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -17810,7 +17795,7 @@
     </row>
     <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
-      <c r="B561" s="9"/>
+      <c r="B561" s="16"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -17839,7 +17824,7 @@
     </row>
     <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
-      <c r="B562" s="9"/>
+      <c r="B562" s="16"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -17868,7 +17853,7 @@
     </row>
     <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
-      <c r="B563" s="9"/>
+      <c r="B563" s="16"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -17897,7 +17882,7 @@
     </row>
     <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
-      <c r="B564" s="9"/>
+      <c r="B564" s="16"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -17926,7 +17911,7 @@
     </row>
     <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
-      <c r="B565" s="9"/>
+      <c r="B565" s="16"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -17955,7 +17940,7 @@
     </row>
     <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
-      <c r="B566" s="9"/>
+      <c r="B566" s="16"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -17984,7 +17969,7 @@
     </row>
     <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
-      <c r="B567" s="9"/>
+      <c r="B567" s="16"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -18013,7 +17998,7 @@
     </row>
     <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
-      <c r="B568" s="9"/>
+      <c r="B568" s="16"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -18042,7 +18027,7 @@
     </row>
     <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
-      <c r="B569" s="9"/>
+      <c r="B569" s="16"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -18071,7 +18056,7 @@
     </row>
     <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
-      <c r="B570" s="9"/>
+      <c r="B570" s="16"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -18100,7 +18085,7 @@
     </row>
     <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
-      <c r="B571" s="9"/>
+      <c r="B571" s="16"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -18129,7 +18114,7 @@
     </row>
     <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
-      <c r="B572" s="9"/>
+      <c r="B572" s="16"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -18158,7 +18143,7 @@
     </row>
     <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
-      <c r="B573" s="9"/>
+      <c r="B573" s="16"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -18187,7 +18172,7 @@
     </row>
     <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
-      <c r="B574" s="9"/>
+      <c r="B574" s="16"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -18216,7 +18201,7 @@
     </row>
     <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
-      <c r="B575" s="9"/>
+      <c r="B575" s="16"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -18245,7 +18230,7 @@
     </row>
     <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
-      <c r="B576" s="9"/>
+      <c r="B576" s="16"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -18274,7 +18259,7 @@
     </row>
     <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
-      <c r="B577" s="9"/>
+      <c r="B577" s="16"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -18303,7 +18288,7 @@
     </row>
     <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
-      <c r="B578" s="9"/>
+      <c r="B578" s="16"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -18332,7 +18317,7 @@
     </row>
     <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
-      <c r="B579" s="9"/>
+      <c r="B579" s="16"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -18361,7 +18346,7 @@
     </row>
     <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
-      <c r="B580" s="9"/>
+      <c r="B580" s="16"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -18390,7 +18375,7 @@
     </row>
     <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
-      <c r="B581" s="9"/>
+      <c r="B581" s="16"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -18419,7 +18404,7 @@
     </row>
     <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
-      <c r="B582" s="9"/>
+      <c r="B582" s="16"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -18448,7 +18433,7 @@
     </row>
     <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
-      <c r="B583" s="9"/>
+      <c r="B583" s="16"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -18477,7 +18462,7 @@
     </row>
     <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
-      <c r="B584" s="9"/>
+      <c r="B584" s="16"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -18506,7 +18491,7 @@
     </row>
     <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
-      <c r="B585" s="9"/>
+      <c r="B585" s="16"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -18535,7 +18520,7 @@
     </row>
     <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
-      <c r="B586" s="9"/>
+      <c r="B586" s="16"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -18564,7 +18549,7 @@
     </row>
     <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
-      <c r="B587" s="9"/>
+      <c r="B587" s="16"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -18593,7 +18578,7 @@
     </row>
     <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
-      <c r="B588" s="9"/>
+      <c r="B588" s="16"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -18622,7 +18607,7 @@
     </row>
     <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
-      <c r="B589" s="9"/>
+      <c r="B589" s="16"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -18651,7 +18636,7 @@
     </row>
     <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
-      <c r="B590" s="9"/>
+      <c r="B590" s="16"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -18680,7 +18665,7 @@
     </row>
     <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
-      <c r="B591" s="9"/>
+      <c r="B591" s="16"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -18709,7 +18694,7 @@
     </row>
     <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
-      <c r="B592" s="9"/>
+      <c r="B592" s="16"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -18738,7 +18723,7 @@
     </row>
     <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
-      <c r="B593" s="9"/>
+      <c r="B593" s="16"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -18767,7 +18752,7 @@
     </row>
     <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
-      <c r="B594" s="9"/>
+      <c r="B594" s="16"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -18796,7 +18781,7 @@
     </row>
     <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
-      <c r="B595" s="9"/>
+      <c r="B595" s="16"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -18825,7 +18810,7 @@
     </row>
     <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
-      <c r="B596" s="9"/>
+      <c r="B596" s="16"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -18854,7 +18839,7 @@
     </row>
     <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
-      <c r="B597" s="9"/>
+      <c r="B597" s="16"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -18883,7 +18868,7 @@
     </row>
     <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
-      <c r="B598" s="9"/>
+      <c r="B598" s="16"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -18912,7 +18897,7 @@
     </row>
     <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
-      <c r="B599" s="9"/>
+      <c r="B599" s="16"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -18941,7 +18926,7 @@
     </row>
     <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
-      <c r="B600" s="9"/>
+      <c r="B600" s="16"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -18970,7 +18955,7 @@
     </row>
     <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
-      <c r="B601" s="9"/>
+      <c r="B601" s="16"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -18999,7 +18984,7 @@
     </row>
     <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
-      <c r="B602" s="9"/>
+      <c r="B602" s="16"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -19028,7 +19013,7 @@
     </row>
     <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
-      <c r="B603" s="9"/>
+      <c r="B603" s="16"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -19057,7 +19042,7 @@
     </row>
     <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
-      <c r="B604" s="9"/>
+      <c r="B604" s="16"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -19086,7 +19071,7 @@
     </row>
     <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
-      <c r="B605" s="9"/>
+      <c r="B605" s="16"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -19115,7 +19100,7 @@
     </row>
     <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
-      <c r="B606" s="9"/>
+      <c r="B606" s="16"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -19144,7 +19129,7 @@
     </row>
     <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
-      <c r="B607" s="9"/>
+      <c r="B607" s="16"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -19173,7 +19158,7 @@
     </row>
     <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
-      <c r="B608" s="9"/>
+      <c r="B608" s="16"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -19202,7 +19187,7 @@
     </row>
     <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
-      <c r="B609" s="9"/>
+      <c r="B609" s="16"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -19231,7 +19216,7 @@
     </row>
     <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
-      <c r="B610" s="9"/>
+      <c r="B610" s="16"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -19260,7 +19245,7 @@
     </row>
     <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
-      <c r="B611" s="9"/>
+      <c r="B611" s="16"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -19289,7 +19274,7 @@
     </row>
     <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
-      <c r="B612" s="9"/>
+      <c r="B612" s="16"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -19318,7 +19303,7 @@
     </row>
     <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
-      <c r="B613" s="9"/>
+      <c r="B613" s="16"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -19347,7 +19332,7 @@
     </row>
     <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
-      <c r="B614" s="9"/>
+      <c r="B614" s="16"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -19376,7 +19361,7 @@
     </row>
     <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
-      <c r="B615" s="9"/>
+      <c r="B615" s="16"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -19405,7 +19390,7 @@
     </row>
     <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
-      <c r="B616" s="9"/>
+      <c r="B616" s="16"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -19434,7 +19419,7 @@
     </row>
     <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
-      <c r="B617" s="9"/>
+      <c r="B617" s="16"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -19463,7 +19448,7 @@
     </row>
     <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
-      <c r="B618" s="9"/>
+      <c r="B618" s="16"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -19492,7 +19477,7 @@
     </row>
     <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
-      <c r="B619" s="9"/>
+      <c r="B619" s="16"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -19521,7 +19506,7 @@
     </row>
     <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
-      <c r="B620" s="9"/>
+      <c r="B620" s="16"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -19550,7 +19535,7 @@
     </row>
     <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
-      <c r="B621" s="9"/>
+      <c r="B621" s="16"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -19579,7 +19564,7 @@
     </row>
     <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
-      <c r="B622" s="9"/>
+      <c r="B622" s="16"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -19608,7 +19593,7 @@
     </row>
     <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
-      <c r="B623" s="9"/>
+      <c r="B623" s="16"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -19637,7 +19622,7 @@
     </row>
     <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
-      <c r="B624" s="9"/>
+      <c r="B624" s="16"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -19666,7 +19651,7 @@
     </row>
     <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
-      <c r="B625" s="9"/>
+      <c r="B625" s="16"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -19695,7 +19680,7 @@
     </row>
     <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
-      <c r="B626" s="9"/>
+      <c r="B626" s="16"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -19724,7 +19709,7 @@
     </row>
     <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
-      <c r="B627" s="9"/>
+      <c r="B627" s="16"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -19753,7 +19738,7 @@
     </row>
     <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
-      <c r="B628" s="9"/>
+      <c r="B628" s="16"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -19782,7 +19767,7 @@
     </row>
     <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
-      <c r="B629" s="9"/>
+      <c r="B629" s="16"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -19811,7 +19796,7 @@
     </row>
     <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
-      <c r="B630" s="9"/>
+      <c r="B630" s="16"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -19840,7 +19825,7 @@
     </row>
     <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
-      <c r="B631" s="9"/>
+      <c r="B631" s="16"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -19869,7 +19854,7 @@
     </row>
     <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
-      <c r="B632" s="9"/>
+      <c r="B632" s="16"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -19898,7 +19883,7 @@
     </row>
     <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
-      <c r="B633" s="9"/>
+      <c r="B633" s="16"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -19927,7 +19912,7 @@
     </row>
     <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
-      <c r="B634" s="9"/>
+      <c r="B634" s="16"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -19956,7 +19941,7 @@
     </row>
     <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
-      <c r="B635" s="9"/>
+      <c r="B635" s="16"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -19985,7 +19970,7 @@
     </row>
     <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
-      <c r="B636" s="9"/>
+      <c r="B636" s="16"/>
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -20014,7 +19999,7 @@
     </row>
     <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
-      <c r="B637" s="9"/>
+      <c r="B637" s="16"/>
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -20043,7 +20028,7 @@
     </row>
     <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
-      <c r="B638" s="9"/>
+      <c r="B638" s="16"/>
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -20072,7 +20057,7 @@
     </row>
     <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
-      <c r="B639" s="9"/>
+      <c r="B639" s="16"/>
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -20101,7 +20086,7 @@
     </row>
     <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
-      <c r="B640" s="9"/>
+      <c r="B640" s="16"/>
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -20130,7 +20115,7 @@
     </row>
     <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
-      <c r="B641" s="9"/>
+      <c r="B641" s="16"/>
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -20159,7 +20144,7 @@
     </row>
     <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
-      <c r="B642" s="9"/>
+      <c r="B642" s="16"/>
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -20188,7 +20173,7 @@
     </row>
     <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
-      <c r="B643" s="9"/>
+      <c r="B643" s="16"/>
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -20217,7 +20202,7 @@
     </row>
     <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
-      <c r="B644" s="9"/>
+      <c r="B644" s="16"/>
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -20246,7 +20231,7 @@
     </row>
     <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
-      <c r="B645" s="9"/>
+      <c r="B645" s="16"/>
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -20275,7 +20260,7 @@
     </row>
     <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
-      <c r="B646" s="9"/>
+      <c r="B646" s="16"/>
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -20304,7 +20289,7 @@
     </row>
     <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
-      <c r="B647" s="9"/>
+      <c r="B647" s="16"/>
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -20333,7 +20318,7 @@
     </row>
     <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
-      <c r="B648" s="9"/>
+      <c r="B648" s="16"/>
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -20362,7 +20347,7 @@
     </row>
     <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
-      <c r="B649" s="9"/>
+      <c r="B649" s="16"/>
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -20391,7 +20376,7 @@
     </row>
     <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
-      <c r="B650" s="9"/>
+      <c r="B650" s="16"/>
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -20420,7 +20405,7 @@
     </row>
     <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
-      <c r="B651" s="9"/>
+      <c r="B651" s="16"/>
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -20449,7 +20434,7 @@
     </row>
     <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
-      <c r="B652" s="9"/>
+      <c r="B652" s="16"/>
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -20478,7 +20463,7 @@
     </row>
     <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
-      <c r="B653" s="9"/>
+      <c r="B653" s="16"/>
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -20507,7 +20492,7 @@
     </row>
     <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
-      <c r="B654" s="9"/>
+      <c r="B654" s="16"/>
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -20536,7 +20521,7 @@
     </row>
     <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
-      <c r="B655" s="9"/>
+      <c r="B655" s="16"/>
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -20565,7 +20550,7 @@
     </row>
     <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
-      <c r="B656" s="9"/>
+      <c r="B656" s="16"/>
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -20594,7 +20579,7 @@
     </row>
     <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
-      <c r="B657" s="9"/>
+      <c r="B657" s="16"/>
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -20623,7 +20608,7 @@
     </row>
     <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
-      <c r="B658" s="9"/>
+      <c r="B658" s="16"/>
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -20652,7 +20637,7 @@
     </row>
     <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
-      <c r="B659" s="9"/>
+      <c r="B659" s="16"/>
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -20681,7 +20666,7 @@
     </row>
     <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
-      <c r="B660" s="9"/>
+      <c r="B660" s="16"/>
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -20710,7 +20695,7 @@
     </row>
     <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
-      <c r="B661" s="9"/>
+      <c r="B661" s="16"/>
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -20739,7 +20724,7 @@
     </row>
     <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
-      <c r="B662" s="9"/>
+      <c r="B662" s="16"/>
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -20768,7 +20753,7 @@
     </row>
     <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
-      <c r="B663" s="9"/>
+      <c r="B663" s="16"/>
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -20797,7 +20782,7 @@
     </row>
     <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
-      <c r="B664" s="9"/>
+      <c r="B664" s="16"/>
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -20826,7 +20811,7 @@
     </row>
     <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
-      <c r="B665" s="9"/>
+      <c r="B665" s="16"/>
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -20855,7 +20840,7 @@
     </row>
     <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
-      <c r="B666" s="9"/>
+      <c r="B666" s="16"/>
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -20884,7 +20869,7 @@
     </row>
     <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
-      <c r="B667" s="9"/>
+      <c r="B667" s="16"/>
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -20913,7 +20898,7 @@
     </row>
     <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
-      <c r="B668" s="9"/>
+      <c r="B668" s="16"/>
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -20942,7 +20927,7 @@
     </row>
     <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
-      <c r="B669" s="9"/>
+      <c r="B669" s="16"/>
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -20971,7 +20956,7 @@
     </row>
     <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
-      <c r="B670" s="9"/>
+      <c r="B670" s="16"/>
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -21000,7 +20985,7 @@
     </row>
     <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
-      <c r="B671" s="9"/>
+      <c r="B671" s="16"/>
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -21029,7 +21014,7 @@
     </row>
     <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
-      <c r="B672" s="9"/>
+      <c r="B672" s="16"/>
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -21058,7 +21043,7 @@
     </row>
     <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
-      <c r="B673" s="9"/>
+      <c r="B673" s="16"/>
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -21087,7 +21072,7 @@
     </row>
     <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
-      <c r="B674" s="9"/>
+      <c r="B674" s="16"/>
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -21116,7 +21101,7 @@
     </row>
     <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
-      <c r="B675" s="9"/>
+      <c r="B675" s="16"/>
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -21145,7 +21130,7 @@
     </row>
     <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
-      <c r="B676" s="9"/>
+      <c r="B676" s="16"/>
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -21174,7 +21159,7 @@
     </row>
     <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
-      <c r="B677" s="9"/>
+      <c r="B677" s="16"/>
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -21203,7 +21188,7 @@
     </row>
     <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
-      <c r="B678" s="9"/>
+      <c r="B678" s="16"/>
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -21232,7 +21217,7 @@
     </row>
     <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
-      <c r="B679" s="9"/>
+      <c r="B679" s="16"/>
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -21261,7 +21246,7 @@
     </row>
     <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
-      <c r="B680" s="9"/>
+      <c r="B680" s="16"/>
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -21290,7 +21275,7 @@
     </row>
     <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
-      <c r="B681" s="9"/>
+      <c r="B681" s="16"/>
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -21319,7 +21304,7 @@
     </row>
     <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
-      <c r="B682" s="9"/>
+      <c r="B682" s="16"/>
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -21348,7 +21333,7 @@
     </row>
     <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
-      <c r="B683" s="9"/>
+      <c r="B683" s="16"/>
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -21377,7 +21362,7 @@
     </row>
     <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
-      <c r="B684" s="9"/>
+      <c r="B684" s="16"/>
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -21406,7 +21391,7 @@
     </row>
     <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
-      <c r="B685" s="9"/>
+      <c r="B685" s="16"/>
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -21435,7 +21420,7 @@
     </row>
     <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
-      <c r="B686" s="9"/>
+      <c r="B686" s="16"/>
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -21464,7 +21449,7 @@
     </row>
     <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
-      <c r="B687" s="9"/>
+      <c r="B687" s="16"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -21493,7 +21478,7 @@
     </row>
     <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
-      <c r="B688" s="9"/>
+      <c r="B688" s="16"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -21522,7 +21507,7 @@
     </row>
     <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
-      <c r="B689" s="9"/>
+      <c r="B689" s="16"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -21551,7 +21536,7 @@
     </row>
     <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
-      <c r="B690" s="9"/>
+      <c r="B690" s="16"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -21580,7 +21565,7 @@
     </row>
     <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
-      <c r="B691" s="9"/>
+      <c r="B691" s="16"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -21609,7 +21594,7 @@
     </row>
     <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
-      <c r="B692" s="9"/>
+      <c r="B692" s="16"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -21638,7 +21623,7 @@
     </row>
     <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
-      <c r="B693" s="9"/>
+      <c r="B693" s="16"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -21667,7 +21652,7 @@
     </row>
     <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
-      <c r="B694" s="9"/>
+      <c r="B694" s="16"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -21696,7 +21681,7 @@
     </row>
     <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
-      <c r="B695" s="9"/>
+      <c r="B695" s="16"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -21725,7 +21710,7 @@
     </row>
     <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
-      <c r="B696" s="9"/>
+      <c r="B696" s="16"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -21754,7 +21739,7 @@
     </row>
     <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
-      <c r="B697" s="9"/>
+      <c r="B697" s="16"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -21783,7 +21768,7 @@
     </row>
     <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
-      <c r="B698" s="9"/>
+      <c r="B698" s="16"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -21812,7 +21797,7 @@
     </row>
     <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
-      <c r="B699" s="9"/>
+      <c r="B699" s="16"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -21841,7 +21826,7 @@
     </row>
     <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
-      <c r="B700" s="9"/>
+      <c r="B700" s="16"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -21870,7 +21855,7 @@
     </row>
     <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
-      <c r="B701" s="9"/>
+      <c r="B701" s="16"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -21899,7 +21884,7 @@
     </row>
     <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
-      <c r="B702" s="9"/>
+      <c r="B702" s="16"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -21928,7 +21913,7 @@
     </row>
     <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
-      <c r="B703" s="9"/>
+      <c r="B703" s="16"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -21957,7 +21942,7 @@
     </row>
     <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
-      <c r="B704" s="9"/>
+      <c r="B704" s="16"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -21986,7 +21971,7 @@
     </row>
     <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
-      <c r="B705" s="9"/>
+      <c r="B705" s="16"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -22015,7 +22000,7 @@
     </row>
     <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
-      <c r="B706" s="9"/>
+      <c r="B706" s="16"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -22044,7 +22029,7 @@
     </row>
     <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
-      <c r="B707" s="9"/>
+      <c r="B707" s="16"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -22073,7 +22058,7 @@
     </row>
     <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
-      <c r="B708" s="9"/>
+      <c r="B708" s="16"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -22102,7 +22087,7 @@
     </row>
     <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
-      <c r="B709" s="9"/>
+      <c r="B709" s="16"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -22131,7 +22116,7 @@
     </row>
     <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
-      <c r="B710" s="9"/>
+      <c r="B710" s="16"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -22160,7 +22145,7 @@
     </row>
     <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
-      <c r="B711" s="9"/>
+      <c r="B711" s="16"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -22189,7 +22174,7 @@
     </row>
     <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
-      <c r="B712" s="9"/>
+      <c r="B712" s="16"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -22218,7 +22203,7 @@
     </row>
     <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
-      <c r="B713" s="9"/>
+      <c r="B713" s="16"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -22247,7 +22232,7 @@
     </row>
     <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
-      <c r="B714" s="9"/>
+      <c r="B714" s="16"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -22276,7 +22261,7 @@
     </row>
     <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
-      <c r="B715" s="9"/>
+      <c r="B715" s="16"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -22305,7 +22290,7 @@
     </row>
     <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
-      <c r="B716" s="9"/>
+      <c r="B716" s="16"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -22334,7 +22319,7 @@
     </row>
     <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
-      <c r="B717" s="9"/>
+      <c r="B717" s="16"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -22363,7 +22348,7 @@
     </row>
     <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
-      <c r="B718" s="9"/>
+      <c r="B718" s="16"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -22392,7 +22377,7 @@
     </row>
     <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
-      <c r="B719" s="9"/>
+      <c r="B719" s="16"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -22421,7 +22406,7 @@
     </row>
     <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
-      <c r="B720" s="9"/>
+      <c r="B720" s="16"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -22450,7 +22435,7 @@
     </row>
     <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
-      <c r="B721" s="9"/>
+      <c r="B721" s="16"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -22479,7 +22464,7 @@
     </row>
     <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
-      <c r="B722" s="9"/>
+      <c r="B722" s="16"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -22508,7 +22493,7 @@
     </row>
     <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
-      <c r="B723" s="9"/>
+      <c r="B723" s="16"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -22537,7 +22522,7 @@
     </row>
     <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
-      <c r="B724" s="9"/>
+      <c r="B724" s="16"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -22566,7 +22551,7 @@
     </row>
     <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
-      <c r="B725" s="9"/>
+      <c r="B725" s="16"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -22595,7 +22580,7 @@
     </row>
     <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
-      <c r="B726" s="9"/>
+      <c r="B726" s="16"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -22624,7 +22609,7 @@
     </row>
     <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
-      <c r="B727" s="9"/>
+      <c r="B727" s="16"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -22653,7 +22638,7 @@
     </row>
     <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
-      <c r="B728" s="9"/>
+      <c r="B728" s="16"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -22682,7 +22667,7 @@
     </row>
     <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
-      <c r="B729" s="9"/>
+      <c r="B729" s="16"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -22711,7 +22696,7 @@
     </row>
     <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
-      <c r="B730" s="9"/>
+      <c r="B730" s="16"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -22740,7 +22725,7 @@
     </row>
     <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
-      <c r="B731" s="9"/>
+      <c r="B731" s="16"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -22769,7 +22754,7 @@
     </row>
     <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
-      <c r="B732" s="9"/>
+      <c r="B732" s="16"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -22798,7 +22783,7 @@
     </row>
     <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
-      <c r="B733" s="9"/>
+      <c r="B733" s="16"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -22827,7 +22812,7 @@
     </row>
     <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
-      <c r="B734" s="9"/>
+      <c r="B734" s="16"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -22856,7 +22841,7 @@
     </row>
     <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
-      <c r="B735" s="9"/>
+      <c r="B735" s="16"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -22885,7 +22870,7 @@
     </row>
     <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
-      <c r="B736" s="9"/>
+      <c r="B736" s="16"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -22914,7 +22899,7 @@
     </row>
     <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
-      <c r="B737" s="9"/>
+      <c r="B737" s="16"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -22943,7 +22928,7 @@
     </row>
     <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
-      <c r="B738" s="9"/>
+      <c r="B738" s="16"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -22972,7 +22957,7 @@
     </row>
     <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
-      <c r="B739" s="9"/>
+      <c r="B739" s="16"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -23001,7 +22986,7 @@
     </row>
     <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
-      <c r="B740" s="9"/>
+      <c r="B740" s="16"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -23030,7 +23015,7 @@
     </row>
     <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
-      <c r="B741" s="9"/>
+      <c r="B741" s="16"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -23059,7 +23044,7 @@
     </row>
     <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
-      <c r="B742" s="9"/>
+      <c r="B742" s="16"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -23088,7 +23073,7 @@
     </row>
     <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
-      <c r="B743" s="9"/>
+      <c r="B743" s="16"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -23117,7 +23102,7 @@
     </row>
     <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
-      <c r="B744" s="9"/>
+      <c r="B744" s="16"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -23146,7 +23131,7 @@
     </row>
     <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
-      <c r="B745" s="9"/>
+      <c r="B745" s="16"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -23175,7 +23160,7 @@
     </row>
     <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
-      <c r="B746" s="9"/>
+      <c r="B746" s="16"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -23204,7 +23189,7 @@
     </row>
     <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
-      <c r="B747" s="9"/>
+      <c r="B747" s="16"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -23233,7 +23218,7 @@
     </row>
     <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
-      <c r="B748" s="9"/>
+      <c r="B748" s="16"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -23262,7 +23247,7 @@
     </row>
     <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
-      <c r="B749" s="9"/>
+      <c r="B749" s="16"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -23291,7 +23276,7 @@
     </row>
     <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
-      <c r="B750" s="9"/>
+      <c r="B750" s="16"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -23320,7 +23305,7 @@
     </row>
     <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
-      <c r="B751" s="9"/>
+      <c r="B751" s="16"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -23349,7 +23334,7 @@
     </row>
     <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
-      <c r="B752" s="9"/>
+      <c r="B752" s="16"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -23378,7 +23363,7 @@
     </row>
     <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
-      <c r="B753" s="9"/>
+      <c r="B753" s="16"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -23407,7 +23392,7 @@
     </row>
     <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
-      <c r="B754" s="9"/>
+      <c r="B754" s="16"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -23436,7 +23421,7 @@
     </row>
     <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
-      <c r="B755" s="9"/>
+      <c r="B755" s="16"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -23465,7 +23450,7 @@
     </row>
     <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
-      <c r="B756" s="9"/>
+      <c r="B756" s="16"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -23494,7 +23479,7 @@
     </row>
     <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
-      <c r="B757" s="9"/>
+      <c r="B757" s="16"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -23523,7 +23508,7 @@
     </row>
     <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
-      <c r="B758" s="9"/>
+      <c r="B758" s="16"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -23552,7 +23537,7 @@
     </row>
     <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
-      <c r="B759" s="9"/>
+      <c r="B759" s="16"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -23581,7 +23566,7 @@
     </row>
     <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
-      <c r="B760" s="9"/>
+      <c r="B760" s="16"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -23610,7 +23595,7 @@
     </row>
     <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
-      <c r="B761" s="9"/>
+      <c r="B761" s="16"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -23639,7 +23624,7 @@
     </row>
     <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
-      <c r="B762" s="9"/>
+      <c r="B762" s="16"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -23668,7 +23653,7 @@
     </row>
     <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
-      <c r="B763" s="9"/>
+      <c r="B763" s="16"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -23697,7 +23682,7 @@
     </row>
     <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
-      <c r="B764" s="9"/>
+      <c r="B764" s="16"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -23726,7 +23711,7 @@
     </row>
     <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
-      <c r="B765" s="9"/>
+      <c r="B765" s="16"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -23755,7 +23740,7 @@
     </row>
     <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
-      <c r="B766" s="9"/>
+      <c r="B766" s="16"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -23784,7 +23769,7 @@
     </row>
     <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
-      <c r="B767" s="9"/>
+      <c r="B767" s="16"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -23813,7 +23798,7 @@
     </row>
     <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
-      <c r="B768" s="9"/>
+      <c r="B768" s="16"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -23842,7 +23827,7 @@
     </row>
     <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
-      <c r="B769" s="9"/>
+      <c r="B769" s="16"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -23871,7 +23856,7 @@
     </row>
     <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
-      <c r="B770" s="9"/>
+      <c r="B770" s="16"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -23900,7 +23885,7 @@
     </row>
     <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
-      <c r="B771" s="9"/>
+      <c r="B771" s="16"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -23929,7 +23914,7 @@
     </row>
     <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
-      <c r="B772" s="9"/>
+      <c r="B772" s="16"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -23958,7 +23943,7 @@
     </row>
     <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
-      <c r="B773" s="9"/>
+      <c r="B773" s="16"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -23987,7 +23972,7 @@
     </row>
     <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
-      <c r="B774" s="9"/>
+      <c r="B774" s="16"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -24016,7 +24001,7 @@
     </row>
     <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
-      <c r="B775" s="9"/>
+      <c r="B775" s="16"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -24045,7 +24030,7 @@
     </row>
     <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
-      <c r="B776" s="9"/>
+      <c r="B776" s="16"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -24074,7 +24059,7 @@
     </row>
     <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
-      <c r="B777" s="9"/>
+      <c r="B777" s="16"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -24103,7 +24088,7 @@
     </row>
     <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
-      <c r="B778" s="9"/>
+      <c r="B778" s="16"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -24132,7 +24117,7 @@
     </row>
     <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
-      <c r="B779" s="9"/>
+      <c r="B779" s="16"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -24161,7 +24146,7 @@
     </row>
     <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
-      <c r="B780" s="9"/>
+      <c r="B780" s="16"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -24190,7 +24175,7 @@
     </row>
     <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
-      <c r="B781" s="9"/>
+      <c r="B781" s="16"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -24219,7 +24204,7 @@
     </row>
     <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
-      <c r="B782" s="9"/>
+      <c r="B782" s="16"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -24248,7 +24233,7 @@
     </row>
     <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
-      <c r="B783" s="9"/>
+      <c r="B783" s="16"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -24277,7 +24262,7 @@
     </row>
     <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
-      <c r="B784" s="9"/>
+      <c r="B784" s="16"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -24306,7 +24291,7 @@
     </row>
     <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
-      <c r="B785" s="9"/>
+      <c r="B785" s="16"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -24335,7 +24320,7 @@
     </row>
     <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
-      <c r="B786" s="9"/>
+      <c r="B786" s="16"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -24364,7 +24349,7 @@
     </row>
     <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
-      <c r="B787" s="9"/>
+      <c r="B787" s="16"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -24393,7 +24378,7 @@
     </row>
     <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
-      <c r="B788" s="9"/>
+      <c r="B788" s="16"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -24422,7 +24407,7 @@
     </row>
     <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
-      <c r="B789" s="9"/>
+      <c r="B789" s="16"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -24451,7 +24436,7 @@
     </row>
     <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
-      <c r="B790" s="9"/>
+      <c r="B790" s="16"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -24480,7 +24465,7 @@
     </row>
     <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
-      <c r="B791" s="9"/>
+      <c r="B791" s="16"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -24509,7 +24494,7 @@
     </row>
     <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
-      <c r="B792" s="9"/>
+      <c r="B792" s="16"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -24538,7 +24523,7 @@
     </row>
     <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
-      <c r="B793" s="9"/>
+      <c r="B793" s="16"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -24567,7 +24552,7 @@
     </row>
     <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
-      <c r="B794" s="9"/>
+      <c r="B794" s="16"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -24596,7 +24581,7 @@
     </row>
     <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
-      <c r="B795" s="9"/>
+      <c r="B795" s="16"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -24625,7 +24610,7 @@
     </row>
     <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
-      <c r="B796" s="9"/>
+      <c r="B796" s="16"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -24654,7 +24639,7 @@
     </row>
     <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
-      <c r="B797" s="9"/>
+      <c r="B797" s="16"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -24683,7 +24668,7 @@
     </row>
     <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
-      <c r="B798" s="9"/>
+      <c r="B798" s="16"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -24712,7 +24697,7 @@
     </row>
     <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
-      <c r="B799" s="9"/>
+      <c r="B799" s="16"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -24741,7 +24726,7 @@
     </row>
     <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
-      <c r="B800" s="9"/>
+      <c r="B800" s="16"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -24770,7 +24755,7 @@
     </row>
     <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
-      <c r="B801" s="9"/>
+      <c r="B801" s="16"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -24799,7 +24784,7 @@
     </row>
     <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
-      <c r="B802" s="9"/>
+      <c r="B802" s="16"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -24828,7 +24813,7 @@
     </row>
     <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
-      <c r="B803" s="9"/>
+      <c r="B803" s="16"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -24857,7 +24842,7 @@
     </row>
     <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
-      <c r="B804" s="9"/>
+      <c r="B804" s="16"/>
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -24886,7 +24871,7 @@
     </row>
     <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
-      <c r="B805" s="9"/>
+      <c r="B805" s="16"/>
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -24915,7 +24900,7 @@
     </row>
     <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
-      <c r="B806" s="9"/>
+      <c r="B806" s="16"/>
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -24944,7 +24929,7 @@
     </row>
     <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
-      <c r="B807" s="9"/>
+      <c r="B807" s="16"/>
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -24973,7 +24958,7 @@
     </row>
     <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
-      <c r="B808" s="9"/>
+      <c r="B808" s="16"/>
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -25002,7 +24987,7 @@
     </row>
     <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
-      <c r="B809" s="9"/>
+      <c r="B809" s="16"/>
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -25031,7 +25016,7 @@
     </row>
     <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
-      <c r="B810" s="9"/>
+      <c r="B810" s="16"/>
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -25060,7 +25045,7 @@
     </row>
     <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
-      <c r="B811" s="9"/>
+      <c r="B811" s="16"/>
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -25089,7 +25074,7 @@
     </row>
     <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
-      <c r="B812" s="9"/>
+      <c r="B812" s="16"/>
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -25118,7 +25103,7 @@
     </row>
     <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
-      <c r="B813" s="9"/>
+      <c r="B813" s="16"/>
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -25147,7 +25132,7 @@
     </row>
     <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
-      <c r="B814" s="9"/>
+      <c r="B814" s="16"/>
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -25176,7 +25161,7 @@
     </row>
     <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
-      <c r="B815" s="9"/>
+      <c r="B815" s="16"/>
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -25205,7 +25190,7 @@
     </row>
     <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
-      <c r="B816" s="9"/>
+      <c r="B816" s="16"/>
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -25234,7 +25219,7 @@
     </row>
     <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
-      <c r="B817" s="9"/>
+      <c r="B817" s="16"/>
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -25263,7 +25248,7 @@
     </row>
     <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
-      <c r="B818" s="9"/>
+      <c r="B818" s="16"/>
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -25292,7 +25277,7 @@
     </row>
     <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
-      <c r="B819" s="9"/>
+      <c r="B819" s="16"/>
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -25321,7 +25306,7 @@
     </row>
     <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
-      <c r="B820" s="9"/>
+      <c r="B820" s="16"/>
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -25350,7 +25335,7 @@
     </row>
     <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
-      <c r="B821" s="9"/>
+      <c r="B821" s="16"/>
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -25379,7 +25364,7 @@
     </row>
     <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
-      <c r="B822" s="9"/>
+      <c r="B822" s="16"/>
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -25408,7 +25393,7 @@
     </row>
     <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
-      <c r="B823" s="9"/>
+      <c r="B823" s="16"/>
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -25437,7 +25422,7 @@
     </row>
     <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
-      <c r="B824" s="9"/>
+      <c r="B824" s="16"/>
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -25466,7 +25451,7 @@
     </row>
     <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
-      <c r="B825" s="9"/>
+      <c r="B825" s="16"/>
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -25495,7 +25480,7 @@
     </row>
     <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
-      <c r="B826" s="9"/>
+      <c r="B826" s="16"/>
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -25524,7 +25509,7 @@
     </row>
     <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
-      <c r="B827" s="9"/>
+      <c r="B827" s="16"/>
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -25553,7 +25538,7 @@
     </row>
     <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
-      <c r="B828" s="9"/>
+      <c r="B828" s="16"/>
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -25582,7 +25567,7 @@
     </row>
     <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
-      <c r="B829" s="9"/>
+      <c r="B829" s="16"/>
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -25611,7 +25596,7 @@
     </row>
     <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
-      <c r="B830" s="9"/>
+      <c r="B830" s="16"/>
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -25640,7 +25625,7 @@
     </row>
     <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
-      <c r="B831" s="9"/>
+      <c r="B831" s="16"/>
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -25669,7 +25654,7 @@
     </row>
     <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
-      <c r="B832" s="9"/>
+      <c r="B832" s="16"/>
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -25698,7 +25683,7 @@
     </row>
     <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
-      <c r="B833" s="9"/>
+      <c r="B833" s="16"/>
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -25727,7 +25712,7 @@
     </row>
     <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
-      <c r="B834" s="9"/>
+      <c r="B834" s="16"/>
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -25756,7 +25741,7 @@
     </row>
     <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
-      <c r="B835" s="9"/>
+      <c r="B835" s="16"/>
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -25785,7 +25770,7 @@
     </row>
     <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
-      <c r="B836" s="9"/>
+      <c r="B836" s="16"/>
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -25814,7 +25799,7 @@
     </row>
     <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
-      <c r="B837" s="9"/>
+      <c r="B837" s="16"/>
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -25843,7 +25828,7 @@
     </row>
     <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
-      <c r="B838" s="9"/>
+      <c r="B838" s="16"/>
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -25872,7 +25857,7 @@
     </row>
     <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
-      <c r="B839" s="9"/>
+      <c r="B839" s="16"/>
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -25901,7 +25886,7 @@
     </row>
     <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
-      <c r="B840" s="9"/>
+      <c r="B840" s="16"/>
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -25930,7 +25915,7 @@
     </row>
     <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
-      <c r="B841" s="9"/>
+      <c r="B841" s="16"/>
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -25959,7 +25944,7 @@
     </row>
     <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
-      <c r="B842" s="9"/>
+      <c r="B842" s="16"/>
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -25988,7 +25973,7 @@
     </row>
     <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
-      <c r="B843" s="9"/>
+      <c r="B843" s="16"/>
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -26017,7 +26002,7 @@
     </row>
     <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
-      <c r="B844" s="9"/>
+      <c r="B844" s="16"/>
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -26046,7 +26031,7 @@
     </row>
     <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
-      <c r="B845" s="9"/>
+      <c r="B845" s="16"/>
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -26075,7 +26060,7 @@
     </row>
     <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
-      <c r="B846" s="9"/>
+      <c r="B846" s="16"/>
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -26104,7 +26089,7 @@
     </row>
     <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
-      <c r="B847" s="9"/>
+      <c r="B847" s="16"/>
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -26133,7 +26118,7 @@
     </row>
     <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
-      <c r="B848" s="9"/>
+      <c r="B848" s="16"/>
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -26162,7 +26147,7 @@
     </row>
     <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
-      <c r="B849" s="9"/>
+      <c r="B849" s="16"/>
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -26191,7 +26176,7 @@
     </row>
     <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
-      <c r="B850" s="9"/>
+      <c r="B850" s="16"/>
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -26220,7 +26205,7 @@
     </row>
     <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
-      <c r="B851" s="9"/>
+      <c r="B851" s="16"/>
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -26249,7 +26234,7 @@
     </row>
     <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
-      <c r="B852" s="9"/>
+      <c r="B852" s="16"/>
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -26278,7 +26263,7 @@
     </row>
     <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
-      <c r="B853" s="9"/>
+      <c r="B853" s="16"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -26307,7 +26292,7 @@
     </row>
     <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
-      <c r="B854" s="9"/>
+      <c r="B854" s="16"/>
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -26336,7 +26321,7 @@
     </row>
     <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
-      <c r="B855" s="9"/>
+      <c r="B855" s="16"/>
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -26365,7 +26350,7 @@
     </row>
     <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
-      <c r="B856" s="9"/>
+      <c r="B856" s="16"/>
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -26394,7 +26379,7 @@
     </row>
     <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
-      <c r="B857" s="9"/>
+      <c r="B857" s="16"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -26423,7 +26408,7 @@
     </row>
     <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
-      <c r="B858" s="9"/>
+      <c r="B858" s="16"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -26452,7 +26437,7 @@
     </row>
     <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
-      <c r="B859" s="9"/>
+      <c r="B859" s="16"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -26481,7 +26466,7 @@
     </row>
     <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
-      <c r="B860" s="9"/>
+      <c r="B860" s="16"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -26510,7 +26495,7 @@
     </row>
     <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
-      <c r="B861" s="9"/>
+      <c r="B861" s="16"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -26539,7 +26524,7 @@
     </row>
     <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
-      <c r="B862" s="9"/>
+      <c r="B862" s="16"/>
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -26568,7 +26553,7 @@
     </row>
     <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
-      <c r="B863" s="9"/>
+      <c r="B863" s="16"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -26597,7 +26582,7 @@
     </row>
     <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
-      <c r="B864" s="9"/>
+      <c r="B864" s="16"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -26626,7 +26611,7 @@
     </row>
     <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
-      <c r="B865" s="9"/>
+      <c r="B865" s="16"/>
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -26655,7 +26640,7 @@
     </row>
     <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
-      <c r="B866" s="9"/>
+      <c r="B866" s="16"/>
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -26684,7 +26669,7 @@
     </row>
     <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
-      <c r="B867" s="9"/>
+      <c r="B867" s="16"/>
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -26713,7 +26698,7 @@
     </row>
     <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
-      <c r="B868" s="9"/>
+      <c r="B868" s="16"/>
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -26742,7 +26727,7 @@
     </row>
     <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
-      <c r="B869" s="9"/>
+      <c r="B869" s="16"/>
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -26771,7 +26756,7 @@
     </row>
     <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
-      <c r="B870" s="9"/>
+      <c r="B870" s="16"/>
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -26800,7 +26785,7 @@
     </row>
     <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
-      <c r="B871" s="9"/>
+      <c r="B871" s="16"/>
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -26829,7 +26814,7 @@
     </row>
     <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
-      <c r="B872" s="9"/>
+      <c r="B872" s="16"/>
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -26858,7 +26843,7 @@
     </row>
     <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
-      <c r="B873" s="9"/>
+      <c r="B873" s="16"/>
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -26887,7 +26872,7 @@
     </row>
     <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
-      <c r="B874" s="9"/>
+      <c r="B874" s="16"/>
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -26916,7 +26901,7 @@
     </row>
     <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
-      <c r="B875" s="9"/>
+      <c r="B875" s="16"/>
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -26945,7 +26930,7 @@
     </row>
     <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
-      <c r="B876" s="9"/>
+      <c r="B876" s="16"/>
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -26974,7 +26959,7 @@
     </row>
     <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
-      <c r="B877" s="9"/>
+      <c r="B877" s="16"/>
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -27003,7 +26988,7 @@
     </row>
     <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
-      <c r="B878" s="9"/>
+      <c r="B878" s="16"/>
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -27032,7 +27017,7 @@
     </row>
     <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
-      <c r="B879" s="9"/>
+      <c r="B879" s="16"/>
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -27061,7 +27046,7 @@
     </row>
     <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
-      <c r="B880" s="9"/>
+      <c r="B880" s="16"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -27090,7 +27075,7 @@
     </row>
     <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
-      <c r="B881" s="9"/>
+      <c r="B881" s="16"/>
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -27119,7 +27104,7 @@
     </row>
     <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
-      <c r="B882" s="9"/>
+      <c r="B882" s="16"/>
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -27148,7 +27133,7 @@
     </row>
     <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
-      <c r="B883" s="9"/>
+      <c r="B883" s="16"/>
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -27177,7 +27162,7 @@
     </row>
     <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
-      <c r="B884" s="9"/>
+      <c r="B884" s="16"/>
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -27206,7 +27191,7 @@
     </row>
     <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
-      <c r="B885" s="9"/>
+      <c r="B885" s="16"/>
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -27235,7 +27220,7 @@
     </row>
     <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
-      <c r="B886" s="9"/>
+      <c r="B886" s="16"/>
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -27264,7 +27249,7 @@
     </row>
     <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
-      <c r="B887" s="9"/>
+      <c r="B887" s="16"/>
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -27293,7 +27278,7 @@
     </row>
     <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
-      <c r="B888" s="9"/>
+      <c r="B888" s="16"/>
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -27322,7 +27307,7 @@
     </row>
     <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
-      <c r="B889" s="9"/>
+      <c r="B889" s="16"/>
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -27351,7 +27336,7 @@
     </row>
     <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
-      <c r="B890" s="9"/>
+      <c r="B890" s="16"/>
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -27380,7 +27365,7 @@
     </row>
     <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
-      <c r="B891" s="9"/>
+      <c r="B891" s="16"/>
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -27409,7 +27394,7 @@
     </row>
     <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
-      <c r="B892" s="9"/>
+      <c r="B892" s="16"/>
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -27438,7 +27423,7 @@
     </row>
     <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
-      <c r="B893" s="9"/>
+      <c r="B893" s="16"/>
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -27467,7 +27452,7 @@
     </row>
     <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
-      <c r="B894" s="9"/>
+      <c r="B894" s="16"/>
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -27496,7 +27481,7 @@
     </row>
     <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
-      <c r="B895" s="9"/>
+      <c r="B895" s="16"/>
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -27525,7 +27510,7 @@
     </row>
     <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
-      <c r="B896" s="9"/>
+      <c r="B896" s="16"/>
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -27554,7 +27539,7 @@
     </row>
     <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
-      <c r="B897" s="9"/>
+      <c r="B897" s="16"/>
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -27583,7 +27568,7 @@
     </row>
     <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
-      <c r="B898" s="9"/>
+      <c r="B898" s="16"/>
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -27612,7 +27597,7 @@
     </row>
     <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
-      <c r="B899" s="9"/>
+      <c r="B899" s="16"/>
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -27641,7 +27626,7 @@
     </row>
     <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
-      <c r="B900" s="9"/>
+      <c r="B900" s="16"/>
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -27670,7 +27655,7 @@
     </row>
     <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
-      <c r="B901" s="9"/>
+      <c r="B901" s="16"/>
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -27699,7 +27684,7 @@
     </row>
     <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
-      <c r="B902" s="9"/>
+      <c r="B902" s="16"/>
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -27728,7 +27713,7 @@
     </row>
     <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
-      <c r="B903" s="9"/>
+      <c r="B903" s="16"/>
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -27757,7 +27742,7 @@
     </row>
     <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
-      <c r="B904" s="9"/>
+      <c r="B904" s="16"/>
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -27786,7 +27771,7 @@
     </row>
     <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
-      <c r="B905" s="9"/>
+      <c r="B905" s="16"/>
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -27815,7 +27800,7 @@
     </row>
     <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
-      <c r="B906" s="9"/>
+      <c r="B906" s="16"/>
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -27844,7 +27829,7 @@
     </row>
     <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
-      <c r="B907" s="9"/>
+      <c r="B907" s="16"/>
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -27873,7 +27858,7 @@
     </row>
     <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
-      <c r="B908" s="9"/>
+      <c r="B908" s="16"/>
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -27902,7 +27887,7 @@
     </row>
     <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
-      <c r="B909" s="9"/>
+      <c r="B909" s="16"/>
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -27931,7 +27916,7 @@
     </row>
     <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
-      <c r="B910" s="9"/>
+      <c r="B910" s="16"/>
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -27960,7 +27945,7 @@
     </row>
     <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
-      <c r="B911" s="9"/>
+      <c r="B911" s="16"/>
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -27989,7 +27974,7 @@
     </row>
     <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
-      <c r="B912" s="9"/>
+      <c r="B912" s="16"/>
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -28018,7 +28003,7 @@
     </row>
     <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
-      <c r="B913" s="9"/>
+      <c r="B913" s="16"/>
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -28047,7 +28032,7 @@
     </row>
     <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
-      <c r="B914" s="9"/>
+      <c r="B914" s="16"/>
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -28076,7 +28061,7 @@
     </row>
     <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
-      <c r="B915" s="9"/>
+      <c r="B915" s="16"/>
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -28105,7 +28090,7 @@
     </row>
     <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
-      <c r="B916" s="9"/>
+      <c r="B916" s="16"/>
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -28134,7 +28119,7 @@
     </row>
     <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
-      <c r="B917" s="9"/>
+      <c r="B917" s="16"/>
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -28163,7 +28148,7 @@
     </row>
     <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
-      <c r="B918" s="9"/>
+      <c r="B918" s="16"/>
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -28192,7 +28177,7 @@
     </row>
     <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
-      <c r="B919" s="9"/>
+      <c r="B919" s="16"/>
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -28221,7 +28206,7 @@
     </row>
     <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
-      <c r="B920" s="9"/>
+      <c r="B920" s="16"/>
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -28250,7 +28235,7 @@
     </row>
     <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
-      <c r="B921" s="9"/>
+      <c r="B921" s="16"/>
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -28279,7 +28264,7 @@
     </row>
     <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
-      <c r="B922" s="9"/>
+      <c r="B922" s="16"/>
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -28308,7 +28293,7 @@
     </row>
     <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
-      <c r="B923" s="9"/>
+      <c r="B923" s="16"/>
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -28337,7 +28322,7 @@
     </row>
     <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
-      <c r="B924" s="9"/>
+      <c r="B924" s="16"/>
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -28366,7 +28351,7 @@
     </row>
     <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
-      <c r="B925" s="9"/>
+      <c r="B925" s="16"/>
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -28395,7 +28380,7 @@
     </row>
     <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
-      <c r="B926" s="9"/>
+      <c r="B926" s="16"/>
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -28424,7 +28409,7 @@
     </row>
     <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
-      <c r="B927" s="9"/>
+      <c r="B927" s="16"/>
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -28453,7 +28438,7 @@
     </row>
     <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
-      <c r="B928" s="9"/>
+      <c r="B928" s="16"/>
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -28482,7 +28467,7 @@
     </row>
     <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
-      <c r="B929" s="9"/>
+      <c r="B929" s="16"/>
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -28511,7 +28496,7 @@
     </row>
     <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
-      <c r="B930" s="9"/>
+      <c r="B930" s="16"/>
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -28540,7 +28525,7 @@
     </row>
     <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
-      <c r="B931" s="9"/>
+      <c r="B931" s="16"/>
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -28569,7 +28554,7 @@
     </row>
     <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
-      <c r="B932" s="9"/>
+      <c r="B932" s="16"/>
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -28598,7 +28583,7 @@
     </row>
     <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
-      <c r="B933" s="9"/>
+      <c r="B933" s="16"/>
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -28627,7 +28612,7 @@
     </row>
     <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
-      <c r="B934" s="9"/>
+      <c r="B934" s="16"/>
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -28656,7 +28641,7 @@
     </row>
     <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
-      <c r="B935" s="9"/>
+      <c r="B935" s="16"/>
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -28685,7 +28670,7 @@
     </row>
     <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
-      <c r="B936" s="9"/>
+      <c r="B936" s="16"/>
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -28714,7 +28699,7 @@
     </row>
     <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
-      <c r="B937" s="9"/>
+      <c r="B937" s="16"/>
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -28743,7 +28728,7 @@
     </row>
     <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
-      <c r="B938" s="9"/>
+      <c r="B938" s="16"/>
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -28772,7 +28757,7 @@
     </row>
     <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
-      <c r="B939" s="9"/>
+      <c r="B939" s="16"/>
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -28801,7 +28786,7 @@
     </row>
     <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
-      <c r="B940" s="9"/>
+      <c r="B940" s="16"/>
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -28830,7 +28815,7 @@
     </row>
     <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
-      <c r="B941" s="9"/>
+      <c r="B941" s="16"/>
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -28859,7 +28844,7 @@
     </row>
     <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
-      <c r="B942" s="9"/>
+      <c r="B942" s="16"/>
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -28888,7 +28873,7 @@
     </row>
     <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
-      <c r="B943" s="9"/>
+      <c r="B943" s="16"/>
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -28917,7 +28902,7 @@
     </row>
     <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
-      <c r="B944" s="9"/>
+      <c r="B944" s="16"/>
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -28946,7 +28931,7 @@
     </row>
     <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
-      <c r="B945" s="9"/>
+      <c r="B945" s="16"/>
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -28975,7 +28960,7 @@
     </row>
     <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
-      <c r="B946" s="9"/>
+      <c r="B946" s="16"/>
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -29004,7 +28989,7 @@
     </row>
     <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
-      <c r="B947" s="9"/>
+      <c r="B947" s="16"/>
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -29033,7 +29018,7 @@
     </row>
     <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
-      <c r="B948" s="9"/>
+      <c r="B948" s="16"/>
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -29062,7 +29047,7 @@
     </row>
     <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
-      <c r="B949" s="9"/>
+      <c r="B949" s="16"/>
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -29091,7 +29076,7 @@
     </row>
     <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
-      <c r="B950" s="9"/>
+      <c r="B950" s="16"/>
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -29120,7 +29105,7 @@
     </row>
     <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
-      <c r="B951" s="9"/>
+      <c r="B951" s="16"/>
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -29149,7 +29134,7 @@
     </row>
     <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
-      <c r="B952" s="9"/>
+      <c r="B952" s="16"/>
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -29178,7 +29163,7 @@
     </row>
     <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
-      <c r="B953" s="9"/>
+      <c r="B953" s="16"/>
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -29207,7 +29192,7 @@
     </row>
     <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
-      <c r="B954" s="9"/>
+      <c r="B954" s="16"/>
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -29236,7 +29221,7 @@
     </row>
     <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
-      <c r="B955" s="9"/>
+      <c r="B955" s="16"/>
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
@@ -29265,7 +29250,7 @@
     </row>
     <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
-      <c r="B956" s="9"/>
+      <c r="B956" s="16"/>
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
@@ -29294,7 +29279,7 @@
     </row>
     <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
-      <c r="B957" s="9"/>
+      <c r="B957" s="16"/>
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
@@ -29323,7 +29308,7 @@
     </row>
     <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
-      <c r="B958" s="9"/>
+      <c r="B958" s="16"/>
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
@@ -29352,7 +29337,7 @@
     </row>
     <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
-      <c r="B959" s="9"/>
+      <c r="B959" s="16"/>
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
@@ -29381,7 +29366,7 @@
     </row>
     <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
-      <c r="B960" s="9"/>
+      <c r="B960" s="16"/>
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
@@ -29410,7 +29395,7 @@
     </row>
     <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
-      <c r="B961" s="9"/>
+      <c r="B961" s="16"/>
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
@@ -29439,7 +29424,7 @@
     </row>
     <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
-      <c r="B962" s="9"/>
+      <c r="B962" s="16"/>
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
@@ -29468,7 +29453,7 @@
     </row>
     <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
-      <c r="B963" s="9"/>
+      <c r="B963" s="16"/>
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
@@ -29497,7 +29482,7 @@
     </row>
     <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
-      <c r="B964" s="9"/>
+      <c r="B964" s="16"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
@@ -29526,7 +29511,7 @@
     </row>
     <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
-      <c r="B965" s="9"/>
+      <c r="B965" s="16"/>
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
@@ -29555,7 +29540,7 @@
     </row>
     <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
-      <c r="B966" s="9"/>
+      <c r="B966" s="16"/>
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
@@ -29584,7 +29569,7 @@
     </row>
     <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
-      <c r="B967" s="9"/>
+      <c r="B967" s="16"/>
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
@@ -29613,7 +29598,7 @@
     </row>
     <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
-      <c r="B968" s="9"/>
+      <c r="B968" s="16"/>
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
@@ -29642,7 +29627,7 @@
     </row>
     <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
-      <c r="B969" s="9"/>
+      <c r="B969" s="16"/>
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
@@ -29671,7 +29656,7 @@
     </row>
     <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
-      <c r="B970" s="9"/>
+      <c r="B970" s="16"/>
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
@@ -29700,7 +29685,7 @@
     </row>
     <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
-      <c r="B971" s="9"/>
+      <c r="B971" s="16"/>
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
@@ -29729,7 +29714,7 @@
     </row>
     <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
-      <c r="B972" s="9"/>
+      <c r="B972" s="16"/>
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
@@ -29758,7 +29743,7 @@
     </row>
     <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
-      <c r="B973" s="9"/>
+      <c r="B973" s="16"/>
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
@@ -29787,7 +29772,7 @@
     </row>
     <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
-      <c r="B974" s="9"/>
+      <c r="B974" s="16"/>
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
@@ -29816,7 +29801,7 @@
     </row>
     <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
-      <c r="B975" s="9"/>
+      <c r="B975" s="16"/>
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
@@ -29845,7 +29830,7 @@
     </row>
     <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
-      <c r="B976" s="9"/>
+      <c r="B976" s="16"/>
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
@@ -29874,7 +29859,7 @@
     </row>
     <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
-      <c r="B977" s="9"/>
+      <c r="B977" s="16"/>
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
@@ -29903,7 +29888,7 @@
     </row>
     <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
-      <c r="B978" s="9"/>
+      <c r="B978" s="16"/>
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
@@ -29932,7 +29917,7 @@
     </row>
     <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
-      <c r="B979" s="9"/>
+      <c r="B979" s="16"/>
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
@@ -29961,7 +29946,7 @@
     </row>
     <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
-      <c r="B980" s="9"/>
+      <c r="B980" s="16"/>
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
@@ -29990,7 +29975,7 @@
     </row>
     <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
-      <c r="B981" s="9"/>
+      <c r="B981" s="16"/>
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
@@ -30019,7 +30004,7 @@
     </row>
     <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
-      <c r="B982" s="9"/>
+      <c r="B982" s="16"/>
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
@@ -30048,7 +30033,7 @@
     </row>
     <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
-      <c r="B983" s="9"/>
+      <c r="B983" s="16"/>
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
@@ -30077,7 +30062,7 @@
     </row>
     <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
-      <c r="B984" s="9"/>
+      <c r="B984" s="16"/>
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
@@ -30106,7 +30091,7 @@
     </row>
     <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
-      <c r="B985" s="9"/>
+      <c r="B985" s="16"/>
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>

--- a/test_case/Authentication/Registation/Tc_Reg_Functional(nadira).xlsx
+++ b/test_case/Authentication/Registation/Tc_Reg_Functional(nadira).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\Registation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\my github project\ai-quizwhiz.zluck.com-pnt-b24\test_case\Authentication\Registation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -418,7 +418,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -436,40 +448,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="59">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -606,6 +589,23 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1122,13 +1122,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_134" displayName="Table_134" ref="A3:H18" headerRowDxfId="10" dataDxfId="9" totalsRowDxfId="8">
   <tableColumns count="8">
     <tableColumn id="1" name="Test Case ID" dataDxfId="7"/>
-    <tableColumn id="8" name="Serial" dataDxfId="0"/>
-    <tableColumn id="2" name="Prerequisites" dataDxfId="6"/>
-    <tableColumn id="3" name="Title/Description" dataDxfId="5"/>
-    <tableColumn id="4" name="Steps" dataDxfId="4"/>
-    <tableColumn id="5" name="Expected result:" dataDxfId="3"/>
-    <tableColumn id="6" name="Pass / Fail" dataDxfId="2"/>
-    <tableColumn id="7" name="Comments" dataDxfId="1"/>
+    <tableColumn id="8" name="Serial" dataDxfId="6"/>
+    <tableColumn id="2" name="Prerequisites" dataDxfId="5"/>
+    <tableColumn id="3" name="Title/Description" dataDxfId="4"/>
+    <tableColumn id="4" name="Steps" dataDxfId="3"/>
+    <tableColumn id="5" name="Expected result:" dataDxfId="2"/>
+    <tableColumn id="6" name="Pass / Fail" dataDxfId="1"/>
+    <tableColumn id="7" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1338,14 +1338,14 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B1:B1048576"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17" style="10" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.42578125" customWidth="1"/>
@@ -1356,16 +1356,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1387,14 +1387,14 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="A4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="8">
         <v>1003</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1505,7 +1505,7 @@
       <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="8">
         <v>1004</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1546,7 +1546,7 @@
       <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="8">
         <v>1005</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1587,7 +1587,7 @@
       <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="8">
         <v>1006</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1628,7 +1628,7 @@
       <c r="A8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="8">
         <v>1007</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1669,7 +1669,7 @@
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="8">
         <v>1008</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1710,7 +1710,7 @@
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="8">
         <v>1009</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1751,7 +1751,7 @@
       <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="8">
         <v>1010</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1792,7 +1792,7 @@
       <c r="A12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="8">
         <v>1011</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1833,7 +1833,7 @@
       <c r="A13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="8">
         <v>1012</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1874,7 +1874,7 @@
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="8">
         <v>1013</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1915,7 +1915,7 @@
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="8">
         <v>1014</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1956,7 +1956,7 @@
       <c r="A16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="8">
         <v>1015</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1997,7 +1997,7 @@
       <c r="A17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="8">
         <v>1016</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2038,7 +2038,7 @@
       <c r="A18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="8">
         <v>1017</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2076,14 +2076,26 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2106,7 +2118,7 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2135,7 +2147,7 @@
     </row>
     <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -2164,7 +2176,7 @@
     </row>
     <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -2193,7 +2205,7 @@
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -2222,7 +2234,7 @@
     </row>
     <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2251,7 +2263,7 @@
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="16"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2280,7 +2292,7 @@
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -2309,7 +2321,7 @@
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -2338,7 +2350,7 @@
     </row>
     <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -2367,7 +2379,7 @@
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -2396,7 +2408,7 @@
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="16"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -2425,7 +2437,7 @@
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2454,7 +2466,7 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2483,7 +2495,7 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2512,7 +2524,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -2541,7 +2553,7 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="16"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2570,7 +2582,7 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
-      <c r="B36" s="16"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -2599,7 +2611,7 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="16"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -2628,7 +2640,7 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="16"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -2657,7 +2669,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="16"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2686,7 +2698,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="16"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2715,7 +2727,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2744,7 +2756,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="16"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2773,7 +2785,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="16"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2802,7 +2814,7 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2831,7 +2843,7 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="16"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2860,7 +2872,7 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="16"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -2889,7 +2901,7 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="16"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -2918,7 +2930,7 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="16"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2947,7 +2959,7 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="16"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2976,7 +2988,7 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3005,7 +3017,7 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" s="16"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3034,7 +3046,7 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
-      <c r="B52" s="16"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -3063,7 +3075,7 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -3092,7 +3104,7 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -3121,7 +3133,7 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="16"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -3150,7 +3162,7 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="16"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -3179,7 +3191,7 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="16"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -3208,7 +3220,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="16"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -3237,7 +3249,7 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="16"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -3266,7 +3278,7 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="16"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -3295,7 +3307,7 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="16"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -3324,7 +3336,7 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="16"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -3353,7 +3365,7 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="16"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -3382,7 +3394,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="16"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -3411,7 +3423,7 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -3440,7 +3452,7 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="16"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -3469,7 +3481,7 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="16"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -3498,7 +3510,7 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-      <c r="B68" s="16"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -3527,7 +3539,7 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="16"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -3556,7 +3568,7 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="16"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -3585,7 +3597,7 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="16"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -3614,7 +3626,7 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="16"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -3643,7 +3655,7 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="16"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -3672,7 +3684,7 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="16"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -3701,7 +3713,7 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="16"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -3730,7 +3742,7 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-      <c r="B76" s="16"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3759,7 +3771,7 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="16"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3788,7 +3800,7 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="16"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3817,7 +3829,7 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="16"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3846,7 +3858,7 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="16"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3875,7 +3887,7 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="16"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3904,7 +3916,7 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3933,7 +3945,7 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="16"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3962,7 +3974,7 @@
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="16"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3991,7 +4003,7 @@
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="9"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -4020,7 +4032,7 @@
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-      <c r="B86" s="16"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -4049,7 +4061,7 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="16"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -4078,7 +4090,7 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-      <c r="B88" s="16"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -4107,7 +4119,7 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-      <c r="B89" s="16"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -4136,7 +4148,7 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-      <c r="B90" s="16"/>
+      <c r="B90" s="9"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -4165,7 +4177,7 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="16"/>
+      <c r="B91" s="9"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -4194,7 +4206,7 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-      <c r="B92" s="16"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4223,7 +4235,7 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-      <c r="B93" s="16"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -4252,7 +4264,7 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-      <c r="B94" s="16"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -4281,7 +4293,7 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-      <c r="B95" s="16"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -4310,7 +4322,7 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-      <c r="B96" s="16"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -4339,7 +4351,7 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-      <c r="B97" s="16"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -4368,7 +4380,7 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-      <c r="B98" s="16"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -4397,7 +4409,7 @@
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-      <c r="B99" s="16"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -4426,7 +4438,7 @@
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-      <c r="B100" s="16"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -4455,7 +4467,7 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-      <c r="B101" s="16"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -4484,7 +4496,7 @@
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-      <c r="B102" s="16"/>
+      <c r="B102" s="9"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -4513,7 +4525,7 @@
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="16"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -4542,7 +4554,7 @@
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-      <c r="B104" s="16"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -4571,7 +4583,7 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
-      <c r="B105" s="16"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -4600,7 +4612,7 @@
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
-      <c r="B106" s="16"/>
+      <c r="B106" s="9"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -4629,7 +4641,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
-      <c r="B107" s="16"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -4658,7 +4670,7 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-      <c r="B108" s="16"/>
+      <c r="B108" s="9"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -4687,7 +4699,7 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="16"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -4716,7 +4728,7 @@
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
-      <c r="B110" s="16"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -4745,7 +4757,7 @@
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
-      <c r="B111" s="16"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -4774,7 +4786,7 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
-      <c r="B112" s="16"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -4803,7 +4815,7 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-      <c r="B113" s="16"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -4832,7 +4844,7 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
-      <c r="B114" s="16"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4861,7 +4873,7 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
-      <c r="B115" s="16"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4890,7 +4902,7 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" s="16"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4919,7 +4931,7 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
-      <c r="B117" s="16"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4948,7 +4960,7 @@
     </row>
     <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="16"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4977,7 +4989,7 @@
     </row>
     <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
-      <c r="B119" s="16"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -5006,7 +5018,7 @@
     </row>
     <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
-      <c r="B120" s="16"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -5035,7 +5047,7 @@
     </row>
     <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
-      <c r="B121" s="16"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -5064,7 +5076,7 @@
     </row>
     <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="16"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -5093,7 +5105,7 @@
     </row>
     <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
-      <c r="B123" s="16"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -5122,7 +5134,7 @@
     </row>
     <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
-      <c r="B124" s="16"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -5151,7 +5163,7 @@
     </row>
     <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
-      <c r="B125" s="16"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -5180,7 +5192,7 @@
     </row>
     <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
-      <c r="B126" s="16"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -5209,7 +5221,7 @@
     </row>
     <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
-      <c r="B127" s="16"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -5238,7 +5250,7 @@
     </row>
     <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-      <c r="B128" s="16"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -5267,7 +5279,7 @@
     </row>
     <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
-      <c r="B129" s="16"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -5296,7 +5308,7 @@
     </row>
     <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
-      <c r="B130" s="16"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -5325,7 +5337,7 @@
     </row>
     <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-      <c r="B131" s="16"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -5354,7 +5366,7 @@
     </row>
     <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
-      <c r="B132" s="16"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -5383,7 +5395,7 @@
     </row>
     <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
-      <c r="B133" s="16"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -5412,7 +5424,7 @@
     </row>
     <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="16"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -5441,7 +5453,7 @@
     </row>
     <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
-      <c r="B135" s="16"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -5470,7 +5482,7 @@
     </row>
     <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
-      <c r="B136" s="16"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -5499,7 +5511,7 @@
     </row>
     <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
-      <c r="B137" s="16"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -5528,7 +5540,7 @@
     </row>
     <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-      <c r="B138" s="16"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -5557,7 +5569,7 @@
     </row>
     <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
-      <c r="B139" s="16"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -5586,7 +5598,7 @@
     </row>
     <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-      <c r="B140" s="16"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -5615,7 +5627,7 @@
     </row>
     <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
-      <c r="B141" s="16"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -5644,7 +5656,7 @@
     </row>
     <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
-      <c r="B142" s="16"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -5673,7 +5685,7 @@
     </row>
     <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
-      <c r="B143" s="16"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -5702,7 +5714,7 @@
     </row>
     <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
-      <c r="B144" s="16"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -5731,7 +5743,7 @@
     </row>
     <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
-      <c r="B145" s="16"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -5760,7 +5772,7 @@
     </row>
     <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
-      <c r="B146" s="16"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -5789,7 +5801,7 @@
     </row>
     <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
-      <c r="B147" s="16"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -5818,7 +5830,7 @@
     </row>
     <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
-      <c r="B148" s="16"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -5847,7 +5859,7 @@
     </row>
     <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -5876,7 +5888,7 @@
     </row>
     <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
-      <c r="B150" s="16"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -5905,7 +5917,7 @@
     </row>
     <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
-      <c r="B151" s="16"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -5934,7 +5946,7 @@
     </row>
     <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
-      <c r="B152" s="16"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -5963,7 +5975,7 @@
     </row>
     <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
-      <c r="B153" s="16"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -5992,7 +6004,7 @@
     </row>
     <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
-      <c r="B154" s="16"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -6021,7 +6033,7 @@
     </row>
     <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
-      <c r="B155" s="16"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -6050,7 +6062,7 @@
     </row>
     <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
-      <c r="B156" s="16"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -6079,7 +6091,7 @@
     </row>
     <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
-      <c r="B157" s="16"/>
+      <c r="B157" s="9"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -6108,7 +6120,7 @@
     </row>
     <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-      <c r="B158" s="16"/>
+      <c r="B158" s="9"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -6137,7 +6149,7 @@
     </row>
     <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="B159" s="16"/>
+      <c r="B159" s="9"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -6166,7 +6178,7 @@
     </row>
     <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
-      <c r="B160" s="16"/>
+      <c r="B160" s="9"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -6195,7 +6207,7 @@
     </row>
     <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
-      <c r="B161" s="16"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -6224,7 +6236,7 @@
     </row>
     <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
-      <c r="B162" s="16"/>
+      <c r="B162" s="9"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -6253,7 +6265,7 @@
     </row>
     <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
-      <c r="B163" s="16"/>
+      <c r="B163" s="9"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -6282,7 +6294,7 @@
     </row>
     <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
-      <c r="B164" s="16"/>
+      <c r="B164" s="9"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -6311,7 +6323,7 @@
     </row>
     <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
-      <c r="B165" s="16"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -6340,7 +6352,7 @@
     </row>
     <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
-      <c r="B166" s="16"/>
+      <c r="B166" s="9"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -6369,7 +6381,7 @@
     </row>
     <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
-      <c r="B167" s="16"/>
+      <c r="B167" s="9"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -6398,7 +6410,7 @@
     </row>
     <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
-      <c r="B168" s="16"/>
+      <c r="B168" s="9"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -6427,7 +6439,7 @@
     </row>
     <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
-      <c r="B169" s="16"/>
+      <c r="B169" s="9"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -6456,7 +6468,7 @@
     </row>
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
-      <c r="B170" s="16"/>
+      <c r="B170" s="9"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -6485,7 +6497,7 @@
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
-      <c r="B171" s="16"/>
+      <c r="B171" s="9"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -6514,7 +6526,7 @@
     </row>
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
-      <c r="B172" s="16"/>
+      <c r="B172" s="9"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -6543,7 +6555,7 @@
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
-      <c r="B173" s="16"/>
+      <c r="B173" s="9"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -6572,7 +6584,7 @@
     </row>
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
-      <c r="B174" s="16"/>
+      <c r="B174" s="9"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -6601,7 +6613,7 @@
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
-      <c r="B175" s="16"/>
+      <c r="B175" s="9"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -6630,7 +6642,7 @@
     </row>
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
-      <c r="B176" s="16"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -6659,7 +6671,7 @@
     </row>
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
-      <c r="B177" s="16"/>
+      <c r="B177" s="9"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -6688,7 +6700,7 @@
     </row>
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
-      <c r="B178" s="16"/>
+      <c r="B178" s="9"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -6717,7 +6729,7 @@
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
-      <c r="B179" s="16"/>
+      <c r="B179" s="9"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -6746,7 +6758,7 @@
     </row>
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
-      <c r="B180" s="16"/>
+      <c r="B180" s="9"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -6775,7 +6787,7 @@
     </row>
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
-      <c r="B181" s="16"/>
+      <c r="B181" s="9"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -6804,7 +6816,7 @@
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
-      <c r="B182" s="16"/>
+      <c r="B182" s="9"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -6833,7 +6845,7 @@
     </row>
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
-      <c r="B183" s="16"/>
+      <c r="B183" s="9"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -6862,7 +6874,7 @@
     </row>
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
-      <c r="B184" s="16"/>
+      <c r="B184" s="9"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -6891,7 +6903,7 @@
     </row>
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
-      <c r="B185" s="16"/>
+      <c r="B185" s="9"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -6920,7 +6932,7 @@
     </row>
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
-      <c r="B186" s="16"/>
+      <c r="B186" s="9"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -6949,7 +6961,7 @@
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
-      <c r="B187" s="16"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -6978,7 +6990,7 @@
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
-      <c r="B188" s="16"/>
+      <c r="B188" s="9"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -7007,7 +7019,7 @@
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
-      <c r="B189" s="16"/>
+      <c r="B189" s="9"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -7036,7 +7048,7 @@
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
-      <c r="B190" s="16"/>
+      <c r="B190" s="9"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -7065,7 +7077,7 @@
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
-      <c r="B191" s="16"/>
+      <c r="B191" s="9"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -7094,7 +7106,7 @@
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
-      <c r="B192" s="16"/>
+      <c r="B192" s="9"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -7123,7 +7135,7 @@
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
-      <c r="B193" s="16"/>
+      <c r="B193" s="9"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -7152,7 +7164,7 @@
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
-      <c r="B194" s="16"/>
+      <c r="B194" s="9"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -7181,7 +7193,7 @@
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
-      <c r="B195" s="16"/>
+      <c r="B195" s="9"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -7210,7 +7222,7 @@
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
-      <c r="B196" s="16"/>
+      <c r="B196" s="9"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -7239,7 +7251,7 @@
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
-      <c r="B197" s="16"/>
+      <c r="B197" s="9"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -7268,7 +7280,7 @@
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
-      <c r="B198" s="16"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -7297,7 +7309,7 @@
     </row>
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
-      <c r="B199" s="16"/>
+      <c r="B199" s="9"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -7326,7 +7338,7 @@
     </row>
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
-      <c r="B200" s="16"/>
+      <c r="B200" s="9"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -7355,7 +7367,7 @@
     </row>
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
-      <c r="B201" s="16"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -7384,7 +7396,7 @@
     </row>
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
-      <c r="B202" s="16"/>
+      <c r="B202" s="9"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -7413,7 +7425,7 @@
     </row>
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
-      <c r="B203" s="16"/>
+      <c r="B203" s="9"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -7442,7 +7454,7 @@
     </row>
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
-      <c r="B204" s="16"/>
+      <c r="B204" s="9"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -7471,7 +7483,7 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
-      <c r="B205" s="16"/>
+      <c r="B205" s="9"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -7500,7 +7512,7 @@
     </row>
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
-      <c r="B206" s="16"/>
+      <c r="B206" s="9"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -7529,7 +7541,7 @@
     </row>
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
-      <c r="B207" s="16"/>
+      <c r="B207" s="9"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -7558,7 +7570,7 @@
     </row>
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
-      <c r="B208" s="16"/>
+      <c r="B208" s="9"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -7587,7 +7599,7 @@
     </row>
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
-      <c r="B209" s="16"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -7616,7 +7628,7 @@
     </row>
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
-      <c r="B210" s="16"/>
+      <c r="B210" s="9"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -7645,7 +7657,7 @@
     </row>
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
-      <c r="B211" s="16"/>
+      <c r="B211" s="9"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -7674,7 +7686,7 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
-      <c r="B212" s="16"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -7703,7 +7715,7 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
-      <c r="B213" s="16"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -7732,7 +7744,7 @@
     </row>
     <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
-      <c r="B214" s="16"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -7761,7 +7773,7 @@
     </row>
     <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
-      <c r="B215" s="16"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -7790,7 +7802,7 @@
     </row>
     <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
-      <c r="B216" s="16"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -7819,7 +7831,7 @@
     </row>
     <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
-      <c r="B217" s="16"/>
+      <c r="B217" s="9"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -7848,7 +7860,7 @@
     </row>
     <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
-      <c r="B218" s="16"/>
+      <c r="B218" s="9"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -7877,7 +7889,7 @@
     </row>
     <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
-      <c r="B219" s="16"/>
+      <c r="B219" s="9"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -7906,7 +7918,7 @@
     </row>
     <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
-      <c r="B220" s="16"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -7935,7 +7947,7 @@
     </row>
     <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
-      <c r="B221" s="16"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -7964,7 +7976,7 @@
     </row>
     <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
-      <c r="B222" s="16"/>
+      <c r="B222" s="9"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -7993,7 +8005,7 @@
     </row>
     <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
-      <c r="B223" s="16"/>
+      <c r="B223" s="9"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -8022,7 +8034,7 @@
     </row>
     <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
-      <c r="B224" s="16"/>
+      <c r="B224" s="9"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -8051,7 +8063,7 @@
     </row>
     <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
-      <c r="B225" s="16"/>
+      <c r="B225" s="9"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -8080,7 +8092,7 @@
     </row>
     <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
-      <c r="B226" s="16"/>
+      <c r="B226" s="9"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -8109,7 +8121,7 @@
     </row>
     <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
-      <c r="B227" s="16"/>
+      <c r="B227" s="9"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -8138,7 +8150,7 @@
     </row>
     <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
-      <c r="B228" s="16"/>
+      <c r="B228" s="9"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -8167,7 +8179,7 @@
     </row>
     <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
-      <c r="B229" s="16"/>
+      <c r="B229" s="9"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -8196,7 +8208,7 @@
     </row>
     <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
-      <c r="B230" s="16"/>
+      <c r="B230" s="9"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -8225,7 +8237,7 @@
     </row>
     <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
-      <c r="B231" s="16"/>
+      <c r="B231" s="9"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -8254,7 +8266,7 @@
     </row>
     <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
-      <c r="B232" s="16"/>
+      <c r="B232" s="9"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -8283,7 +8295,7 @@
     </row>
     <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
-      <c r="B233" s="16"/>
+      <c r="B233" s="9"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -8312,7 +8324,7 @@
     </row>
     <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
-      <c r="B234" s="16"/>
+      <c r="B234" s="9"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -8341,7 +8353,7 @@
     </row>
     <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
-      <c r="B235" s="16"/>
+      <c r="B235" s="9"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -8370,7 +8382,7 @@
     </row>
     <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
-      <c r="B236" s="16"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -8399,7 +8411,7 @@
     </row>
     <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
-      <c r="B237" s="16"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -8428,7 +8440,7 @@
     </row>
     <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
-      <c r="B238" s="16"/>
+      <c r="B238" s="9"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -8457,7 +8469,7 @@
     </row>
     <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
-      <c r="B239" s="16"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -8486,7 +8498,7 @@
     </row>
     <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
-      <c r="B240" s="16"/>
+      <c r="B240" s="9"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -8515,7 +8527,7 @@
     </row>
     <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
-      <c r="B241" s="16"/>
+      <c r="B241" s="9"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -8544,7 +8556,7 @@
     </row>
     <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
-      <c r="B242" s="16"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -8573,7 +8585,7 @@
     </row>
     <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
-      <c r="B243" s="16"/>
+      <c r="B243" s="9"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -8602,7 +8614,7 @@
     </row>
     <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
-      <c r="B244" s="16"/>
+      <c r="B244" s="9"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -8631,7 +8643,7 @@
     </row>
     <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
-      <c r="B245" s="16"/>
+      <c r="B245" s="9"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -8660,7 +8672,7 @@
     </row>
     <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
-      <c r="B246" s="16"/>
+      <c r="B246" s="9"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -8689,7 +8701,7 @@
     </row>
     <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
-      <c r="B247" s="16"/>
+      <c r="B247" s="9"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -8718,7 +8730,7 @@
     </row>
     <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
-      <c r="B248" s="16"/>
+      <c r="B248" s="9"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -8747,7 +8759,7 @@
     </row>
     <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
-      <c r="B249" s="16"/>
+      <c r="B249" s="9"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -8776,7 +8788,7 @@
     </row>
     <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
-      <c r="B250" s="16"/>
+      <c r="B250" s="9"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -8805,7 +8817,7 @@
     </row>
     <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="9"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -8834,7 +8846,7 @@
     </row>
     <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
-      <c r="B252" s="16"/>
+      <c r="B252" s="9"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -8863,7 +8875,7 @@
     </row>
     <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
-      <c r="B253" s="16"/>
+      <c r="B253" s="9"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -8892,7 +8904,7 @@
     </row>
     <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
-      <c r="B254" s="16"/>
+      <c r="B254" s="9"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -8921,7 +8933,7 @@
     </row>
     <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
-      <c r="B255" s="16"/>
+      <c r="B255" s="9"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -8950,7 +8962,7 @@
     </row>
     <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
-      <c r="B256" s="16"/>
+      <c r="B256" s="9"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -8979,7 +8991,7 @@
     </row>
     <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
-      <c r="B257" s="16"/>
+      <c r="B257" s="9"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -9008,7 +9020,7 @@
     </row>
     <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
-      <c r="B258" s="16"/>
+      <c r="B258" s="9"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -9037,7 +9049,7 @@
     </row>
     <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
-      <c r="B259" s="16"/>
+      <c r="B259" s="9"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -9066,7 +9078,7 @@
     </row>
     <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
-      <c r="B260" s="16"/>
+      <c r="B260" s="9"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -9095,7 +9107,7 @@
     </row>
     <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
-      <c r="B261" s="16"/>
+      <c r="B261" s="9"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -9124,7 +9136,7 @@
     </row>
     <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
-      <c r="B262" s="16"/>
+      <c r="B262" s="9"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -9153,7 +9165,7 @@
     </row>
     <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
-      <c r="B263" s="16"/>
+      <c r="B263" s="9"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -9182,7 +9194,7 @@
     </row>
     <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
-      <c r="B264" s="16"/>
+      <c r="B264" s="9"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -9211,7 +9223,7 @@
     </row>
     <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
-      <c r="B265" s="16"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -9240,7 +9252,7 @@
     </row>
     <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
-      <c r="B266" s="16"/>
+      <c r="B266" s="9"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -9269,7 +9281,7 @@
     </row>
     <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
-      <c r="B267" s="16"/>
+      <c r="B267" s="9"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -9298,7 +9310,7 @@
     </row>
     <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
-      <c r="B268" s="16"/>
+      <c r="B268" s="9"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -9327,7 +9339,7 @@
     </row>
     <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
-      <c r="B269" s="16"/>
+      <c r="B269" s="9"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -9356,7 +9368,7 @@
     </row>
     <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
-      <c r="B270" s="16"/>
+      <c r="B270" s="9"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -9385,7 +9397,7 @@
     </row>
     <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
-      <c r="B271" s="16"/>
+      <c r="B271" s="9"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -9414,7 +9426,7 @@
     </row>
     <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
-      <c r="B272" s="16"/>
+      <c r="B272" s="9"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -9443,7 +9455,7 @@
     </row>
     <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
-      <c r="B273" s="16"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -9472,7 +9484,7 @@
     </row>
     <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
-      <c r="B274" s="16"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -9501,7 +9513,7 @@
     </row>
     <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
-      <c r="B275" s="16"/>
+      <c r="B275" s="9"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -9530,7 +9542,7 @@
     </row>
     <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
-      <c r="B276" s="16"/>
+      <c r="B276" s="9"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -9559,7 +9571,7 @@
     </row>
     <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
-      <c r="B277" s="16"/>
+      <c r="B277" s="9"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -9588,7 +9600,7 @@
     </row>
     <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
-      <c r="B278" s="16"/>
+      <c r="B278" s="9"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -9617,7 +9629,7 @@
     </row>
     <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
-      <c r="B279" s="16"/>
+      <c r="B279" s="9"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -9646,7 +9658,7 @@
     </row>
     <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
-      <c r="B280" s="16"/>
+      <c r="B280" s="9"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -9675,7 +9687,7 @@
     </row>
     <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
-      <c r="B281" s="16"/>
+      <c r="B281" s="9"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -9704,7 +9716,7 @@
     </row>
     <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
-      <c r="B282" s="16"/>
+      <c r="B282" s="9"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -9733,7 +9745,7 @@
     </row>
     <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
-      <c r="B283" s="16"/>
+      <c r="B283" s="9"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -9762,7 +9774,7 @@
     </row>
     <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
-      <c r="B284" s="16"/>
+      <c r="B284" s="9"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -9791,7 +9803,7 @@
     </row>
     <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
-      <c r="B285" s="16"/>
+      <c r="B285" s="9"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -9820,7 +9832,7 @@
     </row>
     <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
-      <c r="B286" s="16"/>
+      <c r="B286" s="9"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -9849,7 +9861,7 @@
     </row>
     <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
-      <c r="B287" s="16"/>
+      <c r="B287" s="9"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -9878,7 +9890,7 @@
     </row>
     <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
-      <c r="B288" s="16"/>
+      <c r="B288" s="9"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -9907,7 +9919,7 @@
     </row>
     <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
-      <c r="B289" s="16"/>
+      <c r="B289" s="9"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -9936,7 +9948,7 @@
     </row>
     <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
-      <c r="B290" s="16"/>
+      <c r="B290" s="9"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -9965,7 +9977,7 @@
     </row>
     <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
-      <c r="B291" s="16"/>
+      <c r="B291" s="9"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -9994,7 +10006,7 @@
     </row>
     <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
-      <c r="B292" s="16"/>
+      <c r="B292" s="9"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -10023,7 +10035,7 @@
     </row>
     <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
-      <c r="B293" s="16"/>
+      <c r="B293" s="9"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -10052,7 +10064,7 @@
     </row>
     <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
-      <c r="B294" s="16"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -10081,7 +10093,7 @@
     </row>
     <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
-      <c r="B295" s="16"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -10110,7 +10122,7 @@
     </row>
     <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
-      <c r="B296" s="16"/>
+      <c r="B296" s="9"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -10139,7 +10151,7 @@
     </row>
     <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
-      <c r="B297" s="16"/>
+      <c r="B297" s="9"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -10168,7 +10180,7 @@
     </row>
     <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
-      <c r="B298" s="16"/>
+      <c r="B298" s="9"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -10197,7 +10209,7 @@
     </row>
     <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
-      <c r="B299" s="16"/>
+      <c r="B299" s="9"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -10226,7 +10238,7 @@
     </row>
     <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
-      <c r="B300" s="16"/>
+      <c r="B300" s="9"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -10255,7 +10267,7 @@
     </row>
     <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
-      <c r="B301" s="16"/>
+      <c r="B301" s="9"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -10284,7 +10296,7 @@
     </row>
     <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
-      <c r="B302" s="16"/>
+      <c r="B302" s="9"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -10313,7 +10325,7 @@
     </row>
     <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
-      <c r="B303" s="16"/>
+      <c r="B303" s="9"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -10342,7 +10354,7 @@
     </row>
     <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
-      <c r="B304" s="16"/>
+      <c r="B304" s="9"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -10371,7 +10383,7 @@
     </row>
     <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
-      <c r="B305" s="16"/>
+      <c r="B305" s="9"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -10400,7 +10412,7 @@
     </row>
     <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
-      <c r="B306" s="16"/>
+      <c r="B306" s="9"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -10429,7 +10441,7 @@
     </row>
     <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
-      <c r="B307" s="16"/>
+      <c r="B307" s="9"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -10458,7 +10470,7 @@
     </row>
     <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
-      <c r="B308" s="16"/>
+      <c r="B308" s="9"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -10487,7 +10499,7 @@
     </row>
     <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
-      <c r="B309" s="16"/>
+      <c r="B309" s="9"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -10516,7 +10528,7 @@
     </row>
     <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
-      <c r="B310" s="16"/>
+      <c r="B310" s="9"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -10545,7 +10557,7 @@
     </row>
     <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
-      <c r="B311" s="16"/>
+      <c r="B311" s="9"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -10574,7 +10586,7 @@
     </row>
     <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
-      <c r="B312" s="16"/>
+      <c r="B312" s="9"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -10603,7 +10615,7 @@
     </row>
     <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
-      <c r="B313" s="16"/>
+      <c r="B313" s="9"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -10632,7 +10644,7 @@
     </row>
     <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
-      <c r="B314" s="16"/>
+      <c r="B314" s="9"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -10661,7 +10673,7 @@
     </row>
     <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
-      <c r="B315" s="16"/>
+      <c r="B315" s="9"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -10690,7 +10702,7 @@
     </row>
     <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
-      <c r="B316" s="16"/>
+      <c r="B316" s="9"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -10719,7 +10731,7 @@
     </row>
     <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
-      <c r="B317" s="16"/>
+      <c r="B317" s="9"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -10748,7 +10760,7 @@
     </row>
     <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
-      <c r="B318" s="16"/>
+      <c r="B318" s="9"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -10777,7 +10789,7 @@
     </row>
     <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
-      <c r="B319" s="16"/>
+      <c r="B319" s="9"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -10806,7 +10818,7 @@
     </row>
     <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
-      <c r="B320" s="16"/>
+      <c r="B320" s="9"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -10835,7 +10847,7 @@
     </row>
     <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
-      <c r="B321" s="16"/>
+      <c r="B321" s="9"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -10864,7 +10876,7 @@
     </row>
     <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
-      <c r="B322" s="16"/>
+      <c r="B322" s="9"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -10893,7 +10905,7 @@
     </row>
     <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
-      <c r="B323" s="16"/>
+      <c r="B323" s="9"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -10922,7 +10934,7 @@
     </row>
     <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
-      <c r="B324" s="16"/>
+      <c r="B324" s="9"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -10951,7 +10963,7 @@
     </row>
     <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
-      <c r="B325" s="16"/>
+      <c r="B325" s="9"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -10980,7 +10992,7 @@
     </row>
     <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
-      <c r="B326" s="16"/>
+      <c r="B326" s="9"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -11009,7 +11021,7 @@
     </row>
     <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
-      <c r="B327" s="16"/>
+      <c r="B327" s="9"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -11038,7 +11050,7 @@
     </row>
     <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
-      <c r="B328" s="16"/>
+      <c r="B328" s="9"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -11067,7 +11079,7 @@
     </row>
     <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
-      <c r="B329" s="16"/>
+      <c r="B329" s="9"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -11096,7 +11108,7 @@
     </row>
     <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
-      <c r="B330" s="16"/>
+      <c r="B330" s="9"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -11125,7 +11137,7 @@
     </row>
     <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
-      <c r="B331" s="16"/>
+      <c r="B331" s="9"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -11154,7 +11166,7 @@
     </row>
     <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
-      <c r="B332" s="16"/>
+      <c r="B332" s="9"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -11183,7 +11195,7 @@
     </row>
     <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
-      <c r="B333" s="16"/>
+      <c r="B333" s="9"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -11212,7 +11224,7 @@
     </row>
     <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
-      <c r="B334" s="16"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -11241,7 +11253,7 @@
     </row>
     <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
-      <c r="B335" s="16"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -11270,7 +11282,7 @@
     </row>
     <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
-      <c r="B336" s="16"/>
+      <c r="B336" s="9"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -11299,7 +11311,7 @@
     </row>
     <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
-      <c r="B337" s="16"/>
+      <c r="B337" s="9"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -11328,7 +11340,7 @@
     </row>
     <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
-      <c r="B338" s="16"/>
+      <c r="B338" s="9"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -11357,7 +11369,7 @@
     </row>
     <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
-      <c r="B339" s="16"/>
+      <c r="B339" s="9"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -11386,7 +11398,7 @@
     </row>
     <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
-      <c r="B340" s="16"/>
+      <c r="B340" s="9"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -11415,7 +11427,7 @@
     </row>
     <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
-      <c r="B341" s="16"/>
+      <c r="B341" s="9"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -11444,7 +11456,7 @@
     </row>
     <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="B342" s="16"/>
+      <c r="B342" s="9"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -11473,7 +11485,7 @@
     </row>
     <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
-      <c r="B343" s="16"/>
+      <c r="B343" s="9"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -11502,7 +11514,7 @@
     </row>
     <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
-      <c r="B344" s="16"/>
+      <c r="B344" s="9"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -11531,7 +11543,7 @@
     </row>
     <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
-      <c r="B345" s="16"/>
+      <c r="B345" s="9"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -11560,7 +11572,7 @@
     </row>
     <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
-      <c r="B346" s="16"/>
+      <c r="B346" s="9"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -11589,7 +11601,7 @@
     </row>
     <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
-      <c r="B347" s="16"/>
+      <c r="B347" s="9"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -11618,7 +11630,7 @@
     </row>
     <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
-      <c r="B348" s="16"/>
+      <c r="B348" s="9"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -11647,7 +11659,7 @@
     </row>
     <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
-      <c r="B349" s="16"/>
+      <c r="B349" s="9"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
@@ -11676,7 +11688,7 @@
     </row>
     <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
-      <c r="B350" s="16"/>
+      <c r="B350" s="9"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
@@ -11705,7 +11717,7 @@
     </row>
     <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
-      <c r="B351" s="16"/>
+      <c r="B351" s="9"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
@@ -11734,7 +11746,7 @@
     </row>
     <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
-      <c r="B352" s="16"/>
+      <c r="B352" s="9"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
@@ -11763,7 +11775,7 @@
     </row>
     <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
-      <c r="B353" s="16"/>
+      <c r="B353" s="9"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
@@ -11792,7 +11804,7 @@
     </row>
     <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
-      <c r="B354" s="16"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
@@ -11821,7 +11833,7 @@
     </row>
     <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
-      <c r="B355" s="16"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
@@ -11850,7 +11862,7 @@
     </row>
     <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
-      <c r="B356" s="16"/>
+      <c r="B356" s="9"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
@@ -11879,7 +11891,7 @@
     </row>
     <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
-      <c r="B357" s="16"/>
+      <c r="B357" s="9"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
@@ -11908,7 +11920,7 @@
     </row>
     <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
-      <c r="B358" s="16"/>
+      <c r="B358" s="9"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
@@ -11937,7 +11949,7 @@
     </row>
     <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
-      <c r="B359" s="16"/>
+      <c r="B359" s="9"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
@@ -11966,7 +11978,7 @@
     </row>
     <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
-      <c r="B360" s="16"/>
+      <c r="B360" s="9"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
@@ -11995,7 +12007,7 @@
     </row>
     <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
-      <c r="B361" s="16"/>
+      <c r="B361" s="9"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
@@ -12024,7 +12036,7 @@
     </row>
     <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
-      <c r="B362" s="16"/>
+      <c r="B362" s="9"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
@@ -12053,7 +12065,7 @@
     </row>
     <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
-      <c r="B363" s="16"/>
+      <c r="B363" s="9"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
@@ -12082,7 +12094,7 @@
     </row>
     <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
-      <c r="B364" s="16"/>
+      <c r="B364" s="9"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
@@ -12111,7 +12123,7 @@
     </row>
     <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
-      <c r="B365" s="16"/>
+      <c r="B365" s="9"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
@@ -12140,7 +12152,7 @@
     </row>
     <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
-      <c r="B366" s="16"/>
+      <c r="B366" s="9"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
@@ -12169,7 +12181,7 @@
     </row>
     <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
-      <c r="B367" s="16"/>
+      <c r="B367" s="9"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -12198,7 +12210,7 @@
     </row>
     <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
-      <c r="B368" s="16"/>
+      <c r="B368" s="9"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -12227,7 +12239,7 @@
     </row>
     <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
-      <c r="B369" s="16"/>
+      <c r="B369" s="9"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -12256,7 +12268,7 @@
     </row>
     <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
-      <c r="B370" s="16"/>
+      <c r="B370" s="9"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -12285,7 +12297,7 @@
     </row>
     <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
-      <c r="B371" s="16"/>
+      <c r="B371" s="9"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -12314,7 +12326,7 @@
     </row>
     <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
-      <c r="B372" s="16"/>
+      <c r="B372" s="9"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -12343,7 +12355,7 @@
     </row>
     <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
-      <c r="B373" s="16"/>
+      <c r="B373" s="9"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -12372,7 +12384,7 @@
     </row>
     <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
-      <c r="B374" s="16"/>
+      <c r="B374" s="9"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -12401,7 +12413,7 @@
     </row>
     <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
-      <c r="B375" s="16"/>
+      <c r="B375" s="9"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -12430,7 +12442,7 @@
     </row>
     <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
-      <c r="B376" s="16"/>
+      <c r="B376" s="9"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -12459,7 +12471,7 @@
     </row>
     <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
-      <c r="B377" s="16"/>
+      <c r="B377" s="9"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -12488,7 +12500,7 @@
     </row>
     <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
-      <c r="B378" s="16"/>
+      <c r="B378" s="9"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -12517,7 +12529,7 @@
     </row>
     <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
-      <c r="B379" s="16"/>
+      <c r="B379" s="9"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -12546,7 +12558,7 @@
     </row>
     <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
-      <c r="B380" s="16"/>
+      <c r="B380" s="9"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -12575,7 +12587,7 @@
     </row>
     <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
-      <c r="B381" s="16"/>
+      <c r="B381" s="9"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -12604,7 +12616,7 @@
     </row>
     <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
-      <c r="B382" s="16"/>
+      <c r="B382" s="9"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -12633,7 +12645,7 @@
     </row>
     <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
-      <c r="B383" s="16"/>
+      <c r="B383" s="9"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -12662,7 +12674,7 @@
     </row>
     <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
-      <c r="B384" s="16"/>
+      <c r="B384" s="9"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -12691,7 +12703,7 @@
     </row>
     <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
-      <c r="B385" s="16"/>
+      <c r="B385" s="9"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -12720,7 +12732,7 @@
     </row>
     <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
-      <c r="B386" s="16"/>
+      <c r="B386" s="9"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -12749,7 +12761,7 @@
     </row>
     <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
-      <c r="B387" s="16"/>
+      <c r="B387" s="9"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -12778,7 +12790,7 @@
     </row>
     <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
-      <c r="B388" s="16"/>
+      <c r="B388" s="9"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -12807,7 +12819,7 @@
     </row>
     <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
-      <c r="B389" s="16"/>
+      <c r="B389" s="9"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -12836,7 +12848,7 @@
     </row>
     <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
-      <c r="B390" s="16"/>
+      <c r="B390" s="9"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -12865,7 +12877,7 @@
     </row>
     <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
-      <c r="B391" s="16"/>
+      <c r="B391" s="9"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -12894,7 +12906,7 @@
     </row>
     <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
-      <c r="B392" s="16"/>
+      <c r="B392" s="9"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -12923,7 +12935,7 @@
     </row>
     <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
-      <c r="B393" s="16"/>
+      <c r="B393" s="9"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -12952,7 +12964,7 @@
     </row>
     <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
-      <c r="B394" s="16"/>
+      <c r="B394" s="9"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -12981,7 +12993,7 @@
     </row>
     <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
-      <c r="B395" s="16"/>
+      <c r="B395" s="9"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -13010,7 +13022,7 @@
     </row>
     <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
-      <c r="B396" s="16"/>
+      <c r="B396" s="9"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -13039,7 +13051,7 @@
     </row>
     <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
-      <c r="B397" s="16"/>
+      <c r="B397" s="9"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -13068,7 +13080,7 @@
     </row>
     <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
-      <c r="B398" s="16"/>
+      <c r="B398" s="9"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -13097,7 +13109,7 @@
     </row>
     <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
-      <c r="B399" s="16"/>
+      <c r="B399" s="9"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -13126,7 +13138,7 @@
     </row>
     <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
-      <c r="B400" s="16"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -13155,7 +13167,7 @@
     </row>
     <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
-      <c r="B401" s="16"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -13184,7 +13196,7 @@
     </row>
     <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
-      <c r="B402" s="16"/>
+      <c r="B402" s="9"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -13213,7 +13225,7 @@
     </row>
     <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
-      <c r="B403" s="16"/>
+      <c r="B403" s="9"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -13242,7 +13254,7 @@
     </row>
     <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
-      <c r="B404" s="16"/>
+      <c r="B404" s="9"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -13271,7 +13283,7 @@
     </row>
     <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
-      <c r="B405" s="16"/>
+      <c r="B405" s="9"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -13300,7 +13312,7 @@
     </row>
     <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
-      <c r="B406" s="16"/>
+      <c r="B406" s="9"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -13329,7 +13341,7 @@
     </row>
     <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
-      <c r="B407" s="16"/>
+      <c r="B407" s="9"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -13358,7 +13370,7 @@
     </row>
     <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
-      <c r="B408" s="16"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -13387,7 +13399,7 @@
     </row>
     <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
-      <c r="B409" s="16"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -13416,7 +13428,7 @@
     </row>
     <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
-      <c r="B410" s="16"/>
+      <c r="B410" s="9"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -13445,7 +13457,7 @@
     </row>
     <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
-      <c r="B411" s="16"/>
+      <c r="B411" s="9"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -13474,7 +13486,7 @@
     </row>
     <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
-      <c r="B412" s="16"/>
+      <c r="B412" s="9"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -13503,7 +13515,7 @@
     </row>
     <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
-      <c r="B413" s="16"/>
+      <c r="B413" s="9"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -13532,7 +13544,7 @@
     </row>
     <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
-      <c r="B414" s="16"/>
+      <c r="B414" s="9"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -13561,7 +13573,7 @@
     </row>
     <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
-      <c r="B415" s="16"/>
+      <c r="B415" s="9"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -13590,7 +13602,7 @@
     </row>
     <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
-      <c r="B416" s="16"/>
+      <c r="B416" s="9"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -13619,7 +13631,7 @@
     </row>
     <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
-      <c r="B417" s="16"/>
+      <c r="B417" s="9"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -13648,7 +13660,7 @@
     </row>
     <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
-      <c r="B418" s="16"/>
+      <c r="B418" s="9"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -13677,7 +13689,7 @@
     </row>
     <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
-      <c r="B419" s="16"/>
+      <c r="B419" s="9"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -13706,7 +13718,7 @@
     </row>
     <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
-      <c r="B420" s="16"/>
+      <c r="B420" s="9"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -13735,7 +13747,7 @@
     </row>
     <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
-      <c r="B421" s="16"/>
+      <c r="B421" s="9"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -13764,7 +13776,7 @@
     </row>
     <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
-      <c r="B422" s="16"/>
+      <c r="B422" s="9"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -13793,7 +13805,7 @@
     </row>
     <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
-      <c r="B423" s="16"/>
+      <c r="B423" s="9"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -13822,7 +13834,7 @@
     </row>
     <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
-      <c r="B424" s="16"/>
+      <c r="B424" s="9"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -13851,7 +13863,7 @@
     </row>
     <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
-      <c r="B425" s="16"/>
+      <c r="B425" s="9"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -13880,7 +13892,7 @@
     </row>
     <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
-      <c r="B426" s="16"/>
+      <c r="B426" s="9"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -13909,7 +13921,7 @@
     </row>
     <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
-      <c r="B427" s="16"/>
+      <c r="B427" s="9"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
@@ -13938,7 +13950,7 @@
     </row>
     <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
-      <c r="B428" s="16"/>
+      <c r="B428" s="9"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
@@ -13967,7 +13979,7 @@
     </row>
     <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
-      <c r="B429" s="16"/>
+      <c r="B429" s="9"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
@@ -13996,7 +14008,7 @@
     </row>
     <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
-      <c r="B430" s="16"/>
+      <c r="B430" s="9"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
@@ -14025,7 +14037,7 @@
     </row>
     <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
-      <c r="B431" s="16"/>
+      <c r="B431" s="9"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
@@ -14054,7 +14066,7 @@
     </row>
     <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
-      <c r="B432" s="16"/>
+      <c r="B432" s="9"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
@@ -14083,7 +14095,7 @@
     </row>
     <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
-      <c r="B433" s="16"/>
+      <c r="B433" s="9"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
@@ -14112,7 +14124,7 @@
     </row>
     <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
-      <c r="B434" s="16"/>
+      <c r="B434" s="9"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
@@ -14141,7 +14153,7 @@
     </row>
     <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
-      <c r="B435" s="16"/>
+      <c r="B435" s="9"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
@@ -14170,7 +14182,7 @@
     </row>
     <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
-      <c r="B436" s="16"/>
+      <c r="B436" s="9"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
@@ -14199,7 +14211,7 @@
     </row>
     <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
-      <c r="B437" s="16"/>
+      <c r="B437" s="9"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
@@ -14228,7 +14240,7 @@
     </row>
     <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
-      <c r="B438" s="16"/>
+      <c r="B438" s="9"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
@@ -14257,7 +14269,7 @@
     </row>
     <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
-      <c r="B439" s="16"/>
+      <c r="B439" s="9"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
@@ -14286,7 +14298,7 @@
     </row>
     <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
-      <c r="B440" s="16"/>
+      <c r="B440" s="9"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
@@ -14315,7 +14327,7 @@
     </row>
     <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
-      <c r="B441" s="16"/>
+      <c r="B441" s="9"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
@@ -14344,7 +14356,7 @@
     </row>
     <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
-      <c r="B442" s="16"/>
+      <c r="B442" s="9"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
@@ -14373,7 +14385,7 @@
     </row>
     <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
-      <c r="B443" s="16"/>
+      <c r="B443" s="9"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
@@ -14402,7 +14414,7 @@
     </row>
     <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
-      <c r="B444" s="16"/>
+      <c r="B444" s="9"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
@@ -14431,7 +14443,7 @@
     </row>
     <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
-      <c r="B445" s="16"/>
+      <c r="B445" s="9"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
@@ -14460,7 +14472,7 @@
     </row>
     <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
-      <c r="B446" s="16"/>
+      <c r="B446" s="9"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
@@ -14489,7 +14501,7 @@
     </row>
     <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
-      <c r="B447" s="16"/>
+      <c r="B447" s="9"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
@@ -14518,7 +14530,7 @@
     </row>
     <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
-      <c r="B448" s="16"/>
+      <c r="B448" s="9"/>
       <c r="C448" s="5"/>
       <c r="D448" s="5"/>
       <c r="E448" s="5"/>
@@ -14547,7 +14559,7 @@
     </row>
     <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
-      <c r="B449" s="16"/>
+      <c r="B449" s="9"/>
       <c r="C449" s="5"/>
       <c r="D449" s="5"/>
       <c r="E449" s="5"/>
@@ -14576,7 +14588,7 @@
     </row>
     <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
-      <c r="B450" s="16"/>
+      <c r="B450" s="9"/>
       <c r="C450" s="5"/>
       <c r="D450" s="5"/>
       <c r="E450" s="5"/>
@@ -14605,7 +14617,7 @@
     </row>
     <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
-      <c r="B451" s="16"/>
+      <c r="B451" s="9"/>
       <c r="C451" s="5"/>
       <c r="D451" s="5"/>
       <c r="E451" s="5"/>
@@ -14634,7 +14646,7 @@
     </row>
     <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
-      <c r="B452" s="16"/>
+      <c r="B452" s="9"/>
       <c r="C452" s="5"/>
       <c r="D452" s="5"/>
       <c r="E452" s="5"/>
@@ -14663,7 +14675,7 @@
     </row>
     <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
-      <c r="B453" s="16"/>
+      <c r="B453" s="9"/>
       <c r="C453" s="5"/>
       <c r="D453" s="5"/>
       <c r="E453" s="5"/>
@@ -14692,7 +14704,7 @@
     </row>
     <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
-      <c r="B454" s="16"/>
+      <c r="B454" s="9"/>
       <c r="C454" s="5"/>
       <c r="D454" s="5"/>
       <c r="E454" s="5"/>
@@ -14721,7 +14733,7 @@
     </row>
     <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
-      <c r="B455" s="16"/>
+      <c r="B455" s="9"/>
       <c r="C455" s="5"/>
       <c r="D455" s="5"/>
       <c r="E455" s="5"/>
@@ -14750,7 +14762,7 @@
     </row>
     <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
-      <c r="B456" s="16"/>
+      <c r="B456" s="9"/>
       <c r="C456" s="5"/>
       <c r="D456" s="5"/>
       <c r="E456" s="5"/>
@@ -14779,7 +14791,7 @@
     </row>
     <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
-      <c r="B457" s="16"/>
+      <c r="B457" s="9"/>
       <c r="C457" s="5"/>
       <c r="D457" s="5"/>
       <c r="E457" s="5"/>
@@ -14808,7 +14820,7 @@
     </row>
     <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
-      <c r="B458" s="16"/>
+      <c r="B458" s="9"/>
       <c r="C458" s="5"/>
       <c r="D458" s="5"/>
       <c r="E458" s="5"/>
@@ -14837,7 +14849,7 @@
     </row>
     <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
-      <c r="B459" s="16"/>
+      <c r="B459" s="9"/>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
       <c r="E459" s="5"/>
@@ -14866,7 +14878,7 @@
     </row>
     <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
-      <c r="B460" s="16"/>
+      <c r="B460" s="9"/>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
       <c r="E460" s="5"/>
@@ -14895,7 +14907,7 @@
     </row>
     <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
-      <c r="B461" s="16"/>
+      <c r="B461" s="9"/>
       <c r="C461" s="5"/>
       <c r="D461" s="5"/>
       <c r="E461" s="5"/>
@@ -14924,7 +14936,7 @@
     </row>
     <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
-      <c r="B462" s="16"/>
+      <c r="B462" s="9"/>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
       <c r="E462" s="5"/>
@@ -14953,7 +14965,7 @@
     </row>
     <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
-      <c r="B463" s="16"/>
+      <c r="B463" s="9"/>
       <c r="C463" s="5"/>
       <c r="D463" s="5"/>
       <c r="E463" s="5"/>
@@ -14982,7 +14994,7 @@
     </row>
     <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
-      <c r="B464" s="16"/>
+      <c r="B464" s="9"/>
       <c r="C464" s="5"/>
       <c r="D464" s="5"/>
       <c r="E464" s="5"/>
@@ -15011,7 +15023,7 @@
     </row>
     <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5"/>
-      <c r="B465" s="16"/>
+      <c r="B465" s="9"/>
       <c r="C465" s="5"/>
       <c r="D465" s="5"/>
       <c r="E465" s="5"/>
@@ -15040,7 +15052,7 @@
     </row>
     <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5"/>
-      <c r="B466" s="16"/>
+      <c r="B466" s="9"/>
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
       <c r="E466" s="5"/>
@@ -15069,7 +15081,7 @@
     </row>
     <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5"/>
-      <c r="B467" s="16"/>
+      <c r="B467" s="9"/>
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
       <c r="E467" s="5"/>
@@ -15098,7 +15110,7 @@
     </row>
     <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5"/>
-      <c r="B468" s="16"/>
+      <c r="B468" s="9"/>
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
       <c r="E468" s="5"/>
@@ -15127,7 +15139,7 @@
     </row>
     <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5"/>
-      <c r="B469" s="16"/>
+      <c r="B469" s="9"/>
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
       <c r="E469" s="5"/>
@@ -15156,7 +15168,7 @@
     </row>
     <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5"/>
-      <c r="B470" s="16"/>
+      <c r="B470" s="9"/>
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
       <c r="E470" s="5"/>
@@ -15185,7 +15197,7 @@
     </row>
     <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5"/>
-      <c r="B471" s="16"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
       <c r="E471" s="5"/>
@@ -15214,7 +15226,7 @@
     </row>
     <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5"/>
-      <c r="B472" s="16"/>
+      <c r="B472" s="9"/>
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
       <c r="E472" s="5"/>
@@ -15243,7 +15255,7 @@
     </row>
     <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5"/>
-      <c r="B473" s="16"/>
+      <c r="B473" s="9"/>
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
       <c r="E473" s="5"/>
@@ -15272,7 +15284,7 @@
     </row>
     <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5"/>
-      <c r="B474" s="16"/>
+      <c r="B474" s="9"/>
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
       <c r="E474" s="5"/>
@@ -15301,7 +15313,7 @@
     </row>
     <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="5"/>
-      <c r="B475" s="16"/>
+      <c r="B475" s="9"/>
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
       <c r="E475" s="5"/>
@@ -15330,7 +15342,7 @@
     </row>
     <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5"/>
-      <c r="B476" s="16"/>
+      <c r="B476" s="9"/>
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
       <c r="E476" s="5"/>
@@ -15359,7 +15371,7 @@
     </row>
     <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5"/>
-      <c r="B477" s="16"/>
+      <c r="B477" s="9"/>
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
       <c r="E477" s="5"/>
@@ -15388,7 +15400,7 @@
     </row>
     <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
-      <c r="B478" s="16"/>
+      <c r="B478" s="9"/>
       <c r="C478" s="5"/>
       <c r="D478" s="5"/>
       <c r="E478" s="5"/>
@@ -15417,7 +15429,7 @@
     </row>
     <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
-      <c r="B479" s="16"/>
+      <c r="B479" s="9"/>
       <c r="C479" s="5"/>
       <c r="D479" s="5"/>
       <c r="E479" s="5"/>
@@ -15446,7 +15458,7 @@
     </row>
     <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
-      <c r="B480" s="16"/>
+      <c r="B480" s="9"/>
       <c r="C480" s="5"/>
       <c r="D480" s="5"/>
       <c r="E480" s="5"/>
@@ -15475,7 +15487,7 @@
     </row>
     <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
-      <c r="B481" s="16"/>
+      <c r="B481" s="9"/>
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
       <c r="E481" s="5"/>
@@ -15504,7 +15516,7 @@
     </row>
     <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
-      <c r="B482" s="16"/>
+      <c r="B482" s="9"/>
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
       <c r="E482" s="5"/>
@@ -15533,7 +15545,7 @@
     </row>
     <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
-      <c r="B483" s="16"/>
+      <c r="B483" s="9"/>
       <c r="C483" s="5"/>
       <c r="D483" s="5"/>
       <c r="E483" s="5"/>
@@ -15562,7 +15574,7 @@
     </row>
     <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
-      <c r="B484" s="16"/>
+      <c r="B484" s="9"/>
       <c r="C484" s="5"/>
       <c r="D484" s="5"/>
       <c r="E484" s="5"/>
@@ -15591,7 +15603,7 @@
     </row>
     <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
-      <c r="B485" s="16"/>
+      <c r="B485" s="9"/>
       <c r="C485" s="5"/>
       <c r="D485" s="5"/>
       <c r="E485" s="5"/>
@@ -15620,7 +15632,7 @@
     </row>
     <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
-      <c r="B486" s="16"/>
+      <c r="B486" s="9"/>
       <c r="C486" s="5"/>
       <c r="D486" s="5"/>
       <c r="E486" s="5"/>
@@ -15649,7 +15661,7 @@
     </row>
     <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
-      <c r="B487" s="16"/>
+      <c r="B487" s="9"/>
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
       <c r="E487" s="5"/>
@@ -15678,7 +15690,7 @@
     </row>
     <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
-      <c r="B488" s="16"/>
+      <c r="B488" s="9"/>
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
       <c r="E488" s="5"/>
@@ -15707,7 +15719,7 @@
     </row>
     <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
-      <c r="B489" s="16"/>
+      <c r="B489" s="9"/>
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
       <c r="E489" s="5"/>
@@ -15736,7 +15748,7 @@
     </row>
     <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
-      <c r="B490" s="16"/>
+      <c r="B490" s="9"/>
       <c r="C490" s="5"/>
       <c r="D490" s="5"/>
       <c r="E490" s="5"/>
@@ -15765,7 +15777,7 @@
     </row>
     <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
-      <c r="B491" s="16"/>
+      <c r="B491" s="9"/>
       <c r="C491" s="5"/>
       <c r="D491" s="5"/>
       <c r="E491" s="5"/>
@@ -15794,7 +15806,7 @@
     </row>
     <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
-      <c r="B492" s="16"/>
+      <c r="B492" s="9"/>
       <c r="C492" s="5"/>
       <c r="D492" s="5"/>
       <c r="E492" s="5"/>
@@ -15823,7 +15835,7 @@
     </row>
     <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
-      <c r="B493" s="16"/>
+      <c r="B493" s="9"/>
       <c r="C493" s="5"/>
       <c r="D493" s="5"/>
       <c r="E493" s="5"/>
@@ -15852,7 +15864,7 @@
     </row>
     <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
-      <c r="B494" s="16"/>
+      <c r="B494" s="9"/>
       <c r="C494" s="5"/>
       <c r="D494" s="5"/>
       <c r="E494" s="5"/>
@@ -15881,7 +15893,7 @@
     </row>
     <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
-      <c r="B495" s="16"/>
+      <c r="B495" s="9"/>
       <c r="C495" s="5"/>
       <c r="D495" s="5"/>
       <c r="E495" s="5"/>
@@ -15910,7 +15922,7 @@
     </row>
     <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
-      <c r="B496" s="16"/>
+      <c r="B496" s="9"/>
       <c r="C496" s="5"/>
       <c r="D496" s="5"/>
       <c r="E496" s="5"/>
@@ -15939,7 +15951,7 @@
     </row>
     <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
-      <c r="B497" s="16"/>
+      <c r="B497" s="9"/>
       <c r="C497" s="5"/>
       <c r="D497" s="5"/>
       <c r="E497" s="5"/>
@@ -15968,7 +15980,7 @@
     </row>
     <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
-      <c r="B498" s="16"/>
+      <c r="B498" s="9"/>
       <c r="C498" s="5"/>
       <c r="D498" s="5"/>
       <c r="E498" s="5"/>
@@ -15997,7 +16009,7 @@
     </row>
     <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
-      <c r="B499" s="16"/>
+      <c r="B499" s="9"/>
       <c r="C499" s="5"/>
       <c r="D499" s="5"/>
       <c r="E499" s="5"/>
@@ -16026,7 +16038,7 @@
     </row>
     <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
-      <c r="B500" s="16"/>
+      <c r="B500" s="9"/>
       <c r="C500" s="5"/>
       <c r="D500" s="5"/>
       <c r="E500" s="5"/>
@@ -16055,7 +16067,7 @@
     </row>
     <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
-      <c r="B501" s="16"/>
+      <c r="B501" s="9"/>
       <c r="C501" s="5"/>
       <c r="D501" s="5"/>
       <c r="E501" s="5"/>
@@ -16084,7 +16096,7 @@
     </row>
     <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
-      <c r="B502" s="16"/>
+      <c r="B502" s="9"/>
       <c r="C502" s="5"/>
       <c r="D502" s="5"/>
       <c r="E502" s="5"/>
@@ -16113,7 +16125,7 @@
     </row>
     <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
-      <c r="B503" s="16"/>
+      <c r="B503" s="9"/>
       <c r="C503" s="5"/>
       <c r="D503" s="5"/>
       <c r="E503" s="5"/>
@@ -16142,7 +16154,7 @@
     </row>
     <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
-      <c r="B504" s="16"/>
+      <c r="B504" s="9"/>
       <c r="C504" s="5"/>
       <c r="D504" s="5"/>
       <c r="E504" s="5"/>
@@ -16171,7 +16183,7 @@
     </row>
     <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
-      <c r="B505" s="16"/>
+      <c r="B505" s="9"/>
       <c r="C505" s="5"/>
       <c r="D505" s="5"/>
       <c r="E505" s="5"/>
@@ -16200,7 +16212,7 @@
     </row>
     <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
-      <c r="B506" s="16"/>
+      <c r="B506" s="9"/>
       <c r="C506" s="5"/>
       <c r="D506" s="5"/>
       <c r="E506" s="5"/>
@@ -16229,7 +16241,7 @@
     </row>
     <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
-      <c r="B507" s="16"/>
+      <c r="B507" s="9"/>
       <c r="C507" s="5"/>
       <c r="D507" s="5"/>
       <c r="E507" s="5"/>
@@ -16258,7 +16270,7 @@
     </row>
     <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
-      <c r="B508" s="16"/>
+      <c r="B508" s="9"/>
       <c r="C508" s="5"/>
       <c r="D508" s="5"/>
       <c r="E508" s="5"/>
@@ -16287,7 +16299,7 @@
     </row>
     <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
-      <c r="B509" s="16"/>
+      <c r="B509" s="9"/>
       <c r="C509" s="5"/>
       <c r="D509" s="5"/>
       <c r="E509" s="5"/>
@@ -16316,7 +16328,7 @@
     </row>
     <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
-      <c r="B510" s="16"/>
+      <c r="B510" s="9"/>
       <c r="C510" s="5"/>
       <c r="D510" s="5"/>
       <c r="E510" s="5"/>
@@ -16345,7 +16357,7 @@
     </row>
     <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
-      <c r="B511" s="16"/>
+      <c r="B511" s="9"/>
       <c r="C511" s="5"/>
       <c r="D511" s="5"/>
       <c r="E511" s="5"/>
@@ -16374,7 +16386,7 @@
     </row>
     <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
-      <c r="B512" s="16"/>
+      <c r="B512" s="9"/>
       <c r="C512" s="5"/>
       <c r="D512" s="5"/>
       <c r="E512" s="5"/>
@@ -16403,7 +16415,7 @@
     </row>
     <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
-      <c r="B513" s="16"/>
+      <c r="B513" s="9"/>
       <c r="C513" s="5"/>
       <c r="D513" s="5"/>
       <c r="E513" s="5"/>
@@ -16432,7 +16444,7 @@
     </row>
     <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
-      <c r="B514" s="16"/>
+      <c r="B514" s="9"/>
       <c r="C514" s="5"/>
       <c r="D514" s="5"/>
       <c r="E514" s="5"/>
@@ -16461,7 +16473,7 @@
     </row>
     <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
-      <c r="B515" s="16"/>
+      <c r="B515" s="9"/>
       <c r="C515" s="5"/>
       <c r="D515" s="5"/>
       <c r="E515" s="5"/>
@@ -16490,7 +16502,7 @@
     </row>
     <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
-      <c r="B516" s="16"/>
+      <c r="B516" s="9"/>
       <c r="C516" s="5"/>
       <c r="D516" s="5"/>
       <c r="E516" s="5"/>
@@ -16519,7 +16531,7 @@
     </row>
     <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
-      <c r="B517" s="16"/>
+      <c r="B517" s="9"/>
       <c r="C517" s="5"/>
       <c r="D517" s="5"/>
       <c r="E517" s="5"/>
@@ -16548,7 +16560,7 @@
     </row>
     <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
-      <c r="B518" s="16"/>
+      <c r="B518" s="9"/>
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
       <c r="E518" s="5"/>
@@ -16577,7 +16589,7 @@
     </row>
     <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
-      <c r="B519" s="16"/>
+      <c r="B519" s="9"/>
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
       <c r="E519" s="5"/>
@@ -16606,7 +16618,7 @@
     </row>
     <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
-      <c r="B520" s="16"/>
+      <c r="B520" s="9"/>
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
       <c r="E520" s="5"/>
@@ -16635,7 +16647,7 @@
     </row>
     <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
-      <c r="B521" s="16"/>
+      <c r="B521" s="9"/>
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
       <c r="E521" s="5"/>
@@ -16664,7 +16676,7 @@
     </row>
     <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
-      <c r="B522" s="16"/>
+      <c r="B522" s="9"/>
       <c r="C522" s="5"/>
       <c r="D522" s="5"/>
       <c r="E522" s="5"/>
@@ -16693,7 +16705,7 @@
     </row>
     <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
-      <c r="B523" s="16"/>
+      <c r="B523" s="9"/>
       <c r="C523" s="5"/>
       <c r="D523" s="5"/>
       <c r="E523" s="5"/>
@@ -16722,7 +16734,7 @@
     </row>
     <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
-      <c r="B524" s="16"/>
+      <c r="B524" s="9"/>
       <c r="C524" s="5"/>
       <c r="D524" s="5"/>
       <c r="E524" s="5"/>
@@ -16751,7 +16763,7 @@
     </row>
     <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
-      <c r="B525" s="16"/>
+      <c r="B525" s="9"/>
       <c r="C525" s="5"/>
       <c r="D525" s="5"/>
       <c r="E525" s="5"/>
@@ -16780,7 +16792,7 @@
     </row>
     <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
-      <c r="B526" s="16"/>
+      <c r="B526" s="9"/>
       <c r="C526" s="5"/>
       <c r="D526" s="5"/>
       <c r="E526" s="5"/>
@@ -16809,7 +16821,7 @@
     </row>
     <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
-      <c r="B527" s="16"/>
+      <c r="B527" s="9"/>
       <c r="C527" s="5"/>
       <c r="D527" s="5"/>
       <c r="E527" s="5"/>
@@ -16838,7 +16850,7 @@
     </row>
     <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
-      <c r="B528" s="16"/>
+      <c r="B528" s="9"/>
       <c r="C528" s="5"/>
       <c r="D528" s="5"/>
       <c r="E528" s="5"/>
@@ -16867,7 +16879,7 @@
     </row>
     <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
-      <c r="B529" s="16"/>
+      <c r="B529" s="9"/>
       <c r="C529" s="5"/>
       <c r="D529" s="5"/>
       <c r="E529" s="5"/>
@@ -16896,7 +16908,7 @@
     </row>
     <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
-      <c r="B530" s="16"/>
+      <c r="B530" s="9"/>
       <c r="C530" s="5"/>
       <c r="D530" s="5"/>
       <c r="E530" s="5"/>
@@ -16925,7 +16937,7 @@
     </row>
     <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
-      <c r="B531" s="16"/>
+      <c r="B531" s="9"/>
       <c r="C531" s="5"/>
       <c r="D531" s="5"/>
       <c r="E531" s="5"/>
@@ -16954,7 +16966,7 @@
     </row>
     <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
-      <c r="B532" s="16"/>
+      <c r="B532" s="9"/>
       <c r="C532" s="5"/>
       <c r="D532" s="5"/>
       <c r="E532" s="5"/>
@@ -16983,7 +16995,7 @@
     </row>
     <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
-      <c r="B533" s="16"/>
+      <c r="B533" s="9"/>
       <c r="C533" s="5"/>
       <c r="D533" s="5"/>
       <c r="E533" s="5"/>
@@ -17012,7 +17024,7 @@
     </row>
     <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
-      <c r="B534" s="16"/>
+      <c r="B534" s="9"/>
       <c r="C534" s="5"/>
       <c r="D534" s="5"/>
       <c r="E534" s="5"/>
@@ -17041,7 +17053,7 @@
     </row>
     <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
-      <c r="B535" s="16"/>
+      <c r="B535" s="9"/>
       <c r="C535" s="5"/>
       <c r="D535" s="5"/>
       <c r="E535" s="5"/>
@@ -17070,7 +17082,7 @@
     </row>
     <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
-      <c r="B536" s="16"/>
+      <c r="B536" s="9"/>
       <c r="C536" s="5"/>
       <c r="D536" s="5"/>
       <c r="E536" s="5"/>
@@ -17099,7 +17111,7 @@
     </row>
     <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
-      <c r="B537" s="16"/>
+      <c r="B537" s="9"/>
       <c r="C537" s="5"/>
       <c r="D537" s="5"/>
       <c r="E537" s="5"/>
@@ -17128,7 +17140,7 @@
     </row>
     <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
-      <c r="B538" s="16"/>
+      <c r="B538" s="9"/>
       <c r="C538" s="5"/>
       <c r="D538" s="5"/>
       <c r="E538" s="5"/>
@@ -17157,7 +17169,7 @@
     </row>
     <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
-      <c r="B539" s="16"/>
+      <c r="B539" s="9"/>
       <c r="C539" s="5"/>
       <c r="D539" s="5"/>
       <c r="E539" s="5"/>
@@ -17186,7 +17198,7 @@
     </row>
     <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
-      <c r="B540" s="16"/>
+      <c r="B540" s="9"/>
       <c r="C540" s="5"/>
       <c r="D540" s="5"/>
       <c r="E540" s="5"/>
@@ -17215,7 +17227,7 @@
     </row>
     <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
-      <c r="B541" s="16"/>
+      <c r="B541" s="9"/>
       <c r="C541" s="5"/>
       <c r="D541" s="5"/>
       <c r="E541" s="5"/>
@@ -17244,7 +17256,7 @@
     </row>
     <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
-      <c r="B542" s="16"/>
+      <c r="B542" s="9"/>
       <c r="C542" s="5"/>
       <c r="D542" s="5"/>
       <c r="E542" s="5"/>
@@ -17273,7 +17285,7 @@
     </row>
     <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
-      <c r="B543" s="16"/>
+      <c r="B543" s="9"/>
       <c r="C543" s="5"/>
       <c r="D543" s="5"/>
       <c r="E543" s="5"/>
@@ -17302,7 +17314,7 @@
     </row>
     <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
-      <c r="B544" s="16"/>
+      <c r="B544" s="9"/>
       <c r="C544" s="5"/>
       <c r="D544" s="5"/>
       <c r="E544" s="5"/>
@@ -17331,7 +17343,7 @@
     </row>
     <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
-      <c r="B545" s="16"/>
+      <c r="B545" s="9"/>
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
       <c r="E545" s="5"/>
@@ -17360,7 +17372,7 @@
     </row>
     <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
-      <c r="B546" s="16"/>
+      <c r="B546" s="9"/>
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
       <c r="E546" s="5"/>
@@ -17389,7 +17401,7 @@
     </row>
     <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
-      <c r="B547" s="16"/>
+      <c r="B547" s="9"/>
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
       <c r="E547" s="5"/>
@@ -17418,7 +17430,7 @@
     </row>
     <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
-      <c r="B548" s="16"/>
+      <c r="B548" s="9"/>
       <c r="C548" s="5"/>
       <c r="D548" s="5"/>
       <c r="E548" s="5"/>
@@ -17447,7 +17459,7 @@
     </row>
     <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
-      <c r="B549" s="16"/>
+      <c r="B549" s="9"/>
       <c r="C549" s="5"/>
       <c r="D549" s="5"/>
       <c r="E549" s="5"/>
@@ -17476,7 +17488,7 @@
     </row>
     <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
-      <c r="B550" s="16"/>
+      <c r="B550" s="9"/>
       <c r="C550" s="5"/>
       <c r="D550" s="5"/>
       <c r="E550" s="5"/>
@@ -17505,7 +17517,7 @@
     </row>
     <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
-      <c r="B551" s="16"/>
+      <c r="B551" s="9"/>
       <c r="C551" s="5"/>
       <c r="D551" s="5"/>
       <c r="E551" s="5"/>
@@ -17534,7 +17546,7 @@
     </row>
     <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
-      <c r="B552" s="16"/>
+      <c r="B552" s="9"/>
       <c r="C552" s="5"/>
       <c r="D552" s="5"/>
       <c r="E552" s="5"/>
@@ -17563,7 +17575,7 @@
     </row>
     <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
-      <c r="B553" s="16"/>
+      <c r="B553" s="9"/>
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
       <c r="E553" s="5"/>
@@ -17592,7 +17604,7 @@
     </row>
     <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
-      <c r="B554" s="16"/>
+      <c r="B554" s="9"/>
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
       <c r="E554" s="5"/>
@@ -17621,7 +17633,7 @@
     </row>
     <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
-      <c r="B555" s="16"/>
+      <c r="B555" s="9"/>
       <c r="C555" s="5"/>
       <c r="D555" s="5"/>
       <c r="E555" s="5"/>
@@ -17650,7 +17662,7 @@
     </row>
     <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
-      <c r="B556" s="16"/>
+      <c r="B556" s="9"/>
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
       <c r="E556" s="5"/>
@@ -17679,7 +17691,7 @@
     </row>
     <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
-      <c r="B557" s="16"/>
+      <c r="B557" s="9"/>
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
       <c r="E557" s="5"/>
@@ -17708,7 +17720,7 @@
     </row>
     <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
-      <c r="B558" s="16"/>
+      <c r="B558" s="9"/>
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
       <c r="E558" s="5"/>
@@ -17737,7 +17749,7 @@
     </row>
     <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
-      <c r="B559" s="16"/>
+      <c r="B559" s="9"/>
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
       <c r="E559" s="5"/>
@@ -17766,7 +17778,7 @@
     </row>
     <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
-      <c r="B560" s="16"/>
+      <c r="B560" s="9"/>
       <c r="C560" s="5"/>
       <c r="D560" s="5"/>
       <c r="E560" s="5"/>
@@ -17795,7 +17807,7 @@
     </row>
     <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
-      <c r="B561" s="16"/>
+      <c r="B561" s="9"/>
       <c r="C561" s="5"/>
       <c r="D561" s="5"/>
       <c r="E561" s="5"/>
@@ -17824,7 +17836,7 @@
     </row>
     <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
-      <c r="B562" s="16"/>
+      <c r="B562" s="9"/>
       <c r="C562" s="5"/>
       <c r="D562" s="5"/>
       <c r="E562" s="5"/>
@@ -17853,7 +17865,7 @@
     </row>
     <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
-      <c r="B563" s="16"/>
+      <c r="B563" s="9"/>
       <c r="C563" s="5"/>
       <c r="D563" s="5"/>
       <c r="E563" s="5"/>
@@ -17882,7 +17894,7 @@
     </row>
     <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
-      <c r="B564" s="16"/>
+      <c r="B564" s="9"/>
       <c r="C564" s="5"/>
       <c r="D564" s="5"/>
       <c r="E564" s="5"/>
@@ -17911,7 +17923,7 @@
     </row>
     <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
-      <c r="B565" s="16"/>
+      <c r="B565" s="9"/>
       <c r="C565" s="5"/>
       <c r="D565" s="5"/>
       <c r="E565" s="5"/>
@@ -17940,7 +17952,7 @@
     </row>
     <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
-      <c r="B566" s="16"/>
+      <c r="B566" s="9"/>
       <c r="C566" s="5"/>
       <c r="D566" s="5"/>
       <c r="E566" s="5"/>
@@ -17969,7 +17981,7 @@
     </row>
     <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
-      <c r="B567" s="16"/>
+      <c r="B567" s="9"/>
       <c r="C567" s="5"/>
       <c r="D567" s="5"/>
       <c r="E567" s="5"/>
@@ -17998,7 +18010,7 @@
     </row>
     <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
-      <c r="B568" s="16"/>
+      <c r="B568" s="9"/>
       <c r="C568" s="5"/>
       <c r="D568" s="5"/>
       <c r="E568" s="5"/>
@@ -18027,7 +18039,7 @@
     </row>
     <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
-      <c r="B569" s="16"/>
+      <c r="B569" s="9"/>
       <c r="C569" s="5"/>
       <c r="D569" s="5"/>
       <c r="E569" s="5"/>
@@ -18056,7 +18068,7 @@
     </row>
     <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
-      <c r="B570" s="16"/>
+      <c r="B570" s="9"/>
       <c r="C570" s="5"/>
       <c r="D570" s="5"/>
       <c r="E570" s="5"/>
@@ -18085,7 +18097,7 @@
     </row>
     <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
-      <c r="B571" s="16"/>
+      <c r="B571" s="9"/>
       <c r="C571" s="5"/>
       <c r="D571" s="5"/>
       <c r="E571" s="5"/>
@@ -18114,7 +18126,7 @@
     </row>
     <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
-      <c r="B572" s="16"/>
+      <c r="B572" s="9"/>
       <c r="C572" s="5"/>
       <c r="D572" s="5"/>
       <c r="E572" s="5"/>
@@ -18143,7 +18155,7 @@
     </row>
     <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
-      <c r="B573" s="16"/>
+      <c r="B573" s="9"/>
       <c r="C573" s="5"/>
       <c r="D573" s="5"/>
       <c r="E573" s="5"/>
@@ -18172,7 +18184,7 @@
     </row>
     <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
-      <c r="B574" s="16"/>
+      <c r="B574" s="9"/>
       <c r="C574" s="5"/>
       <c r="D574" s="5"/>
       <c r="E574" s="5"/>
@@ -18201,7 +18213,7 @@
     </row>
     <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
-      <c r="B575" s="16"/>
+      <c r="B575" s="9"/>
       <c r="C575" s="5"/>
       <c r="D575" s="5"/>
       <c r="E575" s="5"/>
@@ -18230,7 +18242,7 @@
     </row>
     <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
-      <c r="B576" s="16"/>
+      <c r="B576" s="9"/>
       <c r="C576" s="5"/>
       <c r="D576" s="5"/>
       <c r="E576" s="5"/>
@@ -18259,7 +18271,7 @@
     </row>
     <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
-      <c r="B577" s="16"/>
+      <c r="B577" s="9"/>
       <c r="C577" s="5"/>
       <c r="D577" s="5"/>
       <c r="E577" s="5"/>
@@ -18288,7 +18300,7 @@
     </row>
     <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
-      <c r="B578" s="16"/>
+      <c r="B578" s="9"/>
       <c r="C578" s="5"/>
       <c r="D578" s="5"/>
       <c r="E578" s="5"/>
@@ -18317,7 +18329,7 @@
     </row>
     <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
-      <c r="B579" s="16"/>
+      <c r="B579" s="9"/>
       <c r="C579" s="5"/>
       <c r="D579" s="5"/>
       <c r="E579" s="5"/>
@@ -18346,7 +18358,7 @@
     </row>
     <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
-      <c r="B580" s="16"/>
+      <c r="B580" s="9"/>
       <c r="C580" s="5"/>
       <c r="D580" s="5"/>
       <c r="E580" s="5"/>
@@ -18375,7 +18387,7 @@
     </row>
     <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
-      <c r="B581" s="16"/>
+      <c r="B581" s="9"/>
       <c r="C581" s="5"/>
       <c r="D581" s="5"/>
       <c r="E581" s="5"/>
@@ -18404,7 +18416,7 @@
     </row>
     <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
-      <c r="B582" s="16"/>
+      <c r="B582" s="9"/>
       <c r="C582" s="5"/>
       <c r="D582" s="5"/>
       <c r="E582" s="5"/>
@@ -18433,7 +18445,7 @@
     </row>
     <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
-      <c r="B583" s="16"/>
+      <c r="B583" s="9"/>
       <c r="C583" s="5"/>
       <c r="D583" s="5"/>
       <c r="E583" s="5"/>
@@ -18462,7 +18474,7 @@
     </row>
     <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
-      <c r="B584" s="16"/>
+      <c r="B584" s="9"/>
       <c r="C584" s="5"/>
       <c r="D584" s="5"/>
       <c r="E584" s="5"/>
@@ -18491,7 +18503,7 @@
     </row>
     <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
-      <c r="B585" s="16"/>
+      <c r="B585" s="9"/>
       <c r="C585" s="5"/>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
@@ -18520,7 +18532,7 @@
     </row>
     <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
-      <c r="B586" s="16"/>
+      <c r="B586" s="9"/>
       <c r="C586" s="5"/>
       <c r="D586" s="5"/>
       <c r="E586" s="5"/>
@@ -18549,7 +18561,7 @@
     </row>
     <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
-      <c r="B587" s="16"/>
+      <c r="B587" s="9"/>
       <c r="C587" s="5"/>
       <c r="D587" s="5"/>
       <c r="E587" s="5"/>
@@ -18578,7 +18590,7 @@
     </row>
     <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
-      <c r="B588" s="16"/>
+      <c r="B588" s="9"/>
       <c r="C588" s="5"/>
       <c r="D588" s="5"/>
       <c r="E588" s="5"/>
@@ -18607,7 +18619,7 @@
     </row>
     <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
-      <c r="B589" s="16"/>
+      <c r="B589" s="9"/>
       <c r="C589" s="5"/>
       <c r="D589" s="5"/>
       <c r="E589" s="5"/>
@@ -18636,7 +18648,7 @@
     </row>
     <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
-      <c r="B590" s="16"/>
+      <c r="B590" s="9"/>
       <c r="C590" s="5"/>
       <c r="D590" s="5"/>
       <c r="E590" s="5"/>
@@ -18665,7 +18677,7 @@
     </row>
     <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
-      <c r="B591" s="16"/>
+      <c r="B591" s="9"/>
       <c r="C591" s="5"/>
       <c r="D591" s="5"/>
       <c r="E591" s="5"/>
@@ -18694,7 +18706,7 @@
     </row>
     <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
-      <c r="B592" s="16"/>
+      <c r="B592" s="9"/>
       <c r="C592" s="5"/>
       <c r="D592" s="5"/>
       <c r="E592" s="5"/>
@@ -18723,7 +18735,7 @@
     </row>
     <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
-      <c r="B593" s="16"/>
+      <c r="B593" s="9"/>
       <c r="C593" s="5"/>
       <c r="D593" s="5"/>
       <c r="E593" s="5"/>
@@ -18752,7 +18764,7 @@
     </row>
     <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
-      <c r="B594" s="16"/>
+      <c r="B594" s="9"/>
       <c r="C594" s="5"/>
       <c r="D594" s="5"/>
       <c r="E594" s="5"/>
@@ -18781,7 +18793,7 @@
     </row>
     <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
-      <c r="B595" s="16"/>
+      <c r="B595" s="9"/>
       <c r="C595" s="5"/>
       <c r="D595" s="5"/>
       <c r="E595" s="5"/>
@@ -18810,7 +18822,7 @@
     </row>
     <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
-      <c r="B596" s="16"/>
+      <c r="B596" s="9"/>
       <c r="C596" s="5"/>
       <c r="D596" s="5"/>
       <c r="E596" s="5"/>
@@ -18839,7 +18851,7 @@
     </row>
     <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
-      <c r="B597" s="16"/>
+      <c r="B597" s="9"/>
       <c r="C597" s="5"/>
       <c r="D597" s="5"/>
       <c r="E597" s="5"/>
@@ -18868,7 +18880,7 @@
     </row>
     <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
-      <c r="B598" s="16"/>
+      <c r="B598" s="9"/>
       <c r="C598" s="5"/>
       <c r="D598" s="5"/>
       <c r="E598" s="5"/>
@@ -18897,7 +18909,7 @@
     </row>
     <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5"/>
-      <c r="B599" s="16"/>
+      <c r="B599" s="9"/>
       <c r="C599" s="5"/>
       <c r="D599" s="5"/>
       <c r="E599" s="5"/>
@@ -18926,7 +18938,7 @@
     </row>
     <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5"/>
-      <c r="B600" s="16"/>
+      <c r="B600" s="9"/>
       <c r="C600" s="5"/>
       <c r="D600" s="5"/>
       <c r="E600" s="5"/>
@@ -18955,7 +18967,7 @@
     </row>
     <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5"/>
-      <c r="B601" s="16"/>
+      <c r="B601" s="9"/>
       <c r="C601" s="5"/>
       <c r="D601" s="5"/>
       <c r="E601" s="5"/>
@@ -18984,7 +18996,7 @@
     </row>
     <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5"/>
-      <c r="B602" s="16"/>
+      <c r="B602" s="9"/>
       <c r="C602" s="5"/>
       <c r="D602" s="5"/>
       <c r="E602" s="5"/>
@@ -19013,7 +19025,7 @@
     </row>
     <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5"/>
-      <c r="B603" s="16"/>
+      <c r="B603" s="9"/>
       <c r="C603" s="5"/>
       <c r="D603" s="5"/>
       <c r="E603" s="5"/>
@@ -19042,7 +19054,7 @@
     </row>
     <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5"/>
-      <c r="B604" s="16"/>
+      <c r="B604" s="9"/>
       <c r="C604" s="5"/>
       <c r="D604" s="5"/>
       <c r="E604" s="5"/>
@@ -19071,7 +19083,7 @@
     </row>
     <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5"/>
-      <c r="B605" s="16"/>
+      <c r="B605" s="9"/>
       <c r="C605" s="5"/>
       <c r="D605" s="5"/>
       <c r="E605" s="5"/>
@@ -19100,7 +19112,7 @@
     </row>
     <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5"/>
-      <c r="B606" s="16"/>
+      <c r="B606" s="9"/>
       <c r="C606" s="5"/>
       <c r="D606" s="5"/>
       <c r="E606" s="5"/>
@@ -19129,7 +19141,7 @@
     </row>
     <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5"/>
-      <c r="B607" s="16"/>
+      <c r="B607" s="9"/>
       <c r="C607" s="5"/>
       <c r="D607" s="5"/>
       <c r="E607" s="5"/>
@@ -19158,7 +19170,7 @@
     </row>
     <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5"/>
-      <c r="B608" s="16"/>
+      <c r="B608" s="9"/>
       <c r="C608" s="5"/>
       <c r="D608" s="5"/>
       <c r="E608" s="5"/>
@@ -19187,7 +19199,7 @@
     </row>
     <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5"/>
-      <c r="B609" s="16"/>
+      <c r="B609" s="9"/>
       <c r="C609" s="5"/>
       <c r="D609" s="5"/>
       <c r="E609" s="5"/>
@@ -19216,7 +19228,7 @@
     </row>
     <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5"/>
-      <c r="B610" s="16"/>
+      <c r="B610" s="9"/>
       <c r="C610" s="5"/>
       <c r="D610" s="5"/>
       <c r="E610" s="5"/>
@@ -19245,7 +19257,7 @@
     </row>
     <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5"/>
-      <c r="B611" s="16"/>
+      <c r="B611" s="9"/>
       <c r="C611" s="5"/>
       <c r="D611" s="5"/>
       <c r="E611" s="5"/>
@@ -19274,7 +19286,7 @@
     </row>
     <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5"/>
-      <c r="B612" s="16"/>
+      <c r="B612" s="9"/>
       <c r="C612" s="5"/>
       <c r="D612" s="5"/>
       <c r="E612" s="5"/>
@@ -19303,7 +19315,7 @@
     </row>
     <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5"/>
-      <c r="B613" s="16"/>
+      <c r="B613" s="9"/>
       <c r="C613" s="5"/>
       <c r="D613" s="5"/>
       <c r="E613" s="5"/>
@@ -19332,7 +19344,7 @@
     </row>
     <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="5"/>
-      <c r="B614" s="16"/>
+      <c r="B614" s="9"/>
       <c r="C614" s="5"/>
       <c r="D614" s="5"/>
       <c r="E614" s="5"/>
@@ -19361,7 +19373,7 @@
     </row>
     <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5"/>
-      <c r="B615" s="16"/>
+      <c r="B615" s="9"/>
       <c r="C615" s="5"/>
       <c r="D615" s="5"/>
       <c r="E615" s="5"/>
@@ -19390,7 +19402,7 @@
     </row>
     <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5"/>
-      <c r="B616" s="16"/>
+      <c r="B616" s="9"/>
       <c r="C616" s="5"/>
       <c r="D616" s="5"/>
       <c r="E616" s="5"/>
@@ -19419,7 +19431,7 @@
     </row>
     <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5"/>
-      <c r="B617" s="16"/>
+      <c r="B617" s="9"/>
       <c r="C617" s="5"/>
       <c r="D617" s="5"/>
       <c r="E617" s="5"/>
@@ -19448,7 +19460,7 @@
     </row>
     <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5"/>
-      <c r="B618" s="16"/>
+      <c r="B618" s="9"/>
       <c r="C618" s="5"/>
       <c r="D618" s="5"/>
       <c r="E618" s="5"/>
@@ -19477,7 +19489,7 @@
     </row>
     <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5"/>
-      <c r="B619" s="16"/>
+      <c r="B619" s="9"/>
       <c r="C619" s="5"/>
       <c r="D619" s="5"/>
       <c r="E619" s="5"/>
@@ -19506,7 +19518,7 @@
     </row>
     <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5"/>
-      <c r="B620" s="16"/>
+      <c r="B620" s="9"/>
       <c r="C620" s="5"/>
       <c r="D620" s="5"/>
       <c r="E620" s="5"/>
@@ -19535,7 +19547,7 @@
     </row>
     <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5"/>
-      <c r="B621" s="16"/>
+      <c r="B621" s="9"/>
       <c r="C621" s="5"/>
       <c r="D621" s="5"/>
       <c r="E621" s="5"/>
@@ -19564,7 +19576,7 @@
     </row>
     <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5"/>
-      <c r="B622" s="16"/>
+      <c r="B622" s="9"/>
       <c r="C622" s="5"/>
       <c r="D622" s="5"/>
       <c r="E622" s="5"/>
@@ -19593,7 +19605,7 @@
     </row>
     <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5"/>
-      <c r="B623" s="16"/>
+      <c r="B623" s="9"/>
       <c r="C623" s="5"/>
       <c r="D623" s="5"/>
       <c r="E623" s="5"/>
@@ -19622,7 +19634,7 @@
     </row>
     <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5"/>
-      <c r="B624" s="16"/>
+      <c r="B624" s="9"/>
       <c r="C624" s="5"/>
       <c r="D624" s="5"/>
       <c r="E624" s="5"/>
@@ -19651,7 +19663,7 @@
     </row>
     <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5"/>
-      <c r="B625" s="16"/>
+      <c r="B625" s="9"/>
       <c r="C625" s="5"/>
       <c r="D625" s="5"/>
       <c r="E625" s="5"/>
@@ -19680,7 +19692,7 @@
     </row>
     <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5"/>
-      <c r="B626" s="16"/>
+      <c r="B626" s="9"/>
       <c r="C626" s="5"/>
       <c r="D626" s="5"/>
       <c r="E626" s="5"/>
@@ -19709,7 +19721,7 @@
     </row>
     <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5"/>
-      <c r="B627" s="16"/>
+      <c r="B627" s="9"/>
       <c r="C627" s="5"/>
       <c r="D627" s="5"/>
       <c r="E627" s="5"/>
@@ -19738,7 +19750,7 @@
     </row>
     <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5"/>
-      <c r="B628" s="16"/>
+      <c r="B628" s="9"/>
       <c r="C628" s="5"/>
       <c r="D628" s="5"/>
       <c r="E628" s="5"/>
@@ -19767,7 +19779,7 @@
     </row>
     <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5"/>
-      <c r="B629" s="16"/>
+      <c r="B629" s="9"/>
       <c r="C629" s="5"/>
       <c r="D629" s="5"/>
       <c r="E629" s="5"/>
@@ -19796,7 +19808,7 @@
     </row>
     <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5"/>
-      <c r="B630" s="16"/>
+      <c r="B630" s="9"/>
       <c r="C630" s="5"/>
       <c r="D630" s="5"/>
       <c r="E630" s="5"/>
@@ -19825,7 +19837,7 @@
     </row>
     <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5"/>
-      <c r="B631" s="16"/>
+      <c r="B631" s="9"/>
       <c r="C631" s="5"/>
       <c r="D631" s="5"/>
       <c r="E631" s="5"/>
@@ -19854,7 +19866,7 @@
     </row>
     <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5"/>
-      <c r="B632" s="16"/>
+      <c r="B632" s="9"/>
       <c r="C632" s="5"/>
       <c r="D632" s="5"/>
       <c r="E632" s="5"/>
@@ -19883,7 +19895,7 @@
     </row>
     <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5"/>
-      <c r="B633" s="16"/>
+      <c r="B633" s="9"/>
       <c r="C633" s="5"/>
       <c r="D633" s="5"/>
       <c r="E633" s="5"/>
@@ -19912,7 +19924,7 @@
     </row>
     <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="5"/>
-      <c r="B634" s="16"/>
+      <c r="B634" s="9"/>
       <c r="C634" s="5"/>
       <c r="D634" s="5"/>
       <c r="E634" s="5"/>
@@ -19941,7 +19953,7 @@
     </row>
     <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5"/>
-      <c r="B635" s="16"/>
+      <c r="B635" s="9"/>
       <c r="C635" s="5"/>
       <c r="D635" s="5"/>
       <c r="E635" s="5"/>
@@ -19970,7 +19982,7 @@
     </row>
     <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5"/>
-      <c r="B636" s="16"/>
+      <c r="B636" s="9"/>
       <c r="C636" s="5"/>
       <c r="D636" s="5"/>
       <c r="E636" s="5"/>
@@ -19999,7 +20011,7 @@
     </row>
     <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5"/>
-      <c r="B637" s="16"/>
+      <c r="B637" s="9"/>
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
       <c r="E637" s="5"/>
@@ -20028,7 +20040,7 @@
     </row>
     <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5"/>
-      <c r="B638" s="16"/>
+      <c r="B638" s="9"/>
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
       <c r="E638" s="5"/>
@@ -20057,7 +20069,7 @@
     </row>
     <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5"/>
-      <c r="B639" s="16"/>
+      <c r="B639" s="9"/>
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
       <c r="E639" s="5"/>
@@ -20086,7 +20098,7 @@
     </row>
     <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5"/>
-      <c r="B640" s="16"/>
+      <c r="B640" s="9"/>
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
       <c r="E640" s="5"/>
@@ -20115,7 +20127,7 @@
     </row>
     <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5"/>
-      <c r="B641" s="16"/>
+      <c r="B641" s="9"/>
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
       <c r="E641" s="5"/>
@@ -20144,7 +20156,7 @@
     </row>
     <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5"/>
-      <c r="B642" s="16"/>
+      <c r="B642" s="9"/>
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
       <c r="E642" s="5"/>
@@ -20173,7 +20185,7 @@
     </row>
     <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5"/>
-      <c r="B643" s="16"/>
+      <c r="B643" s="9"/>
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
       <c r="E643" s="5"/>
@@ -20202,7 +20214,7 @@
     </row>
     <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5"/>
-      <c r="B644" s="16"/>
+      <c r="B644" s="9"/>
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
       <c r="E644" s="5"/>
@@ -20231,7 +20243,7 @@
     </row>
     <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5"/>
-      <c r="B645" s="16"/>
+      <c r="B645" s="9"/>
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
       <c r="E645" s="5"/>
@@ -20260,7 +20272,7 @@
     </row>
     <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5"/>
-      <c r="B646" s="16"/>
+      <c r="B646" s="9"/>
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
       <c r="E646" s="5"/>
@@ -20289,7 +20301,7 @@
     </row>
     <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5"/>
-      <c r="B647" s="16"/>
+      <c r="B647" s="9"/>
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
       <c r="E647" s="5"/>
@@ -20318,7 +20330,7 @@
     </row>
     <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5"/>
-      <c r="B648" s="16"/>
+      <c r="B648" s="9"/>
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
       <c r="E648" s="5"/>
@@ -20347,7 +20359,7 @@
     </row>
     <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5"/>
-      <c r="B649" s="16"/>
+      <c r="B649" s="9"/>
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
       <c r="E649" s="5"/>
@@ -20376,7 +20388,7 @@
     </row>
     <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5"/>
-      <c r="B650" s="16"/>
+      <c r="B650" s="9"/>
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
       <c r="E650" s="5"/>
@@ -20405,7 +20417,7 @@
     </row>
     <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5"/>
-      <c r="B651" s="16"/>
+      <c r="B651" s="9"/>
       <c r="C651" s="5"/>
       <c r="D651" s="5"/>
       <c r="E651" s="5"/>
@@ -20434,7 +20446,7 @@
     </row>
     <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5"/>
-      <c r="B652" s="16"/>
+      <c r="B652" s="9"/>
       <c r="C652" s="5"/>
       <c r="D652" s="5"/>
       <c r="E652" s="5"/>
@@ -20463,7 +20475,7 @@
     </row>
     <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5"/>
-      <c r="B653" s="16"/>
+      <c r="B653" s="9"/>
       <c r="C653" s="5"/>
       <c r="D653" s="5"/>
       <c r="E653" s="5"/>
@@ -20492,7 +20504,7 @@
     </row>
     <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="5"/>
-      <c r="B654" s="16"/>
+      <c r="B654" s="9"/>
       <c r="C654" s="5"/>
       <c r="D654" s="5"/>
       <c r="E654" s="5"/>
@@ -20521,7 +20533,7 @@
     </row>
     <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5"/>
-      <c r="B655" s="16"/>
+      <c r="B655" s="9"/>
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
       <c r="E655" s="5"/>
@@ -20550,7 +20562,7 @@
     </row>
     <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5"/>
-      <c r="B656" s="16"/>
+      <c r="B656" s="9"/>
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
       <c r="E656" s="5"/>
@@ -20579,7 +20591,7 @@
     </row>
     <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5"/>
-      <c r="B657" s="16"/>
+      <c r="B657" s="9"/>
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
       <c r="E657" s="5"/>
@@ -20608,7 +20620,7 @@
     </row>
     <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5"/>
-      <c r="B658" s="16"/>
+      <c r="B658" s="9"/>
       <c r="C658" s="5"/>
       <c r="D658" s="5"/>
       <c r="E658" s="5"/>
@@ -20637,7 +20649,7 @@
     </row>
     <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5"/>
-      <c r="B659" s="16"/>
+      <c r="B659" s="9"/>
       <c r="C659" s="5"/>
       <c r="D659" s="5"/>
       <c r="E659" s="5"/>
@@ -20666,7 +20678,7 @@
     </row>
     <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5"/>
-      <c r="B660" s="16"/>
+      <c r="B660" s="9"/>
       <c r="C660" s="5"/>
       <c r="D660" s="5"/>
       <c r="E660" s="5"/>
@@ -20695,7 +20707,7 @@
     </row>
     <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5"/>
-      <c r="B661" s="16"/>
+      <c r="B661" s="9"/>
       <c r="C661" s="5"/>
       <c r="D661" s="5"/>
       <c r="E661" s="5"/>
@@ -20724,7 +20736,7 @@
     </row>
     <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5"/>
-      <c r="B662" s="16"/>
+      <c r="B662" s="9"/>
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
       <c r="E662" s="5"/>
@@ -20753,7 +20765,7 @@
     </row>
     <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5"/>
-      <c r="B663" s="16"/>
+      <c r="B663" s="9"/>
       <c r="C663" s="5"/>
       <c r="D663" s="5"/>
       <c r="E663" s="5"/>
@@ -20782,7 +20794,7 @@
     </row>
     <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5"/>
-      <c r="B664" s="16"/>
+      <c r="B664" s="9"/>
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
       <c r="E664" s="5"/>
@@ -20811,7 +20823,7 @@
     </row>
     <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5"/>
-      <c r="B665" s="16"/>
+      <c r="B665" s="9"/>
       <c r="C665" s="5"/>
       <c r="D665" s="5"/>
       <c r="E665" s="5"/>
@@ -20840,7 +20852,7 @@
     </row>
     <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5"/>
-      <c r="B666" s="16"/>
+      <c r="B666" s="9"/>
       <c r="C666" s="5"/>
       <c r="D666" s="5"/>
       <c r="E666" s="5"/>
@@ -20869,7 +20881,7 @@
     </row>
     <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5"/>
-      <c r="B667" s="16"/>
+      <c r="B667" s="9"/>
       <c r="C667" s="5"/>
       <c r="D667" s="5"/>
       <c r="E667" s="5"/>
@@ -20898,7 +20910,7 @@
     </row>
     <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5"/>
-      <c r="B668" s="16"/>
+      <c r="B668" s="9"/>
       <c r="C668" s="5"/>
       <c r="D668" s="5"/>
       <c r="E668" s="5"/>
@@ -20927,7 +20939,7 @@
     </row>
     <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5"/>
-      <c r="B669" s="16"/>
+      <c r="B669" s="9"/>
       <c r="C669" s="5"/>
       <c r="D669" s="5"/>
       <c r="E669" s="5"/>
@@ -20956,7 +20968,7 @@
     </row>
     <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5"/>
-      <c r="B670" s="16"/>
+      <c r="B670" s="9"/>
       <c r="C670" s="5"/>
       <c r="D670" s="5"/>
       <c r="E670" s="5"/>
@@ -20985,7 +20997,7 @@
     </row>
     <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5"/>
-      <c r="B671" s="16"/>
+      <c r="B671" s="9"/>
       <c r="C671" s="5"/>
       <c r="D671" s="5"/>
       <c r="E671" s="5"/>
@@ -21014,7 +21026,7 @@
     </row>
     <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5"/>
-      <c r="B672" s="16"/>
+      <c r="B672" s="9"/>
       <c r="C672" s="5"/>
       <c r="D672" s="5"/>
       <c r="E672" s="5"/>
@@ -21043,7 +21055,7 @@
     </row>
     <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5"/>
-      <c r="B673" s="16"/>
+      <c r="B673" s="9"/>
       <c r="C673" s="5"/>
       <c r="D673" s="5"/>
       <c r="E673" s="5"/>
@@ -21072,7 +21084,7 @@
     </row>
     <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5"/>
-      <c r="B674" s="16"/>
+      <c r="B674" s="9"/>
       <c r="C674" s="5"/>
       <c r="D674" s="5"/>
       <c r="E674" s="5"/>
@@ -21101,7 +21113,7 @@
     </row>
     <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5"/>
-      <c r="B675" s="16"/>
+      <c r="B675" s="9"/>
       <c r="C675" s="5"/>
       <c r="D675" s="5"/>
       <c r="E675" s="5"/>
@@ -21130,7 +21142,7 @@
     </row>
     <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5"/>
-      <c r="B676" s="16"/>
+      <c r="B676" s="9"/>
       <c r="C676" s="5"/>
       <c r="D676" s="5"/>
       <c r="E676" s="5"/>
@@ -21159,7 +21171,7 @@
     </row>
     <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5"/>
-      <c r="B677" s="16"/>
+      <c r="B677" s="9"/>
       <c r="C677" s="5"/>
       <c r="D677" s="5"/>
       <c r="E677" s="5"/>
@@ -21188,7 +21200,7 @@
     </row>
     <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5"/>
-      <c r="B678" s="16"/>
+      <c r="B678" s="9"/>
       <c r="C678" s="5"/>
       <c r="D678" s="5"/>
       <c r="E678" s="5"/>
@@ -21217,7 +21229,7 @@
     </row>
     <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5"/>
-      <c r="B679" s="16"/>
+      <c r="B679" s="9"/>
       <c r="C679" s="5"/>
       <c r="D679" s="5"/>
       <c r="E679" s="5"/>
@@ -21246,7 +21258,7 @@
     </row>
     <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5"/>
-      <c r="B680" s="16"/>
+      <c r="B680" s="9"/>
       <c r="C680" s="5"/>
       <c r="D680" s="5"/>
       <c r="E680" s="5"/>
@@ -21275,7 +21287,7 @@
     </row>
     <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5"/>
-      <c r="B681" s="16"/>
+      <c r="B681" s="9"/>
       <c r="C681" s="5"/>
       <c r="D681" s="5"/>
       <c r="E681" s="5"/>
@@ -21304,7 +21316,7 @@
     </row>
     <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5"/>
-      <c r="B682" s="16"/>
+      <c r="B682" s="9"/>
       <c r="C682" s="5"/>
       <c r="D682" s="5"/>
       <c r="E682" s="5"/>
@@ -21333,7 +21345,7 @@
     </row>
     <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5"/>
-      <c r="B683" s="16"/>
+      <c r="B683" s="9"/>
       <c r="C683" s="5"/>
       <c r="D683" s="5"/>
       <c r="E683" s="5"/>
@@ -21362,7 +21374,7 @@
     </row>
     <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5"/>
-      <c r="B684" s="16"/>
+      <c r="B684" s="9"/>
       <c r="C684" s="5"/>
       <c r="D684" s="5"/>
       <c r="E684" s="5"/>
@@ -21391,7 +21403,7 @@
     </row>
     <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5"/>
-      <c r="B685" s="16"/>
+      <c r="B685" s="9"/>
       <c r="C685" s="5"/>
       <c r="D685" s="5"/>
       <c r="E685" s="5"/>
@@ -21420,7 +21432,7 @@
     </row>
     <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5"/>
-      <c r="B686" s="16"/>
+      <c r="B686" s="9"/>
       <c r="C686" s="5"/>
       <c r="D686" s="5"/>
       <c r="E686" s="5"/>
@@ -21449,7 +21461,7 @@
     </row>
     <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5"/>
-      <c r="B687" s="16"/>
+      <c r="B687" s="9"/>
       <c r="C687" s="5"/>
       <c r="D687" s="5"/>
       <c r="E687" s="5"/>
@@ -21478,7 +21490,7 @@
     </row>
     <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5"/>
-      <c r="B688" s="16"/>
+      <c r="B688" s="9"/>
       <c r="C688" s="5"/>
       <c r="D688" s="5"/>
       <c r="E688" s="5"/>
@@ -21507,7 +21519,7 @@
     </row>
     <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5"/>
-      <c r="B689" s="16"/>
+      <c r="B689" s="9"/>
       <c r="C689" s="5"/>
       <c r="D689" s="5"/>
       <c r="E689" s="5"/>
@@ -21536,7 +21548,7 @@
     </row>
     <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5"/>
-      <c r="B690" s="16"/>
+      <c r="B690" s="9"/>
       <c r="C690" s="5"/>
       <c r="D690" s="5"/>
       <c r="E690" s="5"/>
@@ -21565,7 +21577,7 @@
     </row>
     <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5"/>
-      <c r="B691" s="16"/>
+      <c r="B691" s="9"/>
       <c r="C691" s="5"/>
       <c r="D691" s="5"/>
       <c r="E691" s="5"/>
@@ -21594,7 +21606,7 @@
     </row>
     <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5"/>
-      <c r="B692" s="16"/>
+      <c r="B692" s="9"/>
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
       <c r="E692" s="5"/>
@@ -21623,7 +21635,7 @@
     </row>
     <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5"/>
-      <c r="B693" s="16"/>
+      <c r="B693" s="9"/>
       <c r="C693" s="5"/>
       <c r="D693" s="5"/>
       <c r="E693" s="5"/>
@@ -21652,7 +21664,7 @@
     </row>
     <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5"/>
-      <c r="B694" s="16"/>
+      <c r="B694" s="9"/>
       <c r="C694" s="5"/>
       <c r="D694" s="5"/>
       <c r="E694" s="5"/>
@@ -21681,7 +21693,7 @@
     </row>
     <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5"/>
-      <c r="B695" s="16"/>
+      <c r="B695" s="9"/>
       <c r="C695" s="5"/>
       <c r="D695" s="5"/>
       <c r="E695" s="5"/>
@@ -21710,7 +21722,7 @@
     </row>
     <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5"/>
-      <c r="B696" s="16"/>
+      <c r="B696" s="9"/>
       <c r="C696" s="5"/>
       <c r="D696" s="5"/>
       <c r="E696" s="5"/>
@@ -21739,7 +21751,7 @@
     </row>
     <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5"/>
-      <c r="B697" s="16"/>
+      <c r="B697" s="9"/>
       <c r="C697" s="5"/>
       <c r="D697" s="5"/>
       <c r="E697" s="5"/>
@@ -21768,7 +21780,7 @@
     </row>
     <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5"/>
-      <c r="B698" s="16"/>
+      <c r="B698" s="9"/>
       <c r="C698" s="5"/>
       <c r="D698" s="5"/>
       <c r="E698" s="5"/>
@@ -21797,7 +21809,7 @@
     </row>
     <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5"/>
-      <c r="B699" s="16"/>
+      <c r="B699" s="9"/>
       <c r="C699" s="5"/>
       <c r="D699" s="5"/>
       <c r="E699" s="5"/>
@@ -21826,7 +21838,7 @@
     </row>
     <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5"/>
-      <c r="B700" s="16"/>
+      <c r="B700" s="9"/>
       <c r="C700" s="5"/>
       <c r="D700" s="5"/>
       <c r="E700" s="5"/>
@@ -21855,7 +21867,7 @@
     </row>
     <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5"/>
-      <c r="B701" s="16"/>
+      <c r="B701" s="9"/>
       <c r="C701" s="5"/>
       <c r="D701" s="5"/>
       <c r="E701" s="5"/>
@@ -21884,7 +21896,7 @@
     </row>
     <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5"/>
-      <c r="B702" s="16"/>
+      <c r="B702" s="9"/>
       <c r="C702" s="5"/>
       <c r="D702" s="5"/>
       <c r="E702" s="5"/>
@@ -21913,7 +21925,7 @@
     </row>
     <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5"/>
-      <c r="B703" s="16"/>
+      <c r="B703" s="9"/>
       <c r="C703" s="5"/>
       <c r="D703" s="5"/>
       <c r="E703" s="5"/>
@@ -21942,7 +21954,7 @@
     </row>
     <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5"/>
-      <c r="B704" s="16"/>
+      <c r="B704" s="9"/>
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
       <c r="E704" s="5"/>
@@ -21971,7 +21983,7 @@
     </row>
     <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5"/>
-      <c r="B705" s="16"/>
+      <c r="B705" s="9"/>
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
       <c r="E705" s="5"/>
@@ -22000,7 +22012,7 @@
     </row>
     <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5"/>
-      <c r="B706" s="16"/>
+      <c r="B706" s="9"/>
       <c r="C706" s="5"/>
       <c r="D706" s="5"/>
       <c r="E706" s="5"/>
@@ -22029,7 +22041,7 @@
     </row>
     <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5"/>
-      <c r="B707" s="16"/>
+      <c r="B707" s="9"/>
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
       <c r="E707" s="5"/>
@@ -22058,7 +22070,7 @@
     </row>
     <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5"/>
-      <c r="B708" s="16"/>
+      <c r="B708" s="9"/>
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
       <c r="E708" s="5"/>
@@ -22087,7 +22099,7 @@
     </row>
     <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5"/>
-      <c r="B709" s="16"/>
+      <c r="B709" s="9"/>
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
       <c r="E709" s="5"/>
@@ -22116,7 +22128,7 @@
     </row>
     <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5"/>
-      <c r="B710" s="16"/>
+      <c r="B710" s="9"/>
       <c r="C710" s="5"/>
       <c r="D710" s="5"/>
       <c r="E710" s="5"/>
@@ -22145,7 +22157,7 @@
     </row>
     <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5"/>
-      <c r="B711" s="16"/>
+      <c r="B711" s="9"/>
       <c r="C711" s="5"/>
       <c r="D711" s="5"/>
       <c r="E711" s="5"/>
@@ -22174,7 +22186,7 @@
     </row>
     <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5"/>
-      <c r="B712" s="16"/>
+      <c r="B712" s="9"/>
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
       <c r="E712" s="5"/>
@@ -22203,7 +22215,7 @@
     </row>
     <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5"/>
-      <c r="B713" s="16"/>
+      <c r="B713" s="9"/>
       <c r="C713" s="5"/>
       <c r="D713" s="5"/>
       <c r="E713" s="5"/>
@@ -22232,7 +22244,7 @@
     </row>
     <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="5"/>
-      <c r="B714" s="16"/>
+      <c r="B714" s="9"/>
       <c r="C714" s="5"/>
       <c r="D714" s="5"/>
       <c r="E714" s="5"/>
@@ -22261,7 +22273,7 @@
     </row>
     <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5"/>
-      <c r="B715" s="16"/>
+      <c r="B715" s="9"/>
       <c r="C715" s="5"/>
       <c r="D715" s="5"/>
       <c r="E715" s="5"/>
@@ -22290,7 +22302,7 @@
     </row>
     <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5"/>
-      <c r="B716" s="16"/>
+      <c r="B716" s="9"/>
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
       <c r="E716" s="5"/>
@@ -22319,7 +22331,7 @@
     </row>
     <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5"/>
-      <c r="B717" s="16"/>
+      <c r="B717" s="9"/>
       <c r="C717" s="5"/>
       <c r="D717" s="5"/>
       <c r="E717" s="5"/>
@@ -22348,7 +22360,7 @@
     </row>
     <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5"/>
-      <c r="B718" s="16"/>
+      <c r="B718" s="9"/>
       <c r="C718" s="5"/>
       <c r="D718" s="5"/>
       <c r="E718" s="5"/>
@@ -22377,7 +22389,7 @@
     </row>
     <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5"/>
-      <c r="B719" s="16"/>
+      <c r="B719" s="9"/>
       <c r="C719" s="5"/>
       <c r="D719" s="5"/>
       <c r="E719" s="5"/>
@@ -22406,7 +22418,7 @@
     </row>
     <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5"/>
-      <c r="B720" s="16"/>
+      <c r="B720" s="9"/>
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
       <c r="E720" s="5"/>
@@ -22435,7 +22447,7 @@
     </row>
     <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5"/>
-      <c r="B721" s="16"/>
+      <c r="B721" s="9"/>
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
       <c r="E721" s="5"/>
@@ -22464,7 +22476,7 @@
     </row>
     <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5"/>
-      <c r="B722" s="16"/>
+      <c r="B722" s="9"/>
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
       <c r="E722" s="5"/>
@@ -22493,7 +22505,7 @@
     </row>
     <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5"/>
-      <c r="B723" s="16"/>
+      <c r="B723" s="9"/>
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
       <c r="E723" s="5"/>
@@ -22522,7 +22534,7 @@
     </row>
     <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5"/>
-      <c r="B724" s="16"/>
+      <c r="B724" s="9"/>
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
       <c r="E724" s="5"/>
@@ -22551,7 +22563,7 @@
     </row>
     <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5"/>
-      <c r="B725" s="16"/>
+      <c r="B725" s="9"/>
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
       <c r="E725" s="5"/>
@@ -22580,7 +22592,7 @@
     </row>
     <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5"/>
-      <c r="B726" s="16"/>
+      <c r="B726" s="9"/>
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
       <c r="E726" s="5"/>
@@ -22609,7 +22621,7 @@
     </row>
     <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5"/>
-      <c r="B727" s="16"/>
+      <c r="B727" s="9"/>
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
       <c r="E727" s="5"/>
@@ -22638,7 +22650,7 @@
     </row>
     <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5"/>
-      <c r="B728" s="16"/>
+      <c r="B728" s="9"/>
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
       <c r="E728" s="5"/>
@@ -22667,7 +22679,7 @@
     </row>
     <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5"/>
-      <c r="B729" s="16"/>
+      <c r="B729" s="9"/>
       <c r="C729" s="5"/>
       <c r="D729" s="5"/>
       <c r="E729" s="5"/>
@@ -22696,7 +22708,7 @@
     </row>
     <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5"/>
-      <c r="B730" s="16"/>
+      <c r="B730" s="9"/>
       <c r="C730" s="5"/>
       <c r="D730" s="5"/>
       <c r="E730" s="5"/>
@@ -22725,7 +22737,7 @@
     </row>
     <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5"/>
-      <c r="B731" s="16"/>
+      <c r="B731" s="9"/>
       <c r="C731" s="5"/>
       <c r="D731" s="5"/>
       <c r="E731" s="5"/>
@@ -22754,7 +22766,7 @@
     </row>
     <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5"/>
-      <c r="B732" s="16"/>
+      <c r="B732" s="9"/>
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
       <c r="E732" s="5"/>
@@ -22783,7 +22795,7 @@
     </row>
     <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5"/>
-      <c r="B733" s="16"/>
+      <c r="B733" s="9"/>
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
       <c r="E733" s="5"/>
@@ -22812,7 +22824,7 @@
     </row>
     <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="5"/>
-      <c r="B734" s="16"/>
+      <c r="B734" s="9"/>
       <c r="C734" s="5"/>
       <c r="D734" s="5"/>
       <c r="E734" s="5"/>
@@ -22841,7 +22853,7 @@
     </row>
     <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5"/>
-      <c r="B735" s="16"/>
+      <c r="B735" s="9"/>
       <c r="C735" s="5"/>
       <c r="D735" s="5"/>
       <c r="E735" s="5"/>
@@ -22870,7 +22882,7 @@
     </row>
     <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5"/>
-      <c r="B736" s="16"/>
+      <c r="B736" s="9"/>
       <c r="C736" s="5"/>
       <c r="D736" s="5"/>
       <c r="E736" s="5"/>
@@ -22899,7 +22911,7 @@
     </row>
     <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5"/>
-      <c r="B737" s="16"/>
+      <c r="B737" s="9"/>
       <c r="C737" s="5"/>
       <c r="D737" s="5"/>
       <c r="E737" s="5"/>
@@ -22928,7 +22940,7 @@
     </row>
     <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5"/>
-      <c r="B738" s="16"/>
+      <c r="B738" s="9"/>
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
       <c r="E738" s="5"/>
@@ -22957,7 +22969,7 @@
     </row>
     <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5"/>
-      <c r="B739" s="16"/>
+      <c r="B739" s="9"/>
       <c r="C739" s="5"/>
       <c r="D739" s="5"/>
       <c r="E739" s="5"/>
@@ -22986,7 +22998,7 @@
     </row>
     <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5"/>
-      <c r="B740" s="16"/>
+      <c r="B740" s="9"/>
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
       <c r="E740" s="5"/>
@@ -23015,7 +23027,7 @@
     </row>
     <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5"/>
-      <c r="B741" s="16"/>
+      <c r="B741" s="9"/>
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
       <c r="E741" s="5"/>
@@ -23044,7 +23056,7 @@
     </row>
     <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5"/>
-      <c r="B742" s="16"/>
+      <c r="B742" s="9"/>
       <c r="C742" s="5"/>
       <c r="D742" s="5"/>
       <c r="E742" s="5"/>
@@ -23073,7 +23085,7 @@
     </row>
     <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5"/>
-      <c r="B743" s="16"/>
+      <c r="B743" s="9"/>
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
       <c r="E743" s="5"/>
@@ -23102,7 +23114,7 @@
     </row>
     <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5"/>
-      <c r="B744" s="16"/>
+      <c r="B744" s="9"/>
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
       <c r="E744" s="5"/>
@@ -23131,7 +23143,7 @@
     </row>
     <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5"/>
-      <c r="B745" s="16"/>
+      <c r="B745" s="9"/>
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
       <c r="E745" s="5"/>
@@ -23160,7 +23172,7 @@
     </row>
     <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5"/>
-      <c r="B746" s="16"/>
+      <c r="B746" s="9"/>
       <c r="C746" s="5"/>
       <c r="D746" s="5"/>
       <c r="E746" s="5"/>
@@ -23189,7 +23201,7 @@
     </row>
     <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5"/>
-      <c r="B747" s="16"/>
+      <c r="B747" s="9"/>
       <c r="C747" s="5"/>
       <c r="D747" s="5"/>
       <c r="E747" s="5"/>
@@ -23218,7 +23230,7 @@
     </row>
     <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5"/>
-      <c r="B748" s="16"/>
+      <c r="B748" s="9"/>
       <c r="C748" s="5"/>
       <c r="D748" s="5"/>
       <c r="E748" s="5"/>
@@ -23247,7 +23259,7 @@
     </row>
     <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5"/>
-      <c r="B749" s="16"/>
+      <c r="B749" s="9"/>
       <c r="C749" s="5"/>
       <c r="D749" s="5"/>
       <c r="E749" s="5"/>
@@ -23276,7 +23288,7 @@
     </row>
     <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5"/>
-      <c r="B750" s="16"/>
+      <c r="B750" s="9"/>
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
       <c r="E750" s="5"/>
@@ -23305,7 +23317,7 @@
     </row>
     <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5"/>
-      <c r="B751" s="16"/>
+      <c r="B751" s="9"/>
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
       <c r="E751" s="5"/>
@@ -23334,7 +23346,7 @@
     </row>
     <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5"/>
-      <c r="B752" s="16"/>
+      <c r="B752" s="9"/>
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
       <c r="E752" s="5"/>
@@ -23363,7 +23375,7 @@
     </row>
     <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5"/>
-      <c r="B753" s="16"/>
+      <c r="B753" s="9"/>
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
       <c r="E753" s="5"/>
@@ -23392,7 +23404,7 @@
     </row>
     <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="5"/>
-      <c r="B754" s="16"/>
+      <c r="B754" s="9"/>
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
       <c r="E754" s="5"/>
@@ -23421,7 +23433,7 @@
     </row>
     <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5"/>
-      <c r="B755" s="16"/>
+      <c r="B755" s="9"/>
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
       <c r="E755" s="5"/>
@@ -23450,7 +23462,7 @@
     </row>
     <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5"/>
-      <c r="B756" s="16"/>
+      <c r="B756" s="9"/>
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
       <c r="E756" s="5"/>
@@ -23479,7 +23491,7 @@
     </row>
     <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5"/>
-      <c r="B757" s="16"/>
+      <c r="B757" s="9"/>
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
       <c r="E757" s="5"/>
@@ -23508,7 +23520,7 @@
     </row>
     <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5"/>
-      <c r="B758" s="16"/>
+      <c r="B758" s="9"/>
       <c r="C758" s="5"/>
       <c r="D758" s="5"/>
       <c r="E758" s="5"/>
@@ -23537,7 +23549,7 @@
     </row>
     <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5"/>
-      <c r="B759" s="16"/>
+      <c r="B759" s="9"/>
       <c r="C759" s="5"/>
       <c r="D759" s="5"/>
       <c r="E759" s="5"/>
@@ -23566,7 +23578,7 @@
     </row>
     <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5"/>
-      <c r="B760" s="16"/>
+      <c r="B760" s="9"/>
       <c r="C760" s="5"/>
       <c r="D760" s="5"/>
       <c r="E760" s="5"/>
@@ -23595,7 +23607,7 @@
     </row>
     <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5"/>
-      <c r="B761" s="16"/>
+      <c r="B761" s="9"/>
       <c r="C761" s="5"/>
       <c r="D761" s="5"/>
       <c r="E761" s="5"/>
@@ -23624,7 +23636,7 @@
     </row>
     <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5"/>
-      <c r="B762" s="16"/>
+      <c r="B762" s="9"/>
       <c r="C762" s="5"/>
       <c r="D762" s="5"/>
       <c r="E762" s="5"/>
@@ -23653,7 +23665,7 @@
     </row>
     <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5"/>
-      <c r="B763" s="16"/>
+      <c r="B763" s="9"/>
       <c r="C763" s="5"/>
       <c r="D763" s="5"/>
       <c r="E763" s="5"/>
@@ -23682,7 +23694,7 @@
     </row>
     <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5"/>
-      <c r="B764" s="16"/>
+      <c r="B764" s="9"/>
       <c r="C764" s="5"/>
       <c r="D764" s="5"/>
       <c r="E764" s="5"/>
@@ -23711,7 +23723,7 @@
     </row>
     <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5"/>
-      <c r="B765" s="16"/>
+      <c r="B765" s="9"/>
       <c r="C765" s="5"/>
       <c r="D765" s="5"/>
       <c r="E765" s="5"/>
@@ -23740,7 +23752,7 @@
     </row>
     <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5"/>
-      <c r="B766" s="16"/>
+      <c r="B766" s="9"/>
       <c r="C766" s="5"/>
       <c r="D766" s="5"/>
       <c r="E766" s="5"/>
@@ -23769,7 +23781,7 @@
     </row>
     <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5"/>
-      <c r="B767" s="16"/>
+      <c r="B767" s="9"/>
       <c r="C767" s="5"/>
       <c r="D767" s="5"/>
       <c r="E767" s="5"/>
@@ -23798,7 +23810,7 @@
     </row>
     <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5"/>
-      <c r="B768" s="16"/>
+      <c r="B768" s="9"/>
       <c r="C768" s="5"/>
       <c r="D768" s="5"/>
       <c r="E768" s="5"/>
@@ -23827,7 +23839,7 @@
     </row>
     <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5"/>
-      <c r="B769" s="16"/>
+      <c r="B769" s="9"/>
       <c r="C769" s="5"/>
       <c r="D769" s="5"/>
       <c r="E769" s="5"/>
@@ -23856,7 +23868,7 @@
     </row>
     <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5"/>
-      <c r="B770" s="16"/>
+      <c r="B770" s="9"/>
       <c r="C770" s="5"/>
       <c r="D770" s="5"/>
       <c r="E770" s="5"/>
@@ -23885,7 +23897,7 @@
     </row>
     <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5"/>
-      <c r="B771" s="16"/>
+      <c r="B771" s="9"/>
       <c r="C771" s="5"/>
       <c r="D771" s="5"/>
       <c r="E771" s="5"/>
@@ -23914,7 +23926,7 @@
     </row>
     <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5"/>
-      <c r="B772" s="16"/>
+      <c r="B772" s="9"/>
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
       <c r="E772" s="5"/>
@@ -23943,7 +23955,7 @@
     </row>
     <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5"/>
-      <c r="B773" s="16"/>
+      <c r="B773" s="9"/>
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
       <c r="E773" s="5"/>
@@ -23972,7 +23984,7 @@
     </row>
     <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="5"/>
-      <c r="B774" s="16"/>
+      <c r="B774" s="9"/>
       <c r="C774" s="5"/>
       <c r="D774" s="5"/>
       <c r="E774" s="5"/>
@@ -24001,7 +24013,7 @@
     </row>
     <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5"/>
-      <c r="B775" s="16"/>
+      <c r="B775" s="9"/>
       <c r="C775" s="5"/>
       <c r="D775" s="5"/>
       <c r="E775" s="5"/>
@@ -24030,7 +24042,7 @@
     </row>
     <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5"/>
-      <c r="B776" s="16"/>
+      <c r="B776" s="9"/>
       <c r="C776" s="5"/>
       <c r="D776" s="5"/>
       <c r="E776" s="5"/>
@@ -24059,7 +24071,7 @@
     </row>
     <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5"/>
-      <c r="B777" s="16"/>
+      <c r="B777" s="9"/>
       <c r="C777" s="5"/>
       <c r="D777" s="5"/>
       <c r="E777" s="5"/>
@@ -24088,7 +24100,7 @@
     </row>
     <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5"/>
-      <c r="B778" s="16"/>
+      <c r="B778" s="9"/>
       <c r="C778" s="5"/>
       <c r="D778" s="5"/>
       <c r="E778" s="5"/>
@@ -24117,7 +24129,7 @@
     </row>
     <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5"/>
-      <c r="B779" s="16"/>
+      <c r="B779" s="9"/>
       <c r="C779" s="5"/>
       <c r="D779" s="5"/>
       <c r="E779" s="5"/>
@@ -24146,7 +24158,7 @@
     </row>
     <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5"/>
-      <c r="B780" s="16"/>
+      <c r="B780" s="9"/>
       <c r="C780" s="5"/>
       <c r="D780" s="5"/>
       <c r="E780" s="5"/>
@@ -24175,7 +24187,7 @@
     </row>
     <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5"/>
-      <c r="B781" s="16"/>
+      <c r="B781" s="9"/>
       <c r="C781" s="5"/>
       <c r="D781" s="5"/>
       <c r="E781" s="5"/>
@@ -24204,7 +24216,7 @@
     </row>
     <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5"/>
-      <c r="B782" s="16"/>
+      <c r="B782" s="9"/>
       <c r="C782" s="5"/>
       <c r="D782" s="5"/>
       <c r="E782" s="5"/>
@@ -24233,7 +24245,7 @@
     </row>
     <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5"/>
-      <c r="B783" s="16"/>
+      <c r="B783" s="9"/>
       <c r="C783" s="5"/>
       <c r="D783" s="5"/>
       <c r="E783" s="5"/>
@@ -24262,7 +24274,7 @@
     </row>
     <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5"/>
-      <c r="B784" s="16"/>
+      <c r="B784" s="9"/>
       <c r="C784" s="5"/>
       <c r="D784" s="5"/>
       <c r="E784" s="5"/>
@@ -24291,7 +24303,7 @@
     </row>
     <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5"/>
-      <c r="B785" s="16"/>
+      <c r="B785" s="9"/>
       <c r="C785" s="5"/>
       <c r="D785" s="5"/>
       <c r="E785" s="5"/>
@@ -24320,7 +24332,7 @@
     </row>
     <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5"/>
-      <c r="B786" s="16"/>
+      <c r="B786" s="9"/>
       <c r="C786" s="5"/>
       <c r="D786" s="5"/>
       <c r="E786" s="5"/>
@@ -24349,7 +24361,7 @@
     </row>
     <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5"/>
-      <c r="B787" s="16"/>
+      <c r="B787" s="9"/>
       <c r="C787" s="5"/>
       <c r="D787" s="5"/>
       <c r="E787" s="5"/>
@@ -24378,7 +24390,7 @@
     </row>
     <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5"/>
-      <c r="B788" s="16"/>
+      <c r="B788" s="9"/>
       <c r="C788" s="5"/>
       <c r="D788" s="5"/>
       <c r="E788" s="5"/>
@@ -24407,7 +24419,7 @@
     </row>
     <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5"/>
-      <c r="B789" s="16"/>
+      <c r="B789" s="9"/>
       <c r="C789" s="5"/>
       <c r="D789" s="5"/>
       <c r="E789" s="5"/>
@@ -24436,7 +24448,7 @@
     </row>
     <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5"/>
-      <c r="B790" s="16"/>
+      <c r="B790" s="9"/>
       <c r="C790" s="5"/>
       <c r="D790" s="5"/>
       <c r="E790" s="5"/>
@@ -24465,7 +24477,7 @@
     </row>
     <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5"/>
-      <c r="B791" s="16"/>
+      <c r="B791" s="9"/>
       <c r="C791" s="5"/>
       <c r="D791" s="5"/>
       <c r="E791" s="5"/>
@@ -24494,7 +24506,7 @@
     </row>
     <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5"/>
-      <c r="B792" s="16"/>
+      <c r="B792" s="9"/>
       <c r="C792" s="5"/>
       <c r="D792" s="5"/>
       <c r="E792" s="5"/>
@@ -24523,7 +24535,7 @@
     </row>
     <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5"/>
-      <c r="B793" s="16"/>
+      <c r="B793" s="9"/>
       <c r="C793" s="5"/>
       <c r="D793" s="5"/>
       <c r="E793" s="5"/>
@@ -24552,7 +24564,7 @@
     </row>
     <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="5"/>
-      <c r="B794" s="16"/>
+      <c r="B794" s="9"/>
       <c r="C794" s="5"/>
       <c r="D794" s="5"/>
       <c r="E794" s="5"/>
@@ -24581,7 +24593,7 @@
     </row>
     <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5"/>
-      <c r="B795" s="16"/>
+      <c r="B795" s="9"/>
       <c r="C795" s="5"/>
       <c r="D795" s="5"/>
       <c r="E795" s="5"/>
@@ -24610,7 +24622,7 @@
     </row>
     <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5"/>
-      <c r="B796" s="16"/>
+      <c r="B796" s="9"/>
       <c r="C796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="5"/>
@@ -24639,7 +24651,7 @@
     </row>
     <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5"/>
-      <c r="B797" s="16"/>
+      <c r="B797" s="9"/>
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
       <c r="E797" s="5"/>
@@ -24668,7 +24680,7 @@
     </row>
     <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5"/>
-      <c r="B798" s="16"/>
+      <c r="B798" s="9"/>
       <c r="C798" s="5"/>
       <c r="D798" s="5"/>
       <c r="E798" s="5"/>
@@ -24697,7 +24709,7 @@
     </row>
     <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5"/>
-      <c r="B799" s="16"/>
+      <c r="B799" s="9"/>
       <c r="C799" s="5"/>
       <c r="D799" s="5"/>
       <c r="E799" s="5"/>
@@ -24726,7 +24738,7 @@
     </row>
     <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5"/>
-      <c r="B800" s="16"/>
+      <c r="B800" s="9"/>
       <c r="C800" s="5"/>
       <c r="D800" s="5"/>
       <c r="E800" s="5"/>
@@ -24755,7 +24767,7 @@
     </row>
     <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5"/>
-      <c r="B801" s="16"/>
+      <c r="B801" s="9"/>
       <c r="C801" s="5"/>
       <c r="D801" s="5"/>
       <c r="E801" s="5"/>
@@ -24784,7 +24796,7 @@
     </row>
     <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5"/>
-      <c r="B802" s="16"/>
+      <c r="B802" s="9"/>
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
       <c r="E802" s="5"/>
@@ -24813,7 +24825,7 @@
     </row>
     <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5"/>
-      <c r="B803" s="16"/>
+      <c r="B803" s="9"/>
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
       <c r="E803" s="5"/>
@@ -24842,7 +24854,7 @@
     </row>
     <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5"/>
-      <c r="B804" s="16"/>
+      <c r="B804" s="9"/>
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
       <c r="E804" s="5"/>
@@ -24871,7 +24883,7 @@
     </row>
     <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5"/>
-      <c r="B805" s="16"/>
+      <c r="B805" s="9"/>
       <c r="C805" s="5"/>
       <c r="D805" s="5"/>
       <c r="E805" s="5"/>
@@ -24900,7 +24912,7 @@
     </row>
     <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5"/>
-      <c r="B806" s="16"/>
+      <c r="B806" s="9"/>
       <c r="C806" s="5"/>
       <c r="D806" s="5"/>
       <c r="E806" s="5"/>
@@ -24929,7 +24941,7 @@
     </row>
     <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5"/>
-      <c r="B807" s="16"/>
+      <c r="B807" s="9"/>
       <c r="C807" s="5"/>
       <c r="D807" s="5"/>
       <c r="E807" s="5"/>
@@ -24958,7 +24970,7 @@
     </row>
     <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5"/>
-      <c r="B808" s="16"/>
+      <c r="B808" s="9"/>
       <c r="C808" s="5"/>
       <c r="D808" s="5"/>
       <c r="E808" s="5"/>
@@ -24987,7 +24999,7 @@
     </row>
     <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5"/>
-      <c r="B809" s="16"/>
+      <c r="B809" s="9"/>
       <c r="C809" s="5"/>
       <c r="D809" s="5"/>
       <c r="E809" s="5"/>
@@ -25016,7 +25028,7 @@
     </row>
     <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5"/>
-      <c r="B810" s="16"/>
+      <c r="B810" s="9"/>
       <c r="C810" s="5"/>
       <c r="D810" s="5"/>
       <c r="E810" s="5"/>
@@ -25045,7 +25057,7 @@
     </row>
     <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5"/>
-      <c r="B811" s="16"/>
+      <c r="B811" s="9"/>
       <c r="C811" s="5"/>
       <c r="D811" s="5"/>
       <c r="E811" s="5"/>
@@ -25074,7 +25086,7 @@
     </row>
     <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5"/>
-      <c r="B812" s="16"/>
+      <c r="B812" s="9"/>
       <c r="C812" s="5"/>
       <c r="D812" s="5"/>
       <c r="E812" s="5"/>
@@ -25103,7 +25115,7 @@
     </row>
     <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5"/>
-      <c r="B813" s="16"/>
+      <c r="B813" s="9"/>
       <c r="C813" s="5"/>
       <c r="D813" s="5"/>
       <c r="E813" s="5"/>
@@ -25132,7 +25144,7 @@
     </row>
     <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="5"/>
-      <c r="B814" s="16"/>
+      <c r="B814" s="9"/>
       <c r="C814" s="5"/>
       <c r="D814" s="5"/>
       <c r="E814" s="5"/>
@@ -25161,7 +25173,7 @@
     </row>
     <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5"/>
-      <c r="B815" s="16"/>
+      <c r="B815" s="9"/>
       <c r="C815" s="5"/>
       <c r="D815" s="5"/>
       <c r="E815" s="5"/>
@@ -25190,7 +25202,7 @@
     </row>
     <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5"/>
-      <c r="B816" s="16"/>
+      <c r="B816" s="9"/>
       <c r="C816" s="5"/>
       <c r="D816" s="5"/>
       <c r="E816" s="5"/>
@@ -25219,7 +25231,7 @@
     </row>
     <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5"/>
-      <c r="B817" s="16"/>
+      <c r="B817" s="9"/>
       <c r="C817" s="5"/>
       <c r="D817" s="5"/>
       <c r="E817" s="5"/>
@@ -25248,7 +25260,7 @@
     </row>
     <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5"/>
-      <c r="B818" s="16"/>
+      <c r="B818" s="9"/>
       <c r="C818" s="5"/>
       <c r="D818" s="5"/>
       <c r="E818" s="5"/>
@@ -25277,7 +25289,7 @@
     </row>
     <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5"/>
-      <c r="B819" s="16"/>
+      <c r="B819" s="9"/>
       <c r="C819" s="5"/>
       <c r="D819" s="5"/>
       <c r="E819" s="5"/>
@@ -25306,7 +25318,7 @@
     </row>
     <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5"/>
-      <c r="B820" s="16"/>
+      <c r="B820" s="9"/>
       <c r="C820" s="5"/>
       <c r="D820" s="5"/>
       <c r="E820" s="5"/>
@@ -25335,7 +25347,7 @@
     </row>
     <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5"/>
-      <c r="B821" s="16"/>
+      <c r="B821" s="9"/>
       <c r="C821" s="5"/>
       <c r="D821" s="5"/>
       <c r="E821" s="5"/>
@@ -25364,7 +25376,7 @@
     </row>
     <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5"/>
-      <c r="B822" s="16"/>
+      <c r="B822" s="9"/>
       <c r="C822" s="5"/>
       <c r="D822" s="5"/>
       <c r="E822" s="5"/>
@@ -25393,7 +25405,7 @@
     </row>
     <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5"/>
-      <c r="B823" s="16"/>
+      <c r="B823" s="9"/>
       <c r="C823" s="5"/>
       <c r="D823" s="5"/>
       <c r="E823" s="5"/>
@@ -25422,7 +25434,7 @@
     </row>
     <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5"/>
-      <c r="B824" s="16"/>
+      <c r="B824" s="9"/>
       <c r="C824" s="5"/>
       <c r="D824" s="5"/>
       <c r="E824" s="5"/>
@@ -25451,7 +25463,7 @@
     </row>
     <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5"/>
-      <c r="B825" s="16"/>
+      <c r="B825" s="9"/>
       <c r="C825" s="5"/>
       <c r="D825" s="5"/>
       <c r="E825" s="5"/>
@@ -25480,7 +25492,7 @@
     </row>
     <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5"/>
-      <c r="B826" s="16"/>
+      <c r="B826" s="9"/>
       <c r="C826" s="5"/>
       <c r="D826" s="5"/>
       <c r="E826" s="5"/>
@@ -25509,7 +25521,7 @@
     </row>
     <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5"/>
-      <c r="B827" s="16"/>
+      <c r="B827" s="9"/>
       <c r="C827" s="5"/>
       <c r="D827" s="5"/>
       <c r="E827" s="5"/>
@@ -25538,7 +25550,7 @@
     </row>
     <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5"/>
-      <c r="B828" s="16"/>
+      <c r="B828" s="9"/>
       <c r="C828" s="5"/>
       <c r="D828" s="5"/>
       <c r="E828" s="5"/>
@@ -25567,7 +25579,7 @@
     </row>
     <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5"/>
-      <c r="B829" s="16"/>
+      <c r="B829" s="9"/>
       <c r="C829" s="5"/>
       <c r="D829" s="5"/>
       <c r="E829" s="5"/>
@@ -25596,7 +25608,7 @@
     </row>
     <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5"/>
-      <c r="B830" s="16"/>
+      <c r="B830" s="9"/>
       <c r="C830" s="5"/>
       <c r="D830" s="5"/>
       <c r="E830" s="5"/>
@@ -25625,7 +25637,7 @@
     </row>
     <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5"/>
-      <c r="B831" s="16"/>
+      <c r="B831" s="9"/>
       <c r="C831" s="5"/>
       <c r="D831" s="5"/>
       <c r="E831" s="5"/>
@@ -25654,7 +25666,7 @@
     </row>
     <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5"/>
-      <c r="B832" s="16"/>
+      <c r="B832" s="9"/>
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
       <c r="E832" s="5"/>
@@ -25683,7 +25695,7 @@
     </row>
     <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5"/>
-      <c r="B833" s="16"/>
+      <c r="B833" s="9"/>
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
       <c r="E833" s="5"/>
@@ -25712,7 +25724,7 @@
     </row>
     <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="5"/>
-      <c r="B834" s="16"/>
+      <c r="B834" s="9"/>
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
       <c r="E834" s="5"/>
@@ -25741,7 +25753,7 @@
     </row>
     <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5"/>
-      <c r="B835" s="16"/>
+      <c r="B835" s="9"/>
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
       <c r="E835" s="5"/>
@@ -25770,7 +25782,7 @@
     </row>
     <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5"/>
-      <c r="B836" s="16"/>
+      <c r="B836" s="9"/>
       <c r="C836" s="5"/>
       <c r="D836" s="5"/>
       <c r="E836" s="5"/>
@@ -25799,7 +25811,7 @@
     </row>
     <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5"/>
-      <c r="B837" s="16"/>
+      <c r="B837" s="9"/>
       <c r="C837" s="5"/>
       <c r="D837" s="5"/>
       <c r="E837" s="5"/>
@@ -25828,7 +25840,7 @@
     </row>
     <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5"/>
-      <c r="B838" s="16"/>
+      <c r="B838" s="9"/>
       <c r="C838" s="5"/>
       <c r="D838" s="5"/>
       <c r="E838" s="5"/>
@@ -25857,7 +25869,7 @@
     </row>
     <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5"/>
-      <c r="B839" s="16"/>
+      <c r="B839" s="9"/>
       <c r="C839" s="5"/>
       <c r="D839" s="5"/>
       <c r="E839" s="5"/>
@@ -25886,7 +25898,7 @@
     </row>
     <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5"/>
-      <c r="B840" s="16"/>
+      <c r="B840" s="9"/>
       <c r="C840" s="5"/>
       <c r="D840" s="5"/>
       <c r="E840" s="5"/>
@@ -25915,7 +25927,7 @@
     </row>
     <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5"/>
-      <c r="B841" s="16"/>
+      <c r="B841" s="9"/>
       <c r="C841" s="5"/>
       <c r="D841" s="5"/>
       <c r="E841" s="5"/>
@@ -25944,7 +25956,7 @@
     </row>
     <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="5"/>
-      <c r="B842" s="16"/>
+      <c r="B842" s="9"/>
       <c r="C842" s="5"/>
       <c r="D842" s="5"/>
       <c r="E842" s="5"/>
@@ -25973,7 +25985,7 @@
     </row>
     <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="5"/>
-      <c r="B843" s="16"/>
+      <c r="B843" s="9"/>
       <c r="C843" s="5"/>
       <c r="D843" s="5"/>
       <c r="E843" s="5"/>
@@ -26002,7 +26014,7 @@
     </row>
     <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="5"/>
-      <c r="B844" s="16"/>
+      <c r="B844" s="9"/>
       <c r="C844" s="5"/>
       <c r="D844" s="5"/>
       <c r="E844" s="5"/>
@@ -26031,7 +26043,7 @@
     </row>
     <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="5"/>
-      <c r="B845" s="16"/>
+      <c r="B845" s="9"/>
       <c r="C845" s="5"/>
       <c r="D845" s="5"/>
       <c r="E845" s="5"/>
@@ -26060,7 +26072,7 @@
     </row>
     <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="5"/>
-      <c r="B846" s="16"/>
+      <c r="B846" s="9"/>
       <c r="C846" s="5"/>
       <c r="D846" s="5"/>
       <c r="E846" s="5"/>
@@ -26089,7 +26101,7 @@
     </row>
     <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="5"/>
-      <c r="B847" s="16"/>
+      <c r="B847" s="9"/>
       <c r="C847" s="5"/>
       <c r="D847" s="5"/>
       <c r="E847" s="5"/>
@@ -26118,7 +26130,7 @@
     </row>
     <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="5"/>
-      <c r="B848" s="16"/>
+      <c r="B848" s="9"/>
       <c r="C848" s="5"/>
       <c r="D848" s="5"/>
       <c r="E848" s="5"/>
@@ -26147,7 +26159,7 @@
     </row>
     <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="5"/>
-      <c r="B849" s="16"/>
+      <c r="B849" s="9"/>
       <c r="C849" s="5"/>
       <c r="D849" s="5"/>
       <c r="E849" s="5"/>
@@ -26176,7 +26188,7 @@
     </row>
     <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="5"/>
-      <c r="B850" s="16"/>
+      <c r="B850" s="9"/>
       <c r="C850" s="5"/>
       <c r="D850" s="5"/>
       <c r="E850" s="5"/>
@@ -26205,7 +26217,7 @@
     </row>
     <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="5"/>
-      <c r="B851" s="16"/>
+      <c r="B851" s="9"/>
       <c r="C851" s="5"/>
       <c r="D851" s="5"/>
       <c r="E851" s="5"/>
@@ -26234,7 +26246,7 @@
     </row>
     <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="5"/>
-      <c r="B852" s="16"/>
+      <c r="B852" s="9"/>
       <c r="C852" s="5"/>
       <c r="D852" s="5"/>
       <c r="E852" s="5"/>
@@ -26263,7 +26275,7 @@
     </row>
     <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="5"/>
-      <c r="B853" s="16"/>
+      <c r="B853" s="9"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="5"/>
@@ -26292,7 +26304,7 @@
     </row>
     <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="5"/>
-      <c r="B854" s="16"/>
+      <c r="B854" s="9"/>
       <c r="C854" s="5"/>
       <c r="D854" s="5"/>
       <c r="E854" s="5"/>
@@ -26321,7 +26333,7 @@
     </row>
     <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="5"/>
-      <c r="B855" s="16"/>
+      <c r="B855" s="9"/>
       <c r="C855" s="5"/>
       <c r="D855" s="5"/>
       <c r="E855" s="5"/>
@@ -26350,7 +26362,7 @@
     </row>
     <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="5"/>
-      <c r="B856" s="16"/>
+      <c r="B856" s="9"/>
       <c r="C856" s="5"/>
       <c r="D856" s="5"/>
       <c r="E856" s="5"/>
@@ -26379,7 +26391,7 @@
     </row>
     <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="5"/>
-      <c r="B857" s="16"/>
+      <c r="B857" s="9"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="5"/>
@@ -26408,7 +26420,7 @@
     </row>
     <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="5"/>
-      <c r="B858" s="16"/>
+      <c r="B858" s="9"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="5"/>
@@ -26437,7 +26449,7 @@
     </row>
     <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="5"/>
-      <c r="B859" s="16"/>
+      <c r="B859" s="9"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="5"/>
@@ -26466,7 +26478,7 @@
     </row>
     <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="5"/>
-      <c r="B860" s="16"/>
+      <c r="B860" s="9"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="5"/>
@@ -26495,7 +26507,7 @@
     </row>
     <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="5"/>
-      <c r="B861" s="16"/>
+      <c r="B861" s="9"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="5"/>
@@ -26524,7 +26536,7 @@
     </row>
     <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="5"/>
-      <c r="B862" s="16"/>
+      <c r="B862" s="9"/>
       <c r="C862" s="5"/>
       <c r="D862" s="5"/>
       <c r="E862" s="5"/>
@@ -26553,7 +26565,7 @@
     </row>
     <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="5"/>
-      <c r="B863" s="16"/>
+      <c r="B863" s="9"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="5"/>
@@ -26582,7 +26594,7 @@
     </row>
     <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="5"/>
-      <c r="B864" s="16"/>
+      <c r="B864" s="9"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
       <c r="E864" s="5"/>
@@ -26611,7 +26623,7 @@
     </row>
     <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="5"/>
-      <c r="B865" s="16"/>
+      <c r="B865" s="9"/>
       <c r="C865" s="5"/>
       <c r="D865" s="5"/>
       <c r="E865" s="5"/>
@@ -26640,7 +26652,7 @@
     </row>
     <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="5"/>
-      <c r="B866" s="16"/>
+      <c r="B866" s="9"/>
       <c r="C866" s="5"/>
       <c r="D866" s="5"/>
       <c r="E866" s="5"/>
@@ -26669,7 +26681,7 @@
     </row>
     <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="5"/>
-      <c r="B867" s="16"/>
+      <c r="B867" s="9"/>
       <c r="C867" s="5"/>
       <c r="D867" s="5"/>
       <c r="E867" s="5"/>
@@ -26698,7 +26710,7 @@
     </row>
     <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="5"/>
-      <c r="B868" s="16"/>
+      <c r="B868" s="9"/>
       <c r="C868" s="5"/>
       <c r="D868" s="5"/>
       <c r="E868" s="5"/>
@@ -26727,7 +26739,7 @@
     </row>
     <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="5"/>
-      <c r="B869" s="16"/>
+      <c r="B869" s="9"/>
       <c r="C869" s="5"/>
       <c r="D869" s="5"/>
       <c r="E869" s="5"/>
@@ -26756,7 +26768,7 @@
     </row>
     <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="5"/>
-      <c r="B870" s="16"/>
+      <c r="B870" s="9"/>
       <c r="C870" s="5"/>
       <c r="D870" s="5"/>
       <c r="E870" s="5"/>
@@ -26785,7 +26797,7 @@
     </row>
     <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="5"/>
-      <c r="B871" s="16"/>
+      <c r="B871" s="9"/>
       <c r="C871" s="5"/>
       <c r="D871" s="5"/>
       <c r="E871" s="5"/>
@@ -26814,7 +26826,7 @@
     </row>
     <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="5"/>
-      <c r="B872" s="16"/>
+      <c r="B872" s="9"/>
       <c r="C872" s="5"/>
       <c r="D872" s="5"/>
       <c r="E872" s="5"/>
@@ -26843,7 +26855,7 @@
     </row>
     <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="5"/>
-      <c r="B873" s="16"/>
+      <c r="B873" s="9"/>
       <c r="C873" s="5"/>
       <c r="D873" s="5"/>
       <c r="E873" s="5"/>
@@ -26872,7 +26884,7 @@
     </row>
     <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="5"/>
-      <c r="B874" s="16"/>
+      <c r="B874" s="9"/>
       <c r="C874" s="5"/>
       <c r="D874" s="5"/>
       <c r="E874" s="5"/>
@@ -26901,7 +26913,7 @@
     </row>
     <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="5"/>
-      <c r="B875" s="16"/>
+      <c r="B875" s="9"/>
       <c r="C875" s="5"/>
       <c r="D875" s="5"/>
       <c r="E875" s="5"/>
@@ -26930,7 +26942,7 @@
     </row>
     <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="5"/>
-      <c r="B876" s="16"/>
+      <c r="B876" s="9"/>
       <c r="C876" s="5"/>
       <c r="D876" s="5"/>
       <c r="E876" s="5"/>
@@ -26959,7 +26971,7 @@
     </row>
     <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="5"/>
-      <c r="B877" s="16"/>
+      <c r="B877" s="9"/>
       <c r="C877" s="5"/>
       <c r="D877" s="5"/>
       <c r="E877" s="5"/>
@@ -26988,7 +27000,7 @@
     </row>
     <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="5"/>
-      <c r="B878" s="16"/>
+      <c r="B878" s="9"/>
       <c r="C878" s="5"/>
       <c r="D878" s="5"/>
       <c r="E878" s="5"/>
@@ -27017,7 +27029,7 @@
     </row>
     <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="5"/>
-      <c r="B879" s="16"/>
+      <c r="B879" s="9"/>
       <c r="C879" s="5"/>
       <c r="D879" s="5"/>
       <c r="E879" s="5"/>
@@ -27046,7 +27058,7 @@
     </row>
     <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="5"/>
-      <c r="B880" s="16"/>
+      <c r="B880" s="9"/>
       <c r="C880" s="5"/>
       <c r="D880" s="5"/>
       <c r="E880" s="5"/>
@@ -27075,7 +27087,7 @@
     </row>
     <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="5"/>
-      <c r="B881" s="16"/>
+      <c r="B881" s="9"/>
       <c r="C881" s="5"/>
       <c r="D881" s="5"/>
       <c r="E881" s="5"/>
@@ -27104,7 +27116,7 @@
     </row>
     <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="5"/>
-      <c r="B882" s="16"/>
+      <c r="B882" s="9"/>
       <c r="C882" s="5"/>
       <c r="D882" s="5"/>
       <c r="E882" s="5"/>
@@ -27133,7 +27145,7 @@
     </row>
     <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="5"/>
-      <c r="B883" s="16"/>
+      <c r="B883" s="9"/>
       <c r="C883" s="5"/>
       <c r="D883" s="5"/>
       <c r="E883" s="5"/>
@@ -27162,7 +27174,7 @@
     </row>
     <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="5"/>
-      <c r="B884" s="16"/>
+      <c r="B884" s="9"/>
       <c r="C884" s="5"/>
       <c r="D884" s="5"/>
       <c r="E884" s="5"/>
@@ -27191,7 +27203,7 @@
     </row>
     <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="5"/>
-      <c r="B885" s="16"/>
+      <c r="B885" s="9"/>
       <c r="C885" s="5"/>
       <c r="D885" s="5"/>
       <c r="E885" s="5"/>
@@ -27220,7 +27232,7 @@
     </row>
     <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="5"/>
-      <c r="B886" s="16"/>
+      <c r="B886" s="9"/>
       <c r="C886" s="5"/>
       <c r="D886" s="5"/>
       <c r="E886" s="5"/>
@@ -27249,7 +27261,7 @@
     </row>
     <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="5"/>
-      <c r="B887" s="16"/>
+      <c r="B887" s="9"/>
       <c r="C887" s="5"/>
       <c r="D887" s="5"/>
       <c r="E887" s="5"/>
@@ -27278,7 +27290,7 @@
     </row>
     <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="5"/>
-      <c r="B888" s="16"/>
+      <c r="B888" s="9"/>
       <c r="C888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="5"/>
@@ -27307,7 +27319,7 @@
     </row>
     <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="5"/>
-      <c r="B889" s="16"/>
+      <c r="B889" s="9"/>
       <c r="C889" s="5"/>
       <c r="D889" s="5"/>
       <c r="E889" s="5"/>
@@ -27336,7 +27348,7 @@
     </row>
     <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="5"/>
-      <c r="B890" s="16"/>
+      <c r="B890" s="9"/>
       <c r="C890" s="5"/>
       <c r="D890" s="5"/>
       <c r="E890" s="5"/>
@@ -27365,7 +27377,7 @@
     </row>
     <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="5"/>
-      <c r="B891" s="16"/>
+      <c r="B891" s="9"/>
       <c r="C891" s="5"/>
       <c r="D891" s="5"/>
       <c r="E891" s="5"/>
@@ -27394,7 +27406,7 @@
     </row>
     <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="5"/>
-      <c r="B892" s="16"/>
+      <c r="B892" s="9"/>
       <c r="C892" s="5"/>
       <c r="D892" s="5"/>
       <c r="E892" s="5"/>
@@ -27423,7 +27435,7 @@
     </row>
     <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="5"/>
-      <c r="B893" s="16"/>
+      <c r="B893" s="9"/>
       <c r="C893" s="5"/>
       <c r="D893" s="5"/>
       <c r="E893" s="5"/>
@@ -27452,7 +27464,7 @@
     </row>
     <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="5"/>
-      <c r="B894" s="16"/>
+      <c r="B894" s="9"/>
       <c r="C894" s="5"/>
       <c r="D894" s="5"/>
       <c r="E894" s="5"/>
@@ -27481,7 +27493,7 @@
     </row>
     <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="5"/>
-      <c r="B895" s="16"/>
+      <c r="B895" s="9"/>
       <c r="C895" s="5"/>
       <c r="D895" s="5"/>
       <c r="E895" s="5"/>
@@ -27510,7 +27522,7 @@
     </row>
     <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="5"/>
-      <c r="B896" s="16"/>
+      <c r="B896" s="9"/>
       <c r="C896" s="5"/>
       <c r="D896" s="5"/>
       <c r="E896" s="5"/>
@@ -27539,7 +27551,7 @@
     </row>
     <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="5"/>
-      <c r="B897" s="16"/>
+      <c r="B897" s="9"/>
       <c r="C897" s="5"/>
       <c r="D897" s="5"/>
       <c r="E897" s="5"/>
@@ -27568,7 +27580,7 @@
     </row>
     <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="5"/>
-      <c r="B898" s="16"/>
+      <c r="B898" s="9"/>
       <c r="C898" s="5"/>
       <c r="D898" s="5"/>
       <c r="E898" s="5"/>
@@ -27597,7 +27609,7 @@
     </row>
     <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="5"/>
-      <c r="B899" s="16"/>
+      <c r="B899" s="9"/>
       <c r="C899" s="5"/>
       <c r="D899" s="5"/>
       <c r="E899" s="5"/>
@@ -27626,7 +27638,7 @@
     </row>
     <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="5"/>
-      <c r="B900" s="16"/>
+      <c r="B900" s="9"/>
       <c r="C900" s="5"/>
       <c r="D900" s="5"/>
       <c r="E900" s="5"/>
@@ -27655,7 +27667,7 @@
     </row>
     <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="5"/>
-      <c r="B901" s="16"/>
+      <c r="B901" s="9"/>
       <c r="C901" s="5"/>
       <c r="D901" s="5"/>
       <c r="E901" s="5"/>
@@ -27684,7 +27696,7 @@
     </row>
     <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="5"/>
-      <c r="B902" s="16"/>
+      <c r="B902" s="9"/>
       <c r="C902" s="5"/>
       <c r="D902" s="5"/>
       <c r="E902" s="5"/>
@@ -27713,7 +27725,7 @@
     </row>
     <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="5"/>
-      <c r="B903" s="16"/>
+      <c r="B903" s="9"/>
       <c r="C903" s="5"/>
       <c r="D903" s="5"/>
       <c r="E903" s="5"/>
@@ -27742,7 +27754,7 @@
     </row>
     <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="5"/>
-      <c r="B904" s="16"/>
+      <c r="B904" s="9"/>
       <c r="C904" s="5"/>
       <c r="D904" s="5"/>
       <c r="E904" s="5"/>
@@ -27771,7 +27783,7 @@
     </row>
     <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="5"/>
-      <c r="B905" s="16"/>
+      <c r="B905" s="9"/>
       <c r="C905" s="5"/>
       <c r="D905" s="5"/>
       <c r="E905" s="5"/>
@@ -27800,7 +27812,7 @@
     </row>
     <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="5"/>
-      <c r="B906" s="16"/>
+      <c r="B906" s="9"/>
       <c r="C906" s="5"/>
       <c r="D906" s="5"/>
       <c r="E906" s="5"/>
@@ -27829,7 +27841,7 @@
     </row>
     <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="5"/>
-      <c r="B907" s="16"/>
+      <c r="B907" s="9"/>
       <c r="C907" s="5"/>
       <c r="D907" s="5"/>
       <c r="E907" s="5"/>
@@ -27858,7 +27870,7 @@
     </row>
     <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="5"/>
-      <c r="B908" s="16"/>
+      <c r="B908" s="9"/>
       <c r="C908" s="5"/>
       <c r="D908" s="5"/>
       <c r="E908" s="5"/>
@@ -27887,7 +27899,7 @@
     </row>
     <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="5"/>
-      <c r="B909" s="16"/>
+      <c r="B909" s="9"/>
       <c r="C909" s="5"/>
       <c r="D909" s="5"/>
       <c r="E909" s="5"/>
@@ -27916,7 +27928,7 @@
     </row>
     <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="5"/>
-      <c r="B910" s="16"/>
+      <c r="B910" s="9"/>
       <c r="C910" s="5"/>
       <c r="D910" s="5"/>
       <c r="E910" s="5"/>
@@ -27945,7 +27957,7 @@
     </row>
     <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="5"/>
-      <c r="B911" s="16"/>
+      <c r="B911" s="9"/>
       <c r="C911" s="5"/>
       <c r="D911" s="5"/>
       <c r="E911" s="5"/>
@@ -27974,7 +27986,7 @@
     </row>
     <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="5"/>
-      <c r="B912" s="16"/>
+      <c r="B912" s="9"/>
       <c r="C912" s="5"/>
       <c r="D912" s="5"/>
       <c r="E912" s="5"/>
@@ -28003,7 +28015,7 @@
     </row>
     <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="5"/>
-      <c r="B913" s="16"/>
+      <c r="B913" s="9"/>
       <c r="C913" s="5"/>
       <c r="D913" s="5"/>
       <c r="E913" s="5"/>
@@ -28032,7 +28044,7 @@
     </row>
     <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="5"/>
-      <c r="B914" s="16"/>
+      <c r="B914" s="9"/>
       <c r="C914" s="5"/>
       <c r="D914" s="5"/>
       <c r="E914" s="5"/>
@@ -28061,7 +28073,7 @@
     </row>
     <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="5"/>
-      <c r="B915" s="16"/>
+      <c r="B915" s="9"/>
       <c r="C915" s="5"/>
       <c r="D915" s="5"/>
       <c r="E915" s="5"/>
@@ -28090,7 +28102,7 @@
     </row>
     <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="5"/>
-      <c r="B916" s="16"/>
+      <c r="B916" s="9"/>
       <c r="C916" s="5"/>
       <c r="D916" s="5"/>
       <c r="E916" s="5"/>
@@ -28119,7 +28131,7 @@
     </row>
     <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="5"/>
-      <c r="B917" s="16"/>
+      <c r="B917" s="9"/>
       <c r="C917" s="5"/>
       <c r="D917" s="5"/>
       <c r="E917" s="5"/>
@@ -28148,7 +28160,7 @@
     </row>
     <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="5"/>
-      <c r="B918" s="16"/>
+      <c r="B918" s="9"/>
       <c r="C918" s="5"/>
       <c r="D918" s="5"/>
       <c r="E918" s="5"/>
@@ -28177,7 +28189,7 @@
     </row>
     <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="5"/>
-      <c r="B919" s="16"/>
+      <c r="B919" s="9"/>
       <c r="C919" s="5"/>
       <c r="D919" s="5"/>
       <c r="E919" s="5"/>
@@ -28206,7 +28218,7 @@
     </row>
     <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="5"/>
-      <c r="B920" s="16"/>
+      <c r="B920" s="9"/>
       <c r="C920" s="5"/>
       <c r="D920" s="5"/>
       <c r="E920" s="5"/>
@@ -28235,7 +28247,7 @@
     </row>
     <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="5"/>
-      <c r="B921" s="16"/>
+      <c r="B921" s="9"/>
       <c r="C921" s="5"/>
       <c r="D921" s="5"/>
       <c r="E921" s="5"/>
@@ -28264,7 +28276,7 @@
     </row>
     <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="5"/>
-      <c r="B922" s="16"/>
+      <c r="B922" s="9"/>
       <c r="C922" s="5"/>
       <c r="D922" s="5"/>
       <c r="E922" s="5"/>
@@ -28293,7 +28305,7 @@
     </row>
     <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="5"/>
-      <c r="B923" s="16"/>
+      <c r="B923" s="9"/>
       <c r="C923" s="5"/>
       <c r="D923" s="5"/>
       <c r="E923" s="5"/>
@@ -28322,7 +28334,7 @@
     </row>
     <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="5"/>
-      <c r="B924" s="16"/>
+      <c r="B924" s="9"/>
       <c r="C924" s="5"/>
       <c r="D924" s="5"/>
       <c r="E924" s="5"/>
@@ -28351,7 +28363,7 @@
     </row>
     <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="5"/>
-      <c r="B925" s="16"/>
+      <c r="B925" s="9"/>
       <c r="C925" s="5"/>
       <c r="D925" s="5"/>
       <c r="E925" s="5"/>
@@ -28380,7 +28392,7 @@
     </row>
     <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="5"/>
-      <c r="B926" s="16"/>
+      <c r="B926" s="9"/>
       <c r="C926" s="5"/>
       <c r="D926" s="5"/>
       <c r="E926" s="5"/>
@@ -28409,7 +28421,7 @@
     </row>
     <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="5"/>
-      <c r="B927" s="16"/>
+      <c r="B927" s="9"/>
       <c r="C927" s="5"/>
       <c r="D927" s="5"/>
       <c r="E927" s="5"/>
@@ -28438,7 +28450,7 @@
     </row>
     <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="5"/>
-      <c r="B928" s="16"/>
+      <c r="B928" s="9"/>
       <c r="C928" s="5"/>
       <c r="D928" s="5"/>
       <c r="E928" s="5"/>
@@ -28467,7 +28479,7 @@
     </row>
     <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="5"/>
-      <c r="B929" s="16"/>
+      <c r="B929" s="9"/>
       <c r="C929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="5"/>
@@ -28496,7 +28508,7 @@
     </row>
     <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="5"/>
-      <c r="B930" s="16"/>
+      <c r="B930" s="9"/>
       <c r="C930" s="5"/>
       <c r="D930" s="5"/>
       <c r="E930" s="5"/>
@@ -28525,7 +28537,7 @@
     </row>
     <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="5"/>
-      <c r="B931" s="16"/>
+      <c r="B931" s="9"/>
       <c r="C931" s="5"/>
       <c r="D931" s="5"/>
       <c r="E931" s="5"/>
@@ -28554,7 +28566,7 @@
     </row>
     <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="5"/>
-      <c r="B932" s="16"/>
+      <c r="B932" s="9"/>
       <c r="C932" s="5"/>
       <c r="D932" s="5"/>
       <c r="E932" s="5"/>
@@ -28583,7 +28595,7 @@
     </row>
     <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="5"/>
-      <c r="B933" s="16"/>
+      <c r="B933" s="9"/>
       <c r="C933" s="5"/>
       <c r="D933" s="5"/>
       <c r="E933" s="5"/>
@@ -28612,7 +28624,7 @@
     </row>
     <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="5"/>
-      <c r="B934" s="16"/>
+      <c r="B934" s="9"/>
       <c r="C934" s="5"/>
       <c r="D934" s="5"/>
       <c r="E934" s="5"/>
@@ -28641,7 +28653,7 @@
     </row>
     <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="5"/>
-      <c r="B935" s="16"/>
+      <c r="B935" s="9"/>
       <c r="C935" s="5"/>
       <c r="D935" s="5"/>
       <c r="E935" s="5"/>
@@ -28670,7 +28682,7 @@
     </row>
     <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="5"/>
-      <c r="B936" s="16"/>
+      <c r="B936" s="9"/>
       <c r="C936" s="5"/>
       <c r="D936" s="5"/>
       <c r="E936" s="5"/>
@@ -28699,7 +28711,7 @@
     </row>
     <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="5"/>
-      <c r="B937" s="16"/>
+      <c r="B937" s="9"/>
       <c r="C937" s="5"/>
       <c r="D937" s="5"/>
       <c r="E937" s="5"/>
@@ -28728,7 +28740,7 @@
     </row>
     <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="5"/>
-      <c r="B938" s="16"/>
+      <c r="B938" s="9"/>
       <c r="C938" s="5"/>
       <c r="D938" s="5"/>
       <c r="E938" s="5"/>
@@ -28757,7 +28769,7 @@
     </row>
     <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="5"/>
-      <c r="B939" s="16"/>
+      <c r="B939" s="9"/>
       <c r="C939" s="5"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
@@ -28786,7 +28798,7 @@
     </row>
     <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="5"/>
-      <c r="B940" s="16"/>
+      <c r="B940" s="9"/>
       <c r="C940" s="5"/>
       <c r="D940" s="5"/>
       <c r="E940" s="5"/>
@@ -28815,7 +28827,7 @@
     </row>
     <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="5"/>
-      <c r="B941" s="16"/>
+      <c r="B941" s="9"/>
       <c r="C941" s="5"/>
       <c r="D941" s="5"/>
       <c r="E941" s="5"/>
@@ -28844,7 +28856,7 @@
     </row>
     <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="5"/>
-      <c r="B942" s="16"/>
+      <c r="B942" s="9"/>
       <c r="C942" s="5"/>
       <c r="D942" s="5"/>
       <c r="E942" s="5"/>
@@ -28873,7 +28885,7 @@
     </row>
     <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="5"/>
-      <c r="B943" s="16"/>
+      <c r="B943" s="9"/>
       <c r="C943" s="5"/>
       <c r="D943" s="5"/>
       <c r="E943" s="5"/>
@@ -28902,7 +28914,7 @@
     </row>
     <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="5"/>
-      <c r="B944" s="16"/>
+      <c r="B944" s="9"/>
       <c r="C944" s="5"/>
       <c r="D944" s="5"/>
       <c r="E944" s="5"/>
@@ -28931,7 +28943,7 @@
     </row>
     <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="5"/>
-      <c r="B945" s="16"/>
+      <c r="B945" s="9"/>
       <c r="C945" s="5"/>
       <c r="D945" s="5"/>
       <c r="E945" s="5"/>
@@ -28960,7 +28972,7 @@
     </row>
     <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="5"/>
-      <c r="B946" s="16"/>
+      <c r="B946" s="9"/>
       <c r="C946" s="5"/>
       <c r="D946" s="5"/>
       <c r="E946" s="5"/>
@@ -28989,7 +29001,7 @@
     </row>
     <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="5"/>
-      <c r="B947" s="16"/>
+      <c r="B947" s="9"/>
       <c r="C947" s="5"/>
       <c r="D947" s="5"/>
       <c r="E947" s="5"/>
@@ -29018,7 +29030,7 @@
     </row>
     <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="5"/>
-      <c r="B948" s="16"/>
+      <c r="B948" s="9"/>
       <c r="C948" s="5"/>
       <c r="D948" s="5"/>
       <c r="E948" s="5"/>
@@ -29047,7 +29059,7 @@
     </row>
     <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="5"/>
-      <c r="B949" s="16"/>
+      <c r="B949" s="9"/>
       <c r="C949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="5"/>
@@ -29076,7 +29088,7 @@
     </row>
     <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="5"/>
-      <c r="B950" s="16"/>
+      <c r="B950" s="9"/>
       <c r="C950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="5"/>
@@ -29105,7 +29117,7 @@
     </row>
     <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="5"/>
-      <c r="B951" s="16"/>
+      <c r="B951" s="9"/>
       <c r="C951" s="5"/>
       <c r="D951" s="5"/>
       <c r="E951" s="5"/>
@@ -29134,7 +29146,7 @@
     </row>
     <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="5"/>
-      <c r="B952" s="16"/>
+      <c r="B952" s="9"/>
       <c r="C952" s="5"/>
       <c r="D952" s="5"/>
       <c r="E952" s="5"/>
@@ -29163,7 +29175,7 @@
     </row>
     <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="5"/>
-      <c r="B953" s="16"/>
+      <c r="B953" s="9"/>
       <c r="C953" s="5"/>
       <c r="D953" s="5"/>
       <c r="E953" s="5"/>
@@ -29192,7 +29204,7 @@
     </row>
     <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="5"/>
-      <c r="B954" s="16"/>
+      <c r="B954" s="9"/>
       <c r="C954" s="5"/>
       <c r="D954" s="5"/>
       <c r="E954" s="5"/>
@@ -29221,7 +29233,7 @@
     </row>
     <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="5"/>
-      <c r="B955" s="16"/>
+      <c r="B955" s="9"/>
       <c r="C955" s="5"/>
       <c r="D955" s="5"/>
       <c r="E955" s="5"/>
@@ -29250,7 +29262,7 @@
     </row>
     <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="5"/>
-      <c r="B956" s="16"/>
+      <c r="B956" s="9"/>
       <c r="C956" s="5"/>
       <c r="D956" s="5"/>
       <c r="E956" s="5"/>
@@ -29279,7 +29291,7 @@
     </row>
     <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="5"/>
-      <c r="B957" s="16"/>
+      <c r="B957" s="9"/>
       <c r="C957" s="5"/>
       <c r="D957" s="5"/>
       <c r="E957" s="5"/>
@@ -29308,7 +29320,7 @@
     </row>
     <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="5"/>
-      <c r="B958" s="16"/>
+      <c r="B958" s="9"/>
       <c r="C958" s="5"/>
       <c r="D958" s="5"/>
       <c r="E958" s="5"/>
@@ -29337,7 +29349,7 @@
     </row>
     <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="5"/>
-      <c r="B959" s="16"/>
+      <c r="B959" s="9"/>
       <c r="C959" s="5"/>
       <c r="D959" s="5"/>
       <c r="E959" s="5"/>
@@ -29366,7 +29378,7 @@
     </row>
     <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="5"/>
-      <c r="B960" s="16"/>
+      <c r="B960" s="9"/>
       <c r="C960" s="5"/>
       <c r="D960" s="5"/>
       <c r="E960" s="5"/>
@@ -29395,7 +29407,7 @@
     </row>
     <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="5"/>
-      <c r="B961" s="16"/>
+      <c r="B961" s="9"/>
       <c r="C961" s="5"/>
       <c r="D961" s="5"/>
       <c r="E961" s="5"/>
@@ -29424,7 +29436,7 @@
     </row>
     <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="5"/>
-      <c r="B962" s="16"/>
+      <c r="B962" s="9"/>
       <c r="C962" s="5"/>
       <c r="D962" s="5"/>
       <c r="E962" s="5"/>
@@ -29453,7 +29465,7 @@
     </row>
     <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="5"/>
-      <c r="B963" s="16"/>
+      <c r="B963" s="9"/>
       <c r="C963" s="5"/>
       <c r="D963" s="5"/>
       <c r="E963" s="5"/>
@@ -29482,7 +29494,7 @@
     </row>
     <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="5"/>
-      <c r="B964" s="16"/>
+      <c r="B964" s="9"/>
       <c r="C964" s="5"/>
       <c r="D964" s="5"/>
       <c r="E964" s="5"/>
@@ -29511,7 +29523,7 @@
     </row>
     <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="5"/>
-      <c r="B965" s="16"/>
+      <c r="B965" s="9"/>
       <c r="C965" s="5"/>
       <c r="D965" s="5"/>
       <c r="E965" s="5"/>
@@ -29540,7 +29552,7 @@
     </row>
     <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="5"/>
-      <c r="B966" s="16"/>
+      <c r="B966" s="9"/>
       <c r="C966" s="5"/>
       <c r="D966" s="5"/>
       <c r="E966" s="5"/>
@@ -29569,7 +29581,7 @@
     </row>
     <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="5"/>
-      <c r="B967" s="16"/>
+      <c r="B967" s="9"/>
       <c r="C967" s="5"/>
       <c r="D967" s="5"/>
       <c r="E967" s="5"/>
@@ -29598,7 +29610,7 @@
     </row>
     <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="5"/>
-      <c r="B968" s="16"/>
+      <c r="B968" s="9"/>
       <c r="C968" s="5"/>
       <c r="D968" s="5"/>
       <c r="E968" s="5"/>
@@ -29627,7 +29639,7 @@
     </row>
     <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="5"/>
-      <c r="B969" s="16"/>
+      <c r="B969" s="9"/>
       <c r="C969" s="5"/>
       <c r="D969" s="5"/>
       <c r="E969" s="5"/>
@@ -29656,7 +29668,7 @@
     </row>
     <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="5"/>
-      <c r="B970" s="16"/>
+      <c r="B970" s="9"/>
       <c r="C970" s="5"/>
       <c r="D970" s="5"/>
       <c r="E970" s="5"/>
@@ -29685,7 +29697,7 @@
     </row>
     <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="5"/>
-      <c r="B971" s="16"/>
+      <c r="B971" s="9"/>
       <c r="C971" s="5"/>
       <c r="D971" s="5"/>
       <c r="E971" s="5"/>
@@ -29714,7 +29726,7 @@
     </row>
     <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="5"/>
-      <c r="B972" s="16"/>
+      <c r="B972" s="9"/>
       <c r="C972" s="5"/>
       <c r="D972" s="5"/>
       <c r="E972" s="5"/>
@@ -29743,7 +29755,7 @@
     </row>
     <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="5"/>
-      <c r="B973" s="16"/>
+      <c r="B973" s="9"/>
       <c r="C973" s="5"/>
       <c r="D973" s="5"/>
       <c r="E973" s="5"/>
@@ -29772,7 +29784,7 @@
     </row>
     <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="5"/>
-      <c r="B974" s="16"/>
+      <c r="B974" s="9"/>
       <c r="C974" s="5"/>
       <c r="D974" s="5"/>
       <c r="E974" s="5"/>
@@ -29801,7 +29813,7 @@
     </row>
     <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="5"/>
-      <c r="B975" s="16"/>
+      <c r="B975" s="9"/>
       <c r="C975" s="5"/>
       <c r="D975" s="5"/>
       <c r="E975" s="5"/>
@@ -29830,7 +29842,7 @@
     </row>
     <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="5"/>
-      <c r="B976" s="16"/>
+      <c r="B976" s="9"/>
       <c r="C976" s="5"/>
       <c r="D976" s="5"/>
       <c r="E976" s="5"/>
@@ -29859,7 +29871,7 @@
     </row>
     <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="5"/>
-      <c r="B977" s="16"/>
+      <c r="B977" s="9"/>
       <c r="C977" s="5"/>
       <c r="D977" s="5"/>
       <c r="E977" s="5"/>
@@ -29888,7 +29900,7 @@
     </row>
     <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="5"/>
-      <c r="B978" s="16"/>
+      <c r="B978" s="9"/>
       <c r="C978" s="5"/>
       <c r="D978" s="5"/>
       <c r="E978" s="5"/>
@@ -29917,7 +29929,7 @@
     </row>
     <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="5"/>
-      <c r="B979" s="16"/>
+      <c r="B979" s="9"/>
       <c r="C979" s="5"/>
       <c r="D979" s="5"/>
       <c r="E979" s="5"/>
@@ -29946,7 +29958,7 @@
     </row>
     <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="5"/>
-      <c r="B980" s="16"/>
+      <c r="B980" s="9"/>
       <c r="C980" s="5"/>
       <c r="D980" s="5"/>
       <c r="E980" s="5"/>
@@ -29975,7 +29987,7 @@
     </row>
     <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="5"/>
-      <c r="B981" s="16"/>
+      <c r="B981" s="9"/>
       <c r="C981" s="5"/>
       <c r="D981" s="5"/>
       <c r="E981" s="5"/>
@@ -30004,7 +30016,7 @@
     </row>
     <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="5"/>
-      <c r="B982" s="16"/>
+      <c r="B982" s="9"/>
       <c r="C982" s="5"/>
       <c r="D982" s="5"/>
       <c r="E982" s="5"/>
@@ -30033,7 +30045,7 @@
     </row>
     <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="5"/>
-      <c r="B983" s="16"/>
+      <c r="B983" s="9"/>
       <c r="C983" s="5"/>
       <c r="D983" s="5"/>
       <c r="E983" s="5"/>
@@ -30062,7 +30074,7 @@
     </row>
     <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="5"/>
-      <c r="B984" s="16"/>
+      <c r="B984" s="9"/>
       <c r="C984" s="5"/>
       <c r="D984" s="5"/>
       <c r="E984" s="5"/>
@@ -30091,7 +30103,7 @@
     </row>
     <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="5"/>
-      <c r="B985" s="16"/>
+      <c r="B985" s="9"/>
       <c r="C985" s="5"/>
       <c r="D985" s="5"/>
       <c r="E985" s="5"/>
@@ -30228,7 +30240,7 @@
     <mergeCell ref="A1:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G19">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
